--- a/trading_journal.xlsx
+++ b/trading_journal.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prasa\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deshmukp\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{9D7AEB72-1089-4FDB-8B4E-D3A6DD4F6E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46B5654-B043-4BE5-BDBA-0A58DA2AA740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{0B36B6A0-2720-41CF-B289-397E14AB5A0A}"/>
+    <workbookView xWindow="-25905" yWindow="-3555" windowWidth="26010" windowHeight="20985" xr2:uid="{0B36B6A0-2720-41CF-B289-397E14AB5A0A}"/>
   </bookViews>
   <sheets>
     <sheet name="trading_journal" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="60">
   <si>
     <t>Date</t>
   </si>
@@ -194,6 +207,12 @@
   </si>
   <si>
     <t>SL Hit</t>
+  </si>
+  <si>
+    <t>laurus labs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daimod patter </t>
   </si>
 </sst>
 </file>
@@ -755,9 +774,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -795,7 +814,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -901,7 +920,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1043,7 +1062,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1051,29 +1070,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8090FE0B-E5CF-476B-8F9F-EA27021FD68D}">
-  <dimension ref="A1:U18"/>
+  <dimension ref="A1:U24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="U18" sqref="A1:U18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.3828125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.765625" customWidth="1"/>
-    <col min="3" max="3" width="12.3828125" customWidth="1"/>
-    <col min="6" max="6" width="11.3046875" customWidth="1"/>
-    <col min="10" max="10" width="11.15234375" customWidth="1"/>
-    <col min="12" max="12" width="10.84375" customWidth="1"/>
+    <col min="1" max="1" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7265625" customWidth="1"/>
+    <col min="3" max="3" width="12.36328125" customWidth="1"/>
+    <col min="6" max="6" width="11.26953125" customWidth="1"/>
+    <col min="10" max="10" width="10.6328125" customWidth="1"/>
+    <col min="11" max="11" width="13.26953125" customWidth="1"/>
+    <col min="12" max="12" width="10.81640625" customWidth="1"/>
     <col min="13" max="13" width="23" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.3828125" customWidth="1"/>
-    <col min="17" max="17" width="15.23046875" customWidth="1"/>
-    <col min="19" max="19" width="8.69140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.3828125" customWidth="1"/>
+    <col min="15" max="15" width="19.36328125" customWidth="1"/>
+    <col min="17" max="17" width="15.26953125" customWidth="1"/>
+    <col min="19" max="19" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1138,7 +1158,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>45812</v>
       </c>
@@ -1195,9 +1215,9 @@
         <v>20058.708414872799</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
-        <v>45812</v>
+        <v>45820</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>27</v>
@@ -1260,9 +1280,9 @@
         <v>73696</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
-        <v>45812</v>
+        <v>45826</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>29</v>
@@ -1279,7 +1299,9 @@
       <c r="F4" s="1">
         <v>270</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1">
+        <v>267.62</v>
+      </c>
       <c r="H4" s="1">
         <f t="shared" si="0"/>
         <v>169.97167138810192</v>
@@ -1291,12 +1313,19 @@
         <f t="shared" si="1"/>
         <v>1.8696883852691213</v>
       </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
+      <c r="K4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L4" s="1">
+        <f>(G4-D4)*H4</f>
+        <v>5204.5325779036821</v>
+      </c>
       <c r="M4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N4" s="1"/>
+      <c r="N4" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1" t="s">
@@ -1306,18 +1335,18 @@
         <v>25</v>
       </c>
       <c r="S4" s="1">
-        <f t="shared" ref="S4:S18" si="3">L4</f>
-        <v>0</v>
+        <f t="shared" ref="S4:S24" si="3">L4</f>
+        <v>5204.5325779036821</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="U4" s="1">
         <f t="shared" si="2"/>
         <v>40283.286118980155</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>45812</v>
       </c>
@@ -1374,7 +1403,7 @@
         <v>47250</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>45812</v>
       </c>
@@ -1431,7 +1460,7 @@
         <v>50517.857142857138</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>45812</v>
       </c>
@@ -1488,9 +1517,9 @@
         <v>35379.310344827587</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
-        <v>45812</v>
+        <v>45826</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>37</v>
@@ -1507,10 +1536,11 @@
       <c r="F8" s="1">
         <v>424</v>
       </c>
-      <c r="G8" s="1"/>
+      <c r="G8" s="1">
+        <v>348.95</v>
+      </c>
       <c r="H8" s="1">
-        <f t="shared" si="0"/>
-        <v>176.47058823529412</v>
+        <v>176</v>
       </c>
       <c r="I8" s="1">
         <v>3000</v>
@@ -1519,12 +1549,19 @@
         <f t="shared" si="1"/>
         <v>3.3529411764705883</v>
       </c>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
+      <c r="K8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" ref="L8:L9" si="4">(G8-D8)*H8</f>
+        <v>-3176.800000000002</v>
+      </c>
       <c r="M8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N8" s="1"/>
+      <c r="N8" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1" t="s">
@@ -1535,17 +1572,17 @@
       </c>
       <c r="S8" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-3176.800000000002</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="U8" s="1">
         <f t="shared" si="2"/>
-        <v>64764.705882352944</v>
+        <v>64592</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>45812</v>
       </c>
@@ -1602,9 +1639,9 @@
         <v>53826.923076923078</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
-        <v>45812</v>
+        <v>45820</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>41</v>
@@ -1667,7 +1704,7 @@
         <v>49600</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>45812</v>
       </c>
@@ -1724,7 +1761,7 @@
         <v>32270.27027027027</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>45812</v>
       </c>
@@ -1781,7 +1818,7 @@
         <v>28421.05263157895</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>45812</v>
       </c>
@@ -1838,7 +1875,7 @@
         <v>51348.837209302321</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>45812</v>
       </c>
@@ -1895,7 +1932,7 @@
         <v>36403.846153846156</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>45812</v>
       </c>
@@ -1932,7 +1969,7 @@
         <v>50</v>
       </c>
       <c r="L15" s="1">
-        <f t="shared" ref="L11:L17" si="4">(G15-D15)*H15</f>
+        <f t="shared" ref="L15:L17" si="5">(G15-D15)*H15</f>
         <v>-2996.5116279069798</v>
       </c>
       <c r="M15" s="1" t="s">
@@ -1961,7 +1998,7 @@
         <v>56372.093023255809</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>45812</v>
       </c>
@@ -2018,7 +2055,7 @@
         <v>20081.25</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>45812</v>
       </c>
@@ -2054,7 +2091,7 @@
         <v>50</v>
       </c>
       <c r="L17" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1604.3999999999978</v>
       </c>
       <c r="M17" s="1" t="s">
@@ -2072,7 +2109,7 @@
         <v>25</v>
       </c>
       <c r="S17" s="1">
-        <f t="shared" ref="S17" si="5">L17</f>
+        <f t="shared" ref="S17" si="6">L17</f>
         <v>-1604.3999999999978</v>
       </c>
       <c r="T17" s="1" t="s">
@@ -2083,38 +2120,247 @@
         <v>30672</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
+        <v>45814</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="1">
+        <v>645</v>
+      </c>
+      <c r="E18" s="1">
+        <v>579.79999999999995</v>
+      </c>
+      <c r="F18" s="1">
+        <v>790</v>
+      </c>
       <c r="G18" s="1"/>
-      <c r="H18" s="1" t="e">
+      <c r="H18" s="1">
         <f>I18/(D18-E18)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1" t="e">
+        <v>46.012269938650277</v>
+      </c>
+      <c r="I18" s="1">
+        <v>3000</v>
+      </c>
+      <c r="J18" s="1">
         <f>(F18-D18)/(D18-E18)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
+        <v>2.2239263803680966</v>
+      </c>
+      <c r="M18" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>24</v>
+      </c>
+      <c r="R18" t="s">
+        <v>25</v>
+      </c>
       <c r="S18" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1" t="e">
+      <c r="T18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U18" s="1">
         <f>H18*D18</f>
+        <v>29677.914110429429</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1" t="e">
+        <f t="shared" ref="H19:H24" si="7">I19/(D19-E19)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1" t="e">
+        <f t="shared" ref="U19:U24" si="8">H19*D19</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
     </row>

--- a/trading_journal.xlsx
+++ b/trading_journal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deshmukp\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46B5654-B043-4BE5-BDBA-0A58DA2AA740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E1F633-F67D-4EFA-8D3E-2103ECE5D262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25905" yWindow="-3555" windowWidth="26010" windowHeight="20985" xr2:uid="{0B36B6A0-2720-41CF-B289-397E14AB5A0A}"/>
   </bookViews>
@@ -1072,8 +1072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8090FE0B-E5CF-476B-8F9F-EA27021FD68D}">
   <dimension ref="A1:U24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U18" sqref="A1:U18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1:T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1453,7 +1453,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="U6" s="1">
         <f t="shared" si="2"/>
@@ -1510,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="U7" s="1">
         <f t="shared" si="2"/>
@@ -1632,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="U9" s="1">
         <f t="shared" si="2"/>
@@ -1925,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="U14" s="1">
         <f t="shared" si="2"/>

--- a/trading_journal.xlsx
+++ b/trading_journal.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deshmukp\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E1F633-F67D-4EFA-8D3E-2103ECE5D262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52AD8544-1B52-4316-BBCC-A77512739C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25905" yWindow="-3555" windowWidth="26010" windowHeight="20985" xr2:uid="{0B36B6A0-2720-41CF-B289-397E14AB5A0A}"/>
   </bookViews>
   <sheets>
     <sheet name="trading_journal" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">trading_journal!$A$1:$U$22</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="56">
   <si>
     <t>Date</t>
   </si>
@@ -140,12 +143,6 @@
     <t>SBI Card</t>
   </si>
   <si>
-    <t>Orient Cement</t>
-  </si>
-  <si>
-    <t>Contraction</t>
-  </si>
-  <si>
     <t>KRBL</t>
   </si>
   <si>
@@ -165,12 +162,6 @@
   </si>
   <si>
     <t>RADICO KHAITAN</t>
-  </si>
-  <si>
-    <t>FORTIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Breakout </t>
   </si>
   <si>
     <t>INDIAN BANK</t>
@@ -1070,10 +1061,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8090FE0B-E5CF-476B-8F9F-EA27021FD68D}">
-  <dimension ref="A1:U24"/>
+  <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1:T18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1179,14 +1170,14 @@
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1">
-        <f t="shared" ref="H2:H15" si="0">I2/(D2-E2)</f>
+        <f>I2/(D2-E2)</f>
         <v>97.847358121330728</v>
       </c>
       <c r="I2" s="1">
         <v>3000</v>
       </c>
       <c r="J2" s="1">
-        <f t="shared" ref="J2:J15" si="1">(F2-D2)/(D2-E2)</f>
+        <f>(F2-D2)/(D2-E2)</f>
         <v>2.7071102413568169</v>
       </c>
       <c r="K2" s="1"/>
@@ -1211,55 +1202,47 @@
         <v>26</v>
       </c>
       <c r="U2" s="1">
-        <f t="shared" ref="U2:U15" si="2">H2*D2</f>
+        <f>H2*D2</f>
         <v>20058.708414872799</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
-        <v>45820</v>
+        <v>45812</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="1">
-        <v>1316</v>
+        <v>2016</v>
       </c>
       <c r="E3" s="1">
-        <v>1263</v>
+        <v>1888</v>
       </c>
       <c r="F3" s="1">
-        <v>1485</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1312.5</v>
-      </c>
+        <v>2400</v>
+      </c>
+      <c r="G3" s="1"/>
       <c r="H3" s="1">
-        <v>56</v>
+        <f>I3/(D3-E3)</f>
+        <v>23.4375</v>
       </c>
       <c r="I3" s="1">
         <v>3000</v>
       </c>
       <c r="J3" s="1">
-        <f t="shared" si="1"/>
-        <v>3.1886792452830188</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L3" s="1">
-        <f>(G3-D3)*H3</f>
-        <v>-196</v>
-      </c>
+        <f>(F3-D3)/(D3-E3)</f>
+        <v>3</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1" t="s">
@@ -1270,62 +1253,53 @@
       </c>
       <c r="S3" s="1">
         <f>L3</f>
-        <v>-196</v>
+        <v>0</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="U3" s="1">
-        <f t="shared" si="2"/>
-        <v>73696</v>
+        <f>H3*D3</f>
+        <v>47250</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
-        <v>45826</v>
+        <v>45812</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="1">
-        <v>237</v>
+        <v>943</v>
       </c>
       <c r="E4" s="1">
-        <v>219.35</v>
+        <v>887</v>
       </c>
       <c r="F4" s="1">
-        <v>270</v>
-      </c>
-      <c r="G4" s="1">
-        <v>267.62</v>
-      </c>
+        <v>1113</v>
+      </c>
+      <c r="G4" s="1"/>
       <c r="H4" s="1">
-        <f t="shared" si="0"/>
-        <v>169.97167138810192</v>
+        <f>I4/(D4-E4)</f>
+        <v>53.571428571428569</v>
       </c>
       <c r="I4" s="1">
         <v>3000</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" si="1"/>
-        <v>1.8696883852691213</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L4" s="1">
-        <f>(G4-D4)*H4</f>
-        <v>5204.5325779036821</v>
-      </c>
+        <f>(F4-D4)/(D4-E4)</f>
+        <v>3.0357142857142856</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
       <c r="M4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1" t="s">
@@ -1335,15 +1309,15 @@
         <v>25</v>
       </c>
       <c r="S4" s="1">
-        <f t="shared" ref="S4:S24" si="3">L4</f>
-        <v>5204.5325779036821</v>
+        <f>L4</f>
+        <v>0</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="U4" s="1">
-        <f t="shared" si="2"/>
-        <v>40283.286118980155</v>
+        <f>H4*D4</f>
+        <v>50517.857142857138</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.35">
@@ -1351,36 +1325,36 @@
         <v>45812</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="1">
-        <v>2016</v>
+        <v>1866</v>
       </c>
       <c r="E5" s="1">
-        <v>1888</v>
+        <v>1762</v>
       </c>
       <c r="F5" s="1">
-        <v>2400</v>
+        <v>2225</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1">
-        <f t="shared" si="0"/>
-        <v>23.4375</v>
+        <f>I5/(D5-E5)</f>
+        <v>28.846153846153847</v>
       </c>
       <c r="I5" s="1">
         <v>3000</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f>(F5-D5)/(D5-E5)</f>
+        <v>3.4519230769230771</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -1392,15 +1366,15 @@
         <v>25</v>
       </c>
       <c r="S5" s="1">
-        <f t="shared" si="3"/>
+        <f>L5</f>
         <v>0</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="U5" s="1">
-        <f t="shared" si="2"/>
-        <v>47250</v>
+        <f>H5*D5</f>
+        <v>53826.923076923078</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.35">
@@ -1408,36 +1382,36 @@
         <v>45812</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>943</v>
+        <v>199</v>
       </c>
       <c r="E6" s="1">
-        <v>887</v>
+        <v>180.5</v>
       </c>
       <c r="F6" s="1">
-        <v>1113</v>
+        <v>243</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1">
-        <f t="shared" si="0"/>
-        <v>53.571428571428569</v>
+        <f>I6/(D6-E6)</f>
+        <v>162.16216216216216</v>
       </c>
       <c r="I6" s="1">
         <v>3000</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="1"/>
-        <v>3.0357142857142856</v>
+        <f>(F6-D6)/(D6-E6)</f>
+        <v>2.3783783783783785</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -1449,15 +1423,15 @@
         <v>25</v>
       </c>
       <c r="S6" s="1">
-        <f t="shared" si="3"/>
+        <f>L6</f>
         <v>0</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>26</v>
       </c>
       <c r="U6" s="1">
-        <f t="shared" si="2"/>
-        <v>50517.857142857138</v>
+        <f>H6*D6</f>
+        <v>32270.27027027027</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.35">
@@ -1465,36 +1439,36 @@
         <v>45812</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="1">
-        <v>342</v>
+        <v>2700</v>
       </c>
       <c r="E7" s="1">
-        <v>313</v>
+        <v>2415</v>
       </c>
       <c r="F7" s="1">
-        <v>445</v>
+        <v>3151</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1">
-        <f t="shared" si="0"/>
-        <v>103.44827586206897</v>
+        <f>I7/(D7-E7)</f>
+        <v>10.526315789473685</v>
       </c>
       <c r="I7" s="1">
         <v>3000</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="1"/>
-        <v>3.5517241379310347</v>
+        <f>(F7-D7)/(D7-E7)</f>
+        <v>1.5824561403508772</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -1506,62 +1480,54 @@
         <v>25</v>
       </c>
       <c r="S7" s="1">
-        <f t="shared" si="3"/>
+        <f>L7</f>
         <v>0</v>
       </c>
       <c r="T7" s="1" t="s">
         <v>26</v>
       </c>
       <c r="U7" s="1">
-        <f t="shared" si="2"/>
-        <v>35379.310344827587</v>
+        <f>H7*D7</f>
+        <v>28421.05263157895</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
-        <v>45826</v>
+        <v>45812</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="1">
-        <v>367</v>
+        <v>631</v>
       </c>
       <c r="E8" s="1">
-        <v>350</v>
+        <v>579</v>
       </c>
       <c r="F8" s="1">
-        <v>424</v>
-      </c>
-      <c r="G8" s="1">
-        <v>348.95</v>
-      </c>
+        <v>760</v>
+      </c>
+      <c r="G8" s="1"/>
       <c r="H8" s="1">
-        <v>176</v>
+        <f>I8/(D8-E8)</f>
+        <v>57.692307692307693</v>
       </c>
       <c r="I8" s="1">
         <v>3000</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="1"/>
-        <v>3.3529411764705883</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L8" s="1">
-        <f t="shared" ref="L8:L9" si="4">(G8-D8)*H8</f>
-        <v>-3176.800000000002</v>
-      </c>
+        <f>(F8-D8)/(D8-E8)</f>
+        <v>2.4807692307692308</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
       <c r="M8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N8" s="1" t="s">
-        <v>57</v>
-      </c>
+      <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1" t="s">
@@ -1571,15 +1537,15 @@
         <v>25</v>
       </c>
       <c r="S8" s="1">
-        <f t="shared" si="3"/>
-        <v>-3176.800000000002</v>
+        <f>L8</f>
+        <v>0</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="U8" s="1">
-        <f t="shared" si="2"/>
-        <v>64592</v>
+        <f>H8*D8</f>
+        <v>36403.846153846156</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.35">
@@ -1587,38 +1553,47 @@
         <v>45812</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="1">
-        <v>1866</v>
+        <v>808</v>
       </c>
       <c r="E9" s="1">
-        <v>1762</v>
+        <v>765</v>
       </c>
       <c r="F9" s="1">
-        <v>2225</v>
-      </c>
-      <c r="G9" s="1"/>
+        <v>895</v>
+      </c>
+      <c r="G9" s="1">
+        <v>765.05</v>
+      </c>
       <c r="H9" s="1">
-        <f t="shared" si="0"/>
-        <v>28.846153846153847</v>
+        <f>I9/(D9-E9)</f>
+        <v>69.767441860465112</v>
       </c>
       <c r="I9" s="1">
         <v>3000</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="1"/>
-        <v>3.4519230769230771</v>
-      </c>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
+        <f>(F9-D9)/(D9-E9)</f>
+        <v>2.0232558139534884</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L9" s="1">
+        <f>(G9-D9)*H9</f>
+        <v>-2996.5116279069798</v>
+      </c>
       <c r="M9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N9" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1" t="s">
@@ -1628,62 +1603,54 @@
         <v>25</v>
       </c>
       <c r="S9" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>L9</f>
+        <v>-2996.5116279069798</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="U9" s="1">
-        <f t="shared" si="2"/>
-        <v>53826.923076923078</v>
+        <f>H9*D9</f>
+        <v>56372.093023255809</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
-        <v>45820</v>
+        <v>45812</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="1">
-        <v>1600</v>
+        <v>378</v>
       </c>
       <c r="E10" s="1">
-        <v>1505</v>
+        <v>346</v>
       </c>
       <c r="F10" s="1">
-        <v>1835</v>
-      </c>
-      <c r="G10" s="1">
-        <v>1832.8</v>
-      </c>
+        <v>488</v>
+      </c>
+      <c r="G10" s="1"/>
       <c r="H10" s="1">
-        <v>31</v>
+        <f>I10/(D10-E10)</f>
+        <v>53.125</v>
       </c>
       <c r="I10" s="1">
-        <v>3000</v>
+        <v>1700</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="1"/>
-        <v>2.4736842105263159</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L10" s="1">
-        <f>(G10-D10)*H10</f>
-        <v>7216.7999999999984</v>
-      </c>
+        <f>(F10-D10)/(D10-E10)</f>
+        <v>3.4375</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
       <c r="M10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>56</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1" t="s">
@@ -1693,15 +1660,15 @@
         <v>25</v>
       </c>
       <c r="S10" s="1">
-        <f t="shared" si="3"/>
-        <v>7216.7999999999984</v>
+        <f>L10</f>
+        <v>0</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="U10" s="1">
-        <f t="shared" si="2"/>
-        <v>49600</v>
+        <f>H10*D10</f>
+        <v>20081.25</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.35">
@@ -1709,38 +1676,46 @@
         <v>45812</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D11" s="1">
-        <v>199</v>
+        <v>1278</v>
       </c>
       <c r="E11" s="1">
-        <v>180.5</v>
+        <v>1212</v>
       </c>
       <c r="F11" s="1">
-        <v>243</v>
-      </c>
-      <c r="G11" s="1"/>
+        <v>1597</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1211.1500000000001</v>
+      </c>
       <c r="H11" s="1">
-        <f t="shared" si="0"/>
-        <v>162.16216216216216</v>
+        <v>24</v>
       </c>
       <c r="I11" s="1">
-        <v>3000</v>
+        <v>1600</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="1"/>
-        <v>2.3783783783783785</v>
-      </c>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
+        <f>(F11-D11)/(D11-E11)</f>
+        <v>4.833333333333333</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L11" s="1">
+        <f>(G11-D11)*H11</f>
+        <v>-1604.3999999999978</v>
+      </c>
       <c r="M11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N11" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1" t="s">
@@ -1750,52 +1725,52 @@
         <v>25</v>
       </c>
       <c r="S11" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>L11</f>
+        <v>-1604.3999999999978</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="U11" s="1">
-        <f t="shared" si="2"/>
-        <v>32270.27027027027</v>
+        <f>H11*D11</f>
+        <v>30672</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
-        <v>45812</v>
+        <v>45814</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D12" s="1">
-        <v>2700</v>
+        <v>645</v>
       </c>
       <c r="E12" s="1">
-        <v>2415</v>
+        <v>579.79999999999995</v>
       </c>
       <c r="F12" s="1">
-        <v>3151</v>
+        <v>790</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1">
-        <f t="shared" si="0"/>
-        <v>10.526315789473685</v>
+        <f>I12/(D12-E12)</f>
+        <v>46.012269938650277</v>
       </c>
       <c r="I12" s="1">
         <v>3000</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="1"/>
-        <v>1.5824561403508772</v>
+        <f>(F12-D12)/(D12-E12)</f>
+        <v>2.2239263803680966</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -1807,54 +1782,62 @@
         <v>25</v>
       </c>
       <c r="S12" s="1">
-        <f t="shared" si="3"/>
+        <f>L12</f>
         <v>0</v>
       </c>
       <c r="T12" s="1" t="s">
         <v>26</v>
       </c>
       <c r="U12" s="1">
-        <f t="shared" si="2"/>
-        <v>28421.05263157895</v>
+        <f>H12*D12</f>
+        <v>29677.914110429429</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
-        <v>45812</v>
+        <v>45820</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="1">
-        <v>736</v>
+        <v>1316</v>
       </c>
       <c r="E13" s="1">
-        <v>693</v>
+        <v>1263</v>
       </c>
       <c r="F13" s="1">
-        <v>822</v>
-      </c>
-      <c r="G13" s="1"/>
+        <v>1485</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1312.5</v>
+      </c>
       <c r="H13" s="1">
-        <f t="shared" si="0"/>
-        <v>69.767441860465112</v>
+        <v>56</v>
       </c>
       <c r="I13" s="1">
         <v>3000</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
+        <f>(F13-D13)/(D13-E13)</f>
+        <v>3.1886792452830188</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L13" s="1">
+        <f>(G13-D13)*H13</f>
+        <v>-196</v>
+      </c>
       <c r="M13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N13" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1" t="s">
@@ -1864,54 +1847,62 @@
         <v>25</v>
       </c>
       <c r="S13" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>L13</f>
+        <v>-196</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="U13" s="1">
-        <f t="shared" si="2"/>
-        <v>51348.837209302321</v>
+        <f>H13*D13</f>
+        <v>73696</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
-        <v>45812</v>
+        <v>45820</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="1">
-        <v>631</v>
+        <v>1600</v>
       </c>
       <c r="E14" s="1">
-        <v>579</v>
+        <v>1505</v>
       </c>
       <c r="F14" s="1">
-        <v>760</v>
-      </c>
-      <c r="G14" s="1"/>
+        <v>1835</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1832.8</v>
+      </c>
       <c r="H14" s="1">
-        <f t="shared" si="0"/>
-        <v>57.692307692307693</v>
+        <v>31</v>
       </c>
       <c r="I14" s="1">
         <v>3000</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="1"/>
-        <v>2.4807692307692308</v>
-      </c>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
+        <f>(F14-D14)/(D14-E14)</f>
+        <v>2.4736842105263159</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L14" s="1">
+        <f>(G14-D14)*H14</f>
+        <v>7216.7999999999984</v>
+      </c>
       <c r="M14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N14" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1" t="s">
@@ -1921,62 +1912,62 @@
         <v>25</v>
       </c>
       <c r="S14" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>L14</f>
+        <v>7216.7999999999984</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="U14" s="1">
-        <f t="shared" si="2"/>
-        <v>36403.846153846156</v>
+        <f>H14*D14</f>
+        <v>49600</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
-        <v>45812</v>
+        <v>45826</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="1">
-        <v>808</v>
+        <v>237</v>
       </c>
       <c r="E15" s="1">
-        <v>765</v>
+        <v>219.35</v>
       </c>
       <c r="F15" s="1">
-        <v>895</v>
+        <v>270</v>
       </c>
       <c r="G15" s="1">
-        <v>765.05</v>
+        <v>267.62</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="0"/>
-        <v>69.767441860465112</v>
+        <f>I15/(D15-E15)</f>
+        <v>169.97167138810192</v>
       </c>
       <c r="I15" s="1">
         <v>3000</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="1"/>
-        <v>2.0232558139534884</v>
+        <f>(F15-D15)/(D15-E15)</f>
+        <v>1.8696883852691213</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L15" s="1">
-        <f t="shared" ref="L15:L17" si="5">(G15-D15)*H15</f>
-        <v>-2996.5116279069798</v>
+        <f>(G15-D15)*H15</f>
+        <v>5204.5325779036821</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -1987,54 +1978,62 @@
         <v>25</v>
       </c>
       <c r="S15" s="1">
-        <f t="shared" si="3"/>
-        <v>-2996.5116279069798</v>
+        <f>L15</f>
+        <v>5204.5325779036821</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="U15" s="1">
-        <f t="shared" si="2"/>
-        <v>56372.093023255809</v>
+        <f>H15*D15</f>
+        <v>40283.286118980155</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
-        <v>45812</v>
+        <v>45826</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D16" s="1">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="E16" s="1">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="F16" s="1">
-        <v>488</v>
-      </c>
-      <c r="G16" s="1"/>
+        <v>424</v>
+      </c>
+      <c r="G16" s="1">
+        <v>348.95</v>
+      </c>
       <c r="H16" s="1">
-        <f>I16/(D16-E16)</f>
-        <v>53.125</v>
+        <v>176</v>
       </c>
       <c r="I16" s="1">
-        <v>1700</v>
+        <v>3000</v>
       </c>
       <c r="J16" s="1">
         <f>(F16-D16)/(D16-E16)</f>
-        <v>3.4375</v>
-      </c>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
+        <v>3.3529411764705883</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L16" s="1">
+        <f>(G16-D16)*H16</f>
+        <v>-3176.800000000002</v>
+      </c>
       <c r="M16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N16" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1" t="s">
@@ -2044,132 +2043,85 @@
         <v>25</v>
       </c>
       <c r="S16" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>L16</f>
+        <v>-3176.800000000002</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="U16" s="1">
         <f>H16*D16</f>
-        <v>20081.25</v>
+        <v>64592</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A17" s="2">
-        <v>45812</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1278</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1212</v>
-      </c>
-      <c r="F17" s="1">
-        <v>1597</v>
-      </c>
-      <c r="G17" s="1">
-        <v>1211.1500000000001</v>
-      </c>
-      <c r="H17" s="1">
-        <v>24</v>
-      </c>
-      <c r="I17" s="1">
-        <v>1600</v>
-      </c>
-      <c r="J17" s="1">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1" t="e">
+        <f>I17/(D17-E17)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1" t="e">
         <f>(F17-D17)/(D17-E17)</f>
-        <v>4.833333333333333</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L17" s="1">
-        <f t="shared" si="5"/>
-        <v>-1604.3999999999978</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>57</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
-      <c r="Q17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R17" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
       <c r="S17" s="1">
-        <f t="shared" ref="S17" si="6">L17</f>
-        <v>-1604.3999999999978</v>
-      </c>
-      <c r="T17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="U17" s="1">
+        <f>L17</f>
+        <v>0</v>
+      </c>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1" t="e">
         <f>H17*D17</f>
-        <v>30672</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A18" s="2">
-        <v>45814</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="1">
-        <v>645</v>
-      </c>
-      <c r="E18" s="1">
-        <v>579.79999999999995</v>
-      </c>
-      <c r="F18" s="1">
-        <v>790</v>
-      </c>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="1">
+      <c r="H18" s="1" t="e">
         <f>I18/(D18-E18)</f>
-        <v>46.012269938650277</v>
-      </c>
-      <c r="I18" s="1">
-        <v>3000</v>
-      </c>
-      <c r="J18" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1" t="e">
         <f>(F18-D18)/(D18-E18)</f>
-        <v>2.2239263803680966</v>
-      </c>
-      <c r="M18" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>24</v>
-      </c>
-      <c r="R18" t="s">
-        <v>25</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
       <c r="S18" s="1">
-        <f t="shared" si="3"/>
+        <f>L18</f>
         <v>0</v>
       </c>
-      <c r="T18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="U18" s="1">
+      <c r="T18" s="1"/>
+      <c r="U18" s="1" t="e">
         <f>H18*D18</f>
-        <v>29677.914110429429</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.35">
@@ -2181,11 +2133,14 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="e">
-        <f t="shared" ref="H19:H24" si="7">I19/(D19-E19)</f>
+        <f>I19/(D19-E19)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
+      <c r="J19" s="1" t="e">
+        <f>(F19-D19)/(D19-E19)</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -2195,12 +2150,12 @@
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1">
-        <f t="shared" si="3"/>
+        <f>L19</f>
         <v>0</v>
       </c>
       <c r="T19" s="1"/>
       <c r="U19" s="1" t="e">
-        <f t="shared" ref="U19:U24" si="8">H19*D19</f>
+        <f>H19*D19</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2213,11 +2168,14 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f>I20/(D20-E20)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
+      <c r="J20" s="1" t="e">
+        <f>(F20-D20)/(D20-E20)</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
@@ -2227,12 +2185,12 @@
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1">
-        <f t="shared" si="3"/>
+        <f>L20</f>
         <v>0</v>
       </c>
       <c r="T20" s="1"/>
       <c r="U20" s="1" t="e">
-        <f t="shared" si="8"/>
+        <f>H20*D20</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2245,11 +2203,14 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f>I21/(D21-E21)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
+      <c r="J21" s="1" t="e">
+        <f>(F21-D21)/(D21-E21)</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -2259,12 +2220,12 @@
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1">
-        <f t="shared" si="3"/>
+        <f>L21</f>
         <v>0</v>
       </c>
       <c r="T21" s="1"/>
       <c r="U21" s="1" t="e">
-        <f t="shared" si="8"/>
+        <f>H21*D21</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2277,11 +2238,14 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f>I22/(D22-E22)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
+      <c r="J22" s="1" t="e">
+        <f>(F22-D22)/(D22-E22)</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -2291,80 +2255,21 @@
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1">
-        <f t="shared" si="3"/>
+        <f>L22</f>
         <v>0</v>
       </c>
       <c r="T22" s="1"/>
       <c r="U22" s="1" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1" t="e">
-        <f t="shared" si="8"/>
+        <f>H22*D22</f>
         <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:U22" xr:uid="{8090FE0B-E5CF-476B-8F9F-EA27021FD68D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U22">
+      <sortCondition ref="A1:A22"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/trading_journal.xlsx
+++ b/trading_journal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deshmukp\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deshmukp\Downloads\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52AD8544-1B52-4316-BBCC-A77512739C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC943B3-3A1A-450A-9019-8391A216E08D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25905" yWindow="-3555" windowWidth="26010" windowHeight="20985" xr2:uid="{0B36B6A0-2720-41CF-B289-397E14AB5A0A}"/>
+    <workbookView xWindow="34290" yWindow="2260" windowWidth="19420" windowHeight="11500" xr2:uid="{0B36B6A0-2720-41CF-B289-397E14AB5A0A}"/>
   </bookViews>
   <sheets>
     <sheet name="trading_journal" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="56">
   <si>
     <t>Date</t>
   </si>
@@ -1063,28 +1063,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8090FE0B-E5CF-476B-8F9F-EA27021FD68D}">
   <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection sqref="A1:U16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7265625" customWidth="1"/>
-    <col min="3" max="3" width="12.36328125" customWidth="1"/>
-    <col min="6" max="6" width="11.26953125" customWidth="1"/>
-    <col min="10" max="10" width="10.6328125" customWidth="1"/>
-    <col min="11" max="11" width="13.26953125" customWidth="1"/>
-    <col min="12" max="12" width="10.81640625" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" customWidth="1"/>
     <col min="13" max="13" width="23" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.36328125" customWidth="1"/>
-    <col min="17" max="17" width="15.26953125" customWidth="1"/>
-    <col min="19" max="19" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.36328125" customWidth="1"/>
+    <col min="15" max="15" width="19.42578125" customWidth="1"/>
+    <col min="17" max="17" width="15.28515625" customWidth="1"/>
+    <col min="19" max="19" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>45812</v>
       </c>
@@ -1206,7 +1206,7 @@
         <v>20058.708414872799</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45812</v>
       </c>
@@ -1263,41 +1263,41 @@
         <v>47250</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>45812</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="1">
-        <v>943</v>
+        <v>199</v>
       </c>
       <c r="E4" s="1">
-        <v>887</v>
+        <v>180.5</v>
       </c>
       <c r="F4" s="1">
-        <v>1113</v>
+        <v>243</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1">
         <f>I4/(D4-E4)</f>
-        <v>53.571428571428569</v>
+        <v>162.16216216216216</v>
       </c>
       <c r="I4" s="1">
         <v>3000</v>
       </c>
       <c r="J4" s="1">
         <f>(F4-D4)/(D4-E4)</f>
-        <v>3.0357142857142856</v>
+        <v>2.3783783783783785</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -1317,39 +1317,39 @@
       </c>
       <c r="U4" s="1">
         <f>H4*D4</f>
-        <v>50517.857142857138</v>
+        <v>32270.27027027027</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45812</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="1">
-        <v>1866</v>
+        <v>2700</v>
       </c>
       <c r="E5" s="1">
-        <v>1762</v>
+        <v>2415</v>
       </c>
       <c r="F5" s="1">
-        <v>2225</v>
+        <v>3151</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1">
         <f>I5/(D5-E5)</f>
-        <v>28.846153846153847</v>
+        <v>10.526315789473685</v>
       </c>
       <c r="I5" s="1">
         <v>3000</v>
       </c>
       <c r="J5" s="1">
         <f>(F5-D5)/(D5-E5)</f>
-        <v>3.4519230769230771</v>
+        <v>1.5824561403508772</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -1374,39 +1374,39 @@
       </c>
       <c r="U5" s="1">
         <f>H5*D5</f>
-        <v>53826.923076923078</v>
+        <v>28421.05263157895</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45812</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>199</v>
+        <v>631</v>
       </c>
       <c r="E6" s="1">
-        <v>180.5</v>
+        <v>579</v>
       </c>
       <c r="F6" s="1">
-        <v>243</v>
+        <v>760</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1">
         <f>I6/(D6-E6)</f>
-        <v>162.16216216216216</v>
+        <v>57.692307692307693</v>
       </c>
       <c r="I6" s="1">
         <v>3000</v>
       </c>
       <c r="J6" s="1">
         <f>(F6-D6)/(D6-E6)</f>
-        <v>2.3783783783783785</v>
+        <v>2.4807692307692308</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -1431,46 +1431,55 @@
       </c>
       <c r="U6" s="1">
         <f>H6*D6</f>
-        <v>32270.27027027027</v>
+        <v>36403.846153846156</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45812</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="1">
-        <v>2700</v>
+        <v>808</v>
       </c>
       <c r="E7" s="1">
-        <v>2415</v>
+        <v>765</v>
       </c>
       <c r="F7" s="1">
-        <v>3151</v>
-      </c>
-      <c r="G7" s="1"/>
+        <v>895</v>
+      </c>
+      <c r="G7" s="1">
+        <v>765.05</v>
+      </c>
       <c r="H7" s="1">
         <f>I7/(D7-E7)</f>
-        <v>10.526315789473685</v>
+        <v>69.767441860465112</v>
       </c>
       <c r="I7" s="1">
         <v>3000</v>
       </c>
       <c r="J7" s="1">
         <f>(F7-D7)/(D7-E7)</f>
-        <v>1.5824561403508772</v>
-      </c>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
+        <v>2.0232558139534884</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" s="1">
+        <f>(G7-D7)*H7</f>
+        <v>-2996.5116279069798</v>
+      </c>
       <c r="M7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N7" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1" t="s">
@@ -1481,51 +1490,51 @@
       </c>
       <c r="S7" s="1">
         <f>L7</f>
-        <v>0</v>
+        <v>-2996.5116279069798</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="U7" s="1">
         <f>H7*D7</f>
-        <v>28421.05263157895</v>
+        <v>56372.093023255809</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45812</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="1">
-        <v>631</v>
+        <v>378</v>
       </c>
       <c r="E8" s="1">
-        <v>579</v>
+        <v>346</v>
       </c>
       <c r="F8" s="1">
-        <v>760</v>
+        <v>488</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1">
         <f>I8/(D8-E8)</f>
-        <v>57.692307692307693</v>
+        <v>53.125</v>
       </c>
       <c r="I8" s="1">
-        <v>3000</v>
+        <v>1700</v>
       </c>
       <c r="J8" s="1">
         <f>(F8-D8)/(D8-E8)</f>
-        <v>2.4807692307692308</v>
+        <v>3.4375</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -1545,51 +1554,50 @@
       </c>
       <c r="U8" s="1">
         <f>H8*D8</f>
-        <v>36403.846153846156</v>
+        <v>20081.25</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45812</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="1">
-        <v>808</v>
+        <v>1278</v>
       </c>
       <c r="E9" s="1">
-        <v>765</v>
+        <v>1212</v>
       </c>
       <c r="F9" s="1">
-        <v>895</v>
+        <v>1597</v>
       </c>
       <c r="G9" s="1">
-        <v>765.05</v>
+        <v>1211.1500000000001</v>
       </c>
       <c r="H9" s="1">
-        <f>I9/(D9-E9)</f>
-        <v>69.767441860465112</v>
+        <v>24</v>
       </c>
       <c r="I9" s="1">
-        <v>3000</v>
+        <v>1600</v>
       </c>
       <c r="J9" s="1">
         <f>(F9-D9)/(D9-E9)</f>
-        <v>2.0232558139534884</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>46</v>
       </c>
       <c r="L9" s="1">
         <f>(G9-D9)*H9</f>
-        <v>-2996.5116279069798</v>
+        <v>-1604.3999999999978</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>53</v>
@@ -1604,51 +1612,51 @@
       </c>
       <c r="S9" s="1">
         <f>L9</f>
-        <v>-2996.5116279069798</v>
+        <v>-1604.3999999999978</v>
       </c>
       <c r="T9" s="1" t="s">
         <v>48</v>
       </c>
       <c r="U9" s="1">
         <f>H9*D9</f>
-        <v>56372.093023255809</v>
+        <v>30672</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>45812</v>
+        <v>45814</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="1">
-        <v>378</v>
+        <v>645</v>
       </c>
       <c r="E10" s="1">
-        <v>346</v>
+        <v>579.79999999999995</v>
       </c>
       <c r="F10" s="1">
-        <v>488</v>
+        <v>790</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1">
         <f>I10/(D10-E10)</f>
-        <v>53.125</v>
+        <v>46.012269938650277</v>
       </c>
       <c r="I10" s="1">
-        <v>1700</v>
+        <v>3000</v>
       </c>
       <c r="J10" s="1">
         <f>(F10-D10)/(D10-E10)</f>
-        <v>3.4375</v>
+        <v>2.2239263803680966</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -1668,53 +1676,53 @@
       </c>
       <c r="U10" s="1">
         <f>H10*D10</f>
-        <v>20081.25</v>
+        <v>29677.914110429429</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>45812</v>
+        <v>45820</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D11" s="1">
-        <v>1278</v>
+        <v>1316</v>
       </c>
       <c r="E11" s="1">
-        <v>1212</v>
+        <v>1263</v>
       </c>
       <c r="F11" s="1">
-        <v>1597</v>
+        <v>1485</v>
       </c>
       <c r="G11" s="1">
-        <v>1211.1500000000001</v>
+        <v>1312.5</v>
       </c>
       <c r="H11" s="1">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="I11" s="1">
-        <v>1600</v>
+        <v>3000</v>
       </c>
       <c r="J11" s="1">
         <f>(F11-D11)/(D11-E11)</f>
-        <v>4.833333333333333</v>
+        <v>3.1886792452830188</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>46</v>
       </c>
       <c r="L11" s="1">
         <f>(G11-D11)*H11</f>
-        <v>-1604.3999999999978</v>
+        <v>-196</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -1726,53 +1734,61 @@
       </c>
       <c r="S11" s="1">
         <f>L11</f>
-        <v>-1604.3999999999978</v>
+        <v>-196</v>
       </c>
       <c r="T11" s="1" t="s">
         <v>48</v>
       </c>
       <c r="U11" s="1">
         <f>H11*D11</f>
-        <v>30672</v>
+        <v>73696</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>45814</v>
+        <v>45820</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D12" s="1">
-        <v>645</v>
+        <v>1600</v>
       </c>
       <c r="E12" s="1">
-        <v>579.79999999999995</v>
+        <v>1505</v>
       </c>
       <c r="F12" s="1">
-        <v>790</v>
-      </c>
-      <c r="G12" s="1"/>
+        <v>1835</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1832.8</v>
+      </c>
       <c r="H12" s="1">
-        <f>I12/(D12-E12)</f>
-        <v>46.012269938650277</v>
+        <v>31</v>
       </c>
       <c r="I12" s="1">
         <v>3000</v>
       </c>
       <c r="J12" s="1">
         <f>(F12-D12)/(D12-E12)</f>
-        <v>2.2239263803680966</v>
-      </c>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
+        <v>2.4736842105263159</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L12" s="1">
+        <f>(G12-D12)*H12</f>
+        <v>7216.7999999999984</v>
+      </c>
       <c r="M12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N12" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1" t="s">
@@ -1783,57 +1799,58 @@
       </c>
       <c r="S12" s="1">
         <f>L12</f>
-        <v>0</v>
+        <v>7216.7999999999984</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="U12" s="1">
         <f>H12*D12</f>
-        <v>29677.914110429429</v>
+        <v>49600</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>45820</v>
+        <v>45826</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="1">
-        <v>1316</v>
+        <v>237</v>
       </c>
       <c r="E13" s="1">
-        <v>1263</v>
+        <v>219.35</v>
       </c>
       <c r="F13" s="1">
-        <v>1485</v>
+        <v>270</v>
       </c>
       <c r="G13" s="1">
-        <v>1312.5</v>
+        <v>267.62</v>
       </c>
       <c r="H13" s="1">
-        <v>56</v>
+        <f>I13/(D13-E13)</f>
+        <v>169.97167138810192</v>
       </c>
       <c r="I13" s="1">
         <v>3000</v>
       </c>
       <c r="J13" s="1">
         <f>(F13-D13)/(D13-E13)</f>
-        <v>3.1886792452830188</v>
+        <v>1.8696883852691213</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="L13" s="1">
         <f>(G13-D13)*H13</f>
-        <v>-196</v>
+        <v>5204.5325779036821</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>47</v>
@@ -1848,60 +1865,60 @@
       </c>
       <c r="S13" s="1">
         <f>L13</f>
-        <v>-196</v>
+        <v>5204.5325779036821</v>
       </c>
       <c r="T13" s="1" t="s">
         <v>48</v>
       </c>
       <c r="U13" s="1">
         <f>H13*D13</f>
-        <v>73696</v>
+        <v>40283.286118980155</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>45820</v>
+        <v>45826</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="1">
-        <v>1600</v>
+        <v>367</v>
       </c>
       <c r="E14" s="1">
-        <v>1505</v>
+        <v>350</v>
       </c>
       <c r="F14" s="1">
-        <v>1835</v>
+        <v>424</v>
       </c>
       <c r="G14" s="1">
-        <v>1832.8</v>
+        <v>348.95</v>
       </c>
       <c r="H14" s="1">
-        <v>31</v>
+        <v>176</v>
       </c>
       <c r="I14" s="1">
         <v>3000</v>
       </c>
       <c r="J14" s="1">
         <f>(F14-D14)/(D14-E14)</f>
-        <v>2.4736842105263159</v>
+        <v>3.3529411764705883</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L14" s="1">
         <f>(G14-D14)*H14</f>
-        <v>7216.7999999999984</v>
+        <v>-3176.800000000002</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -1913,58 +1930,58 @@
       </c>
       <c r="S14" s="1">
         <f>L14</f>
-        <v>7216.7999999999984</v>
+        <v>-3176.800000000002</v>
       </c>
       <c r="T14" s="1" t="s">
         <v>48</v>
       </c>
       <c r="U14" s="1">
         <f>H14*D14</f>
-        <v>49600</v>
+        <v>64592</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>45826</v>
+        <v>45827</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="1">
-        <v>237</v>
+        <v>943</v>
       </c>
       <c r="E15" s="1">
-        <v>219.35</v>
+        <v>887</v>
       </c>
       <c r="F15" s="1">
-        <v>270</v>
+        <v>1113</v>
       </c>
       <c r="G15" s="1">
-        <v>267.62</v>
+        <v>966.67</v>
       </c>
       <c r="H15" s="1">
         <f>I15/(D15-E15)</f>
-        <v>169.97167138810192</v>
+        <v>53.571428571428569</v>
       </c>
       <c r="I15" s="1">
         <v>3000</v>
       </c>
       <c r="J15" s="1">
         <f>(F15-D15)/(D15-E15)</f>
-        <v>1.8696883852691213</v>
+        <v>3.0357142857142856</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>49</v>
       </c>
       <c r="L15" s="1">
         <f>(G15-D15)*H15</f>
-        <v>5204.5325779036821</v>
+        <v>1268.0357142857119</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>47</v>
@@ -1979,57 +1996,58 @@
       </c>
       <c r="S15" s="1">
         <f>L15</f>
-        <v>5204.5325779036821</v>
+        <v>1268.0357142857119</v>
       </c>
       <c r="T15" s="1" t="s">
         <v>48</v>
       </c>
       <c r="U15" s="1">
         <f>H15*D15</f>
-        <v>40283.286118980155</v>
+        <v>50517.857142857138</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>45826</v>
+        <v>45827</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D16" s="1">
-        <v>367</v>
+        <v>1866</v>
       </c>
       <c r="E16" s="1">
-        <v>350</v>
+        <v>1762</v>
       </c>
       <c r="F16" s="1">
-        <v>424</v>
+        <v>2225</v>
       </c>
       <c r="G16" s="1">
-        <v>348.95</v>
+        <v>1763.1</v>
       </c>
       <c r="H16" s="1">
-        <v>176</v>
+        <f>I16/(D16-E16)</f>
+        <v>28.846153846153847</v>
       </c>
       <c r="I16" s="1">
         <v>3000</v>
       </c>
       <c r="J16" s="1">
         <f>(F16-D16)/(D16-E16)</f>
-        <v>3.3529411764705883</v>
+        <v>3.4519230769230771</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>46</v>
       </c>
       <c r="L16" s="1">
         <f>(G16-D16)*H16</f>
-        <v>-3176.800000000002</v>
+        <v>-2968.2692307692337</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>53</v>
@@ -2044,17 +2062,17 @@
       </c>
       <c r="S16" s="1">
         <f>L16</f>
-        <v>-3176.800000000002</v>
+        <v>-2968.2692307692337</v>
       </c>
       <c r="T16" s="1" t="s">
         <v>48</v>
       </c>
       <c r="U16" s="1">
         <f>H16*D16</f>
-        <v>64592</v>
+        <v>53826.923076923078</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -2089,7 +2107,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -2124,7 +2142,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -2159,7 +2177,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -2194,7 +2212,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -2229,7 +2247,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>

--- a/trading_journal.xlsx
+++ b/trading_journal.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deshmukp\Downloads\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC943B3-3A1A-450A-9019-8391A216E08D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A7F507-D5DC-439E-A636-E103FD44FE76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34290" yWindow="2260" windowWidth="19420" windowHeight="11500" xr2:uid="{0B36B6A0-2720-41CF-B289-397E14AB5A0A}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{0B36B6A0-2720-41CF-B289-397E14AB5A0A}"/>
   </bookViews>
   <sheets>
     <sheet name="trading_journal" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">trading_journal!$A$1:$U$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">trading_journal!$A$1:$U$30</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="70">
   <si>
     <t>Date</t>
   </si>
@@ -137,9 +137,6 @@
     <t>Zone 1 Breakout</t>
   </si>
   <si>
-    <t>Order Placed</t>
-  </si>
-  <si>
     <t>SBI Card</t>
   </si>
   <si>
@@ -204,6 +201,51 @@
   </si>
   <si>
     <t xml:space="preserve">Daimod patter </t>
+  </si>
+  <si>
+    <t>CHOLAHLDNG</t>
+  </si>
+  <si>
+    <t>All time Breakout with cup and handle</t>
+  </si>
+  <si>
+    <t>NAM-INDIA</t>
+  </si>
+  <si>
+    <t>GILLETTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All time Breakout </t>
+  </si>
+  <si>
+    <t>ASTERDM</t>
+  </si>
+  <si>
+    <t>LLOYDSME</t>
+  </si>
+  <si>
+    <t>ENDURANCE</t>
+  </si>
+  <si>
+    <t>Cancelled</t>
+  </si>
+  <si>
+    <t>Mahindra &amp; Mahindra</t>
+  </si>
+  <si>
+    <t>SBFC Finance</t>
+  </si>
+  <si>
+    <t>Consodulation Breakout And Retest</t>
+  </si>
+  <si>
+    <t>The stop loss was set too tight, and I didn’t consider the Average True Range (ATR) on the weekly chart to determine an appropriate stop loss level.</t>
+  </si>
+  <si>
+    <t>The stop loss was based on the daily chart ATR, but the trailing stop step was too tight, which caused the trailing stop loss to be triggered prematurely.</t>
+  </si>
+  <si>
+    <t>W - CMO 41 , CRSI 0.06 , RSI 63</t>
   </si>
 </sst>
 </file>
@@ -702,10 +744,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1061,10 +1105,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8090FE0B-E5CF-476B-8F9F-EA27021FD68D}">
-  <dimension ref="A1:U22"/>
+  <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection sqref="A1:U16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1072,7 +1116,10 @@
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.5703125" customWidth="1"/>
     <col min="11" max="11" width="13.28515625" customWidth="1"/>
     <col min="12" max="12" width="10.85546875" customWidth="1"/>
@@ -1080,8 +1127,9 @@
     <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="19.42578125" customWidth="1"/>
     <col min="17" max="17" width="15.28515625" customWidth="1"/>
-    <col min="19" max="19" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13.42578125" customWidth="1"/>
+    <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
@@ -1170,14 +1218,14 @@
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1">
-        <f>I2/(D2-E2)</f>
+        <f t="shared" ref="H2:H8" si="0">I2/(D2-E2)</f>
         <v>97.847358121330728</v>
       </c>
       <c r="I2" s="1">
         <v>3000</v>
       </c>
       <c r="J2" s="1">
-        <f>(F2-D2)/(D2-E2)</f>
+        <f t="shared" ref="J2:J30" si="1">(F2-D2)/(D2-E2)</f>
         <v>2.7071102413568169</v>
       </c>
       <c r="K2" s="1"/>
@@ -1195,14 +1243,14 @@
         <v>25</v>
       </c>
       <c r="S2" s="1">
-        <f>L2</f>
+        <f t="shared" ref="S2:S30" si="2">L2</f>
         <v>0</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>26</v>
       </c>
       <c r="U2" s="1">
-        <f>H2*D2</f>
+        <f t="shared" ref="U2:U29" si="3">H2*D2</f>
         <v>20058.708414872799</v>
       </c>
     </row>
@@ -1217,25 +1265,25 @@
         <v>22</v>
       </c>
       <c r="D3" s="1">
-        <v>2016</v>
+        <v>1962</v>
       </c>
       <c r="E3" s="1">
-        <v>1888</v>
+        <v>1847</v>
       </c>
       <c r="F3" s="1">
         <v>2400</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1">
-        <f>I3/(D3-E3)</f>
-        <v>23.4375</v>
+        <f t="shared" si="0"/>
+        <v>26.086956521739129</v>
       </c>
       <c r="I3" s="1">
         <v>3000</v>
       </c>
       <c r="J3" s="1">
-        <f>(F3-D3)/(D3-E3)</f>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>3.8086956521739133</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -1252,15 +1300,15 @@
         <v>25</v>
       </c>
       <c r="S3" s="1">
-        <f>L3</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="U3" s="1">
-        <f>H3*D3</f>
-        <v>47250</v>
+        <f t="shared" si="3"/>
+        <v>51182.608695652169</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -1268,7 +1316,7 @@
         <v>45812</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>22</v>
@@ -1284,20 +1332,20 @@
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1">
-        <f>I4/(D4-E4)</f>
+        <f t="shared" si="0"/>
         <v>162.16216216216216</v>
       </c>
       <c r="I4" s="1">
         <v>3000</v>
       </c>
       <c r="J4" s="1">
-        <f>(F4-D4)/(D4-E4)</f>
+        <f t="shared" si="1"/>
         <v>2.3783783783783785</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -1309,14 +1357,14 @@
         <v>25</v>
       </c>
       <c r="S4" s="1">
-        <f>L4</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="U4" s="1">
-        <f>H4*D4</f>
+        <f t="shared" si="3"/>
         <v>32270.27027027027</v>
       </c>
     </row>
@@ -1325,7 +1373,7 @@
         <v>45812</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>22</v>
@@ -1341,20 +1389,20 @@
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1">
-        <f>I5/(D5-E5)</f>
+        <f t="shared" si="0"/>
         <v>10.526315789473685</v>
       </c>
       <c r="I5" s="1">
         <v>3000</v>
       </c>
       <c r="J5" s="1">
-        <f>(F5-D5)/(D5-E5)</f>
+        <f t="shared" si="1"/>
         <v>1.5824561403508772</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -1366,14 +1414,14 @@
         <v>25</v>
       </c>
       <c r="S5" s="1">
-        <f>L5</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T5" s="1" t="s">
         <v>26</v>
       </c>
       <c r="U5" s="1">
-        <f>H5*D5</f>
+        <f t="shared" si="3"/>
         <v>28421.05263157895</v>
       </c>
     </row>
@@ -1382,7 +1430,7 @@
         <v>45812</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>22</v>
@@ -1398,20 +1446,20 @@
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1">
-        <f>I6/(D6-E6)</f>
+        <f t="shared" si="0"/>
         <v>57.692307692307693</v>
       </c>
       <c r="I6" s="1">
         <v>3000</v>
       </c>
       <c r="J6" s="1">
-        <f>(F6-D6)/(D6-E6)</f>
+        <f t="shared" si="1"/>
         <v>2.4807692307692308</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -1423,14 +1471,14 @@
         <v>25</v>
       </c>
       <c r="S6" s="1">
-        <f>L6</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>26</v>
       </c>
       <c r="U6" s="1">
-        <f>H6*D6</f>
+        <f t="shared" si="3"/>
         <v>36403.846153846156</v>
       </c>
     </row>
@@ -1439,7 +1487,7 @@
         <v>45812</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>22</v>
@@ -1457,28 +1505,28 @@
         <v>765.05</v>
       </c>
       <c r="H7" s="1">
-        <f>I7/(D7-E7)</f>
+        <f t="shared" si="0"/>
         <v>69.767441860465112</v>
       </c>
       <c r="I7" s="1">
         <v>3000</v>
       </c>
       <c r="J7" s="1">
-        <f>(F7-D7)/(D7-E7)</f>
+        <f t="shared" si="1"/>
         <v>2.0232558139534884</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L7" s="1">
         <f>(G7-D7)*H7</f>
         <v>-2996.5116279069798</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
@@ -1489,14 +1537,14 @@
         <v>25</v>
       </c>
       <c r="S7" s="1">
-        <f>L7</f>
+        <f t="shared" si="2"/>
         <v>-2996.5116279069798</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U7" s="1">
-        <f>H7*D7</f>
+        <f t="shared" si="3"/>
         <v>56372.093023255809</v>
       </c>
     </row>
@@ -1505,7 +1553,7 @@
         <v>45812</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>22</v>
@@ -1521,14 +1569,14 @@
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1">
-        <f>I8/(D8-E8)</f>
+        <f t="shared" si="0"/>
         <v>53.125</v>
       </c>
       <c r="I8" s="1">
         <v>1700</v>
       </c>
       <c r="J8" s="1">
-        <f>(F8-D8)/(D8-E8)</f>
+        <f t="shared" si="1"/>
         <v>3.4375</v>
       </c>
       <c r="K8" s="1"/>
@@ -1546,14 +1594,14 @@
         <v>25</v>
       </c>
       <c r="S8" s="1">
-        <f>L8</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T8" s="1" t="s">
         <v>26</v>
       </c>
       <c r="U8" s="1">
-        <f>H8*D8</f>
+        <f t="shared" si="3"/>
         <v>20081.25</v>
       </c>
     </row>
@@ -1562,7 +1610,7 @@
         <v>45812</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>22</v>
@@ -1586,23 +1634,25 @@
         <v>1600</v>
       </c>
       <c r="J9" s="1">
-        <f>(F9-D9)/(D9-E9)</f>
+        <f t="shared" si="1"/>
         <v>4.833333333333333</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L9" s="1">
         <f>(G9-D9)*H9</f>
         <v>-1604.3999999999978</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="O9" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1" t="s">
         <v>24</v>
@@ -1611,14 +1661,14 @@
         <v>25</v>
       </c>
       <c r="S9" s="1">
-        <f>L9</f>
+        <f t="shared" si="2"/>
         <v>-1604.3999999999978</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U9" s="1">
-        <f>H9*D9</f>
+        <f t="shared" si="3"/>
         <v>30672</v>
       </c>
     </row>
@@ -1627,7 +1677,7 @@
         <v>45814</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>22</v>
@@ -1650,13 +1700,13 @@
         <v>3000</v>
       </c>
       <c r="J10" s="1">
-        <f>(F10-D10)/(D10-E10)</f>
+        <f t="shared" si="1"/>
         <v>2.2239263803680966</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -1668,14 +1718,14 @@
         <v>25</v>
       </c>
       <c r="S10" s="1">
-        <f>L10</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T10" s="1" t="s">
         <v>26</v>
       </c>
       <c r="U10" s="1">
-        <f>H10*D10</f>
+        <f t="shared" si="3"/>
         <v>29677.914110429429</v>
       </c>
     </row>
@@ -1708,23 +1758,25 @@
         <v>3000</v>
       </c>
       <c r="J11" s="1">
-        <f>(F11-D11)/(D11-E11)</f>
+        <f t="shared" si="1"/>
         <v>3.1886792452830188</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L11" s="1">
-        <f>(G11-D11)*H11</f>
+        <f t="shared" ref="L11:L16" si="4">(G11-D11)*H11</f>
         <v>-196</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>28</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="O11" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1" t="s">
         <v>24</v>
@@ -1733,14 +1785,14 @@
         <v>25</v>
       </c>
       <c r="S11" s="1">
-        <f>L11</f>
+        <f t="shared" si="2"/>
         <v>-196</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U11" s="1">
-        <f>H11*D11</f>
+        <f t="shared" si="3"/>
         <v>73696</v>
       </c>
     </row>
@@ -1749,7 +1801,7 @@
         <v>45820</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>22</v>
@@ -1773,24 +1825,26 @@
         <v>3000</v>
       </c>
       <c r="J12" s="1">
-        <f>(F12-D12)/(D12-E12)</f>
+        <f t="shared" si="1"/>
         <v>2.4736842105263159</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L12" s="1">
-        <f>(G12-D12)*H12</f>
+        <f t="shared" si="4"/>
         <v>7216.7999999999984</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
+      <c r="P12" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="Q12" s="1" t="s">
         <v>24</v>
       </c>
@@ -1798,14 +1852,14 @@
         <v>25</v>
       </c>
       <c r="S12" s="1">
-        <f>L12</f>
+        <f t="shared" si="2"/>
         <v>7216.7999999999984</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U12" s="1">
-        <f>H12*D12</f>
+        <f t="shared" si="3"/>
         <v>49600</v>
       </c>
     </row>
@@ -1839,21 +1893,21 @@
         <v>3000</v>
       </c>
       <c r="J13" s="1">
-        <f>(F13-D13)/(D13-E13)</f>
+        <f t="shared" si="1"/>
         <v>1.8696883852691213</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L13" s="1">
-        <f>(G13-D13)*H13</f>
+        <f t="shared" si="4"/>
         <v>5204.5325779036821</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>30</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -1864,14 +1918,14 @@
         <v>25</v>
       </c>
       <c r="S13" s="1">
-        <f>L13</f>
+        <f t="shared" si="2"/>
         <v>5204.5325779036821</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U13" s="1">
-        <f>H13*D13</f>
+        <f t="shared" si="3"/>
         <v>40283.286118980155</v>
       </c>
     </row>
@@ -1880,7 +1934,7 @@
         <v>45826</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>22</v>
@@ -1904,21 +1958,21 @@
         <v>3000</v>
       </c>
       <c r="J14" s="1">
-        <f>(F14-D14)/(D14-E14)</f>
+        <f t="shared" si="1"/>
         <v>3.3529411764705883</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L14" s="1">
-        <f>(G14-D14)*H14</f>
+        <f t="shared" si="4"/>
         <v>-3176.800000000002</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -1929,14 +1983,14 @@
         <v>25</v>
       </c>
       <c r="S14" s="1">
-        <f>L14</f>
+        <f t="shared" si="2"/>
         <v>-3176.800000000002</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U14" s="1">
-        <f>H14*D14</f>
+        <f t="shared" si="3"/>
         <v>64592</v>
       </c>
     </row>
@@ -1945,7 +1999,7 @@
         <v>45827</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>22</v>
@@ -1963,28 +2017,28 @@
         <v>966.67</v>
       </c>
       <c r="H15" s="1">
-        <f>I15/(D15-E15)</f>
+        <f t="shared" ref="H15:H25" si="5">I15/(D15-E15)</f>
         <v>53.571428571428569</v>
       </c>
       <c r="I15" s="1">
         <v>3000</v>
       </c>
       <c r="J15" s="1">
-        <f>(F15-D15)/(D15-E15)</f>
+        <f t="shared" si="1"/>
         <v>3.0357142857142856</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L15" s="1">
-        <f>(G15-D15)*H15</f>
+        <f t="shared" si="4"/>
         <v>1268.0357142857119</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>32</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -1995,14 +2049,14 @@
         <v>25</v>
       </c>
       <c r="S15" s="1">
-        <f>L15</f>
+        <f t="shared" si="2"/>
         <v>1268.0357142857119</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U15" s="1">
-        <f>H15*D15</f>
+        <f t="shared" si="3"/>
         <v>50517.857142857138</v>
       </c>
     </row>
@@ -2011,7 +2065,7 @@
         <v>45827</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>22</v>
@@ -2029,28 +2083,28 @@
         <v>1763.1</v>
       </c>
       <c r="H16" s="1">
-        <f>I16/(D16-E16)</f>
+        <f t="shared" si="5"/>
         <v>28.846153846153847</v>
       </c>
       <c r="I16" s="1">
         <v>3000</v>
       </c>
       <c r="J16" s="1">
-        <f>(F16-D16)/(D16-E16)</f>
+        <f t="shared" si="1"/>
         <v>3.4519230769230771</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L16" s="1">
-        <f>(G16-D16)*H16</f>
+        <f t="shared" si="4"/>
         <v>-2968.2692307692337</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
@@ -2061,229 +2115,697 @@
         <v>25</v>
       </c>
       <c r="S16" s="1">
-        <f>L16</f>
+        <f t="shared" si="2"/>
         <v>-2968.2692307692337</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U16" s="1">
-        <f>H16*D16</f>
+        <f t="shared" si="3"/>
         <v>53826.923076923078</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="A17" s="2">
+        <v>45834</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2038.32</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1925</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2495</v>
+      </c>
       <c r="G17" s="1"/>
-      <c r="H17" s="1" t="e">
-        <f>I17/(D17-E17)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1" t="e">
-        <f>(F17-D17)/(D17-E17)</f>
-        <v>#DIV/0!</v>
+      <c r="H17" s="1">
+        <f t="shared" si="5"/>
+        <v>26.473702788563376</v>
+      </c>
+      <c r="I17" s="1">
+        <v>3000</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" si="1"/>
+        <v>4.0300035298270416</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
+      <c r="M17" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
+      <c r="Q17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="S17" s="1">
-        <f>L17</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1" t="e">
-        <f>H17*D17</f>
-        <v>#DIV/0!</v>
+      <c r="T17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U17" s="1">
+        <f t="shared" si="3"/>
+        <v>53961.877867984498</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1" t="e">
-        <f>I18/(D18-E18)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1" t="e">
-        <f>(F18-D18)/(D18-E18)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1">
-        <f>L18</f>
+      <c r="A18" s="2">
+        <v>45834</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="3">
+        <v>794</v>
+      </c>
+      <c r="E18" s="3">
+        <v>707</v>
+      </c>
+      <c r="F18" s="3">
+        <v>942</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3">
+        <f t="shared" si="5"/>
+        <v>47.126436781609193</v>
+      </c>
+      <c r="I18" s="3">
+        <v>4100</v>
+      </c>
+      <c r="J18" s="3">
+        <f t="shared" si="1"/>
+        <v>1.7011494252873562</v>
+      </c>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S18" s="3">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1" t="e">
-        <f>H18*D18</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1" t="e">
-        <f>I19/(D19-E19)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1" t="e">
-        <f>(F19-D19)/(D19-E19)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1">
-        <f>L19</f>
+      <c r="T18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="U18" s="3">
+        <f t="shared" si="3"/>
+        <v>37418.3908045977</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>45834</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="3">
+        <v>10321</v>
+      </c>
+      <c r="E19" s="3">
+        <v>9720</v>
+      </c>
+      <c r="F19" s="3">
+        <v>11576</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3">
+        <f t="shared" si="5"/>
+        <v>4.9916805324459235</v>
+      </c>
+      <c r="I19" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J19" s="3">
+        <f t="shared" si="1"/>
+        <v>2.0881863560732112</v>
+      </c>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S19" s="3">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1" t="e">
-        <f>H19*D19</f>
-        <v>#DIV/0!</v>
+      <c r="T19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="U19" s="3">
+        <f t="shared" si="3"/>
+        <v>51519.134775374376</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1" t="e">
-        <f>I20/(D20-E20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1" t="e">
-        <f>(F20-D20)/(D20-E20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1">
-        <f>L20</f>
+      <c r="A20" s="2">
+        <v>45834</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="3">
+        <v>587</v>
+      </c>
+      <c r="E20" s="3">
+        <v>515</v>
+      </c>
+      <c r="F20" s="3">
+        <v>748</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3">
+        <f t="shared" si="5"/>
+        <v>54.166666666666664</v>
+      </c>
+      <c r="I20" s="3">
+        <v>3900</v>
+      </c>
+      <c r="J20" s="3">
+        <f t="shared" si="1"/>
+        <v>2.2361111111111112</v>
+      </c>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S20" s="3">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1" t="e">
-        <f>H20*D20</f>
-        <v>#DIV/0!</v>
+      <c r="T20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="U20" s="3">
+        <f t="shared" si="3"/>
+        <v>31795.833333333332</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="A21" s="2">
+        <v>45834</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1514.5</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1413</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1863</v>
+      </c>
       <c r="G21" s="1"/>
-      <c r="H21" s="1" t="e">
-        <f>I21/(D21-E21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1" t="e">
-        <f>(F21-D21)/(D21-E21)</f>
-        <v>#DIV/0!</v>
+      <c r="H21" s="1">
+        <f t="shared" si="5"/>
+        <v>29.55665024630542</v>
+      </c>
+      <c r="I21" s="1">
+        <v>3000</v>
+      </c>
+      <c r="J21" s="1">
+        <f t="shared" si="1"/>
+        <v>3.4334975369458127</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
+      <c r="M21" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
+      <c r="Q21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="S21" s="1">
-        <f>L21</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1" t="e">
-        <f>H21*D21</f>
-        <v>#DIV/0!</v>
+      <c r="T21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U21" s="1">
+        <f t="shared" si="3"/>
+        <v>44763.546798029558</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+      <c r="A22" s="2">
+        <v>45834</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2648</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2370</v>
+      </c>
+      <c r="F22" s="1">
+        <v>3200</v>
+      </c>
       <c r="G22" s="1"/>
-      <c r="H22" s="1" t="e">
-        <f>I22/(D22-E22)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1" t="e">
-        <f>(F22-D22)/(D22-E22)</f>
-        <v>#DIV/0!</v>
+      <c r="H22" s="1">
+        <f t="shared" si="5"/>
+        <v>10.791366906474821</v>
+      </c>
+      <c r="I22" s="1">
+        <v>3000</v>
+      </c>
+      <c r="J22" s="1">
+        <f t="shared" si="1"/>
+        <v>1.985611510791367</v>
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
+      <c r="M22" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
+      <c r="Q22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="S22" s="1">
-        <f>L22</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1" t="e">
-        <f>H22*D22</f>
+      <c r="T22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U22" s="1">
+        <f t="shared" si="3"/>
+        <v>28575.539568345324</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>45834</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="1">
+        <v>3207</v>
+      </c>
+      <c r="E23" s="1">
+        <v>3110</v>
+      </c>
+      <c r="F23" s="1">
+        <v>3575</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1">
+        <f t="shared" si="5"/>
+        <v>30.927835051546392</v>
+      </c>
+      <c r="I23" s="1">
+        <v>3000</v>
+      </c>
+      <c r="J23" s="1">
+        <f t="shared" si="1"/>
+        <v>3.7938144329896906</v>
+      </c>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S23" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U23" s="1">
+        <f t="shared" si="3"/>
+        <v>99185.567010309285</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>45834</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="1">
+        <v>106.9</v>
+      </c>
+      <c r="E24" s="1">
+        <v>99.8</v>
+      </c>
+      <c r="F24" s="1">
+        <v>150</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1">
+        <f t="shared" si="5"/>
+        <v>422.53521126760512</v>
+      </c>
+      <c r="I24" s="1">
+        <v>3000</v>
+      </c>
+      <c r="J24" s="1">
+        <f t="shared" si="1"/>
+        <v>6.0704225352112591</v>
+      </c>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S24" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U24" s="1">
+        <f t="shared" si="3"/>
+        <v>45169.014084506991</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1" t="e">
+        <f>I25/(D25-E25)</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="I25" s="1">
+        <v>3000</v>
+      </c>
+      <c r="J25" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1" t="e">
+        <f>H25*D25</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1" t="e">
+        <f t="shared" ref="H26:H30" si="6">I26/(D26-E26)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I26" s="1">
+        <v>3000</v>
+      </c>
+      <c r="J26" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I27" s="1">
+        <v>3000</v>
+      </c>
+      <c r="J27" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I28" s="1">
+        <v>3000</v>
+      </c>
+      <c r="J28" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I29" s="1">
+        <v>3000</v>
+      </c>
+      <c r="J29" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I30" s="1">
+        <v>3000</v>
+      </c>
+      <c r="J30" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1" t="e">
+        <f>H30*D30</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U22" xr:uid="{8090FE0B-E5CF-476B-8F9F-EA27021FD68D}">
+  <autoFilter ref="A1:U30" xr:uid="{8090FE0B-E5CF-476B-8F9F-EA27021FD68D}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U22">
       <sortCondition ref="A1:A22"/>
     </sortState>

--- a/trading_journal.xlsx
+++ b/trading_journal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deshmukp\Downloads\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A7F507-D5DC-439E-A636-E103FD44FE76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41F3FE1-C2AE-431E-AC99-22403C7D1D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{0B36B6A0-2720-41CF-B289-397E14AB5A0A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{0B36B6A0-2720-41CF-B289-397E14AB5A0A}"/>
   </bookViews>
   <sheets>
     <sheet name="trading_journal" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="70">
   <si>
     <t>Date</t>
   </si>
@@ -1108,31 +1108,31 @@
   <dimension ref="A1:U30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="U25" sqref="A1:U25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="4" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.7265625" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" customWidth="1"/>
+    <col min="4" max="5" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.26953125" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.54296875" customWidth="1"/>
+    <col min="11" max="11" width="13.26953125" customWidth="1"/>
+    <col min="12" max="12" width="10.81640625" customWidth="1"/>
     <col min="13" max="13" width="23" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.42578125" customWidth="1"/>
-    <col min="17" max="17" width="15.28515625" customWidth="1"/>
-    <col min="19" max="19" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" customWidth="1"/>
+    <col min="15" max="15" width="19.453125" customWidth="1"/>
+    <col min="17" max="17" width="15.26953125" customWidth="1"/>
+    <col min="19" max="19" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.453125" customWidth="1"/>
     <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>45812</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>20058.708414872799</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>45812</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>51182.608695652169</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>45812</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>32270.27027027027</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>45812</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>28421.05263157895</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>45812</v>
       </c>
@@ -1482,7 +1482,7 @@
         <v>36403.846153846156</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>45812</v>
       </c>
@@ -1548,7 +1548,7 @@
         <v>56372.093023255809</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>45812</v>
       </c>
@@ -1567,10 +1567,11 @@
       <c r="F8" s="1">
         <v>488</v>
       </c>
-      <c r="G8" s="1"/>
+      <c r="G8" s="1">
+        <v>365.19</v>
+      </c>
       <c r="H8" s="1">
-        <f t="shared" si="0"/>
-        <v>53.125</v>
+        <v>53</v>
       </c>
       <c r="I8" s="1">
         <v>1700</v>
@@ -1580,7 +1581,10 @@
         <v>3.4375</v>
       </c>
       <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
+      <c r="L8" s="1">
+        <f>(G8-D8)*H8</f>
+        <v>-678.93000000000006</v>
+      </c>
       <c r="M8" s="1" t="s">
         <v>32</v>
       </c>
@@ -1595,17 +1599,17 @@
       </c>
       <c r="S8" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-678.93000000000006</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="U8" s="1">
         <f t="shared" si="3"/>
-        <v>20081.25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+        <v>20034</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>45812</v>
       </c>
@@ -1672,7 +1676,7 @@
         <v>30672</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>45814</v>
       </c>
@@ -1729,7 +1733,7 @@
         <v>29677.914110429429</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>45820</v>
       </c>
@@ -1765,7 +1769,7 @@
         <v>45</v>
       </c>
       <c r="L11" s="1">
-        <f t="shared" ref="L11:L16" si="4">(G11-D11)*H11</f>
+        <f t="shared" ref="L11:L30" si="4">(G11-D11)*H11</f>
         <v>-196</v>
       </c>
       <c r="M11" s="1" t="s">
@@ -1796,7 +1800,7 @@
         <v>73696</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>45820</v>
       </c>
@@ -1863,7 +1867,7 @@
         <v>49600</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>45826</v>
       </c>
@@ -1929,7 +1933,7 @@
         <v>40283.286118980155</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>45826</v>
       </c>
@@ -1994,7 +1998,7 @@
         <v>64592</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>45827</v>
       </c>
@@ -2017,7 +2021,7 @@
         <v>966.67</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" ref="H15:H25" si="5">I15/(D15-E15)</f>
+        <f t="shared" ref="H15:H24" si="5">I15/(D15-E15)</f>
         <v>53.571428571428569</v>
       </c>
       <c r="I15" s="1">
@@ -2060,7 +2064,7 @@
         <v>50517.857142857138</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>45827</v>
       </c>
@@ -2126,9 +2130,9 @@
         <v>53826.923076923078</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
-        <v>45834</v>
+        <v>45841</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>55</v>
@@ -2145,10 +2149,11 @@
       <c r="F17" s="1">
         <v>2495</v>
       </c>
-      <c r="G17" s="1"/>
+      <c r="G17" s="1">
+        <v>2103.1799999999998</v>
+      </c>
       <c r="H17" s="1">
-        <f t="shared" si="5"/>
-        <v>26.473702788563376</v>
+        <v>23</v>
       </c>
       <c r="I17" s="1">
         <v>3000</v>
@@ -2158,7 +2163,10 @@
         <v>4.0300035298270416</v>
       </c>
       <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
+      <c r="L17" s="1">
+        <f t="shared" si="4"/>
+        <v>1491.7799999999977</v>
+      </c>
       <c r="M17" s="1" t="s">
         <v>56</v>
       </c>
@@ -2173,17 +2181,17 @@
       </c>
       <c r="S17" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1491.7799999999977</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="U17" s="1">
         <f t="shared" si="3"/>
-        <v>53961.877867984498</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+        <v>46881.36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>45834</v>
       </c>
@@ -2215,7 +2223,7 @@
         <v>1.7011494252873562</v>
       </c>
       <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
+      <c r="L18" s="1"/>
       <c r="M18" s="3" t="s">
         <v>59</v>
       </c>
@@ -2240,7 +2248,7 @@
         <v>37418.3908045977</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>45834</v>
       </c>
@@ -2272,7 +2280,7 @@
         <v>2.0881863560732112</v>
       </c>
       <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
+      <c r="L19" s="1"/>
       <c r="M19" s="3" t="s">
         <v>59</v>
       </c>
@@ -2297,7 +2305,7 @@
         <v>51519.134775374376</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>45834</v>
       </c>
@@ -2329,7 +2337,7 @@
         <v>2.2361111111111112</v>
       </c>
       <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
+      <c r="L20" s="1"/>
       <c r="M20" s="3" t="s">
         <v>37</v>
       </c>
@@ -2354,7 +2362,7 @@
         <v>31795.833333333332</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>45834</v>
       </c>
@@ -2411,9 +2419,9 @@
         <v>44763.546798029558</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
-        <v>45834</v>
+        <v>45845</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>62</v>
@@ -2430,10 +2438,11 @@
       <c r="F22" s="1">
         <v>3200</v>
       </c>
-      <c r="G22" s="1"/>
+      <c r="G22" s="1">
+        <v>2667.3</v>
+      </c>
       <c r="H22" s="1">
-        <f t="shared" si="5"/>
-        <v>10.791366906474821</v>
+        <v>11</v>
       </c>
       <c r="I22" s="1">
         <v>3000</v>
@@ -2443,7 +2452,10 @@
         <v>1.985611510791367</v>
       </c>
       <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
+      <c r="L22" s="1">
+        <f t="shared" si="4"/>
+        <v>212.300000000002</v>
+      </c>
       <c r="M22" s="1" t="s">
         <v>37</v>
       </c>
@@ -2458,17 +2470,17 @@
       </c>
       <c r="S22" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>212.300000000002</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="U22" s="1">
         <f t="shared" si="3"/>
-        <v>28575.539568345324</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+        <v>29128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>45834</v>
       </c>
@@ -2525,7 +2537,7 @@
         <v>99185.567010309285</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>45834</v>
       </c>
@@ -2582,44 +2594,69 @@
         <v>45169.014084506991</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1" t="e">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A25" s="2">
+        <v>45845</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="1">
+        <v>106.9</v>
+      </c>
+      <c r="E25" s="1">
+        <v>99.8</v>
+      </c>
+      <c r="F25" s="1">
+        <v>150</v>
+      </c>
+      <c r="G25" s="1">
+        <v>113.5</v>
+      </c>
+      <c r="H25" s="1">
         <f>I25/(D25-E25)</f>
-        <v>#DIV/0!</v>
+        <v>422.53521126760512</v>
       </c>
       <c r="I25" s="1">
         <v>3000</v>
       </c>
-      <c r="J25" s="1" t="e">
+      <c r="J25" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>6.0704225352112591</v>
       </c>
       <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
+      <c r="L25" s="1">
+        <f t="shared" si="4"/>
+        <v>2788.7323943661913</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
+      <c r="Q25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="S25" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1" t="e">
+        <v>2788.7323943661913</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="U25" s="1">
         <f>H25*D25</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+        <v>45169.014084506991</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -2639,16 +2676,19 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
+      <c r="L26" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
-      <c r="S26" s="1">
+      <c r="S26" s="1" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="T26" s="1"/>
       <c r="U26" s="1" t="e">
@@ -2656,7 +2696,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -2676,16 +2716,19 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
+      <c r="L27" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
-      <c r="S27" s="1">
+      <c r="S27" s="1" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="T27" s="1"/>
       <c r="U27" s="1" t="e">
@@ -2693,7 +2736,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2713,16 +2756,19 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
+      <c r="L28" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
-      <c r="S28" s="1">
+      <c r="S28" s="1" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="T28" s="1"/>
       <c r="U28" s="1" t="e">
@@ -2730,7 +2776,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A29" s="2"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -2750,16 +2796,19 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
+      <c r="L29" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
-      <c r="S29" s="1">
+      <c r="S29" s="1" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="T29" s="1"/>
       <c r="U29" s="1" t="e">
@@ -2767,7 +2816,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2787,16 +2836,19 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
+      <c r="L30" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
-      <c r="S30" s="1">
+      <c r="S30" s="1" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="T30" s="1"/>
       <c r="U30" s="1" t="e">

--- a/trading_journal.xlsx
+++ b/trading_journal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deshmukp\Downloads\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41F3FE1-C2AE-431E-AC99-22403C7D1D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B7C85A8-152F-4545-A165-703B4AFF2959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{0B36B6A0-2720-41CF-B289-397E14AB5A0A}"/>
   </bookViews>
@@ -239,13 +239,13 @@
     <t>Consodulation Breakout And Retest</t>
   </si>
   <si>
-    <t>The stop loss was set too tight, and I didn’t consider the Average True Range (ATR) on the weekly chart to determine an appropriate stop loss level.</t>
-  </si>
-  <si>
-    <t>The stop loss was based on the daily chart ATR, but the trailing stop step was too tight, which caused the trailing stop loss to be triggered prematurely.</t>
-  </si>
-  <si>
-    <t>W - CMO 41 , CRSI 0.06 , RSI 63</t>
+    <t>The stop loss was set too tight and I didn’t consider the Average True Range (ATR) on the weekly chart to determine an appropriate stop loss level.</t>
+  </si>
+  <si>
+    <t>The stop loss was based on the daily chart ATR but the trailing stop step was too tight which caused the trailing stop loss to be triggered prematurely.</t>
+  </si>
+  <si>
+    <t>W - CMO 41  CRSI 0.06  RSI 63</t>
   </si>
 </sst>
 </file>
@@ -1107,8 +1107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8090FE0B-E5CF-476B-8F9F-EA27021FD68D}">
   <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U25" sqref="A1:U25"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1218,7 +1218,7 @@
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1">
-        <f t="shared" ref="H2:H8" si="0">I2/(D2-E2)</f>
+        <f t="shared" ref="H2:H7" si="0">I2/(D2-E2)</f>
         <v>97.847358121330728</v>
       </c>
       <c r="I2" s="1">

--- a/trading_journal.xlsx
+++ b/trading_journal.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deshmukp\Downloads\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B7C85A8-152F-4545-A165-703B4AFF2959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{228FC239-20B2-422B-AFCB-A3719C3E8EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{0B36B6A0-2720-41CF-B289-397E14AB5A0A}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{0B36B6A0-2720-41CF-B289-397E14AB5A0A}"/>
   </bookViews>
   <sheets>
     <sheet name="trading_journal" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">trading_journal!$A$1:$U$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">trading_journal!$A$1:$U$28</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="70">
   <si>
     <t>Date</t>
   </si>
@@ -131,9 +131,6 @@
     <t>Momentum PNF Breakout</t>
   </si>
   <si>
-    <t>DALMIA</t>
-  </si>
-  <si>
     <t>Zone 1 Breakout</t>
   </si>
   <si>
@@ -212,9 +209,6 @@
     <t>NAM-INDIA</t>
   </si>
   <si>
-    <t>GILLETTE</t>
-  </si>
-  <si>
     <t xml:space="preserve">All time Breakout </t>
   </si>
   <si>
@@ -227,9 +221,6 @@
     <t>ENDURANCE</t>
   </si>
   <si>
-    <t>Cancelled</t>
-  </si>
-  <si>
     <t>Mahindra &amp; Mahindra</t>
   </si>
   <si>
@@ -246,6 +237,15 @@
   </si>
   <si>
     <t>W - CMO 41  CRSI 0.06  RSI 63</t>
+  </si>
+  <si>
+    <t>Patanjali Foods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Support Level </t>
+  </si>
+  <si>
+    <t xml:space="preserve">All Time Breakout Retest  </t>
   </si>
 </sst>
 </file>
@@ -744,12 +744,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1105,34 +1106,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8090FE0B-E5CF-476B-8F9F-EA27021FD68D}">
-  <dimension ref="A1:U30"/>
+  <dimension ref="A1:U28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:U26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7265625" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" customWidth="1"/>
-    <col min="4" max="5" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.26953125" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.54296875" customWidth="1"/>
-    <col min="11" max="11" width="13.26953125" customWidth="1"/>
-    <col min="12" max="12" width="10.81640625" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" customWidth="1"/>
     <col min="13" max="13" width="23" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.453125" customWidth="1"/>
-    <col min="17" max="17" width="15.26953125" customWidth="1"/>
-    <col min="19" max="19" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.453125" customWidth="1"/>
+    <col min="15" max="15" width="19.42578125" customWidth="1"/>
+    <col min="17" max="17" width="15.28515625" customWidth="1"/>
+    <col min="19" max="19" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" customWidth="1"/>
     <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1197,7 +1198,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>45812</v>
       </c>
@@ -1218,14 +1219,14 @@
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1">
-        <f t="shared" ref="H2:H7" si="0">I2/(D2-E2)</f>
+        <f t="shared" ref="H2:H6" si="0">I2/(D2-E2)</f>
         <v>97.847358121330728</v>
       </c>
       <c r="I2" s="1">
         <v>3000</v>
       </c>
       <c r="J2" s="1">
-        <f t="shared" ref="J2:J30" si="1">(F2-D2)/(D2-E2)</f>
+        <f t="shared" ref="J2:J28" si="1">(F2-D2)/(D2-E2)</f>
         <v>2.7071102413568169</v>
       </c>
       <c r="K2" s="1"/>
@@ -1243,52 +1244,52 @@
         <v>25</v>
       </c>
       <c r="S2" s="1">
-        <f t="shared" ref="S2:S30" si="2">L2</f>
+        <f t="shared" ref="S2:S28" si="2">L2</f>
         <v>0</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>26</v>
       </c>
       <c r="U2" s="1">
-        <f t="shared" ref="U2:U29" si="3">H2*D2</f>
+        <f t="shared" ref="U2:U27" si="3">H2*D2</f>
         <v>20058.708414872799</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45812</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="1">
-        <v>1962</v>
+        <v>199</v>
       </c>
       <c r="E3" s="1">
-        <v>1847</v>
+        <v>180.5</v>
       </c>
       <c r="F3" s="1">
-        <v>2400</v>
+        <v>243</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1">
         <f t="shared" si="0"/>
-        <v>26.086956521739129</v>
+        <v>162.16216216216216</v>
       </c>
       <c r="I3" s="1">
         <v>3000</v>
       </c>
       <c r="J3" s="1">
         <f t="shared" si="1"/>
-        <v>3.8086956521739133</v>
+        <v>2.3783783783783785</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -1304,14 +1305,14 @@
         <v>0</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="U3" s="1">
         <f t="shared" si="3"/>
-        <v>51182.608695652169</v>
+        <v>32270.27027027027</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>45812</v>
       </c>
@@ -1322,30 +1323,30 @@
         <v>22</v>
       </c>
       <c r="D4" s="1">
-        <v>199</v>
+        <v>2700</v>
       </c>
       <c r="E4" s="1">
-        <v>180.5</v>
+        <v>2415</v>
       </c>
       <c r="F4" s="1">
-        <v>243</v>
+        <v>3151</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1">
         <f t="shared" si="0"/>
-        <v>162.16216216216216</v>
+        <v>10.526315789473685</v>
       </c>
       <c r="I4" s="1">
         <v>3000</v>
       </c>
       <c r="J4" s="1">
         <f t="shared" si="1"/>
-        <v>2.3783783783783785</v>
+        <v>1.5824561403508772</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -1365,10 +1366,10 @@
       </c>
       <c r="U4" s="1">
         <f t="shared" si="3"/>
-        <v>32270.27027027027</v>
+        <v>28421.05263157895</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45812</v>
       </c>
@@ -1379,30 +1380,30 @@
         <v>22</v>
       </c>
       <c r="D5" s="1">
-        <v>2700</v>
+        <v>631</v>
       </c>
       <c r="E5" s="1">
-        <v>2415</v>
+        <v>579</v>
       </c>
       <c r="F5" s="1">
-        <v>3151</v>
+        <v>760</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1">
         <f t="shared" si="0"/>
-        <v>10.526315789473685</v>
+        <v>57.692307692307693</v>
       </c>
       <c r="I5" s="1">
         <v>3000</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" si="1"/>
-        <v>1.5824561403508772</v>
+        <v>2.4807692307692308</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -1422,10 +1423,10 @@
       </c>
       <c r="U5" s="1">
         <f t="shared" si="3"/>
-        <v>28421.05263157895</v>
+        <v>36403.846153846156</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45812</v>
       </c>
@@ -1436,32 +1437,41 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>631</v>
+        <v>808</v>
       </c>
       <c r="E6" s="1">
-        <v>579</v>
+        <v>765</v>
       </c>
       <c r="F6" s="1">
-        <v>760</v>
-      </c>
-      <c r="G6" s="1"/>
+        <v>895</v>
+      </c>
+      <c r="G6" s="1">
+        <v>765.05</v>
+      </c>
       <c r="H6" s="1">
         <f t="shared" si="0"/>
-        <v>57.692307692307693</v>
+        <v>69.767441860465112</v>
       </c>
       <c r="I6" s="1">
         <v>3000</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" si="1"/>
-        <v>2.4807692307692308</v>
-      </c>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
+        <v>2.0232558139534884</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" s="1">
+        <f>(G6-D6)*H6</f>
+        <v>-2996.5116279069798</v>
+      </c>
       <c r="M6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N6" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1" t="s">
@@ -1472,61 +1482,60 @@
       </c>
       <c r="S6" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-2996.5116279069798</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="U6" s="1">
         <f t="shared" si="3"/>
-        <v>36403.846153846156</v>
+        <v>56372.093023255809</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45812</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="1">
-        <v>808</v>
+        <v>378</v>
       </c>
       <c r="E7" s="1">
-        <v>765</v>
+        <v>346</v>
       </c>
       <c r="F7" s="1">
-        <v>895</v>
+        <v>488</v>
       </c>
       <c r="G7" s="1">
-        <v>765.05</v>
+        <v>365.19</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="0"/>
-        <v>69.767441860465112</v>
+        <v>53</v>
       </c>
       <c r="I7" s="1">
-        <v>3000</v>
+        <v>1700</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" si="1"/>
-        <v>2.0232558139534884</v>
+        <v>3.4375</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L7" s="1">
         <f>(G7-D7)*H7</f>
-        <v>-2996.5116279069798</v>
+        <v>-678.93000000000006</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
@@ -1538,58 +1547,64 @@
       </c>
       <c r="S7" s="1">
         <f t="shared" si="2"/>
-        <v>-2996.5116279069798</v>
+        <v>-678.93000000000006</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U7" s="1">
         <f t="shared" si="3"/>
-        <v>56372.093023255809</v>
+        <v>20034</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45812</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="1">
-        <v>378</v>
+        <v>1278</v>
       </c>
       <c r="E8" s="1">
-        <v>346</v>
+        <v>1212</v>
       </c>
       <c r="F8" s="1">
-        <v>488</v>
+        <v>1597</v>
       </c>
       <c r="G8" s="1">
-        <v>365.19</v>
+        <v>1211.1500000000001</v>
       </c>
       <c r="H8" s="1">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="I8" s="1">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" si="1"/>
-        <v>3.4375</v>
-      </c>
-      <c r="K8" s="1"/>
+        <v>4.833333333333333</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="L8" s="1">
         <f>(G8-D8)*H8</f>
-        <v>-678.93000000000006</v>
+        <v>-1604.3999999999978</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1" t="s">
         <v>24</v>
@@ -1599,64 +1614,54 @@
       </c>
       <c r="S8" s="1">
         <f t="shared" si="2"/>
-        <v>-678.93000000000006</v>
+        <v>-1604.3999999999978</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U8" s="1">
         <f t="shared" si="3"/>
-        <v>20034</v>
+        <v>30672</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>45812</v>
+        <v>45814</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="1">
-        <v>1278</v>
+        <v>645</v>
       </c>
       <c r="E9" s="1">
-        <v>1212</v>
+        <v>579.79999999999995</v>
       </c>
       <c r="F9" s="1">
-        <v>1597</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1211.1500000000001</v>
-      </c>
+        <v>790</v>
+      </c>
+      <c r="G9" s="1"/>
       <c r="H9" s="1">
-        <v>24</v>
+        <f>I9/(D9-E9)</f>
+        <v>46.012269938650277</v>
       </c>
       <c r="I9" s="1">
-        <v>1600</v>
+        <v>3000</v>
       </c>
       <c r="J9" s="1">
         <f t="shared" si="1"/>
-        <v>4.833333333333333</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L9" s="1">
-        <f>(G9-D9)*H9</f>
-        <v>-1604.3999999999978</v>
-      </c>
+        <v>2.2239263803680966</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
       <c r="M9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>67</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1" t="s">
         <v>24</v>
@@ -1666,54 +1671,64 @@
       </c>
       <c r="S9" s="1">
         <f t="shared" si="2"/>
-        <v>-1604.3999999999978</v>
+        <v>0</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="U9" s="1">
         <f t="shared" si="3"/>
-        <v>30672</v>
+        <v>29677.914110429429</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>45814</v>
+        <v>45820</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="1">
-        <v>645</v>
+        <v>1316</v>
       </c>
       <c r="E10" s="1">
-        <v>579.79999999999995</v>
+        <v>1263</v>
       </c>
       <c r="F10" s="1">
-        <v>790</v>
-      </c>
-      <c r="G10" s="1"/>
+        <v>1485</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1312.5</v>
+      </c>
       <c r="H10" s="1">
-        <f>I10/(D10-E10)</f>
-        <v>46.012269938650277</v>
+        <v>56</v>
       </c>
       <c r="I10" s="1">
         <v>3000</v>
       </c>
       <c r="J10" s="1">
         <f t="shared" si="1"/>
-        <v>2.2239263803680966</v>
-      </c>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
+        <v>3.1886792452830188</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" ref="L10:L28" si="4">(G10-D10)*H10</f>
+        <v>-196</v>
+      </c>
       <c r="M10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1" t="s">
         <v>24</v>
@@ -1723,65 +1738,65 @@
       </c>
       <c r="S10" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-196</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="U10" s="1">
         <f t="shared" si="3"/>
-        <v>29677.914110429429</v>
+        <v>73696</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>45820</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D11" s="1">
-        <v>1316</v>
+        <v>1600</v>
       </c>
       <c r="E11" s="1">
-        <v>1263</v>
+        <v>1505</v>
       </c>
       <c r="F11" s="1">
-        <v>1485</v>
+        <v>1835</v>
       </c>
       <c r="G11" s="1">
-        <v>1312.5</v>
+        <v>1832.8</v>
       </c>
       <c r="H11" s="1">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="I11" s="1">
         <v>3000</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" si="1"/>
-        <v>3.1886792452830188</v>
+        <v>2.4736842105263159</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L11" s="1">
-        <f t="shared" ref="L11:L30" si="4">(G11-D11)*H11</f>
-        <v>-196</v>
+        <f t="shared" si="4"/>
+        <v>7216.7999999999984</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="P11" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="Q11" s="1" t="s">
         <v>24</v>
       </c>
@@ -1790,65 +1805,64 @@
       </c>
       <c r="S11" s="1">
         <f t="shared" si="2"/>
-        <v>-196</v>
+        <v>7216.7999999999984</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U11" s="1">
         <f t="shared" si="3"/>
-        <v>73696</v>
+        <v>49600</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>45820</v>
+        <v>45826</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D12" s="1">
-        <v>1600</v>
+        <v>237</v>
       </c>
       <c r="E12" s="1">
-        <v>1505</v>
+        <v>219.35</v>
       </c>
       <c r="F12" s="1">
-        <v>1835</v>
+        <v>270</v>
       </c>
       <c r="G12" s="1">
-        <v>1832.8</v>
+        <v>267.62</v>
       </c>
       <c r="H12" s="1">
-        <v>31</v>
+        <f>I12/(D12-E12)</f>
+        <v>169.97167138810192</v>
       </c>
       <c r="I12" s="1">
         <v>3000</v>
       </c>
       <c r="J12" s="1">
         <f t="shared" si="1"/>
-        <v>2.4736842105263159</v>
+        <v>1.8696883852691213</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L12" s="1">
         <f t="shared" si="4"/>
-        <v>7216.7999999999984</v>
+        <v>5204.5325779036821</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="O12" s="1"/>
-      <c r="P12" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="P12" s="1"/>
       <c r="Q12" s="1" t="s">
         <v>24</v>
       </c>
@@ -1857,61 +1871,60 @@
       </c>
       <c r="S12" s="1">
         <f t="shared" si="2"/>
-        <v>7216.7999999999984</v>
+        <v>5204.5325779036821</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U12" s="1">
         <f t="shared" si="3"/>
-        <v>49600</v>
+        <v>40283.286118980155</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45826</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="1">
-        <v>237</v>
+        <v>367</v>
       </c>
       <c r="E13" s="1">
-        <v>219.35</v>
+        <v>350</v>
       </c>
       <c r="F13" s="1">
-        <v>270</v>
+        <v>424</v>
       </c>
       <c r="G13" s="1">
-        <v>267.62</v>
+        <v>348.95</v>
       </c>
       <c r="H13" s="1">
-        <f>I13/(D13-E13)</f>
-        <v>169.97167138810192</v>
+        <v>176</v>
       </c>
       <c r="I13" s="1">
         <v>3000</v>
       </c>
       <c r="J13" s="1">
         <f t="shared" si="1"/>
-        <v>1.8696883852691213</v>
+        <v>3.3529411764705883</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="L13" s="1">
         <f t="shared" si="4"/>
-        <v>5204.5325779036821</v>
+        <v>-3176.800000000002</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -1923,60 +1936,61 @@
       </c>
       <c r="S13" s="1">
         <f t="shared" si="2"/>
-        <v>5204.5325779036821</v>
+        <v>-3176.800000000002</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U13" s="1">
         <f t="shared" si="3"/>
-        <v>40283.286118980155</v>
+        <v>64592</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>45826</v>
+        <v>45827</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="1">
-        <v>367</v>
+        <v>943</v>
       </c>
       <c r="E14" s="1">
-        <v>350</v>
+        <v>887</v>
       </c>
       <c r="F14" s="1">
-        <v>424</v>
+        <v>1113</v>
       </c>
       <c r="G14" s="1">
-        <v>348.95</v>
+        <v>966.67</v>
       </c>
       <c r="H14" s="1">
-        <v>176</v>
+        <f t="shared" ref="H14:H22" si="5">I14/(D14-E14)</f>
+        <v>53.571428571428569</v>
       </c>
       <c r="I14" s="1">
         <v>3000</v>
       </c>
       <c r="J14" s="1">
         <f t="shared" si="1"/>
-        <v>3.3529411764705883</v>
+        <v>3.0357142857142856</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L14" s="1">
         <f t="shared" si="4"/>
-        <v>-3176.800000000002</v>
+        <v>1268.0357142857119</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -1988,61 +2002,61 @@
       </c>
       <c r="S14" s="1">
         <f t="shared" si="2"/>
-        <v>-3176.800000000002</v>
+        <v>1268.0357142857119</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U14" s="1">
         <f t="shared" si="3"/>
-        <v>64592</v>
+        <v>50517.857142857138</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>45827</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="1">
-        <v>943</v>
+        <v>1866</v>
       </c>
       <c r="E15" s="1">
-        <v>887</v>
+        <v>1762</v>
       </c>
       <c r="F15" s="1">
-        <v>1113</v>
+        <v>2225</v>
       </c>
       <c r="G15" s="1">
-        <v>966.67</v>
+        <v>1763.1</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" ref="H15:H24" si="5">I15/(D15-E15)</f>
-        <v>53.571428571428569</v>
+        <f t="shared" si="5"/>
+        <v>28.846153846153847</v>
       </c>
       <c r="I15" s="1">
         <v>3000</v>
       </c>
       <c r="J15" s="1">
         <f t="shared" si="1"/>
-        <v>3.0357142857142856</v>
+        <v>3.4519230769230771</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="L15" s="1">
         <f t="shared" si="4"/>
-        <v>1268.0357142857119</v>
+        <v>-2968.2692307692337</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -2054,61 +2068,60 @@
       </c>
       <c r="S15" s="1">
         <f t="shared" si="2"/>
-        <v>1268.0357142857119</v>
+        <v>-2968.2692307692337</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U15" s="1">
         <f t="shared" si="3"/>
-        <v>50517.857142857138</v>
+        <v>53826.923076923078</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>45827</v>
+        <v>45841</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D16" s="1">
-        <v>1866</v>
+        <v>2038.32</v>
       </c>
       <c r="E16" s="1">
-        <v>1762</v>
+        <v>1925</v>
       </c>
       <c r="F16" s="1">
-        <v>2225</v>
+        <v>2495</v>
       </c>
       <c r="G16" s="1">
-        <v>1763.1</v>
+        <v>2103.1799999999998</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="5"/>
-        <v>28.846153846153847</v>
+        <v>23</v>
       </c>
       <c r="I16" s="1">
         <v>3000</v>
       </c>
       <c r="J16" s="1">
         <f t="shared" si="1"/>
-        <v>3.4519230769230771</v>
+        <v>4.0300035298270416</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L16" s="1">
         <f t="shared" si="4"/>
-        <v>-2968.2692307692337</v>
+        <v>1491.7799999999977</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
@@ -2120,120 +2133,116 @@
       </c>
       <c r="S16" s="1">
         <f t="shared" si="2"/>
-        <v>-2968.2692307692337</v>
+        <v>1491.7799999999977</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U16" s="1">
         <f t="shared" si="3"/>
-        <v>53826.923076923078</v>
+        <v>46881.36</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>45841</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="1" t="s">
+        <v>45834</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="1">
-        <v>2038.32</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1925</v>
-      </c>
-      <c r="F17" s="1">
-        <v>2495</v>
-      </c>
-      <c r="G17" s="1">
-        <v>2103.1799999999998</v>
-      </c>
-      <c r="H17" s="1">
-        <v>23</v>
-      </c>
-      <c r="I17" s="1">
-        <v>3000</v>
-      </c>
-      <c r="J17" s="1">
+      <c r="D17" s="3">
+        <v>794</v>
+      </c>
+      <c r="E17" s="3">
+        <v>707</v>
+      </c>
+      <c r="F17" s="3">
+        <v>942</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3">
+        <f t="shared" si="5"/>
+        <v>47.126436781609193</v>
+      </c>
+      <c r="I17" s="3">
+        <v>4100</v>
+      </c>
+      <c r="J17" s="3">
         <f t="shared" si="1"/>
-        <v>4.0300035298270416</v>
-      </c>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1">
-        <f t="shared" si="4"/>
-        <v>1491.7799999999977</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1" t="s">
+        <v>1.7011494252873562</v>
+      </c>
+      <c r="K17" s="3"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R17" s="1" t="s">
+      <c r="R17" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="S17" s="1">
+      <c r="S17" s="3">
         <f t="shared" si="2"/>
-        <v>1491.7799999999977</v>
-      </c>
-      <c r="T17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="U17" s="1">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="U17" s="3">
         <f t="shared" si="3"/>
-        <v>46881.36</v>
+        <v>37418.3908045977</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>45834</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D18" s="3">
-        <v>794</v>
+        <v>587</v>
       </c>
       <c r="E18" s="3">
-        <v>707</v>
+        <v>515</v>
       </c>
       <c r="F18" s="3">
-        <v>942</v>
+        <v>748</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3">
         <f t="shared" si="5"/>
-        <v>47.126436781609193</v>
+        <v>54.166666666666664</v>
       </c>
       <c r="I18" s="3">
-        <v>4100</v>
+        <v>3900</v>
       </c>
       <c r="J18" s="3">
         <f t="shared" si="1"/>
-        <v>1.7011494252873562</v>
+        <v>2.2361111111111112</v>
       </c>
       <c r="K18" s="3"/>
       <c r="L18" s="1"/>
       <c r="M18" s="3" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
-      <c r="Q18" s="3" t="s">
+      <c r="Q18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="R18" s="3" t="s">
+      <c r="R18" s="1" t="s">
         <v>25</v>
       </c>
       <c r="S18" s="3">
@@ -2245,124 +2254,132 @@
       </c>
       <c r="U18" s="3">
         <f t="shared" si="3"/>
-        <v>37418.3908045977</v>
+        <v>31795.833333333332</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>45834</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="3" t="s">
+      <c r="B19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="3">
-        <v>10321</v>
-      </c>
-      <c r="E19" s="3">
-        <v>9720</v>
-      </c>
-      <c r="F19" s="3">
-        <v>11576</v>
-      </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3">
+      <c r="D19" s="1">
+        <v>1514.5</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1413</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1863</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1">
         <f t="shared" si="5"/>
-        <v>4.9916805324459235</v>
-      </c>
-      <c r="I19" s="3">
+        <v>29.55665024630542</v>
+      </c>
+      <c r="I19" s="1">
         <v>3000</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J19" s="1">
         <f t="shared" si="1"/>
-        <v>2.0881863560732112</v>
-      </c>
-      <c r="K19" s="3"/>
+        <v>3.4334975369458127</v>
+      </c>
+      <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
+      <c r="M19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
       <c r="Q19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="R19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="S19" s="3">
+      <c r="S19" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="U19" s="3">
+        <v>26</v>
+      </c>
+      <c r="U19" s="1">
         <f t="shared" si="3"/>
-        <v>51519.134775374376</v>
+        <v>44763.546798029558</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>45834</v>
-      </c>
-      <c r="B20" s="3" t="s">
+        <v>45845</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="3">
-        <v>587</v>
-      </c>
-      <c r="E20" s="3">
-        <v>515</v>
-      </c>
-      <c r="F20" s="3">
-        <v>748</v>
-      </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3">
-        <f t="shared" si="5"/>
-        <v>54.166666666666664</v>
-      </c>
-      <c r="I20" s="3">
-        <v>3900</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="D20" s="1">
+        <v>2648</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2370</v>
+      </c>
+      <c r="F20" s="1">
+        <v>3200</v>
+      </c>
+      <c r="G20" s="1">
+        <v>2667.3</v>
+      </c>
+      <c r="H20" s="1">
+        <v>11</v>
+      </c>
+      <c r="I20" s="1">
+        <v>3000</v>
+      </c>
+      <c r="J20" s="1">
         <f t="shared" si="1"/>
-        <v>2.2361111111111112</v>
-      </c>
-      <c r="K20" s="3"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
+        <v>1.985611510791367</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L20" s="1">
+        <f t="shared" si="4"/>
+        <v>212.300000000002</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
       <c r="Q20" s="1" t="s">
         <v>24</v>
       </c>
       <c r="R20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="S20" s="3">
+      <c r="S20" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T20" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="U20" s="3">
+        <v>212.300000000002</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U20" s="1">
         <f t="shared" si="3"/>
-        <v>31795.833333333332</v>
+        <v>29128</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>45834</v>
       </c>
@@ -2373,32 +2390,40 @@
         <v>22</v>
       </c>
       <c r="D21" s="1">
-        <v>1514.5</v>
+        <v>3207</v>
       </c>
       <c r="E21" s="1">
-        <v>1413</v>
+        <v>3110</v>
       </c>
       <c r="F21" s="1">
-        <v>1863</v>
-      </c>
-      <c r="G21" s="1"/>
+        <v>3575</v>
+      </c>
+      <c r="G21" s="1">
+        <v>3110.08</v>
+      </c>
       <c r="H21" s="1">
-        <f t="shared" si="5"/>
-        <v>29.55665024630542</v>
+        <v>32</v>
       </c>
       <c r="I21" s="1">
         <v>3000</v>
       </c>
       <c r="J21" s="1">
         <f t="shared" si="1"/>
-        <v>3.4334975369458127</v>
-      </c>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
+        <v>3.7938144329896906</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L21" s="1">
+        <f t="shared" si="4"/>
+        <v>-3101.4400000000023</v>
+      </c>
       <c r="M21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N21" s="1"/>
+        <v>57</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1" t="s">
@@ -2409,19 +2434,19 @@
       </c>
       <c r="S21" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-3101.4400000000023</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="U21" s="1">
         <f t="shared" si="3"/>
-        <v>44763.546798029558</v>
+        <v>102624</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>45845</v>
+        <v>45834</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>62</v>
@@ -2430,34 +2455,30 @@
         <v>22</v>
       </c>
       <c r="D22" s="1">
-        <v>2648</v>
+        <v>106.9</v>
       </c>
       <c r="E22" s="1">
-        <v>2370</v>
+        <v>99.8</v>
       </c>
       <c r="F22" s="1">
-        <v>3200</v>
-      </c>
-      <c r="G22" s="1">
-        <v>2667.3</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G22" s="1"/>
       <c r="H22" s="1">
-        <v>11</v>
+        <f t="shared" si="5"/>
+        <v>422.53521126760512</v>
       </c>
       <c r="I22" s="1">
         <v>3000</v>
       </c>
       <c r="J22" s="1">
         <f t="shared" si="1"/>
-        <v>1.985611510791367</v>
+        <v>6.0704225352112591</v>
       </c>
       <c r="K22" s="1"/>
-      <c r="L22" s="1">
-        <f t="shared" si="4"/>
-        <v>212.300000000002</v>
-      </c>
+      <c r="L22" s="1"/>
       <c r="M22" s="1" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
@@ -2470,53 +2491,62 @@
       </c>
       <c r="S22" s="1">
         <f t="shared" si="2"/>
-        <v>212.300000000002</v>
+        <v>0</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="U22" s="1">
         <f t="shared" si="3"/>
-        <v>29128</v>
+        <v>45169.014084506991</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>45834</v>
+        <v>45845</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D23" s="1">
-        <v>3207</v>
+        <v>106.9</v>
       </c>
       <c r="E23" s="1">
-        <v>3110</v>
+        <v>99.8</v>
       </c>
       <c r="F23" s="1">
-        <v>3575</v>
-      </c>
-      <c r="G23" s="1"/>
+        <v>150</v>
+      </c>
+      <c r="G23" s="1">
+        <v>113.5</v>
+      </c>
       <c r="H23" s="1">
-        <f t="shared" si="5"/>
-        <v>30.927835051546392</v>
+        <f>I23/(D23-E23)</f>
+        <v>422.53521126760512</v>
       </c>
       <c r="I23" s="1">
         <v>3000</v>
       </c>
       <c r="J23" s="1">
         <f t="shared" si="1"/>
-        <v>3.7938144329896906</v>
-      </c>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
+        <v>6.0704225352112591</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L23" s="1">
+        <f t="shared" si="4"/>
+        <v>2788.7323943661913</v>
+      </c>
       <c r="M23" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="N23" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1" t="s">
@@ -2527,51 +2557,51 @@
       </c>
       <c r="S23" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2788.7323943661913</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="U23" s="1">
-        <f t="shared" si="3"/>
-        <v>99185.567010309285</v>
+        <f>H23*D23</f>
+        <v>45169.014084506991</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>45834</v>
+        <v>45847</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="1">
-        <v>106.9</v>
+      <c r="D24" s="5">
+        <v>2088.9</v>
       </c>
       <c r="E24" s="1">
-        <v>99.8</v>
+        <v>1925</v>
       </c>
       <c r="F24" s="1">
-        <v>150</v>
+        <v>2500</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1">
-        <f t="shared" si="5"/>
-        <v>422.53521126760512</v>
+        <f t="shared" ref="H24:H28" si="6">I24/(D24-E24)</f>
+        <v>18.303843807199502</v>
       </c>
       <c r="I24" s="1">
         <v>3000</v>
       </c>
       <c r="J24" s="1">
         <f t="shared" si="1"/>
-        <v>6.0704225352112591</v>
+        <v>2.508236729713238</v>
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
@@ -2591,49 +2621,44 @@
       </c>
       <c r="U24" s="1">
         <f t="shared" si="3"/>
-        <v>45169.014084506991</v>
+        <v>38234.899328859043</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="1">
-        <v>106.9</v>
+      <c r="D25" s="5">
+        <v>2663.3</v>
       </c>
       <c r="E25" s="1">
-        <v>99.8</v>
+        <v>2377.8000000000002</v>
       </c>
       <c r="F25" s="1">
-        <v>150</v>
-      </c>
-      <c r="G25" s="1">
-        <v>113.5</v>
-      </c>
+        <v>3500</v>
+      </c>
+      <c r="G25" s="1"/>
       <c r="H25" s="1">
-        <f>I25/(D25-E25)</f>
-        <v>422.53521126760512</v>
+        <f t="shared" si="6"/>
+        <v>10.507880910683012</v>
       </c>
       <c r="I25" s="1">
         <v>3000</v>
       </c>
       <c r="J25" s="1">
         <f t="shared" si="1"/>
-        <v>6.0704225352112591</v>
+        <v>2.9306479859894914</v>
       </c>
       <c r="K25" s="1"/>
-      <c r="L25" s="1">
-        <f t="shared" si="4"/>
-        <v>2788.7323943661913</v>
-      </c>
+      <c r="L25" s="1"/>
       <c r="M25" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
@@ -2646,57 +2671,74 @@
       </c>
       <c r="S25" s="1">
         <f t="shared" si="2"/>
-        <v>2788.7323943661913</v>
+        <v>0</v>
       </c>
       <c r="T25" s="1" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="U25" s="1">
-        <f>H25*D25</f>
-        <v>45169.014084506991</v>
+        <f t="shared" si="3"/>
+        <v>27985.639229422068</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A26" s="2"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>45847</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1655</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1558</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1990</v>
+      </c>
       <c r="G26" s="1"/>
-      <c r="H26" s="1" t="e">
-        <f t="shared" ref="H26:H30" si="6">I26/(D26-E26)</f>
-        <v>#DIV/0!</v>
+      <c r="H26" s="1">
+        <f t="shared" si="6"/>
+        <v>30.927835051546392</v>
       </c>
       <c r="I26" s="1">
         <v>3000</v>
       </c>
-      <c r="J26" s="1" t="e">
+      <c r="J26" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>3.4536082474226806</v>
       </c>
       <c r="K26" s="1"/>
-      <c r="L26" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1" t="e">
+      <c r="Q26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S26" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U26" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>51185.567010309278</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -2736,7 +2778,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2772,94 +2814,14 @@
       </c>
       <c r="T28" s="1"/>
       <c r="U28" s="1" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A29" s="2"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I29" s="1">
-        <v>3000</v>
-      </c>
-      <c r="J29" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T29" s="1"/>
-      <c r="U29" s="1" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A30" s="2"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I30" s="1">
-        <v>3000</v>
-      </c>
-      <c r="J30" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T30" s="1"/>
-      <c r="U30" s="1" t="e">
-        <f>H30*D30</f>
+        <f>H28*D28</f>
         <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U30" xr:uid="{8090FE0B-E5CF-476B-8F9F-EA27021FD68D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U22">
-      <sortCondition ref="A1:A22"/>
+  <autoFilter ref="A1:U28" xr:uid="{8090FE0B-E5CF-476B-8F9F-EA27021FD68D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U20">
+      <sortCondition ref="A1:A20"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trading_journal.xlsx
+++ b/trading_journal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deshmukp\Downloads\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{228FC239-20B2-422B-AFCB-A3719C3E8EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD278CD-EC82-4736-90D0-F5A5D4F1ADA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{0B36B6A0-2720-41CF-B289-397E14AB5A0A}"/>
+    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{0B36B6A0-2720-41CF-B289-397E14AB5A0A}"/>
   </bookViews>
   <sheets>
     <sheet name="trading_journal" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="79">
   <si>
     <t>Date</t>
   </si>
@@ -246,6 +246,33 @@
   </si>
   <si>
     <t xml:space="preserve">All Time Breakout Retest  </t>
+  </si>
+  <si>
+    <t>Supriya Lifescience</t>
+  </si>
+  <si>
+    <t>APL Apollo Tubes</t>
+  </si>
+  <si>
+    <t>Astra Microwave Products</t>
+  </si>
+  <si>
+    <t>Symmetrical Triangle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W - CMO 24.94  CRSI 0.04 avg 0.03  RSI 58 MVA above 40,52 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">W - CMO 7.40  CRSI 0.07  RSI 53 MVA above 40,52 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">W - CMO 31  CRSI 0.03 avg 0.2 RSI 54 MVA above 40,52 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">W - CMO -55  CRSI 0.07 avg 0.7 RSI 42 MVA below 10 40,52 </t>
+  </si>
+  <si>
+    <t>Support Level - 3 green doji with more than avg volumne</t>
   </si>
 </sst>
 </file>
@@ -1106,10 +1133,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8090FE0B-E5CF-476B-8F9F-EA27021FD68D}">
-  <dimension ref="A1:U28"/>
+  <dimension ref="A1:U36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:U26"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="T26" sqref="T26:T29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1226,7 +1253,7 @@
         <v>3000</v>
       </c>
       <c r="J2" s="1">
-        <f t="shared" ref="J2:J28" si="1">(F2-D2)/(D2-E2)</f>
+        <f t="shared" ref="J2:J36" si="1">(F2-D2)/(D2-E2)</f>
         <v>2.7071102413568169</v>
       </c>
       <c r="K2" s="1"/>
@@ -1244,7 +1271,7 @@
         <v>25</v>
       </c>
       <c r="S2" s="1">
-        <f t="shared" ref="S2:S28" si="2">L2</f>
+        <f t="shared" ref="S2:S36" si="2">L2</f>
         <v>0</v>
       </c>
       <c r="T2" s="1" t="s">
@@ -1717,7 +1744,7 @@
         <v>44</v>
       </c>
       <c r="L10" s="1">
-        <f t="shared" ref="L10:L28" si="4">(G10-D10)*H10</f>
+        <f t="shared" ref="L10:L36" si="4">(G10-D10)*H10</f>
         <v>-196</v>
       </c>
       <c r="M10" s="1" t="s">
@@ -2164,11 +2191,11 @@
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3">
-        <f t="shared" si="5"/>
-        <v>47.126436781609193</v>
+        <v>47</v>
       </c>
       <c r="I17" s="3">
-        <v>4100</v>
+        <f>(D17-E17)*H17</f>
+        <v>4089</v>
       </c>
       <c r="J17" s="3">
         <f t="shared" si="1"/>
@@ -2197,7 +2224,7 @@
       </c>
       <c r="U17" s="3">
         <f t="shared" si="3"/>
-        <v>37418.3908045977</v>
+        <v>37318</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
@@ -2221,11 +2248,11 @@
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3">
-        <f t="shared" si="5"/>
-        <v>54.166666666666664</v>
+        <v>54</v>
       </c>
       <c r="I18" s="3">
-        <v>3900</v>
+        <f>(D18-E18)*H18</f>
+        <v>3888</v>
       </c>
       <c r="J18" s="3">
         <f t="shared" si="1"/>
@@ -2254,7 +2281,7 @@
       </c>
       <c r="U18" s="3">
         <f t="shared" si="3"/>
-        <v>31795.833333333332</v>
+        <v>31698</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
@@ -2278,11 +2305,11 @@
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1">
-        <f t="shared" si="5"/>
-        <v>29.55665024630542</v>
+        <v>30</v>
       </c>
       <c r="I19" s="1">
-        <v>3000</v>
+        <f t="shared" ref="I19:I29" si="6">(D19-E19)*H19</f>
+        <v>3045</v>
       </c>
       <c r="J19" s="1">
         <f t="shared" si="1"/>
@@ -2311,7 +2338,7 @@
       </c>
       <c r="U19" s="1">
         <f t="shared" si="3"/>
-        <v>44763.546798029558</v>
+        <v>45435</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
@@ -2340,7 +2367,8 @@
         <v>11</v>
       </c>
       <c r="I20" s="1">
-        <v>3000</v>
+        <f t="shared" si="6"/>
+        <v>3058</v>
       </c>
       <c r="J20" s="1">
         <f t="shared" si="1"/>
@@ -2405,7 +2433,8 @@
         <v>32</v>
       </c>
       <c r="I21" s="1">
-        <v>3000</v>
+        <f t="shared" si="6"/>
+        <v>3104</v>
       </c>
       <c r="J21" s="1">
         <f t="shared" si="1"/>
@@ -2465,11 +2494,11 @@
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1">
-        <f t="shared" si="5"/>
-        <v>422.53521126760512</v>
+        <v>429</v>
       </c>
       <c r="I22" s="1">
-        <v>3000</v>
+        <f t="shared" si="6"/>
+        <v>3045.9000000000037</v>
       </c>
       <c r="J22" s="1">
         <f t="shared" si="1"/>
@@ -2498,7 +2527,7 @@
       </c>
       <c r="U22" s="1">
         <f t="shared" si="3"/>
-        <v>45169.014084506991</v>
+        <v>45860.100000000006</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
@@ -2524,11 +2553,11 @@
         <v>113.5</v>
       </c>
       <c r="H23" s="1">
-        <f>I23/(D23-E23)</f>
-        <v>422.53521126760512</v>
+        <v>429</v>
       </c>
       <c r="I23" s="1">
-        <v>3000</v>
+        <f t="shared" si="6"/>
+        <v>3045.9000000000037</v>
       </c>
       <c r="J23" s="1">
         <f t="shared" si="1"/>
@@ -2539,7 +2568,7 @@
       </c>
       <c r="L23" s="1">
         <f t="shared" si="4"/>
-        <v>2788.7323943661913</v>
+        <v>2831.3999999999974</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>63</v>
@@ -2557,14 +2586,14 @@
       </c>
       <c r="S23" s="1">
         <f t="shared" si="2"/>
-        <v>2788.7323943661913</v>
+        <v>2831.3999999999974</v>
       </c>
       <c r="T23" s="1" t="s">
         <v>46</v>
       </c>
       <c r="U23" s="1">
         <f>H23*D23</f>
-        <v>45169.014084506991</v>
+        <v>45860.100000000006</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
@@ -2588,11 +2617,11 @@
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1">
-        <f t="shared" ref="H24:H28" si="6">I24/(D24-E24)</f>
-        <v>18.303843807199502</v>
-      </c>
-      <c r="I24" s="1">
-        <v>3000</v>
+        <v>26</v>
+      </c>
+      <c r="I24" s="3">
+        <f t="shared" si="6"/>
+        <v>4261.4000000000024</v>
       </c>
       <c r="J24" s="1">
         <f t="shared" si="1"/>
@@ -2621,7 +2650,7 @@
       </c>
       <c r="U24" s="1">
         <f t="shared" si="3"/>
-        <v>38234.899328859043</v>
+        <v>54311.4</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
@@ -2645,11 +2674,11 @@
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1">
+        <v>11</v>
+      </c>
+      <c r="I25" s="1">
         <f t="shared" si="6"/>
-        <v>10.507880910683012</v>
-      </c>
-      <c r="I25" s="1">
-        <v>3000</v>
+        <v>3140.5</v>
       </c>
       <c r="J25" s="1">
         <f t="shared" si="1"/>
@@ -2678,7 +2707,7 @@
       </c>
       <c r="U25" s="1">
         <f t="shared" si="3"/>
-        <v>27985.639229422068</v>
+        <v>29296.300000000003</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
@@ -2702,11 +2731,11 @@
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1">
+        <v>30</v>
+      </c>
+      <c r="I26" s="1">
         <f t="shared" si="6"/>
-        <v>30.927835051546392</v>
-      </c>
-      <c r="I26" s="1">
-        <v>3000</v>
+        <v>2910</v>
       </c>
       <c r="J26" s="1">
         <f t="shared" si="1"/>
@@ -2715,11 +2744,13 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
+      <c r="P26" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="Q26" s="1" t="s">
         <v>24</v>
       </c>
@@ -2735,86 +2766,449 @@
       </c>
       <c r="U26" s="1">
         <f t="shared" si="3"/>
-        <v>51185.567010309278</v>
+        <v>49650</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+      <c r="A27" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="1">
+        <v>725</v>
+      </c>
+      <c r="E27" s="1">
+        <v>634</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1093</v>
+      </c>
       <c r="G27" s="1"/>
-      <c r="H27" s="1" t="e">
+      <c r="H27" s="1">
+        <v>34</v>
+      </c>
+      <c r="I27" s="1">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I27" s="1">
-        <v>3000</v>
-      </c>
-      <c r="J27" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>3094</v>
+      </c>
+      <c r="J27" s="1">
+        <f t="shared" si="1"/>
+        <v>4.0439560439560438</v>
       </c>
       <c r="K27" s="1"/>
-      <c r="L27" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1" t="e">
+      <c r="P27" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S27" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U27" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>24650</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
+      <c r="A28" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1717</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1618</v>
+      </c>
+      <c r="F28" s="1">
+        <v>2075</v>
+      </c>
       <c r="G28" s="1"/>
-      <c r="H28" s="1" t="e">
+      <c r="H28" s="1">
+        <v>30</v>
+      </c>
+      <c r="I28" s="1">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I28" s="1">
-        <v>3000</v>
-      </c>
-      <c r="J28" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>2970</v>
+      </c>
+      <c r="J28" s="1">
+        <f t="shared" si="1"/>
+        <v>3.6161616161616164</v>
       </c>
       <c r="K28" s="1"/>
-      <c r="L28" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T28" s="1"/>
-      <c r="U28" s="1" t="e">
+      <c r="P28" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S28" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U28" s="1">
         <f>H28*D28</f>
+        <v>51510</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>45853</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="1">
+        <v>999</v>
+      </c>
+      <c r="E29" s="1">
+        <v>912</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1306</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1">
+        <v>34</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" si="6"/>
+        <v>2958</v>
+      </c>
+      <c r="J29" s="1">
+        <f t="shared" si="1"/>
+        <v>3.5287356321839081</v>
+      </c>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S29" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U29" s="1">
+        <f t="shared" ref="U29:U36" si="7">H29*D29</f>
+        <v>33966</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1" t="e">
+        <f t="shared" ref="H24:H36" si="8">I30/(D30-E30)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1" t="e">
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2825,5 +3219,6 @@
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/trading_journal.xlsx
+++ b/trading_journal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deshmukp\Downloads\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD278CD-EC82-4736-90D0-F5A5D4F1ADA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69EC3C8F-2F3C-408A-8819-951E3294B3FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{0B36B6A0-2720-41CF-B289-397E14AB5A0A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{0B36B6A0-2720-41CF-B289-397E14AB5A0A}"/>
   </bookViews>
   <sheets>
     <sheet name="trading_journal" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="80">
   <si>
     <t>Date</t>
   </si>
@@ -273,6 +273,9 @@
   </si>
   <si>
     <t>Support Level - 3 green doji with more than avg volumne</t>
+  </si>
+  <si>
+    <t>All time hight as support level but didn’t wait for revarsal</t>
   </si>
 </sst>
 </file>
@@ -1135,32 +1138,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8090FE0B-E5CF-476B-8F9F-EA27021FD68D}">
   <dimension ref="A1:U36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="T26" sqref="T26:T29"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="4" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.7265625" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" customWidth="1"/>
+    <col min="4" max="5" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.26953125" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.54296875" customWidth="1"/>
+    <col min="11" max="11" width="13.26953125" customWidth="1"/>
+    <col min="12" max="12" width="10.81640625" customWidth="1"/>
     <col min="13" max="13" width="23" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.42578125" customWidth="1"/>
-    <col min="17" max="17" width="15.28515625" customWidth="1"/>
-    <col min="19" max="19" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" customWidth="1"/>
+    <col min="15" max="15" width="19.453125" customWidth="1"/>
+    <col min="17" max="17" width="15.26953125" customWidth="1"/>
+    <col min="19" max="19" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.453125" customWidth="1"/>
     <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1225,7 +1228,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>45812</v>
       </c>
@@ -1246,14 +1249,14 @@
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1">
-        <f t="shared" ref="H2:H6" si="0">I2/(D2-E2)</f>
+        <f>I2/(D2-E2)</f>
         <v>97.847358121330728</v>
       </c>
       <c r="I2" s="1">
         <v>3000</v>
       </c>
       <c r="J2" s="1">
-        <f t="shared" ref="J2:J36" si="1">(F2-D2)/(D2-E2)</f>
+        <f>(F2-D2)/(D2-E2)</f>
         <v>2.7071102413568169</v>
       </c>
       <c r="K2" s="1"/>
@@ -1271,18 +1274,18 @@
         <v>25</v>
       </c>
       <c r="S2" s="1">
-        <f t="shared" ref="S2:S36" si="2">L2</f>
+        <f>L2</f>
         <v>0</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>26</v>
       </c>
       <c r="U2" s="1">
-        <f t="shared" ref="U2:U27" si="3">H2*D2</f>
+        <f>H2*D2</f>
         <v>20058.708414872799</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>45812</v>
       </c>
@@ -1303,14 +1306,14 @@
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1">
-        <f t="shared" si="0"/>
+        <f>I3/(D3-E3)</f>
         <v>162.16216216216216</v>
       </c>
       <c r="I3" s="1">
         <v>3000</v>
       </c>
       <c r="J3" s="1">
-        <f t="shared" si="1"/>
+        <f>(F3-D3)/(D3-E3)</f>
         <v>2.3783783783783785</v>
       </c>
       <c r="K3" s="1"/>
@@ -1328,18 +1331,18 @@
         <v>25</v>
       </c>
       <c r="S3" s="1">
-        <f t="shared" si="2"/>
+        <f>L3</f>
         <v>0</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>26</v>
       </c>
       <c r="U3" s="1">
-        <f t="shared" si="3"/>
+        <f>H3*D3</f>
         <v>32270.27027027027</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>45812</v>
       </c>
@@ -1360,14 +1363,14 @@
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1">
-        <f t="shared" si="0"/>
+        <f>I4/(D4-E4)</f>
         <v>10.526315789473685</v>
       </c>
       <c r="I4" s="1">
         <v>3000</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" si="1"/>
+        <f>(F4-D4)/(D4-E4)</f>
         <v>1.5824561403508772</v>
       </c>
       <c r="K4" s="1"/>
@@ -1385,18 +1388,18 @@
         <v>25</v>
       </c>
       <c r="S4" s="1">
-        <f t="shared" si="2"/>
+        <f>L4</f>
         <v>0</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="U4" s="1">
-        <f t="shared" si="3"/>
+        <f>H4*D4</f>
         <v>28421.05263157895</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>45812</v>
       </c>
@@ -1417,14 +1420,14 @@
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1">
-        <f t="shared" si="0"/>
+        <f>I5/(D5-E5)</f>
         <v>57.692307692307693</v>
       </c>
       <c r="I5" s="1">
         <v>3000</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" si="1"/>
+        <f>(F5-D5)/(D5-E5)</f>
         <v>2.4807692307692308</v>
       </c>
       <c r="K5" s="1"/>
@@ -1442,18 +1445,18 @@
         <v>25</v>
       </c>
       <c r="S5" s="1">
-        <f t="shared" si="2"/>
+        <f>L5</f>
         <v>0</v>
       </c>
       <c r="T5" s="1" t="s">
         <v>26</v>
       </c>
       <c r="U5" s="1">
-        <f t="shared" si="3"/>
+        <f>H5*D5</f>
         <v>36403.846153846156</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>45812</v>
       </c>
@@ -1476,14 +1479,14 @@
         <v>765.05</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="0"/>
+        <f>I6/(D6-E6)</f>
         <v>69.767441860465112</v>
       </c>
       <c r="I6" s="1">
         <v>3000</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="1"/>
+        <f>(F6-D6)/(D6-E6)</f>
         <v>2.0232558139534884</v>
       </c>
       <c r="K6" s="1" t="s">
@@ -1508,18 +1511,18 @@
         <v>25</v>
       </c>
       <c r="S6" s="1">
-        <f t="shared" si="2"/>
+        <f>L6</f>
         <v>-2996.5116279069798</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>46</v>
       </c>
       <c r="U6" s="1">
-        <f t="shared" si="3"/>
+        <f>H6*D6</f>
         <v>56372.093023255809</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>45812</v>
       </c>
@@ -1548,7 +1551,7 @@
         <v>1700</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="1"/>
+        <f>(F7-D7)/(D7-E7)</f>
         <v>3.4375</v>
       </c>
       <c r="K7" s="1" t="s">
@@ -1573,18 +1576,18 @@
         <v>25</v>
       </c>
       <c r="S7" s="1">
-        <f t="shared" si="2"/>
+        <f>L7</f>
         <v>-678.93000000000006</v>
       </c>
       <c r="T7" s="1" t="s">
         <v>46</v>
       </c>
       <c r="U7" s="1">
-        <f t="shared" si="3"/>
+        <f>H7*D7</f>
         <v>20034</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>45812</v>
       </c>
@@ -1613,7 +1616,7 @@
         <v>1600</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="1"/>
+        <f>(F8-D8)/(D8-E8)</f>
         <v>4.833333333333333</v>
       </c>
       <c r="K8" s="1" t="s">
@@ -1640,18 +1643,18 @@
         <v>25</v>
       </c>
       <c r="S8" s="1">
-        <f t="shared" si="2"/>
+        <f>L8</f>
         <v>-1604.3999999999978</v>
       </c>
       <c r="T8" s="1" t="s">
         <v>46</v>
       </c>
       <c r="U8" s="1">
-        <f t="shared" si="3"/>
+        <f>H8*D8</f>
         <v>30672</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>45814</v>
       </c>
@@ -1679,7 +1682,7 @@
         <v>3000</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="1"/>
+        <f>(F9-D9)/(D9-E9)</f>
         <v>2.2239263803680966</v>
       </c>
       <c r="K9" s="1"/>
@@ -1697,18 +1700,18 @@
         <v>25</v>
       </c>
       <c r="S9" s="1">
-        <f t="shared" si="2"/>
+        <f>L9</f>
         <v>0</v>
       </c>
       <c r="T9" s="1" t="s">
         <v>26</v>
       </c>
       <c r="U9" s="1">
-        <f t="shared" si="3"/>
+        <f>H9*D9</f>
         <v>29677.914110429429</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>45820</v>
       </c>
@@ -1737,14 +1740,14 @@
         <v>3000</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="1"/>
+        <f>(F10-D10)/(D10-E10)</f>
         <v>3.1886792452830188</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>44</v>
       </c>
       <c r="L10" s="1">
-        <f t="shared" ref="L10:L36" si="4">(G10-D10)*H10</f>
+        <f>(G10-D10)*H10</f>
         <v>-196</v>
       </c>
       <c r="M10" s="1" t="s">
@@ -1764,18 +1767,18 @@
         <v>25</v>
       </c>
       <c r="S10" s="1">
-        <f t="shared" si="2"/>
+        <f>L10</f>
         <v>-196</v>
       </c>
       <c r="T10" s="1" t="s">
         <v>46</v>
       </c>
       <c r="U10" s="1">
-        <f t="shared" si="3"/>
+        <f>H10*D10</f>
         <v>73696</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>45820</v>
       </c>
@@ -1804,14 +1807,14 @@
         <v>3000</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="1"/>
+        <f>(F11-D11)/(D11-E11)</f>
         <v>2.4736842105263159</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>47</v>
       </c>
       <c r="L11" s="1">
-        <f t="shared" si="4"/>
+        <f>(G11-D11)*H11</f>
         <v>7216.7999999999984</v>
       </c>
       <c r="M11" s="1" t="s">
@@ -1831,18 +1834,18 @@
         <v>25</v>
       </c>
       <c r="S11" s="1">
-        <f t="shared" si="2"/>
+        <f>L11</f>
         <v>7216.7999999999984</v>
       </c>
       <c r="T11" s="1" t="s">
         <v>46</v>
       </c>
       <c r="U11" s="1">
-        <f t="shared" si="3"/>
+        <f>H11*D11</f>
         <v>49600</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>45826</v>
       </c>
@@ -1872,14 +1875,14 @@
         <v>3000</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="1"/>
+        <f>(F12-D12)/(D12-E12)</f>
         <v>1.8696883852691213</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>47</v>
       </c>
       <c r="L12" s="1">
-        <f t="shared" si="4"/>
+        <f>(G12-D12)*H12</f>
         <v>5204.5325779036821</v>
       </c>
       <c r="M12" s="1" t="s">
@@ -1897,18 +1900,18 @@
         <v>25</v>
       </c>
       <c r="S12" s="1">
-        <f t="shared" si="2"/>
+        <f>L12</f>
         <v>5204.5325779036821</v>
       </c>
       <c r="T12" s="1" t="s">
         <v>46</v>
       </c>
       <c r="U12" s="1">
-        <f t="shared" si="3"/>
+        <f>H12*D12</f>
         <v>40283.286118980155</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>45826</v>
       </c>
@@ -1937,14 +1940,14 @@
         <v>3000</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="1"/>
+        <f>(F13-D13)/(D13-E13)</f>
         <v>3.3529411764705883</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>44</v>
       </c>
       <c r="L13" s="1">
-        <f t="shared" si="4"/>
+        <f>(G13-D13)*H13</f>
         <v>-3176.800000000002</v>
       </c>
       <c r="M13" s="1" t="s">
@@ -1962,18 +1965,18 @@
         <v>25</v>
       </c>
       <c r="S13" s="1">
-        <f t="shared" si="2"/>
+        <f>L13</f>
         <v>-3176.800000000002</v>
       </c>
       <c r="T13" s="1" t="s">
         <v>46</v>
       </c>
       <c r="U13" s="1">
-        <f t="shared" si="3"/>
+        <f>H13*D13</f>
         <v>64592</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>45827</v>
       </c>
@@ -1996,21 +1999,21 @@
         <v>966.67</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" ref="H14:H22" si="5">I14/(D14-E14)</f>
+        <f>I14/(D14-E14)</f>
         <v>53.571428571428569</v>
       </c>
       <c r="I14" s="1">
         <v>3000</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="1"/>
+        <f>(F14-D14)/(D14-E14)</f>
         <v>3.0357142857142856</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>47</v>
       </c>
       <c r="L14" s="1">
-        <f t="shared" si="4"/>
+        <f>(G14-D14)*H14</f>
         <v>1268.0357142857119</v>
       </c>
       <c r="M14" s="1" t="s">
@@ -2028,18 +2031,18 @@
         <v>25</v>
       </c>
       <c r="S14" s="1">
-        <f t="shared" si="2"/>
+        <f>L14</f>
         <v>1268.0357142857119</v>
       </c>
       <c r="T14" s="1" t="s">
         <v>46</v>
       </c>
       <c r="U14" s="1">
-        <f t="shared" si="3"/>
+        <f>H14*D14</f>
         <v>50517.857142857138</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>45827</v>
       </c>
@@ -2062,21 +2065,21 @@
         <v>1763.1</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="5"/>
+        <f>I15/(D15-E15)</f>
         <v>28.846153846153847</v>
       </c>
       <c r="I15" s="1">
         <v>3000</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="1"/>
+        <f>(F15-D15)/(D15-E15)</f>
         <v>3.4519230769230771</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>44</v>
       </c>
       <c r="L15" s="1">
-        <f t="shared" si="4"/>
+        <f>(G15-D15)*H15</f>
         <v>-2968.2692307692337</v>
       </c>
       <c r="M15" s="1" t="s">
@@ -2094,233 +2097,234 @@
         <v>25</v>
       </c>
       <c r="S15" s="1">
-        <f t="shared" si="2"/>
+        <f>L15</f>
         <v>-2968.2692307692337</v>
       </c>
       <c r="T15" s="1" t="s">
         <v>46</v>
       </c>
       <c r="U15" s="1">
-        <f t="shared" si="3"/>
+        <f>H15*D15</f>
         <v>53826.923076923078</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
-        <v>45841</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="1" t="s">
+        <v>45834</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="1">
-        <v>2038.32</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1925</v>
-      </c>
-      <c r="F16" s="1">
-        <v>2495</v>
-      </c>
-      <c r="G16" s="1">
-        <v>2103.1799999999998</v>
-      </c>
-      <c r="H16" s="1">
-        <v>23</v>
-      </c>
-      <c r="I16" s="1">
-        <v>3000</v>
-      </c>
-      <c r="J16" s="1">
-        <f t="shared" si="1"/>
-        <v>4.0300035298270416</v>
-      </c>
-      <c r="K16" s="1" t="s">
+      <c r="D16" s="3">
+        <v>794</v>
+      </c>
+      <c r="E16" s="3">
+        <v>707</v>
+      </c>
+      <c r="F16" s="3">
+        <v>942</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3">
         <v>47</v>
       </c>
-      <c r="L16" s="1">
-        <f t="shared" si="4"/>
-        <v>1491.7799999999977</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1" t="s">
+      <c r="I16" s="3">
+        <f>(D16-E16)*H16</f>
+        <v>4089</v>
+      </c>
+      <c r="J16" s="3">
+        <f>(F16-D16)/(D16-E16)</f>
+        <v>1.7011494252873562</v>
+      </c>
+      <c r="K16" s="3"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R16" s="1" t="s">
+      <c r="R16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="S16" s="1">
-        <f t="shared" si="2"/>
-        <v>1491.7799999999977</v>
-      </c>
-      <c r="T16" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="U16" s="1">
-        <f t="shared" si="3"/>
-        <v>46881.36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S16" s="3">
+        <f>L16</f>
+        <v>0</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="U16" s="3">
+        <f>H16*D16</f>
+        <v>37318</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>45834</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D17" s="3">
-        <v>794</v>
+        <v>587</v>
       </c>
       <c r="E17" s="3">
-        <v>707</v>
+        <v>515</v>
       </c>
       <c r="F17" s="3">
-        <v>942</v>
+        <v>748</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="I17" s="3">
         <f>(D17-E17)*H17</f>
-        <v>4089</v>
+        <v>3888</v>
       </c>
       <c r="J17" s="3">
-        <f t="shared" si="1"/>
-        <v>1.7011494252873562</v>
+        <f>(F17-D17)/(D17-E17)</f>
+        <v>2.2361111111111112</v>
       </c>
       <c r="K17" s="3"/>
       <c r="L17" s="1"/>
       <c r="M17" s="3" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
-      <c r="Q17" s="3" t="s">
+      <c r="Q17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="R17" s="3" t="s">
+      <c r="R17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="S17" s="3">
-        <f t="shared" si="2"/>
+        <f>L17</f>
         <v>0</v>
       </c>
       <c r="T17" s="3" t="s">
         <v>26</v>
       </c>
       <c r="U17" s="3">
-        <f t="shared" si="3"/>
-        <v>37318</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+        <f>H17*D17</f>
+        <v>31698</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>45834</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="B18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="3">
-        <v>587</v>
-      </c>
-      <c r="E18" s="3">
-        <v>515</v>
-      </c>
-      <c r="F18" s="3">
-        <v>748</v>
-      </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3">
-        <v>54</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="D18" s="1">
+        <v>1514.5</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1413</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1863</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1">
+        <v>30</v>
+      </c>
+      <c r="I18" s="1">
         <f>(D18-E18)*H18</f>
-        <v>3888</v>
-      </c>
-      <c r="J18" s="3">
-        <f t="shared" si="1"/>
-        <v>2.2361111111111112</v>
-      </c>
-      <c r="K18" s="3"/>
+        <v>3045</v>
+      </c>
+      <c r="J18" s="1">
+        <f>(F18-D18)/(D18-E18)</f>
+        <v>3.4334975369458127</v>
+      </c>
+      <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="3" t="s">
+      <c r="M18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
       <c r="Q18" s="1" t="s">
         <v>24</v>
       </c>
       <c r="R18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="S18" s="3">
-        <f t="shared" si="2"/>
+      <c r="S18" s="1">
+        <f>L18</f>
         <v>0</v>
       </c>
-      <c r="T18" s="3" t="s">
+      <c r="T18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="U18" s="3">
-        <f t="shared" si="3"/>
-        <v>31698</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U18" s="1">
+        <f>H18*D18</f>
+        <v>45435</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>45834</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D19" s="1">
-        <v>1514.5</v>
+        <v>3207</v>
       </c>
       <c r="E19" s="1">
-        <v>1413</v>
+        <v>3110</v>
       </c>
       <c r="F19" s="1">
-        <v>1863</v>
-      </c>
-      <c r="G19" s="1"/>
+        <v>3575</v>
+      </c>
+      <c r="G19" s="1">
+        <v>3110.08</v>
+      </c>
       <c r="H19" s="1">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" ref="I19:I29" si="6">(D19-E19)*H19</f>
-        <v>3045</v>
+        <f>(D19-E19)*H19</f>
+        <v>3104</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="1"/>
-        <v>3.4334975369458127</v>
-      </c>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
+        <f>(F19-D19)/(D19-E19)</f>
+        <v>3.7938144329896906</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L19" s="1">
+        <f>(G19-D19)*H19</f>
+        <v>-3101.4400000000023</v>
+      </c>
       <c r="M19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N19" s="1"/>
+        <v>57</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1" t="s">
@@ -2330,63 +2334,54 @@
         <v>25</v>
       </c>
       <c r="S19" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>L19</f>
+        <v>-3101.4400000000023</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="U19" s="1">
-        <f t="shared" si="3"/>
-        <v>45435</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+        <f>H19*D19</f>
+        <v>102624</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
-        <v>45845</v>
+        <v>45834</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D20" s="1">
-        <v>2648</v>
+        <v>106.9</v>
       </c>
       <c r="E20" s="1">
-        <v>2370</v>
+        <v>99.8</v>
       </c>
       <c r="F20" s="1">
-        <v>3200</v>
-      </c>
-      <c r="G20" s="1">
-        <v>2667.3</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G20" s="1"/>
       <c r="H20" s="1">
-        <v>11</v>
+        <v>429</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" si="6"/>
-        <v>3058</v>
+        <f>(D20-E20)*H20</f>
+        <v>3045.9000000000037</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="1"/>
-        <v>1.985611510791367</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L20" s="1">
-        <f t="shared" si="4"/>
-        <v>212.300000000002</v>
-      </c>
+        <f>(F20-D20)/(D20-E20)</f>
+        <v>6.0704225352112591</v>
+      </c>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
       <c r="M20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1" t="s">
@@ -2396,62 +2391,61 @@
         <v>25</v>
       </c>
       <c r="S20" s="1">
-        <f t="shared" si="2"/>
-        <v>212.300000000002</v>
+        <f>L20</f>
+        <v>0</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="U20" s="1">
-        <f t="shared" si="3"/>
-        <v>29128</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+        <f>H20*D20</f>
+        <v>45860.100000000006</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
-        <v>45834</v>
+        <v>45841</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D21" s="1">
-        <v>3207</v>
+        <v>2038.32</v>
       </c>
       <c r="E21" s="1">
-        <v>3110</v>
+        <v>1925</v>
       </c>
       <c r="F21" s="1">
-        <v>3575</v>
+        <v>2495</v>
       </c>
       <c r="G21" s="1">
-        <v>3110.08</v>
+        <v>2103.1799999999998</v>
       </c>
       <c r="H21" s="1">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" si="6"/>
-        <v>3104</v>
+        <v>3000</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="1"/>
-        <v>3.7938144329896906</v>
+        <f>(F21-D21)/(D21-E21)</f>
+        <v>4.0300035298270416</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="L21" s="1">
-        <f t="shared" si="4"/>
-        <v>-3101.4400000000023</v>
+        <f>(G21-D21)*H21</f>
+        <v>1491.7799999999977</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
@@ -2462,54 +2456,63 @@
         <v>25</v>
       </c>
       <c r="S21" s="1">
-        <f t="shared" si="2"/>
-        <v>-3101.4400000000023</v>
+        <f>L21</f>
+        <v>1491.7799999999977</v>
       </c>
       <c r="T21" s="1" t="s">
         <v>46</v>
       </c>
       <c r="U21" s="1">
-        <f t="shared" si="3"/>
-        <v>102624</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+        <f>H21*D21</f>
+        <v>46881.36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
-        <v>45834</v>
+        <v>45845</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D22" s="1">
-        <v>106.9</v>
+        <v>2648</v>
       </c>
       <c r="E22" s="1">
-        <v>99.8</v>
+        <v>2370</v>
       </c>
       <c r="F22" s="1">
-        <v>150</v>
-      </c>
-      <c r="G22" s="1"/>
+        <v>3200</v>
+      </c>
+      <c r="G22" s="1">
+        <v>2667.3</v>
+      </c>
       <c r="H22" s="1">
-        <v>429</v>
+        <v>11</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" si="6"/>
-        <v>3045.9000000000037</v>
+        <f>(D22-E22)*H22</f>
+        <v>3058</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="1"/>
-        <v>6.0704225352112591</v>
-      </c>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
+        <f>(F22-D22)/(D22-E22)</f>
+        <v>1.985611510791367</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L22" s="1">
+        <f>(G22-D22)*H22</f>
+        <v>212.300000000002</v>
+      </c>
       <c r="M22" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="N22" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1" t="s">
@@ -2519,18 +2522,18 @@
         <v>25</v>
       </c>
       <c r="S22" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>L22</f>
+        <v>212.300000000002</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="U22" s="1">
-        <f t="shared" si="3"/>
-        <v>45860.100000000006</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+        <f>H22*D22</f>
+        <v>29128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>45845</v>
       </c>
@@ -2556,18 +2559,18 @@
         <v>429</v>
       </c>
       <c r="I23" s="1">
-        <f t="shared" si="6"/>
+        <f>(D23-E23)*H23</f>
         <v>3045.9000000000037</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="1"/>
+        <f>(F23-D23)/(D23-E23)</f>
         <v>6.0704225352112591</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>47</v>
       </c>
       <c r="L23" s="1">
-        <f t="shared" si="4"/>
+        <f>(G23-D23)*H23</f>
         <v>2831.3999999999974</v>
       </c>
       <c r="M23" s="1" t="s">
@@ -2585,7 +2588,7 @@
         <v>25</v>
       </c>
       <c r="S23" s="1">
-        <f t="shared" si="2"/>
+        <f>L23</f>
         <v>2831.3999999999974</v>
       </c>
       <c r="T23" s="1" t="s">
@@ -2596,7 +2599,7 @@
         <v>45860.100000000006</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>45847</v>
       </c>
@@ -2620,11 +2623,11 @@
         <v>26</v>
       </c>
       <c r="I24" s="3">
-        <f t="shared" si="6"/>
+        <f>(D24-E24)*H24</f>
         <v>4261.4000000000024</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="1"/>
+        <f>(F24-D24)/(D24-E24)</f>
         <v>2.508236729713238</v>
       </c>
       <c r="K24" s="1"/>
@@ -2642,18 +2645,18 @@
         <v>25</v>
       </c>
       <c r="S24" s="1">
-        <f t="shared" si="2"/>
+        <f>L24</f>
         <v>0</v>
       </c>
       <c r="T24" s="1" t="s">
         <v>26</v>
       </c>
       <c r="U24" s="1">
-        <f t="shared" si="3"/>
+        <f>H24*D24</f>
         <v>54311.4</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>45847</v>
       </c>
@@ -2677,11 +2680,11 @@
         <v>11</v>
       </c>
       <c r="I25" s="1">
-        <f t="shared" si="6"/>
+        <f>(D25-E25)*H25</f>
         <v>3140.5</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="1"/>
+        <f>(F25-D25)/(D25-E25)</f>
         <v>2.9306479859894914</v>
       </c>
       <c r="K25" s="1"/>
@@ -2699,18 +2702,18 @@
         <v>25</v>
       </c>
       <c r="S25" s="1">
-        <f t="shared" si="2"/>
+        <f>L25</f>
         <v>0</v>
       </c>
       <c r="T25" s="1" t="s">
         <v>26</v>
       </c>
       <c r="U25" s="1">
-        <f t="shared" si="3"/>
+        <f>H25*D25</f>
         <v>29296.300000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>45847</v>
       </c>
@@ -2734,11 +2737,11 @@
         <v>30</v>
       </c>
       <c r="I26" s="1">
-        <f t="shared" si="6"/>
+        <f>(D26-E26)*H26</f>
         <v>2910</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="1"/>
+        <f>(F26-D26)/(D26-E26)</f>
         <v>3.4536082474226806</v>
       </c>
       <c r="K26" s="1"/>
@@ -2758,18 +2761,18 @@
         <v>25</v>
       </c>
       <c r="S26" s="1">
-        <f t="shared" si="2"/>
+        <f>L26</f>
         <v>0</v>
       </c>
       <c r="T26" s="1" t="s">
         <v>26</v>
       </c>
       <c r="U26" s="1">
-        <f t="shared" si="3"/>
+        <f>H26*D26</f>
         <v>49650</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>45853</v>
       </c>
@@ -2793,11 +2796,11 @@
         <v>34</v>
       </c>
       <c r="I27" s="1">
-        <f t="shared" si="6"/>
+        <f>(D27-E27)*H27</f>
         <v>3094</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="1"/>
+        <f>(F27-D27)/(D27-E27)</f>
         <v>4.0439560439560438</v>
       </c>
       <c r="K27" s="1"/>
@@ -2817,18 +2820,18 @@
         <v>25</v>
       </c>
       <c r="S27" s="1">
-        <f t="shared" si="2"/>
+        <f>L27</f>
         <v>0</v>
       </c>
       <c r="T27" s="1" t="s">
         <v>26</v>
       </c>
       <c r="U27" s="1">
-        <f t="shared" si="3"/>
+        <f>H27*D27</f>
         <v>24650</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>45853</v>
       </c>
@@ -2847,20 +2850,27 @@
       <c r="F28" s="1">
         <v>2075</v>
       </c>
-      <c r="G28" s="1"/>
+      <c r="G28" s="1">
+        <v>1615.22</v>
+      </c>
       <c r="H28" s="1">
         <v>30</v>
       </c>
       <c r="I28" s="1">
-        <f t="shared" si="6"/>
+        <f>(D28-E28)*H28</f>
         <v>2970</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="1"/>
+        <f>(F28-D28)/(D28-E28)</f>
         <v>3.6161616161616164</v>
       </c>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
+      <c r="K28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L28" s="1">
+        <f>(G28-D28)*H28</f>
+        <v>-3053.3999999999992</v>
+      </c>
       <c r="M28" s="1" t="s">
         <v>68</v>
       </c>
@@ -2876,18 +2886,18 @@
         <v>25</v>
       </c>
       <c r="S28" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>L28</f>
+        <v>-3053.3999999999992</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="U28" s="1">
         <f>H28*D28</f>
         <v>51510</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>45853</v>
       </c>
@@ -2911,11 +2921,11 @@
         <v>34</v>
       </c>
       <c r="I29" s="1">
-        <f t="shared" si="6"/>
+        <f>(D29-E29)*H29</f>
         <v>2958</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="1"/>
+        <f>(F29-D29)/(D29-E29)</f>
         <v>3.5287356321839081</v>
       </c>
       <c r="K29" s="1"/>
@@ -2935,56 +2945,71 @@
         <v>25</v>
       </c>
       <c r="S29" s="1">
-        <f t="shared" si="2"/>
+        <f>L29</f>
         <v>0</v>
       </c>
       <c r="T29" s="1" t="s">
         <v>26</v>
       </c>
       <c r="U29" s="1">
-        <f t="shared" ref="U29:U36" si="7">H29*D29</f>
+        <f>H29*D29</f>
         <v>33966</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A30" s="2">
+        <v>45863</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1303</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1200</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1560</v>
+      </c>
       <c r="G30" s="1"/>
-      <c r="H30" s="1" t="e">
-        <f t="shared" ref="H24:H36" si="8">I30/(D30-E30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="H30" s="1">
+        <v>30</v>
+      </c>
+      <c r="I30" s="1">
+        <f>(D30-E30)*H30</f>
+        <v>3090</v>
+      </c>
+      <c r="J30" s="1">
+        <f>(F30-D30)/(D30-E30)</f>
+        <v>2.4951456310679609</v>
       </c>
       <c r="K30" s="1"/>
-      <c r="L30" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
-      <c r="S30" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T30" s="1"/>
-      <c r="U30" s="1" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S30" s="1">
+        <f>L30</f>
+        <v>0</v>
+      </c>
+      <c r="T30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U30" s="1">
+        <f>H30*D30</f>
+        <v>39090</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2993,17 +3018,17 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1" t="e">
-        <f t="shared" si="8"/>
+        <f>I31/(D31-E31)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f>(F31-D31)/(D31-E31)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1" t="e">
-        <f t="shared" si="4"/>
+        <f>(G31-D31)*H31</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M31" s="1"/>
@@ -3013,16 +3038,16 @@
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f>L31</f>
         <v>#DIV/0!</v>
       </c>
       <c r="T31" s="1"/>
       <c r="U31" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f>H31*D31</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -3031,17 +3056,17 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1" t="e">
-        <f t="shared" si="8"/>
+        <f>I32/(D32-E32)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f>(F32-D32)/(D32-E32)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1" t="e">
-        <f t="shared" si="4"/>
+        <f>(G32-D32)*H32</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M32" s="1"/>
@@ -3051,16 +3076,16 @@
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f>L32</f>
         <v>#DIV/0!</v>
       </c>
       <c r="T32" s="1"/>
       <c r="U32" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f>H32*D32</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -3069,17 +3094,17 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1" t="e">
-        <f t="shared" si="8"/>
+        <f>I33/(D33-E33)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f>(F33-D33)/(D33-E33)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K33" s="1"/>
       <c r="L33" s="1" t="e">
-        <f t="shared" si="4"/>
+        <f>(G33-D33)*H33</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M33" s="1"/>
@@ -3089,16 +3114,16 @@
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f>L33</f>
         <v>#DIV/0!</v>
       </c>
       <c r="T33" s="1"/>
       <c r="U33" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f>H33*D33</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -3107,17 +3132,17 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1" t="e">
-        <f t="shared" si="8"/>
+        <f>I34/(D34-E34)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f>(F34-D34)/(D34-E34)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1" t="e">
-        <f t="shared" si="4"/>
+        <f>(G34-D34)*H34</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M34" s="1"/>
@@ -3127,16 +3152,16 @@
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f>L34</f>
         <v>#DIV/0!</v>
       </c>
       <c r="T34" s="1"/>
       <c r="U34" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f>H34*D34</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -3145,17 +3170,17 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1" t="e">
-        <f t="shared" si="8"/>
+        <f>I35/(D35-E35)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f>(F35-D35)/(D35-E35)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K35" s="1"/>
       <c r="L35" s="1" t="e">
-        <f t="shared" si="4"/>
+        <f>(G35-D35)*H35</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M35" s="1"/>
@@ -3165,16 +3190,16 @@
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f>L35</f>
         <v>#DIV/0!</v>
       </c>
       <c r="T35" s="1"/>
       <c r="U35" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f>H35*D35</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -3183,17 +3208,17 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1" t="e">
-        <f t="shared" si="8"/>
+        <f>I36/(D36-E36)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f>(F36-D36)/(D36-E36)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K36" s="1"/>
       <c r="L36" s="1" t="e">
-        <f t="shared" si="4"/>
+        <f>(G36-D36)*H36</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M36" s="1"/>
@@ -3203,19 +3228,19 @@
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f>L36</f>
         <v>#DIV/0!</v>
       </c>
       <c r="T36" s="1"/>
       <c r="U36" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f>H36*D36</f>
         <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:U28" xr:uid="{8090FE0B-E5CF-476B-8F9F-EA27021FD68D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U20">
-      <sortCondition ref="A1:A20"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U36">
+      <sortCondition ref="A1:A28"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trading_journal.xlsx
+++ b/trading_journal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deshmukp\Downloads\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69EC3C8F-2F3C-408A-8819-951E3294B3FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA2B8EE-7DA4-4F59-8169-233378F6C849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{0B36B6A0-2720-41CF-B289-397E14AB5A0A}"/>
   </bookViews>
@@ -260,22 +260,22 @@
     <t>Symmetrical Triangle</t>
   </si>
   <si>
-    <t xml:space="preserve">W - CMO 24.94  CRSI 0.04 avg 0.03  RSI 58 MVA above 40,52 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">W - CMO 7.40  CRSI 0.07  RSI 53 MVA above 40,52 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">W - CMO 31  CRSI 0.03 avg 0.2 RSI 54 MVA above 40,52 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">W - CMO -55  CRSI 0.07 avg 0.7 RSI 42 MVA below 10 40,52 </t>
-  </si>
-  <si>
     <t>Support Level - 3 green doji with more than avg volumne</t>
   </si>
   <si>
     <t>All time hight as support level but didn’t wait for revarsal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W - CMO -55  CRSI 0.07 avg 0.7 RSI 42 MVA below 10 40 52 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">W - CMO 31  CRSI 0.03 avg 0.2 RSI 54 MVA above 40 52 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">W - CMO 7.40  CRSI 0.07  RSI 53 MVA above 40 52 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">W - CMO 24.94  CRSI 0.04 avg 0.03  RSI 58 MVA above 40 52 </t>
   </si>
 </sst>
 </file>
@@ -774,13 +774,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1138,8 +1136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8090FE0B-E5CF-476B-8F9F-EA27021FD68D}">
   <dimension ref="A1:U36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" topLeftCell="J12" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1256,7 +1254,7 @@
         <v>3000</v>
       </c>
       <c r="J2" s="1">
-        <f>(F2-D2)/(D2-E2)</f>
+        <f t="shared" ref="J2:J36" si="0">(F2-D2)/(D2-E2)</f>
         <v>2.7071102413568169</v>
       </c>
       <c r="K2" s="1"/>
@@ -1274,14 +1272,14 @@
         <v>25</v>
       </c>
       <c r="S2" s="1">
-        <f>L2</f>
+        <f t="shared" ref="S2:S36" si="1">L2</f>
         <v>0</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>26</v>
       </c>
       <c r="U2" s="1">
-        <f>H2*D2</f>
+        <f t="shared" ref="U2:U36" si="2">H2*D2</f>
         <v>20058.708414872799</v>
       </c>
     </row>
@@ -1313,7 +1311,7 @@
         <v>3000</v>
       </c>
       <c r="J3" s="1">
-        <f>(F3-D3)/(D3-E3)</f>
+        <f t="shared" si="0"/>
         <v>2.3783783783783785</v>
       </c>
       <c r="K3" s="1"/>
@@ -1331,14 +1329,14 @@
         <v>25</v>
       </c>
       <c r="S3" s="1">
-        <f>L3</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>26</v>
       </c>
       <c r="U3" s="1">
-        <f>H3*D3</f>
+        <f t="shared" si="2"/>
         <v>32270.27027027027</v>
       </c>
     </row>
@@ -1370,7 +1368,7 @@
         <v>3000</v>
       </c>
       <c r="J4" s="1">
-        <f>(F4-D4)/(D4-E4)</f>
+        <f t="shared" si="0"/>
         <v>1.5824561403508772</v>
       </c>
       <c r="K4" s="1"/>
@@ -1388,14 +1386,14 @@
         <v>25</v>
       </c>
       <c r="S4" s="1">
-        <f>L4</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="U4" s="1">
-        <f>H4*D4</f>
+        <f t="shared" si="2"/>
         <v>28421.05263157895</v>
       </c>
     </row>
@@ -1427,7 +1425,7 @@
         <v>3000</v>
       </c>
       <c r="J5" s="1">
-        <f>(F5-D5)/(D5-E5)</f>
+        <f t="shared" si="0"/>
         <v>2.4807692307692308</v>
       </c>
       <c r="K5" s="1"/>
@@ -1445,14 +1443,14 @@
         <v>25</v>
       </c>
       <c r="S5" s="1">
-        <f>L5</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T5" s="1" t="s">
         <v>26</v>
       </c>
       <c r="U5" s="1">
-        <f>H5*D5</f>
+        <f t="shared" si="2"/>
         <v>36403.846153846156</v>
       </c>
     </row>
@@ -1486,7 +1484,7 @@
         <v>3000</v>
       </c>
       <c r="J6" s="1">
-        <f>(F6-D6)/(D6-E6)</f>
+        <f t="shared" si="0"/>
         <v>2.0232558139534884</v>
       </c>
       <c r="K6" s="1" t="s">
@@ -1511,14 +1509,14 @@
         <v>25</v>
       </c>
       <c r="S6" s="1">
-        <f>L6</f>
+        <f t="shared" si="1"/>
         <v>-2996.5116279069798</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>46</v>
       </c>
       <c r="U6" s="1">
-        <f>H6*D6</f>
+        <f t="shared" si="2"/>
         <v>56372.093023255809</v>
       </c>
     </row>
@@ -1551,7 +1549,7 @@
         <v>1700</v>
       </c>
       <c r="J7" s="1">
-        <f>(F7-D7)/(D7-E7)</f>
+        <f t="shared" si="0"/>
         <v>3.4375</v>
       </c>
       <c r="K7" s="1" t="s">
@@ -1576,14 +1574,14 @@
         <v>25</v>
       </c>
       <c r="S7" s="1">
-        <f>L7</f>
+        <f t="shared" si="1"/>
         <v>-678.93000000000006</v>
       </c>
       <c r="T7" s="1" t="s">
         <v>46</v>
       </c>
       <c r="U7" s="1">
-        <f>H7*D7</f>
+        <f t="shared" si="2"/>
         <v>20034</v>
       </c>
     </row>
@@ -1616,7 +1614,7 @@
         <v>1600</v>
       </c>
       <c r="J8" s="1">
-        <f>(F8-D8)/(D8-E8)</f>
+        <f t="shared" si="0"/>
         <v>4.833333333333333</v>
       </c>
       <c r="K8" s="1" t="s">
@@ -1643,14 +1641,14 @@
         <v>25</v>
       </c>
       <c r="S8" s="1">
-        <f>L8</f>
+        <f t="shared" si="1"/>
         <v>-1604.3999999999978</v>
       </c>
       <c r="T8" s="1" t="s">
         <v>46</v>
       </c>
       <c r="U8" s="1">
-        <f>H8*D8</f>
+        <f t="shared" si="2"/>
         <v>30672</v>
       </c>
     </row>
@@ -1682,7 +1680,7 @@
         <v>3000</v>
       </c>
       <c r="J9" s="1">
-        <f>(F9-D9)/(D9-E9)</f>
+        <f t="shared" si="0"/>
         <v>2.2239263803680966</v>
       </c>
       <c r="K9" s="1"/>
@@ -1700,14 +1698,14 @@
         <v>25</v>
       </c>
       <c r="S9" s="1">
-        <f>L9</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T9" s="1" t="s">
         <v>26</v>
       </c>
       <c r="U9" s="1">
-        <f>H9*D9</f>
+        <f t="shared" si="2"/>
         <v>29677.914110429429</v>
       </c>
     </row>
@@ -1740,14 +1738,14 @@
         <v>3000</v>
       </c>
       <c r="J10" s="1">
-        <f>(F10-D10)/(D10-E10)</f>
+        <f t="shared" si="0"/>
         <v>3.1886792452830188</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>44</v>
       </c>
       <c r="L10" s="1">
-        <f>(G10-D10)*H10</f>
+        <f t="shared" ref="L10:L15" si="3">(G10-D10)*H10</f>
         <v>-196</v>
       </c>
       <c r="M10" s="1" t="s">
@@ -1767,14 +1765,14 @@
         <v>25</v>
       </c>
       <c r="S10" s="1">
-        <f>L10</f>
+        <f t="shared" si="1"/>
         <v>-196</v>
       </c>
       <c r="T10" s="1" t="s">
         <v>46</v>
       </c>
       <c r="U10" s="1">
-        <f>H10*D10</f>
+        <f t="shared" si="2"/>
         <v>73696</v>
       </c>
     </row>
@@ -1807,14 +1805,14 @@
         <v>3000</v>
       </c>
       <c r="J11" s="1">
-        <f>(F11-D11)/(D11-E11)</f>
+        <f t="shared" si="0"/>
         <v>2.4736842105263159</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>47</v>
       </c>
       <c r="L11" s="1">
-        <f>(G11-D11)*H11</f>
+        <f t="shared" si="3"/>
         <v>7216.7999999999984</v>
       </c>
       <c r="M11" s="1" t="s">
@@ -1834,14 +1832,14 @@
         <v>25</v>
       </c>
       <c r="S11" s="1">
-        <f>L11</f>
+        <f t="shared" si="1"/>
         <v>7216.7999999999984</v>
       </c>
       <c r="T11" s="1" t="s">
         <v>46</v>
       </c>
       <c r="U11" s="1">
-        <f>H11*D11</f>
+        <f t="shared" si="2"/>
         <v>49600</v>
       </c>
     </row>
@@ -1875,14 +1873,14 @@
         <v>3000</v>
       </c>
       <c r="J12" s="1">
-        <f>(F12-D12)/(D12-E12)</f>
+        <f t="shared" si="0"/>
         <v>1.8696883852691213</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>47</v>
       </c>
       <c r="L12" s="1">
-        <f>(G12-D12)*H12</f>
+        <f t="shared" si="3"/>
         <v>5204.5325779036821</v>
       </c>
       <c r="M12" s="1" t="s">
@@ -1900,14 +1898,14 @@
         <v>25</v>
       </c>
       <c r="S12" s="1">
-        <f>L12</f>
+        <f t="shared" si="1"/>
         <v>5204.5325779036821</v>
       </c>
       <c r="T12" s="1" t="s">
         <v>46</v>
       </c>
       <c r="U12" s="1">
-        <f>H12*D12</f>
+        <f t="shared" si="2"/>
         <v>40283.286118980155</v>
       </c>
     </row>
@@ -1940,14 +1938,14 @@
         <v>3000</v>
       </c>
       <c r="J13" s="1">
-        <f>(F13-D13)/(D13-E13)</f>
+        <f t="shared" si="0"/>
         <v>3.3529411764705883</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>44</v>
       </c>
       <c r="L13" s="1">
-        <f>(G13-D13)*H13</f>
+        <f t="shared" si="3"/>
         <v>-3176.800000000002</v>
       </c>
       <c r="M13" s="1" t="s">
@@ -1965,14 +1963,14 @@
         <v>25</v>
       </c>
       <c r="S13" s="1">
-        <f>L13</f>
+        <f t="shared" si="1"/>
         <v>-3176.800000000002</v>
       </c>
       <c r="T13" s="1" t="s">
         <v>46</v>
       </c>
       <c r="U13" s="1">
-        <f>H13*D13</f>
+        <f t="shared" si="2"/>
         <v>64592</v>
       </c>
     </row>
@@ -2006,14 +2004,14 @@
         <v>3000</v>
       </c>
       <c r="J14" s="1">
-        <f>(F14-D14)/(D14-E14)</f>
+        <f t="shared" si="0"/>
         <v>3.0357142857142856</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>47</v>
       </c>
       <c r="L14" s="1">
-        <f>(G14-D14)*H14</f>
+        <f t="shared" si="3"/>
         <v>1268.0357142857119</v>
       </c>
       <c r="M14" s="1" t="s">
@@ -2031,14 +2029,14 @@
         <v>25</v>
       </c>
       <c r="S14" s="1">
-        <f>L14</f>
+        <f t="shared" si="1"/>
         <v>1268.0357142857119</v>
       </c>
       <c r="T14" s="1" t="s">
         <v>46</v>
       </c>
       <c r="U14" s="1">
-        <f>H14*D14</f>
+        <f t="shared" si="2"/>
         <v>50517.857142857138</v>
       </c>
     </row>
@@ -2072,14 +2070,14 @@
         <v>3000</v>
       </c>
       <c r="J15" s="1">
-        <f>(F15-D15)/(D15-E15)</f>
+        <f t="shared" si="0"/>
         <v>3.4519230769230771</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>44</v>
       </c>
       <c r="L15" s="1">
-        <f>(G15-D15)*H15</f>
+        <f t="shared" si="3"/>
         <v>-2968.2692307692337</v>
       </c>
       <c r="M15" s="1" t="s">
@@ -2097,14 +2095,14 @@
         <v>25</v>
       </c>
       <c r="S15" s="1">
-        <f>L15</f>
+        <f t="shared" si="1"/>
         <v>-2968.2692307692337</v>
       </c>
       <c r="T15" s="1" t="s">
         <v>46</v>
       </c>
       <c r="U15" s="1">
-        <f>H15*D15</f>
+        <f t="shared" si="2"/>
         <v>53826.923076923078</v>
       </c>
     </row>
@@ -2136,7 +2134,7 @@
         <v>4089</v>
       </c>
       <c r="J16" s="3">
-        <f>(F16-D16)/(D16-E16)</f>
+        <f t="shared" si="0"/>
         <v>1.7011494252873562</v>
       </c>
       <c r="K16" s="3"/>
@@ -2154,14 +2152,14 @@
         <v>25</v>
       </c>
       <c r="S16" s="3">
-        <f>L16</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T16" s="3" t="s">
         <v>26</v>
       </c>
       <c r="U16" s="3">
-        <f>H16*D16</f>
+        <f t="shared" si="2"/>
         <v>37318</v>
       </c>
     </row>
@@ -2193,7 +2191,7 @@
         <v>3888</v>
       </c>
       <c r="J17" s="3">
-        <f>(F17-D17)/(D17-E17)</f>
+        <f t="shared" si="0"/>
         <v>2.2361111111111112</v>
       </c>
       <c r="K17" s="3"/>
@@ -2211,14 +2209,14 @@
         <v>25</v>
       </c>
       <c r="S17" s="3">
-        <f>L17</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T17" s="3" t="s">
         <v>26</v>
       </c>
       <c r="U17" s="3">
-        <f>H17*D17</f>
+        <f t="shared" si="2"/>
         <v>31698</v>
       </c>
     </row>
@@ -2250,7 +2248,7 @@
         <v>3045</v>
       </c>
       <c r="J18" s="1">
-        <f>(F18-D18)/(D18-E18)</f>
+        <f t="shared" si="0"/>
         <v>3.4334975369458127</v>
       </c>
       <c r="K18" s="1"/>
@@ -2268,14 +2266,14 @@
         <v>25</v>
       </c>
       <c r="S18" s="1">
-        <f>L18</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="U18" s="1">
-        <f>H18*D18</f>
+        <f t="shared" si="2"/>
         <v>45435</v>
       </c>
     </row>
@@ -2309,7 +2307,7 @@
         <v>3104</v>
       </c>
       <c r="J19" s="1">
-        <f>(F19-D19)/(D19-E19)</f>
+        <f t="shared" si="0"/>
         <v>3.7938144329896906</v>
       </c>
       <c r="K19" s="1" t="s">
@@ -2334,14 +2332,14 @@
         <v>25</v>
       </c>
       <c r="S19" s="1">
-        <f>L19</f>
+        <f t="shared" si="1"/>
         <v>-3101.4400000000023</v>
       </c>
       <c r="T19" s="1" t="s">
         <v>46</v>
       </c>
       <c r="U19" s="1">
-        <f>H19*D19</f>
+        <f t="shared" si="2"/>
         <v>102624</v>
       </c>
     </row>
@@ -2373,7 +2371,7 @@
         <v>3045.9000000000037</v>
       </c>
       <c r="J20" s="1">
-        <f>(F20-D20)/(D20-E20)</f>
+        <f t="shared" si="0"/>
         <v>6.0704225352112591</v>
       </c>
       <c r="K20" s="1"/>
@@ -2391,14 +2389,14 @@
         <v>25</v>
       </c>
       <c r="S20" s="1">
-        <f>L20</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T20" s="1" t="s">
         <v>26</v>
       </c>
       <c r="U20" s="1">
-        <f>H20*D20</f>
+        <f t="shared" si="2"/>
         <v>45860.100000000006</v>
       </c>
     </row>
@@ -2431,7 +2429,7 @@
         <v>3000</v>
       </c>
       <c r="J21" s="1">
-        <f>(F21-D21)/(D21-E21)</f>
+        <f t="shared" si="0"/>
         <v>4.0300035298270416</v>
       </c>
       <c r="K21" s="1" t="s">
@@ -2456,14 +2454,14 @@
         <v>25</v>
       </c>
       <c r="S21" s="1">
-        <f>L21</f>
+        <f t="shared" si="1"/>
         <v>1491.7799999999977</v>
       </c>
       <c r="T21" s="1" t="s">
         <v>46</v>
       </c>
       <c r="U21" s="1">
-        <f>H21*D21</f>
+        <f t="shared" si="2"/>
         <v>46881.36</v>
       </c>
     </row>
@@ -2493,11 +2491,11 @@
         <v>11</v>
       </c>
       <c r="I22" s="1">
-        <f>(D22-E22)*H22</f>
+        <f t="shared" ref="I22:I30" si="4">(D22-E22)*H22</f>
         <v>3058</v>
       </c>
       <c r="J22" s="1">
-        <f>(F22-D22)/(D22-E22)</f>
+        <f t="shared" si="0"/>
         <v>1.985611510791367</v>
       </c>
       <c r="K22" s="1" t="s">
@@ -2522,14 +2520,14 @@
         <v>25</v>
       </c>
       <c r="S22" s="1">
-        <f>L22</f>
+        <f t="shared" si="1"/>
         <v>212.300000000002</v>
       </c>
       <c r="T22" s="1" t="s">
         <v>46</v>
       </c>
       <c r="U22" s="1">
-        <f>H22*D22</f>
+        <f t="shared" si="2"/>
         <v>29128</v>
       </c>
     </row>
@@ -2559,11 +2557,11 @@
         <v>429</v>
       </c>
       <c r="I23" s="1">
-        <f>(D23-E23)*H23</f>
+        <f t="shared" si="4"/>
         <v>3045.9000000000037</v>
       </c>
       <c r="J23" s="1">
-        <f>(F23-D23)/(D23-E23)</f>
+        <f t="shared" si="0"/>
         <v>6.0704225352112591</v>
       </c>
       <c r="K23" s="1" t="s">
@@ -2588,14 +2586,14 @@
         <v>25</v>
       </c>
       <c r="S23" s="1">
-        <f>L23</f>
+        <f t="shared" si="1"/>
         <v>2831.3999999999974</v>
       </c>
       <c r="T23" s="1" t="s">
         <v>46</v>
       </c>
       <c r="U23" s="1">
-        <f>H23*D23</f>
+        <f t="shared" si="2"/>
         <v>45860.100000000006</v>
       </c>
     </row>
@@ -2609,7 +2607,7 @@
       <c r="C24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="1">
         <v>2088.9</v>
       </c>
       <c r="E24" s="1">
@@ -2623,11 +2621,11 @@
         <v>26</v>
       </c>
       <c r="I24" s="3">
-        <f>(D24-E24)*H24</f>
+        <f t="shared" si="4"/>
         <v>4261.4000000000024</v>
       </c>
       <c r="J24" s="1">
-        <f>(F24-D24)/(D24-E24)</f>
+        <f t="shared" si="0"/>
         <v>2.508236729713238</v>
       </c>
       <c r="K24" s="1"/>
@@ -2645,14 +2643,14 @@
         <v>25</v>
       </c>
       <c r="S24" s="1">
-        <f>L24</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T24" s="1" t="s">
         <v>26</v>
       </c>
       <c r="U24" s="1">
-        <f>H24*D24</f>
+        <f t="shared" si="2"/>
         <v>54311.4</v>
       </c>
     </row>
@@ -2666,7 +2664,7 @@
       <c r="C25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="1">
         <v>2663.3</v>
       </c>
       <c r="E25" s="1">
@@ -2680,11 +2678,11 @@
         <v>11</v>
       </c>
       <c r="I25" s="1">
-        <f>(D25-E25)*H25</f>
+        <f t="shared" si="4"/>
         <v>3140.5</v>
       </c>
       <c r="J25" s="1">
-        <f>(F25-D25)/(D25-E25)</f>
+        <f t="shared" si="0"/>
         <v>2.9306479859894914</v>
       </c>
       <c r="K25" s="1"/>
@@ -2702,14 +2700,14 @@
         <v>25</v>
       </c>
       <c r="S25" s="1">
-        <f>L25</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T25" s="1" t="s">
         <v>26</v>
       </c>
       <c r="U25" s="1">
-        <f>H25*D25</f>
+        <f t="shared" si="2"/>
         <v>29296.300000000003</v>
       </c>
     </row>
@@ -2723,7 +2721,7 @@
       <c r="C26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="1">
         <v>1655</v>
       </c>
       <c r="E26" s="1">
@@ -2737,22 +2735,22 @@
         <v>30</v>
       </c>
       <c r="I26" s="1">
-        <f>(D26-E26)*H26</f>
+        <f t="shared" si="4"/>
         <v>2910</v>
       </c>
       <c r="J26" s="1">
-        <f>(F26-D26)/(D26-E26)</f>
+        <f t="shared" si="0"/>
         <v>3.4536082474226806</v>
       </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q26" s="1" t="s">
         <v>24</v>
@@ -2761,14 +2759,14 @@
         <v>25</v>
       </c>
       <c r="S26" s="1">
-        <f>L26</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T26" s="1" t="s">
         <v>26</v>
       </c>
       <c r="U26" s="1">
-        <f>H26*D26</f>
+        <f t="shared" si="2"/>
         <v>49650</v>
       </c>
     </row>
@@ -2796,11 +2794,11 @@
         <v>34</v>
       </c>
       <c r="I27" s="1">
-        <f>(D27-E27)*H27</f>
+        <f t="shared" si="4"/>
         <v>3094</v>
       </c>
       <c r="J27" s="1">
-        <f>(F27-D27)/(D27-E27)</f>
+        <f t="shared" si="0"/>
         <v>4.0439560439560438</v>
       </c>
       <c r="K27" s="1"/>
@@ -2811,7 +2809,7 @@
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q27" s="1" t="s">
         <v>24</v>
@@ -2820,14 +2818,14 @@
         <v>25</v>
       </c>
       <c r="S27" s="1">
-        <f>L27</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T27" s="1" t="s">
         <v>26</v>
       </c>
       <c r="U27" s="1">
-        <f>H27*D27</f>
+        <f t="shared" si="2"/>
         <v>24650</v>
       </c>
     </row>
@@ -2857,11 +2855,11 @@
         <v>30</v>
       </c>
       <c r="I28" s="1">
-        <f>(D28-E28)*H28</f>
+        <f t="shared" si="4"/>
         <v>2970</v>
       </c>
       <c r="J28" s="1">
-        <f>(F28-D28)/(D28-E28)</f>
+        <f t="shared" si="0"/>
         <v>3.6161616161616164</v>
       </c>
       <c r="K28" s="1" t="s">
@@ -2877,7 +2875,7 @@
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Q28" s="1" t="s">
         <v>24</v>
@@ -2886,14 +2884,14 @@
         <v>25</v>
       </c>
       <c r="S28" s="1">
-        <f>L28</f>
+        <f t="shared" si="1"/>
         <v>-3053.3999999999992</v>
       </c>
       <c r="T28" s="1" t="s">
         <v>46</v>
       </c>
       <c r="U28" s="1">
-        <f>H28*D28</f>
+        <f t="shared" si="2"/>
         <v>51510</v>
       </c>
     </row>
@@ -2921,11 +2919,11 @@
         <v>34</v>
       </c>
       <c r="I29" s="1">
-        <f>(D29-E29)*H29</f>
+        <f t="shared" si="4"/>
         <v>2958</v>
       </c>
       <c r="J29" s="1">
-        <f>(F29-D29)/(D29-E29)</f>
+        <f t="shared" si="0"/>
         <v>3.5287356321839081</v>
       </c>
       <c r="K29" s="1"/>
@@ -2936,7 +2934,7 @@
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="Q29" s="1" t="s">
         <v>24</v>
@@ -2945,14 +2943,14 @@
         <v>25</v>
       </c>
       <c r="S29" s="1">
-        <f>L29</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T29" s="1" t="s">
         <v>26</v>
       </c>
       <c r="U29" s="1">
-        <f>H29*D29</f>
+        <f t="shared" si="2"/>
         <v>33966</v>
       </c>
     </row>
@@ -2980,17 +2978,17 @@
         <v>30</v>
       </c>
       <c r="I30" s="1">
-        <f>(D30-E30)*H30</f>
+        <f t="shared" si="4"/>
         <v>3090</v>
       </c>
       <c r="J30" s="1">
-        <f>(F30-D30)/(D30-E30)</f>
+        <f t="shared" si="0"/>
         <v>2.4951456310679609</v>
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
@@ -2998,14 +2996,14 @@
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1">
-        <f>L30</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T30" s="1" t="s">
         <v>26</v>
       </c>
       <c r="U30" s="1">
-        <f>H30*D30</f>
+        <f t="shared" si="2"/>
         <v>39090</v>
       </c>
     </row>
@@ -3018,17 +3016,17 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1" t="e">
-        <f>I31/(D31-E31)</f>
+        <f t="shared" ref="H31:H36" si="5">I31/(D31-E31)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1" t="e">
-        <f>(F31-D31)/(D31-E31)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1" t="e">
-        <f>(G31-D31)*H31</f>
+        <f t="shared" ref="L31:L36" si="6">(G31-D31)*H31</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M31" s="1"/>
@@ -3038,12 +3036,12 @@
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1" t="e">
-        <f>L31</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T31" s="1"/>
       <c r="U31" s="1" t="e">
-        <f>H31*D31</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3056,17 +3054,17 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1" t="e">
-        <f>I32/(D32-E32)</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1" t="e">
-        <f>(F32-D32)/(D32-E32)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1" t="e">
-        <f>(G32-D32)*H32</f>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M32" s="1"/>
@@ -3076,12 +3074,12 @@
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1" t="e">
-        <f>L32</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T32" s="1"/>
       <c r="U32" s="1" t="e">
-        <f>H32*D32</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3094,17 +3092,17 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1" t="e">
-        <f>I33/(D33-E33)</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1" t="e">
-        <f>(F33-D33)/(D33-E33)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K33" s="1"/>
       <c r="L33" s="1" t="e">
-        <f>(G33-D33)*H33</f>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M33" s="1"/>
@@ -3114,12 +3112,12 @@
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1" t="e">
-        <f>L33</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T33" s="1"/>
       <c r="U33" s="1" t="e">
-        <f>H33*D33</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3132,17 +3130,17 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1" t="e">
-        <f>I34/(D34-E34)</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1" t="e">
-        <f>(F34-D34)/(D34-E34)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1" t="e">
-        <f>(G34-D34)*H34</f>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M34" s="1"/>
@@ -3152,12 +3150,12 @@
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1" t="e">
-        <f>L34</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T34" s="1"/>
       <c r="U34" s="1" t="e">
-        <f>H34*D34</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3170,17 +3168,17 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1" t="e">
-        <f>I35/(D35-E35)</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1" t="e">
-        <f>(F35-D35)/(D35-E35)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K35" s="1"/>
       <c r="L35" s="1" t="e">
-        <f>(G35-D35)*H35</f>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M35" s="1"/>
@@ -3190,12 +3188,12 @@
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1" t="e">
-        <f>L35</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T35" s="1"/>
       <c r="U35" s="1" t="e">
-        <f>H35*D35</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3208,17 +3206,17 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1" t="e">
-        <f>I36/(D36-E36)</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1" t="e">
-        <f>(F36-D36)/(D36-E36)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K36" s="1"/>
       <c r="L36" s="1" t="e">
-        <f>(G36-D36)*H36</f>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M36" s="1"/>
@@ -3228,12 +3226,12 @@
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1" t="e">
-        <f>L36</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T36" s="1"/>
       <c r="U36" s="1" t="e">
-        <f>H36*D36</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>

--- a/trading_journal.xlsx
+++ b/trading_journal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deshmukp\Downloads\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA2B8EE-7DA4-4F59-8169-233378F6C849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4771F14-AC26-41A3-8ED6-BD0C7E49B02F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{0B36B6A0-2720-41CF-B289-397E14AB5A0A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="83">
   <si>
     <t>Date</t>
   </si>
@@ -276,6 +276,15 @@
   </si>
   <si>
     <t xml:space="preserve">W - CMO 24.94  CRSI 0.04 avg 0.03  RSI 58 MVA above 40 52 </t>
+  </si>
+  <si>
+    <t>Castrol</t>
+  </si>
+  <si>
+    <t>Diamod Pattern</t>
+  </si>
+  <si>
+    <t>Schneider Electric Infra</t>
   </si>
 </sst>
 </file>
@@ -1136,8 +1145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8090FE0B-E5CF-476B-8F9F-EA27021FD68D}">
   <dimension ref="A1:U36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J12" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U32" sqref="A1:U32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2491,7 +2500,7 @@
         <v>11</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" ref="I22:I30" si="4">(D22-E22)*H22</f>
+        <f t="shared" ref="I22:I32" si="4">(D22-E22)*H22</f>
         <v>3058</v>
       </c>
       <c r="J22" s="1">
@@ -2616,7 +2625,9 @@
       <c r="F24" s="1">
         <v>2500</v>
       </c>
-      <c r="G24" s="1"/>
+      <c r="G24" s="1">
+        <v>1907.8</v>
+      </c>
       <c r="H24" s="1">
         <v>26</v>
       </c>
@@ -2628,12 +2639,19 @@
         <f t="shared" si="0"/>
         <v>2.508236729713238</v>
       </c>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
+      <c r="K24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L24" s="1">
+        <f>(G24-D24)*H24</f>
+        <v>-4708.600000000004</v>
+      </c>
       <c r="M24" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="N24" s="1"/>
+      <c r="N24" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1" t="s">
@@ -2644,10 +2662,10 @@
       </c>
       <c r="S24" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-4708.600000000004</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="U24" s="1">
         <f t="shared" si="2"/>
@@ -2730,7 +2748,9 @@
       <c r="F26" s="1">
         <v>1990</v>
       </c>
-      <c r="G26" s="1"/>
+      <c r="G26" s="1">
+        <v>1857.1</v>
+      </c>
       <c r="H26" s="1">
         <v>30</v>
       </c>
@@ -2742,12 +2762,19 @@
         <f t="shared" si="0"/>
         <v>3.4536082474226806</v>
       </c>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
+      <c r="K26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L26" s="1">
+        <f t="shared" ref="L26:L27" si="5">(G26-D26)*H26</f>
+        <v>6062.9999999999973</v>
+      </c>
       <c r="M26" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="N26" s="1"/>
+      <c r="N26" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="O26" s="1"/>
       <c r="P26" s="1" t="s">
         <v>76</v>
@@ -2760,10 +2787,10 @@
       </c>
       <c r="S26" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6062.9999999999973</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="U26" s="1">
         <f t="shared" si="2"/>
@@ -2872,7 +2899,9 @@
       <c r="M28" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="N28" s="1"/>
+      <c r="N28" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="O28" s="1"/>
       <c r="P28" s="1" t="s">
         <v>78</v>
@@ -2993,8 +3022,12 @@
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
+      <c r="Q30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="S30" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3008,79 +3041,126 @@
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
+      <c r="A31" s="2">
+        <v>45868</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="1">
+        <v>220</v>
+      </c>
+      <c r="E31" s="1">
+        <v>207</v>
+      </c>
+      <c r="F31" s="1">
+        <v>272</v>
+      </c>
       <c r="G31" s="1"/>
-      <c r="H31" s="1" t="e">
-        <f t="shared" ref="H31:H36" si="5">I31/(D31-E31)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1" t="e">
+      <c r="H31" s="1">
+        <v>231</v>
+      </c>
+      <c r="I31" s="1">
+        <f t="shared" si="4"/>
+        <v>3003</v>
+      </c>
+      <c r="J31" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>4</v>
       </c>
       <c r="K31" s="1"/>
-      <c r="L31" s="1" t="e">
-        <f t="shared" ref="L31:L36" si="6">(G31-D31)*H31</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1" t="e">
+      <c r="Q31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S31" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T31" s="1"/>
-      <c r="U31" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U31" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>50820</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1" t="e">
+      <c r="A32" s="2">
+        <v>45866</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="1">
+        <v>934</v>
+      </c>
+      <c r="E32" s="1">
+        <v>883.25</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1100</v>
+      </c>
+      <c r="G32" s="1">
+        <v>883.25</v>
+      </c>
+      <c r="H32" s="1">
+        <v>63</v>
+      </c>
+      <c r="I32" s="1">
+        <f t="shared" si="4"/>
+        <v>3197.25</v>
+      </c>
+      <c r="J32" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
+        <v>3.270935960591133</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L32" s="1">
+        <f t="shared" ref="L31:L36" si="6">(G32-D32)*H32</f>
+        <v>-3197.25</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1" t="e">
+      <c r="Q32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S32" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T32" s="1"/>
-      <c r="U32" s="1" t="e">
+        <v>-3197.25</v>
+      </c>
+      <c r="T32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U32" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>58842</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.35">
@@ -3092,7 +3172,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="H31:H36" si="7">I33/(D33-E33)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I33" s="1"/>
@@ -3130,7 +3210,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I34" s="1"/>
@@ -3168,7 +3248,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I35" s="1"/>
@@ -3206,7 +3286,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I36" s="1"/>

--- a/trading_journal.xlsx
+++ b/trading_journal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deshmukp\Downloads\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4771F14-AC26-41A3-8ED6-BD0C7E49B02F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C3BDAC-165C-47BF-9323-884E722D443E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{0B36B6A0-2720-41CF-B289-397E14AB5A0A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="84">
   <si>
     <t>Date</t>
   </si>
@@ -285,6 +285,9 @@
   </si>
   <si>
     <t>Schneider Electric Infra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PULL BACK </t>
   </si>
 </sst>
 </file>
@@ -1146,7 +1149,7 @@
   <dimension ref="A1:U36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U32" sqref="A1:U32"/>
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1254,7 +1257,9 @@
       <c r="F2" s="1">
         <v>288</v>
       </c>
-      <c r="G2" s="1"/>
+      <c r="G2" s="1">
+        <v>204.75</v>
+      </c>
       <c r="H2" s="1">
         <f>I2/(D2-E2)</f>
         <v>97.847358121330728</v>
@@ -1266,12 +1271,19 @@
         <f t="shared" ref="J2:J36" si="0">(F2-D2)/(D2-E2)</f>
         <v>2.7071102413568169</v>
       </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
+      <c r="K2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="1">
+        <f t="shared" ref="L2:L5" si="1">(G2-D2)*H2</f>
+        <v>-24.461839530332682</v>
+      </c>
       <c r="M2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="1"/>
+      <c r="N2" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1" t="s">
@@ -1281,14 +1293,14 @@
         <v>25</v>
       </c>
       <c r="S2" s="1">
-        <f t="shared" ref="S2:S36" si="1">L2</f>
-        <v>0</v>
+        <f t="shared" ref="S2:S36" si="2">L2</f>
+        <v>-24.461839530332682</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="U2" s="1">
-        <f t="shared" ref="U2:U36" si="2">H2*D2</f>
+        <f t="shared" ref="U2:U36" si="3">H2*D2</f>
         <v>20058.708414872799</v>
       </c>
     </row>
@@ -1338,14 +1350,14 @@
         <v>25</v>
       </c>
       <c r="S3" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>26</v>
       </c>
       <c r="U3" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>32270.27027027027</v>
       </c>
     </row>
@@ -1368,7 +1380,9 @@
       <c r="F4" s="1">
         <v>3151</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1">
+        <v>2582.8200000000002</v>
+      </c>
       <c r="H4" s="1">
         <f>I4/(D4-E4)</f>
         <v>10.526315789473685</v>
@@ -1380,12 +1394,19 @@
         <f t="shared" si="0"/>
         <v>1.5824561403508772</v>
       </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
+      <c r="K4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" ref="L4:L5" si="4">(G4-D4)*H4</f>
+        <v>-1233.4736842105247</v>
+      </c>
       <c r="M4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="N4" s="1"/>
+      <c r="N4" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1" t="s">
@@ -1395,14 +1416,14 @@
         <v>25</v>
       </c>
       <c r="S4" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>-1233.4736842105247</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="U4" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28421.05263157895</v>
       </c>
     </row>
@@ -1452,14 +1473,14 @@
         <v>25</v>
       </c>
       <c r="S5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T5" s="1" t="s">
         <v>26</v>
       </c>
       <c r="U5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>36403.846153846156</v>
       </c>
     </row>
@@ -1518,14 +1539,14 @@
         <v>25</v>
       </c>
       <c r="S6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2996.5116279069798</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>46</v>
       </c>
       <c r="U6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>56372.093023255809</v>
       </c>
     </row>
@@ -1583,14 +1604,14 @@
         <v>25</v>
       </c>
       <c r="S7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-678.93000000000006</v>
       </c>
       <c r="T7" s="1" t="s">
         <v>46</v>
       </c>
       <c r="U7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20034</v>
       </c>
     </row>
@@ -1650,14 +1671,14 @@
         <v>25</v>
       </c>
       <c r="S8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1604.3999999999978</v>
       </c>
       <c r="T8" s="1" t="s">
         <v>46</v>
       </c>
       <c r="U8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30672</v>
       </c>
     </row>
@@ -1707,14 +1728,14 @@
         <v>25</v>
       </c>
       <c r="S9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T9" s="1" t="s">
         <v>26</v>
       </c>
       <c r="U9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>29677.914110429429</v>
       </c>
     </row>
@@ -1754,7 +1775,7 @@
         <v>44</v>
       </c>
       <c r="L10" s="1">
-        <f t="shared" ref="L10:L15" si="3">(G10-D10)*H10</f>
+        <f t="shared" ref="L10:L15" si="5">(G10-D10)*H10</f>
         <v>-196</v>
       </c>
       <c r="M10" s="1" t="s">
@@ -1774,14 +1795,14 @@
         <v>25</v>
       </c>
       <c r="S10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-196</v>
       </c>
       <c r="T10" s="1" t="s">
         <v>46</v>
       </c>
       <c r="U10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>73696</v>
       </c>
     </row>
@@ -1821,7 +1842,7 @@
         <v>47</v>
       </c>
       <c r="L11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7216.7999999999984</v>
       </c>
       <c r="M11" s="1" t="s">
@@ -1841,14 +1862,14 @@
         <v>25</v>
       </c>
       <c r="S11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7216.7999999999984</v>
       </c>
       <c r="T11" s="1" t="s">
         <v>46</v>
       </c>
       <c r="U11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>49600</v>
       </c>
     </row>
@@ -1889,7 +1910,7 @@
         <v>47</v>
       </c>
       <c r="L12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5204.5325779036821</v>
       </c>
       <c r="M12" s="1" t="s">
@@ -1907,14 +1928,14 @@
         <v>25</v>
       </c>
       <c r="S12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5204.5325779036821</v>
       </c>
       <c r="T12" s="1" t="s">
         <v>46</v>
       </c>
       <c r="U12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40283.286118980155</v>
       </c>
     </row>
@@ -1954,7 +1975,7 @@
         <v>44</v>
       </c>
       <c r="L13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-3176.800000000002</v>
       </c>
       <c r="M13" s="1" t="s">
@@ -1972,14 +1993,14 @@
         <v>25</v>
       </c>
       <c r="S13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-3176.800000000002</v>
       </c>
       <c r="T13" s="1" t="s">
         <v>46</v>
       </c>
       <c r="U13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>64592</v>
       </c>
     </row>
@@ -2020,7 +2041,7 @@
         <v>47</v>
       </c>
       <c r="L14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1268.0357142857119</v>
       </c>
       <c r="M14" s="1" t="s">
@@ -2038,14 +2059,14 @@
         <v>25</v>
       </c>
       <c r="S14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1268.0357142857119</v>
       </c>
       <c r="T14" s="1" t="s">
         <v>46</v>
       </c>
       <c r="U14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50517.857142857138</v>
       </c>
     </row>
@@ -2086,7 +2107,7 @@
         <v>44</v>
       </c>
       <c r="L15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-2968.2692307692337</v>
       </c>
       <c r="M15" s="1" t="s">
@@ -2104,14 +2125,14 @@
         <v>25</v>
       </c>
       <c r="S15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2968.2692307692337</v>
       </c>
       <c r="T15" s="1" t="s">
         <v>46</v>
       </c>
       <c r="U15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>53826.923076923078</v>
       </c>
     </row>
@@ -2161,14 +2182,14 @@
         <v>25</v>
       </c>
       <c r="S16" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T16" s="3" t="s">
         <v>26</v>
       </c>
       <c r="U16" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37318</v>
       </c>
     </row>
@@ -2218,14 +2239,14 @@
         <v>25</v>
       </c>
       <c r="S17" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T17" s="3" t="s">
         <v>26</v>
       </c>
       <c r="U17" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>31698</v>
       </c>
     </row>
@@ -2248,7 +2269,9 @@
       <c r="F18" s="1">
         <v>1863</v>
       </c>
-      <c r="G18" s="1"/>
+      <c r="G18" s="1">
+        <v>1410.94</v>
+      </c>
       <c r="H18" s="1">
         <v>30</v>
       </c>
@@ -2260,12 +2283,19 @@
         <f t="shared" si="0"/>
         <v>3.4334975369458127</v>
       </c>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
+      <c r="K18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L18" s="1">
+        <f>(G18-D18)*H18</f>
+        <v>-3106.7999999999984</v>
+      </c>
       <c r="M18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="N18" s="1"/>
+      <c r="N18" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1" t="s">
@@ -2275,14 +2305,14 @@
         <v>25</v>
       </c>
       <c r="S18" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>-3106.7999999999984</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="U18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45435</v>
       </c>
     </row>
@@ -2341,14 +2371,14 @@
         <v>25</v>
       </c>
       <c r="S19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-3101.4400000000023</v>
       </c>
       <c r="T19" s="1" t="s">
         <v>46</v>
       </c>
       <c r="U19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>102624</v>
       </c>
     </row>
@@ -2398,14 +2428,14 @@
         <v>25</v>
       </c>
       <c r="S20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T20" s="1" t="s">
         <v>26</v>
       </c>
       <c r="U20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45860.100000000006</v>
       </c>
     </row>
@@ -2463,14 +2493,14 @@
         <v>25</v>
       </c>
       <c r="S21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1491.7799999999977</v>
       </c>
       <c r="T21" s="1" t="s">
         <v>46</v>
       </c>
       <c r="U21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>46881.36</v>
       </c>
     </row>
@@ -2500,7 +2530,7 @@
         <v>11</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" ref="I22:I32" si="4">(D22-E22)*H22</f>
+        <f t="shared" ref="I22:I33" si="6">(D22-E22)*H22</f>
         <v>3058</v>
       </c>
       <c r="J22" s="1">
@@ -2529,14 +2559,14 @@
         <v>25</v>
       </c>
       <c r="S22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>212.300000000002</v>
       </c>
       <c r="T22" s="1" t="s">
         <v>46</v>
       </c>
       <c r="U22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>29128</v>
       </c>
     </row>
@@ -2566,7 +2596,7 @@
         <v>429</v>
       </c>
       <c r="I23" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3045.9000000000037</v>
       </c>
       <c r="J23" s="1">
@@ -2595,14 +2625,14 @@
         <v>25</v>
       </c>
       <c r="S23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2831.3999999999974</v>
       </c>
       <c r="T23" s="1" t="s">
         <v>46</v>
       </c>
       <c r="U23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45860.100000000006</v>
       </c>
     </row>
@@ -2632,7 +2662,7 @@
         <v>26</v>
       </c>
       <c r="I24" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4261.4000000000024</v>
       </c>
       <c r="J24" s="1">
@@ -2661,14 +2691,14 @@
         <v>25</v>
       </c>
       <c r="S24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-4708.600000000004</v>
       </c>
       <c r="T24" s="1" t="s">
         <v>46</v>
       </c>
       <c r="U24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>54311.4</v>
       </c>
     </row>
@@ -2696,7 +2726,7 @@
         <v>11</v>
       </c>
       <c r="I25" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3140.5</v>
       </c>
       <c r="J25" s="1">
@@ -2718,14 +2748,14 @@
         <v>25</v>
       </c>
       <c r="S25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T25" s="1" t="s">
         <v>26</v>
       </c>
       <c r="U25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>29296.300000000003</v>
       </c>
     </row>
@@ -2755,7 +2785,7 @@
         <v>30</v>
       </c>
       <c r="I26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2910</v>
       </c>
       <c r="J26" s="1">
@@ -2766,7 +2796,7 @@
         <v>47</v>
       </c>
       <c r="L26" s="1">
-        <f t="shared" ref="L26:L27" si="5">(G26-D26)*H26</f>
+        <f t="shared" ref="L26" si="7">(G26-D26)*H26</f>
         <v>6062.9999999999973</v>
       </c>
       <c r="M26" s="1" t="s">
@@ -2786,14 +2816,14 @@
         <v>25</v>
       </c>
       <c r="S26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6062.9999999999973</v>
       </c>
       <c r="T26" s="1" t="s">
         <v>46</v>
       </c>
       <c r="U26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>49650</v>
       </c>
     </row>
@@ -2821,7 +2851,7 @@
         <v>34</v>
       </c>
       <c r="I27" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3094</v>
       </c>
       <c r="J27" s="1">
@@ -2845,14 +2875,14 @@
         <v>25</v>
       </c>
       <c r="S27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T27" s="1" t="s">
         <v>26</v>
       </c>
       <c r="U27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24650</v>
       </c>
     </row>
@@ -2882,7 +2912,7 @@
         <v>30</v>
       </c>
       <c r="I28" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2970</v>
       </c>
       <c r="J28" s="1">
@@ -2913,14 +2943,14 @@
         <v>25</v>
       </c>
       <c r="S28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-3053.3999999999992</v>
       </c>
       <c r="T28" s="1" t="s">
         <v>46</v>
       </c>
       <c r="U28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>51510</v>
       </c>
     </row>
@@ -2948,7 +2978,7 @@
         <v>34</v>
       </c>
       <c r="I29" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2958</v>
       </c>
       <c r="J29" s="1">
@@ -2972,14 +3002,14 @@
         <v>25</v>
       </c>
       <c r="S29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T29" s="1" t="s">
         <v>26</v>
       </c>
       <c r="U29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>33966</v>
       </c>
     </row>
@@ -3007,7 +3037,7 @@
         <v>30</v>
       </c>
       <c r="I30" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3090</v>
       </c>
       <c r="J30" s="1">
@@ -3029,14 +3059,14 @@
         <v>25</v>
       </c>
       <c r="S30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T30" s="1" t="s">
         <v>26</v>
       </c>
       <c r="U30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>39090</v>
       </c>
     </row>
@@ -3064,7 +3094,7 @@
         <v>231</v>
       </c>
       <c r="I31" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3003</v>
       </c>
       <c r="J31" s="1">
@@ -3086,14 +3116,14 @@
         <v>25</v>
       </c>
       <c r="S31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T31" s="1" t="s">
         <v>26</v>
       </c>
       <c r="U31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50820</v>
       </c>
     </row>
@@ -3123,7 +3153,7 @@
         <v>63</v>
       </c>
       <c r="I32" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3197.25</v>
       </c>
       <c r="J32" s="1">
@@ -3134,7 +3164,7 @@
         <v>44</v>
       </c>
       <c r="L32" s="1">
-        <f t="shared" ref="L31:L36" si="6">(G32-D32)*H32</f>
+        <f t="shared" ref="L32:L36" si="8">(G32-D32)*H32</f>
         <v>-3197.25</v>
       </c>
       <c r="M32" s="1" t="s">
@@ -3152,53 +3182,81 @@
         <v>25</v>
       </c>
       <c r="S32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-3197.25</v>
       </c>
       <c r="T32" s="1" t="s">
         <v>46</v>
       </c>
       <c r="U32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>58842</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1" t="e">
-        <f t="shared" ref="H31:H36" si="7">I33/(D33-E33)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1" t="e">
+      <c r="A33" s="2">
+        <v>45870</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1864.5</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1814.5</v>
+      </c>
+      <c r="F33" s="1">
+        <v>2064</v>
+      </c>
+      <c r="G33" s="1">
+        <v>1813.41</v>
+      </c>
+      <c r="H33" s="1">
+        <v>60</v>
+      </c>
+      <c r="I33" s="1">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="J33" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
+        <v>3.99</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L33" s="1">
+        <f t="shared" si="8"/>
+        <v>-3065.3999999999951</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T33" s="1"/>
-      <c r="U33" s="1" t="e">
+      <c r="Q33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S33" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>-3065.3999999999951</v>
+      </c>
+      <c r="T33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U33" s="1">
+        <f t="shared" si="3"/>
+        <v>111870</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.35">
@@ -3210,7 +3268,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="H33:H36" si="9">I34/(D34-E34)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I34" s="1"/>
@@ -3220,7 +3278,7 @@
       </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M34" s="1"/>
@@ -3230,12 +3288,12 @@
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T34" s="1"/>
       <c r="U34" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3248,7 +3306,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I35" s="1"/>
@@ -3258,7 +3316,7 @@
       </c>
       <c r="K35" s="1"/>
       <c r="L35" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M35" s="1"/>
@@ -3268,12 +3326,12 @@
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T35" s="1"/>
       <c r="U35" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3286,7 +3344,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I36" s="1"/>
@@ -3296,7 +3354,7 @@
       </c>
       <c r="K36" s="1"/>
       <c r="L36" s="1" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M36" s="1"/>
@@ -3306,12 +3364,12 @@
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T36" s="1"/>
       <c r="U36" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>

--- a/trading_journal.xlsx
+++ b/trading_journal.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deshmukp\Downloads\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C3BDAC-165C-47BF-9323-884E722D443E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5425D11A-5786-41CE-BD86-A89B86CCBBD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{0B36B6A0-2720-41CF-B289-397E14AB5A0A}"/>
+    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{0B36B6A0-2720-41CF-B289-397E14AB5A0A}"/>
   </bookViews>
   <sheets>
     <sheet name="trading_journal" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">trading_journal!$A$1:$U$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">trading_journal!$A$1:$U$41</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="95">
   <si>
     <t>Date</t>
   </si>
@@ -288,6 +288,39 @@
   </si>
   <si>
     <t xml:space="preserve">PULL BACK </t>
+  </si>
+  <si>
+    <t>HBL Engineering</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Try to Buy Closed possition Again </t>
+  </si>
+  <si>
+    <t>Daily</t>
+  </si>
+  <si>
+    <t>Mastek</t>
+  </si>
+  <si>
+    <t>Lupin</t>
+  </si>
+  <si>
+    <t>Eveready Industries</t>
+  </si>
+  <si>
+    <t>To convert Trade</t>
+  </si>
+  <si>
+    <t>VPC</t>
+  </si>
+  <si>
+    <t>triangle breakout</t>
+  </si>
+  <si>
+    <t>consodukation breakout</t>
   </si>
 </sst>
 </file>
@@ -1146,34 +1179,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8090FE0B-E5CF-476B-8F9F-EA27021FD68D}">
-  <dimension ref="A1:U36"/>
+  <dimension ref="A1:U41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+      <selection activeCell="U39" sqref="A1:U39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7265625" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" customWidth="1"/>
-    <col min="4" max="5" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.26953125" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.54296875" customWidth="1"/>
-    <col min="11" max="11" width="13.26953125" customWidth="1"/>
-    <col min="12" max="12" width="10.81640625" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" customWidth="1"/>
     <col min="13" max="13" width="23" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.453125" customWidth="1"/>
-    <col min="17" max="17" width="15.26953125" customWidth="1"/>
-    <col min="19" max="19" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.453125" customWidth="1"/>
+    <col min="14" max="14" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.42578125" customWidth="1"/>
+    <col min="17" max="17" width="15.28515625" customWidth="1"/>
+    <col min="19" max="19" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" customWidth="1"/>
     <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1238,7 +1271,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>45812</v>
       </c>
@@ -1268,14 +1301,14 @@
         <v>3000</v>
       </c>
       <c r="J2" s="1">
-        <f t="shared" ref="J2:J36" si="0">(F2-D2)/(D2-E2)</f>
+        <f>(F2-D2)/(D2-E2)</f>
         <v>2.7071102413568169</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>44</v>
       </c>
       <c r="L2" s="1">
-        <f t="shared" ref="L2:L5" si="1">(G2-D2)*H2</f>
+        <f>(G2-D2)*H2</f>
         <v>-24.461839530332682</v>
       </c>
       <c r="M2" s="1" t="s">
@@ -1293,18 +1326,18 @@
         <v>25</v>
       </c>
       <c r="S2" s="1">
-        <f t="shared" ref="S2:S36" si="2">L2</f>
+        <f>L2</f>
         <v>-24.461839530332682</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>46</v>
       </c>
       <c r="U2" s="1">
-        <f t="shared" ref="U2:U36" si="3">H2*D2</f>
+        <f>H2*D2</f>
         <v>20058.708414872799</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45812</v>
       </c>
@@ -1332,7 +1365,7 @@
         <v>3000</v>
       </c>
       <c r="J3" s="1">
-        <f t="shared" si="0"/>
+        <f>(F3-D3)/(D3-E3)</f>
         <v>2.3783783783783785</v>
       </c>
       <c r="K3" s="1"/>
@@ -1350,18 +1383,18 @@
         <v>25</v>
       </c>
       <c r="S3" s="1">
-        <f t="shared" si="2"/>
+        <f>L3</f>
         <v>0</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>26</v>
       </c>
       <c r="U3" s="1">
-        <f t="shared" si="3"/>
+        <f>H3*D3</f>
         <v>32270.27027027027</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>45812</v>
       </c>
@@ -1391,14 +1424,14 @@
         <v>3000</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" si="0"/>
+        <f>(F4-D4)/(D4-E4)</f>
         <v>1.5824561403508772</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>44</v>
       </c>
       <c r="L4" s="1">
-        <f t="shared" ref="L4:L5" si="4">(G4-D4)*H4</f>
+        <f>(G4-D4)*H4</f>
         <v>-1233.4736842105247</v>
       </c>
       <c r="M4" s="1" t="s">
@@ -1416,18 +1449,18 @@
         <v>25</v>
       </c>
       <c r="S4" s="1">
-        <f t="shared" si="2"/>
+        <f>L4</f>
         <v>-1233.4736842105247</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>46</v>
       </c>
       <c r="U4" s="1">
-        <f t="shared" si="3"/>
+        <f>H4*D4</f>
         <v>28421.05263157895</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45812</v>
       </c>
@@ -1455,7 +1488,7 @@
         <v>3000</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" si="0"/>
+        <f>(F5-D5)/(D5-E5)</f>
         <v>2.4807692307692308</v>
       </c>
       <c r="K5" s="1"/>
@@ -1473,18 +1506,18 @@
         <v>25</v>
       </c>
       <c r="S5" s="1">
-        <f t="shared" si="2"/>
+        <f>L5</f>
         <v>0</v>
       </c>
       <c r="T5" s="1" t="s">
         <v>26</v>
       </c>
       <c r="U5" s="1">
-        <f t="shared" si="3"/>
+        <f>H5*D5</f>
         <v>36403.846153846156</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45812</v>
       </c>
@@ -1514,7 +1547,7 @@
         <v>3000</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="0"/>
+        <f>(F6-D6)/(D6-E6)</f>
         <v>2.0232558139534884</v>
       </c>
       <c r="K6" s="1" t="s">
@@ -1539,18 +1572,18 @@
         <v>25</v>
       </c>
       <c r="S6" s="1">
-        <f t="shared" si="2"/>
+        <f>L6</f>
         <v>-2996.5116279069798</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>46</v>
       </c>
       <c r="U6" s="1">
-        <f t="shared" si="3"/>
+        <f>H6*D6</f>
         <v>56372.093023255809</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45812</v>
       </c>
@@ -1579,7 +1612,7 @@
         <v>1700</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="0"/>
+        <f>(F7-D7)/(D7-E7)</f>
         <v>3.4375</v>
       </c>
       <c r="K7" s="1" t="s">
@@ -1604,18 +1637,18 @@
         <v>25</v>
       </c>
       <c r="S7" s="1">
-        <f t="shared" si="2"/>
+        <f>L7</f>
         <v>-678.93000000000006</v>
       </c>
       <c r="T7" s="1" t="s">
         <v>46</v>
       </c>
       <c r="U7" s="1">
-        <f t="shared" si="3"/>
+        <f>H7*D7</f>
         <v>20034</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45812</v>
       </c>
@@ -1644,7 +1677,7 @@
         <v>1600</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="0"/>
+        <f>(F8-D8)/(D8-E8)</f>
         <v>4.833333333333333</v>
       </c>
       <c r="K8" s="1" t="s">
@@ -1671,18 +1704,18 @@
         <v>25</v>
       </c>
       <c r="S8" s="1">
-        <f t="shared" si="2"/>
+        <f>L8</f>
         <v>-1604.3999999999978</v>
       </c>
       <c r="T8" s="1" t="s">
         <v>46</v>
       </c>
       <c r="U8" s="1">
-        <f t="shared" si="3"/>
+        <f>H8*D8</f>
         <v>30672</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45814</v>
       </c>
@@ -1701,7 +1734,9 @@
       <c r="F9" s="1">
         <v>790</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="G9" s="1">
+        <v>812.61</v>
+      </c>
       <c r="H9" s="1">
         <f>I9/(D9-E9)</f>
         <v>46.012269938650277</v>
@@ -1710,15 +1745,22 @@
         <v>3000</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="0"/>
+        <f>(F9-D9)/(D9-E9)</f>
         <v>2.2239263803680966</v>
       </c>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
+      <c r="K9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L9" s="1">
+        <f>(G9-D9)*H9</f>
+        <v>7712.1165644171733</v>
+      </c>
       <c r="M9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="N9" s="1"/>
+      <c r="N9" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1" t="s">
@@ -1728,18 +1770,18 @@
         <v>25</v>
       </c>
       <c r="S9" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>L9</f>
+        <v>7712.1165644171733</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="U9" s="1">
-        <f t="shared" si="3"/>
+        <f>H9*D9</f>
         <v>29677.914110429429</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45820</v>
       </c>
@@ -1768,14 +1810,14 @@
         <v>3000</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="0"/>
+        <f>(F10-D10)/(D10-E10)</f>
         <v>3.1886792452830188</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>44</v>
       </c>
       <c r="L10" s="1">
-        <f t="shared" ref="L10:L15" si="5">(G10-D10)*H10</f>
+        <f>(G10-D10)*H10</f>
         <v>-196</v>
       </c>
       <c r="M10" s="1" t="s">
@@ -1795,18 +1837,18 @@
         <v>25</v>
       </c>
       <c r="S10" s="1">
-        <f t="shared" si="2"/>
+        <f>L10</f>
         <v>-196</v>
       </c>
       <c r="T10" s="1" t="s">
         <v>46</v>
       </c>
       <c r="U10" s="1">
-        <f t="shared" si="3"/>
+        <f>H10*D10</f>
         <v>73696</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>45820</v>
       </c>
@@ -1835,14 +1877,14 @@
         <v>3000</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="0"/>
+        <f>(F11-D11)/(D11-E11)</f>
         <v>2.4736842105263159</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>47</v>
       </c>
       <c r="L11" s="1">
-        <f t="shared" si="5"/>
+        <f>(G11-D11)*H11</f>
         <v>7216.7999999999984</v>
       </c>
       <c r="M11" s="1" t="s">
@@ -1862,18 +1904,18 @@
         <v>25</v>
       </c>
       <c r="S11" s="1">
-        <f t="shared" si="2"/>
+        <f>L11</f>
         <v>7216.7999999999984</v>
       </c>
       <c r="T11" s="1" t="s">
         <v>46</v>
       </c>
       <c r="U11" s="1">
-        <f t="shared" si="3"/>
+        <f>H11*D11</f>
         <v>49600</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>45826</v>
       </c>
@@ -1903,14 +1945,14 @@
         <v>3000</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="0"/>
+        <f>(F12-D12)/(D12-E12)</f>
         <v>1.8696883852691213</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>47</v>
       </c>
       <c r="L12" s="1">
-        <f t="shared" si="5"/>
+        <f>(G12-D12)*H12</f>
         <v>5204.5325779036821</v>
       </c>
       <c r="M12" s="1" t="s">
@@ -1928,18 +1970,18 @@
         <v>25</v>
       </c>
       <c r="S12" s="1">
-        <f t="shared" si="2"/>
+        <f>L12</f>
         <v>5204.5325779036821</v>
       </c>
       <c r="T12" s="1" t="s">
         <v>46</v>
       </c>
       <c r="U12" s="1">
-        <f t="shared" si="3"/>
+        <f>H12*D12</f>
         <v>40283.286118980155</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45826</v>
       </c>
@@ -1968,14 +2010,14 @@
         <v>3000</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="0"/>
+        <f>(F13-D13)/(D13-E13)</f>
         <v>3.3529411764705883</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>44</v>
       </c>
       <c r="L13" s="1">
-        <f t="shared" si="5"/>
+        <f>(G13-D13)*H13</f>
         <v>-3176.800000000002</v>
       </c>
       <c r="M13" s="1" t="s">
@@ -1993,18 +2035,18 @@
         <v>25</v>
       </c>
       <c r="S13" s="1">
-        <f t="shared" si="2"/>
+        <f>L13</f>
         <v>-3176.800000000002</v>
       </c>
       <c r="T13" s="1" t="s">
         <v>46</v>
       </c>
       <c r="U13" s="1">
-        <f t="shared" si="3"/>
+        <f>H13*D13</f>
         <v>64592</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>45827</v>
       </c>
@@ -2034,14 +2076,14 @@
         <v>3000</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="0"/>
+        <f>(F14-D14)/(D14-E14)</f>
         <v>3.0357142857142856</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>47</v>
       </c>
       <c r="L14" s="1">
-        <f t="shared" si="5"/>
+        <f>(G14-D14)*H14</f>
         <v>1268.0357142857119</v>
       </c>
       <c r="M14" s="1" t="s">
@@ -2059,18 +2101,18 @@
         <v>25</v>
       </c>
       <c r="S14" s="1">
-        <f t="shared" si="2"/>
+        <f>L14</f>
         <v>1268.0357142857119</v>
       </c>
       <c r="T14" s="1" t="s">
         <v>46</v>
       </c>
       <c r="U14" s="1">
-        <f t="shared" si="3"/>
+        <f>H14*D14</f>
         <v>50517.857142857138</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>45827</v>
       </c>
@@ -2100,14 +2142,14 @@
         <v>3000</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="0"/>
+        <f>(F15-D15)/(D15-E15)</f>
         <v>3.4519230769230771</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>44</v>
       </c>
       <c r="L15" s="1">
-        <f t="shared" si="5"/>
+        <f>(G15-D15)*H15</f>
         <v>-2968.2692307692337</v>
       </c>
       <c r="M15" s="1" t="s">
@@ -2125,18 +2167,18 @@
         <v>25</v>
       </c>
       <c r="S15" s="1">
-        <f t="shared" si="2"/>
+        <f>L15</f>
         <v>-2968.2692307692337</v>
       </c>
       <c r="T15" s="1" t="s">
         <v>46</v>
       </c>
       <c r="U15" s="1">
-        <f t="shared" si="3"/>
+        <f>H15*D15</f>
         <v>53826.923076923078</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>45834</v>
       </c>
@@ -2164,7 +2206,7 @@
         <v>4089</v>
       </c>
       <c r="J16" s="3">
-        <f t="shared" si="0"/>
+        <f>(F16-D16)/(D16-E16)</f>
         <v>1.7011494252873562</v>
       </c>
       <c r="K16" s="3"/>
@@ -2182,18 +2224,18 @@
         <v>25</v>
       </c>
       <c r="S16" s="3">
-        <f t="shared" si="2"/>
+        <f>L16</f>
         <v>0</v>
       </c>
       <c r="T16" s="3" t="s">
         <v>26</v>
       </c>
       <c r="U16" s="3">
-        <f t="shared" si="3"/>
+        <f>H16*D16</f>
         <v>37318</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>45834</v>
       </c>
@@ -2221,7 +2263,7 @@
         <v>3888</v>
       </c>
       <c r="J17" s="3">
-        <f t="shared" si="0"/>
+        <f>(F17-D17)/(D17-E17)</f>
         <v>2.2361111111111112</v>
       </c>
       <c r="K17" s="3"/>
@@ -2239,18 +2281,18 @@
         <v>25</v>
       </c>
       <c r="S17" s="3">
-        <f t="shared" si="2"/>
+        <f>L17</f>
         <v>0</v>
       </c>
       <c r="T17" s="3" t="s">
         <v>26</v>
       </c>
       <c r="U17" s="3">
-        <f t="shared" si="3"/>
+        <f>H17*D17</f>
         <v>31698</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>45834</v>
       </c>
@@ -2280,7 +2322,7 @@
         <v>3045</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="0"/>
+        <f>(F18-D18)/(D18-E18)</f>
         <v>3.4334975369458127</v>
       </c>
       <c r="K18" s="1" t="s">
@@ -2305,18 +2347,18 @@
         <v>25</v>
       </c>
       <c r="S18" s="1">
-        <f t="shared" si="2"/>
+        <f>L18</f>
         <v>-3106.7999999999984</v>
       </c>
       <c r="T18" s="1" t="s">
         <v>46</v>
       </c>
       <c r="U18" s="1">
-        <f t="shared" si="3"/>
+        <f>H18*D18</f>
         <v>45435</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>45834</v>
       </c>
@@ -2346,7 +2388,7 @@
         <v>3104</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="0"/>
+        <f>(F19-D19)/(D19-E19)</f>
         <v>3.7938144329896906</v>
       </c>
       <c r="K19" s="1" t="s">
@@ -2371,18 +2413,18 @@
         <v>25</v>
       </c>
       <c r="S19" s="1">
-        <f t="shared" si="2"/>
+        <f>L19</f>
         <v>-3101.4400000000023</v>
       </c>
       <c r="T19" s="1" t="s">
         <v>46</v>
       </c>
       <c r="U19" s="1">
-        <f t="shared" si="3"/>
+        <f>H19*D19</f>
         <v>102624</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>45834</v>
       </c>
@@ -2410,7 +2452,7 @@
         <v>3045.9000000000037</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="0"/>
+        <f>(F20-D20)/(D20-E20)</f>
         <v>6.0704225352112591</v>
       </c>
       <c r="K20" s="1"/>
@@ -2428,18 +2470,18 @@
         <v>25</v>
       </c>
       <c r="S20" s="1">
-        <f t="shared" si="2"/>
+        <f>L20</f>
         <v>0</v>
       </c>
       <c r="T20" s="1" t="s">
         <v>26</v>
       </c>
       <c r="U20" s="1">
-        <f t="shared" si="3"/>
+        <f>H20*D20</f>
         <v>45860.100000000006</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>45841</v>
       </c>
@@ -2468,7 +2510,7 @@
         <v>3000</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="0"/>
+        <f>(F21-D21)/(D21-E21)</f>
         <v>4.0300035298270416</v>
       </c>
       <c r="K21" s="1" t="s">
@@ -2493,18 +2535,18 @@
         <v>25</v>
       </c>
       <c r="S21" s="1">
-        <f t="shared" si="2"/>
+        <f>L21</f>
         <v>1491.7799999999977</v>
       </c>
       <c r="T21" s="1" t="s">
         <v>46</v>
       </c>
       <c r="U21" s="1">
-        <f t="shared" si="3"/>
+        <f>H21*D21</f>
         <v>46881.36</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>45845</v>
       </c>
@@ -2530,11 +2572,11 @@
         <v>11</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" ref="I22:I33" si="6">(D22-E22)*H22</f>
+        <f>(D22-E22)*H22</f>
         <v>3058</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="0"/>
+        <f>(F22-D22)/(D22-E22)</f>
         <v>1.985611510791367</v>
       </c>
       <c r="K22" s="1" t="s">
@@ -2559,18 +2601,18 @@
         <v>25</v>
       </c>
       <c r="S22" s="1">
-        <f t="shared" si="2"/>
+        <f>L22</f>
         <v>212.300000000002</v>
       </c>
       <c r="T22" s="1" t="s">
         <v>46</v>
       </c>
       <c r="U22" s="1">
-        <f t="shared" si="3"/>
+        <f>H22*D22</f>
         <v>29128</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>45845</v>
       </c>
@@ -2596,11 +2638,11 @@
         <v>429</v>
       </c>
       <c r="I23" s="1">
-        <f t="shared" si="6"/>
+        <f>(D23-E23)*H23</f>
         <v>3045.9000000000037</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="0"/>
+        <f>(F23-D23)/(D23-E23)</f>
         <v>6.0704225352112591</v>
       </c>
       <c r="K23" s="1" t="s">
@@ -2625,18 +2667,18 @@
         <v>25</v>
       </c>
       <c r="S23" s="1">
-        <f t="shared" si="2"/>
+        <f>L23</f>
         <v>2831.3999999999974</v>
       </c>
       <c r="T23" s="1" t="s">
         <v>46</v>
       </c>
       <c r="U23" s="1">
-        <f t="shared" si="3"/>
+        <f>H23*D23</f>
         <v>45860.100000000006</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>45847</v>
       </c>
@@ -2662,11 +2704,11 @@
         <v>26</v>
       </c>
       <c r="I24" s="3">
-        <f t="shared" si="6"/>
+        <f>(D24-E24)*H24</f>
         <v>4261.4000000000024</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="0"/>
+        <f>(F24-D24)/(D24-E24)</f>
         <v>2.508236729713238</v>
       </c>
       <c r="K24" s="1" t="s">
@@ -2691,18 +2733,18 @@
         <v>25</v>
       </c>
       <c r="S24" s="1">
-        <f t="shared" si="2"/>
+        <f>L24</f>
         <v>-4708.600000000004</v>
       </c>
       <c r="T24" s="1" t="s">
         <v>46</v>
       </c>
       <c r="U24" s="1">
-        <f t="shared" si="3"/>
+        <f>H24*D24</f>
         <v>54311.4</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>45847</v>
       </c>
@@ -2726,11 +2768,11 @@
         <v>11</v>
       </c>
       <c r="I25" s="1">
-        <f t="shared" si="6"/>
+        <f>(D25-E25)*H25</f>
         <v>3140.5</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="0"/>
+        <f>(F25-D25)/(D25-E25)</f>
         <v>2.9306479859894914</v>
       </c>
       <c r="K25" s="1"/>
@@ -2748,18 +2790,18 @@
         <v>25</v>
       </c>
       <c r="S25" s="1">
-        <f t="shared" si="2"/>
+        <f>L25</f>
         <v>0</v>
       </c>
       <c r="T25" s="1" t="s">
         <v>26</v>
       </c>
       <c r="U25" s="1">
-        <f t="shared" si="3"/>
+        <f>H25*D25</f>
         <v>29296.300000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>45847</v>
       </c>
@@ -2785,18 +2827,18 @@
         <v>30</v>
       </c>
       <c r="I26" s="1">
-        <f t="shared" si="6"/>
+        <f>(D26-E26)*H26</f>
         <v>2910</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="0"/>
+        <f>(F26-D26)/(D26-E26)</f>
         <v>3.4536082474226806</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>47</v>
       </c>
       <c r="L26" s="1">
-        <f t="shared" ref="L26" si="7">(G26-D26)*H26</f>
+        <f>(G26-D26)*H26</f>
         <v>6062.9999999999973</v>
       </c>
       <c r="M26" s="1" t="s">
@@ -2816,18 +2858,18 @@
         <v>25</v>
       </c>
       <c r="S26" s="1">
-        <f t="shared" si="2"/>
+        <f>L26</f>
         <v>6062.9999999999973</v>
       </c>
       <c r="T26" s="1" t="s">
         <v>46</v>
       </c>
       <c r="U26" s="1">
-        <f t="shared" si="3"/>
+        <f>H26*D26</f>
         <v>49650</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>45853</v>
       </c>
@@ -2851,11 +2893,11 @@
         <v>34</v>
       </c>
       <c r="I27" s="1">
-        <f t="shared" si="6"/>
+        <f>(D27-E27)*H27</f>
         <v>3094</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="0"/>
+        <f>(F27-D27)/(D27-E27)</f>
         <v>4.0439560439560438</v>
       </c>
       <c r="K27" s="1"/>
@@ -2875,18 +2917,18 @@
         <v>25</v>
       </c>
       <c r="S27" s="1">
-        <f t="shared" si="2"/>
+        <f>L27</f>
         <v>0</v>
       </c>
       <c r="T27" s="1" t="s">
         <v>26</v>
       </c>
       <c r="U27" s="1">
-        <f t="shared" si="3"/>
+        <f>H27*D27</f>
         <v>24650</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>45853</v>
       </c>
@@ -2912,11 +2954,11 @@
         <v>30</v>
       </c>
       <c r="I28" s="1">
-        <f t="shared" si="6"/>
+        <f>(D28-E28)*H28</f>
         <v>2970</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="0"/>
+        <f>(F28-D28)/(D28-E28)</f>
         <v>3.6161616161616164</v>
       </c>
       <c r="K28" s="1" t="s">
@@ -2943,18 +2985,18 @@
         <v>25</v>
       </c>
       <c r="S28" s="1">
-        <f t="shared" si="2"/>
+        <f>L28</f>
         <v>-3053.3999999999992</v>
       </c>
       <c r="T28" s="1" t="s">
         <v>46</v>
       </c>
       <c r="U28" s="1">
-        <f t="shared" si="3"/>
+        <f>H28*D28</f>
         <v>51510</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>45853</v>
       </c>
@@ -2978,11 +3020,11 @@
         <v>34</v>
       </c>
       <c r="I29" s="1">
-        <f t="shared" si="6"/>
+        <f>(D29-E29)*H29</f>
         <v>2958</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="0"/>
+        <f>(F29-D29)/(D29-E29)</f>
         <v>3.5287356321839081</v>
       </c>
       <c r="K29" s="1"/>
@@ -3002,18 +3044,18 @@
         <v>25</v>
       </c>
       <c r="S29" s="1">
-        <f t="shared" si="2"/>
+        <f>L29</f>
         <v>0</v>
       </c>
       <c r="T29" s="1" t="s">
         <v>26</v>
       </c>
       <c r="U29" s="1">
-        <f t="shared" si="3"/>
+        <f>H29*D29</f>
         <v>33966</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>45863</v>
       </c>
@@ -3037,11 +3079,11 @@
         <v>30</v>
       </c>
       <c r="I30" s="1">
-        <f t="shared" si="6"/>
+        <f>(D30-E30)*H30</f>
         <v>3090</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" si="0"/>
+        <f>(F30-D30)/(D30-E30)</f>
         <v>2.4951456310679609</v>
       </c>
       <c r="K30" s="1"/>
@@ -3059,54 +3101,63 @@
         <v>25</v>
       </c>
       <c r="S30" s="1">
-        <f t="shared" si="2"/>
+        <f>L30</f>
         <v>0</v>
       </c>
       <c r="T30" s="1" t="s">
         <v>26</v>
       </c>
       <c r="U30" s="1">
-        <f t="shared" si="3"/>
+        <f>H30*D30</f>
         <v>39090</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>45868</v>
+        <v>45866</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D31" s="1">
-        <v>220</v>
+        <v>934</v>
       </c>
       <c r="E31" s="1">
-        <v>207</v>
+        <v>883.25</v>
       </c>
       <c r="F31" s="1">
-        <v>272</v>
-      </c>
-      <c r="G31" s="1"/>
+        <v>1100</v>
+      </c>
+      <c r="G31" s="1">
+        <v>883.25</v>
+      </c>
       <c r="H31" s="1">
-        <v>231</v>
+        <v>63</v>
       </c>
       <c r="I31" s="1">
-        <f t="shared" si="6"/>
-        <v>3003</v>
+        <f>(D31-E31)*H31</f>
+        <v>3197.25</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
+        <f>(F31-D31)/(D31-E31)</f>
+        <v>3.270935960591133</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L31" s="1">
+        <f>(G31-D31)*H31</f>
+        <v>-3197.25</v>
+      </c>
       <c r="M31" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="N31" s="1"/>
+        <v>57</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1" t="s">
@@ -3116,59 +3167,59 @@
         <v>25</v>
       </c>
       <c r="S31" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>L31</f>
+        <v>-3197.25</v>
       </c>
       <c r="T31" s="1" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="U31" s="1">
-        <f t="shared" si="3"/>
-        <v>50820</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
+        <f>H31*D31</f>
+        <v>58842</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>45866</v>
+        <v>45868</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D32" s="1">
-        <v>934</v>
+        <v>220</v>
       </c>
       <c r="E32" s="1">
-        <v>883.25</v>
+        <v>207</v>
       </c>
       <c r="F32" s="1">
-        <v>1100</v>
+        <v>272</v>
       </c>
       <c r="G32" s="1">
-        <v>883.25</v>
+        <v>206.72</v>
       </c>
       <c r="H32" s="1">
-        <v>63</v>
+        <v>231</v>
       </c>
       <c r="I32" s="1">
-        <f t="shared" si="6"/>
-        <v>3197.25</v>
+        <f>(D32-E32)*H32</f>
+        <v>3003</v>
       </c>
       <c r="J32" s="1">
-        <f t="shared" si="0"/>
-        <v>3.270935960591133</v>
+        <f>(F32-D32)/(D32-E32)</f>
+        <v>4</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>44</v>
       </c>
       <c r="L32" s="1">
-        <f t="shared" ref="L32:L36" si="8">(G32-D32)*H32</f>
-        <v>-3197.25</v>
+        <f>(G32-D32)*H32</f>
+        <v>-3067.6800000000003</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="N32" s="1" t="s">
         <v>51</v>
@@ -3182,18 +3233,18 @@
         <v>25</v>
       </c>
       <c r="S32" s="1">
-        <f t="shared" si="2"/>
-        <v>-3197.25</v>
+        <f>L32</f>
+        <v>-3067.6800000000003</v>
       </c>
       <c r="T32" s="1" t="s">
         <v>46</v>
       </c>
       <c r="U32" s="1">
-        <f t="shared" si="3"/>
-        <v>58842</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
+        <f>H32*D32</f>
+        <v>50820</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>45870</v>
       </c>
@@ -3219,18 +3270,18 @@
         <v>60</v>
       </c>
       <c r="I33" s="1">
-        <f t="shared" si="6"/>
+        <f>(D33-E33)*H33</f>
         <v>3000</v>
       </c>
       <c r="J33" s="1">
-        <f t="shared" si="0"/>
+        <f>(F33-D33)/(D33-E33)</f>
         <v>3.99</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>44</v>
       </c>
       <c r="L33" s="1">
-        <f t="shared" si="8"/>
+        <f>(G33-D33)*H33</f>
         <v>-3065.3999999999951</v>
       </c>
       <c r="M33" s="1" t="s">
@@ -3248,135 +3299,444 @@
         <v>25</v>
       </c>
       <c r="S33" s="1">
-        <f t="shared" si="2"/>
+        <f>L33</f>
         <v>-3065.3999999999951</v>
       </c>
       <c r="T33" s="1" t="s">
         <v>46</v>
       </c>
       <c r="U33" s="1">
-        <f t="shared" si="3"/>
+        <f>H33*D33</f>
         <v>111870</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>45881</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="1">
+        <v>708.5</v>
+      </c>
+      <c r="E34" s="1">
+        <v>641.5</v>
+      </c>
+      <c r="F34" s="1">
+        <v>982.8</v>
+      </c>
       <c r="G34" s="1"/>
-      <c r="H34" s="1" t="e">
-        <f t="shared" ref="H33:H36" si="9">I34/(D34-E34)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="H34" s="1">
+        <v>44</v>
+      </c>
+      <c r="I34" s="1">
+        <f>(D34-E34)*H34</f>
+        <v>2948</v>
+      </c>
+      <c r="J34" s="1">
+        <f>(F34-D34)/(D34-E34)</f>
+        <v>4.094029850746268</v>
       </c>
       <c r="K34" s="1"/>
-      <c r="L34" s="1" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T34" s="1"/>
-      <c r="U34" s="1" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
+      <c r="Q34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S34" s="1">
+        <f>L34</f>
+        <v>0</v>
+      </c>
+      <c r="T34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U34" s="1">
+        <f>H34*D34</f>
+        <v>31174</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>45881</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="1">
+        <v>2540</v>
+      </c>
+      <c r="E35" s="1">
+        <v>2440</v>
+      </c>
+      <c r="F35" s="1">
+        <v>2900</v>
+      </c>
       <c r="G35" s="1"/>
-      <c r="H35" s="1" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="H35" s="1">
+        <v>30</v>
+      </c>
+      <c r="I35" s="1">
+        <f>(D35-E35)*H35</f>
+        <v>3000</v>
+      </c>
+      <c r="J35" s="1">
+        <f>(F35-D35)/(D35-E35)</f>
+        <v>3.6</v>
       </c>
       <c r="K35" s="1"/>
-      <c r="L35" s="1" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="1"/>
-      <c r="S35" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T35" s="1"/>
-      <c r="U35" s="1" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
+      <c r="Q35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S35" s="1">
+        <f>L35</f>
+        <v>0</v>
+      </c>
+      <c r="T35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U35" s="1">
+        <f>H35*D35</f>
+        <v>76200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>45881</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1943</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1875</v>
+      </c>
+      <c r="F36" s="1">
+        <v>2274</v>
+      </c>
       <c r="G36" s="1"/>
-      <c r="H36" s="1" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="H36" s="1">
+        <v>42</v>
+      </c>
+      <c r="I36" s="1">
+        <f>(D36-E36)*H36</f>
+        <v>2856</v>
+      </c>
+      <c r="J36" s="1">
+        <f>(F36-D36)/(D36-E36)</f>
+        <v>4.867647058823529</v>
       </c>
       <c r="K36" s="1"/>
-      <c r="L36" s="1" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1" t="e">
-        <f t="shared" si="2"/>
+      <c r="Q36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S36" s="1">
+        <f>L36</f>
+        <v>0</v>
+      </c>
+      <c r="T36" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U36" s="1">
+        <f>H36*D36</f>
+        <v>81606</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>45881</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="1">
+        <v>408.5</v>
+      </c>
+      <c r="E37" s="1">
+        <v>388.95</v>
+      </c>
+      <c r="F37" s="1">
+        <v>479</v>
+      </c>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1">
+        <v>150</v>
+      </c>
+      <c r="I37" s="1">
+        <f>(D37-E37)*H37</f>
+        <v>2932.5000000000018</v>
+      </c>
+      <c r="J37" s="1">
+        <f>(F37-D37)/(D37-E37)</f>
+        <v>3.6061381074168777</v>
+      </c>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S37" s="1">
+        <f>L37</f>
+        <v>0</v>
+      </c>
+      <c r="T37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U37" s="1">
+        <f>H37*D37</f>
+        <v>61275</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>45883</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D38" s="1">
+        <v>634.39</v>
+      </c>
+      <c r="E38" s="1">
+        <v>652</v>
+      </c>
+      <c r="F38" s="1">
+        <v>600</v>
+      </c>
+      <c r="G38" s="1">
+        <v>652</v>
+      </c>
+      <c r="H38" s="1">
+        <v>34</v>
+      </c>
+      <c r="I38" s="1">
+        <f>(E38- D38)*H38</f>
+        <v>598.74000000000046</v>
+      </c>
+      <c r="J38" s="1">
+        <f>(F38-D38)/(D38-E38)</f>
+        <v>1.952867688813172</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L38" s="1">
+        <f>(D38-G38)*H38</f>
+        <v>-598.74000000000046</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S38" s="1">
+        <f>L38</f>
+        <v>-598.74000000000046</v>
+      </c>
+      <c r="T38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U38" s="1">
+        <f>H38*D38</f>
+        <v>21569.26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>45883</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="1">
+        <v>652</v>
+      </c>
+      <c r="E39" s="1">
+        <v>615</v>
+      </c>
+      <c r="F39" s="1">
+        <v>750</v>
+      </c>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1">
+        <v>86</v>
+      </c>
+      <c r="I39" s="1">
+        <f>(D39-E39)*H39</f>
+        <v>3182</v>
+      </c>
+      <c r="J39" s="1">
+        <f>(F39-D39)/(D39-E39)</f>
+        <v>2.6486486486486487</v>
+      </c>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S39" s="1">
+        <f>L39</f>
+        <v>0</v>
+      </c>
+      <c r="T39" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U39" s="1">
+        <f>H39*D39</f>
+        <v>56072</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1">
+        <f>(D40-E40)*H40</f>
+        <v>0</v>
+      </c>
+      <c r="J40" s="1" t="e">
+        <f>(F40-D40)/(D40-E40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T36" s="1"/>
-      <c r="U36" s="1" t="e">
-        <f t="shared" si="3"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1">
+        <f>(G40-D40)*H40</f>
+        <v>0</v>
+      </c>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S40" s="1">
+        <f>L40</f>
+        <v>0</v>
+      </c>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1">
+        <f>(D41-E41)*H41</f>
+        <v>0</v>
+      </c>
+      <c r="J41" s="1" t="e">
+        <f>(F41-D41)/(D41-E41)</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1">
+        <f>(G41-D41)*H41</f>
+        <v>0</v>
+      </c>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S41" s="1">
+        <f>L41</f>
+        <v>0</v>
+      </c>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U28" xr:uid="{8090FE0B-E5CF-476B-8F9F-EA27021FD68D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U36">
-      <sortCondition ref="A1:A28"/>
+  <autoFilter ref="A1:U41" xr:uid="{8090FE0B-E5CF-476B-8F9F-EA27021FD68D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U41">
+      <sortCondition ref="A1:A41"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trading_journal.xlsx
+++ b/trading_journal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deshmukp\Downloads\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5425D11A-5786-41CE-BD86-A89B86CCBBD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEECFF54-E55C-42CB-8C8C-D0D05771ECA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{0B36B6A0-2720-41CF-B289-397E14AB5A0A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{0B36B6A0-2720-41CF-B289-397E14AB5A0A}"/>
   </bookViews>
   <sheets>
     <sheet name="trading_journal" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="95">
   <si>
     <t>Date</t>
   </si>
@@ -1181,32 +1181,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8090FE0B-E5CF-476B-8F9F-EA27021FD68D}">
   <dimension ref="A1:U41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U39" sqref="A1:U39"/>
+    <sheetView tabSelected="1" topLeftCell="J23" workbookViewId="0">
+      <selection activeCell="T35" sqref="T35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="4" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.7265625" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" customWidth="1"/>
+    <col min="4" max="5" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.26953125" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.54296875" customWidth="1"/>
+    <col min="11" max="11" width="13.26953125" customWidth="1"/>
+    <col min="12" max="12" width="10.81640625" customWidth="1"/>
     <col min="13" max="13" width="23" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.42578125" customWidth="1"/>
-    <col min="17" max="17" width="15.28515625" customWidth="1"/>
-    <col min="19" max="19" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" customWidth="1"/>
+    <col min="14" max="14" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.453125" customWidth="1"/>
+    <col min="17" max="17" width="15.26953125" customWidth="1"/>
+    <col min="19" max="19" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.453125" customWidth="1"/>
     <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>45812</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>3000</v>
       </c>
       <c r="J2" s="1">
-        <f>(F2-D2)/(D2-E2)</f>
+        <f t="shared" ref="J2:J41" si="0">(F2-D2)/(D2-E2)</f>
         <v>2.7071102413568169</v>
       </c>
       <c r="K2" s="1" t="s">
@@ -1326,18 +1326,18 @@
         <v>25</v>
       </c>
       <c r="S2" s="1">
-        <f>L2</f>
+        <f t="shared" ref="S2:S41" si="1">L2</f>
         <v>-24.461839530332682</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>46</v>
       </c>
       <c r="U2" s="1">
-        <f>H2*D2</f>
+        <f t="shared" ref="U2:U39" si="2">H2*D2</f>
         <v>20058.708414872799</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>45812</v>
       </c>
@@ -1356,7 +1356,9 @@
       <c r="F3" s="1">
         <v>243</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="1">
+        <v>197.5</v>
+      </c>
       <c r="H3" s="1">
         <f>I3/(D3-E3)</f>
         <v>162.16216216216216</v>
@@ -1365,11 +1367,14 @@
         <v>3000</v>
       </c>
       <c r="J3" s="1">
-        <f>(F3-D3)/(D3-E3)</f>
+        <f t="shared" si="0"/>
         <v>2.3783783783783785</v>
       </c>
       <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
+      <c r="L3" s="1">
+        <f>(G3-D3)*H3</f>
+        <v>-243.24324324324323</v>
+      </c>
       <c r="M3" s="1" t="s">
         <v>36</v>
       </c>
@@ -1383,18 +1388,18 @@
         <v>25</v>
       </c>
       <c r="S3" s="1">
-        <f>L3</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>-243.24324324324323</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="U3" s="1">
-        <f>H3*D3</f>
+        <f t="shared" si="2"/>
         <v>32270.27027027027</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>45812</v>
       </c>
@@ -1424,7 +1429,7 @@
         <v>3000</v>
       </c>
       <c r="J4" s="1">
-        <f>(F4-D4)/(D4-E4)</f>
+        <f t="shared" si="0"/>
         <v>1.5824561403508772</v>
       </c>
       <c r="K4" s="1" t="s">
@@ -1449,18 +1454,18 @@
         <v>25</v>
       </c>
       <c r="S4" s="1">
-        <f>L4</f>
+        <f t="shared" si="1"/>
         <v>-1233.4736842105247</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>46</v>
       </c>
       <c r="U4" s="1">
-        <f>H4*D4</f>
+        <f t="shared" si="2"/>
         <v>28421.05263157895</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>45812</v>
       </c>
@@ -1479,7 +1484,9 @@
       <c r="F5" s="1">
         <v>760</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="1">
+        <v>669</v>
+      </c>
       <c r="H5" s="1">
         <f>I5/(D5-E5)</f>
         <v>57.692307692307693</v>
@@ -1488,11 +1495,14 @@
         <v>3000</v>
       </c>
       <c r="J5" s="1">
-        <f>(F5-D5)/(D5-E5)</f>
+        <f t="shared" si="0"/>
         <v>2.4807692307692308</v>
       </c>
       <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
+      <c r="L5" s="1">
+        <f>(G5-D5)*H5</f>
+        <v>2192.3076923076924</v>
+      </c>
       <c r="M5" s="1" t="s">
         <v>36</v>
       </c>
@@ -1506,18 +1516,18 @@
         <v>25</v>
       </c>
       <c r="S5" s="1">
-        <f>L5</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2192.3076923076924</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="U5" s="1">
-        <f>H5*D5</f>
+        <f t="shared" si="2"/>
         <v>36403.846153846156</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>45812</v>
       </c>
@@ -1547,14 +1557,14 @@
         <v>3000</v>
       </c>
       <c r="J6" s="1">
-        <f>(F6-D6)/(D6-E6)</f>
+        <f t="shared" si="0"/>
         <v>2.0232558139534884</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>44</v>
       </c>
       <c r="L6" s="1">
-        <f>(G6-D6)*H6</f>
+        <f t="shared" ref="L6:L17" si="3">(G6-D6)*H6</f>
         <v>-2996.5116279069798</v>
       </c>
       <c r="M6" s="1" t="s">
@@ -1572,18 +1582,18 @@
         <v>25</v>
       </c>
       <c r="S6" s="1">
-        <f>L6</f>
+        <f t="shared" si="1"/>
         <v>-2996.5116279069798</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>46</v>
       </c>
       <c r="U6" s="1">
-        <f>H6*D6</f>
+        <f t="shared" si="2"/>
         <v>56372.093023255809</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>45812</v>
       </c>
@@ -1612,14 +1622,14 @@
         <v>1700</v>
       </c>
       <c r="J7" s="1">
-        <f>(F7-D7)/(D7-E7)</f>
+        <f t="shared" si="0"/>
         <v>3.4375</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>44</v>
       </c>
       <c r="L7" s="1">
-        <f>(G7-D7)*H7</f>
+        <f t="shared" si="3"/>
         <v>-678.93000000000006</v>
       </c>
       <c r="M7" s="1" t="s">
@@ -1637,18 +1647,18 @@
         <v>25</v>
       </c>
       <c r="S7" s="1">
-        <f>L7</f>
+        <f t="shared" si="1"/>
         <v>-678.93000000000006</v>
       </c>
       <c r="T7" s="1" t="s">
         <v>46</v>
       </c>
       <c r="U7" s="1">
-        <f>H7*D7</f>
+        <f t="shared" si="2"/>
         <v>20034</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>45812</v>
       </c>
@@ -1677,14 +1687,14 @@
         <v>1600</v>
       </c>
       <c r="J8" s="1">
-        <f>(F8-D8)/(D8-E8)</f>
+        <f t="shared" si="0"/>
         <v>4.833333333333333</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>44</v>
       </c>
       <c r="L8" s="1">
-        <f>(G8-D8)*H8</f>
+        <f t="shared" si="3"/>
         <v>-1604.3999999999978</v>
       </c>
       <c r="M8" s="1" t="s">
@@ -1704,18 +1714,18 @@
         <v>25</v>
       </c>
       <c r="S8" s="1">
-        <f>L8</f>
+        <f t="shared" si="1"/>
         <v>-1604.3999999999978</v>
       </c>
       <c r="T8" s="1" t="s">
         <v>46</v>
       </c>
       <c r="U8" s="1">
-        <f>H8*D8</f>
+        <f t="shared" si="2"/>
         <v>30672</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>45814</v>
       </c>
@@ -1745,14 +1755,14 @@
         <v>3000</v>
       </c>
       <c r="J9" s="1">
-        <f>(F9-D9)/(D9-E9)</f>
+        <f t="shared" si="0"/>
         <v>2.2239263803680966</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>47</v>
       </c>
       <c r="L9" s="1">
-        <f>(G9-D9)*H9</f>
+        <f t="shared" si="3"/>
         <v>7712.1165644171733</v>
       </c>
       <c r="M9" s="1" t="s">
@@ -1770,18 +1780,18 @@
         <v>25</v>
       </c>
       <c r="S9" s="1">
-        <f>L9</f>
+        <f t="shared" si="1"/>
         <v>7712.1165644171733</v>
       </c>
       <c r="T9" s="1" t="s">
         <v>46</v>
       </c>
       <c r="U9" s="1">
-        <f>H9*D9</f>
+        <f t="shared" si="2"/>
         <v>29677.914110429429</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>45820</v>
       </c>
@@ -1810,14 +1820,14 @@
         <v>3000</v>
       </c>
       <c r="J10" s="1">
-        <f>(F10-D10)/(D10-E10)</f>
+        <f t="shared" si="0"/>
         <v>3.1886792452830188</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>44</v>
       </c>
       <c r="L10" s="1">
-        <f>(G10-D10)*H10</f>
+        <f t="shared" si="3"/>
         <v>-196</v>
       </c>
       <c r="M10" s="1" t="s">
@@ -1837,18 +1847,18 @@
         <v>25</v>
       </c>
       <c r="S10" s="1">
-        <f>L10</f>
+        <f t="shared" si="1"/>
         <v>-196</v>
       </c>
       <c r="T10" s="1" t="s">
         <v>46</v>
       </c>
       <c r="U10" s="1">
-        <f>H10*D10</f>
+        <f t="shared" si="2"/>
         <v>73696</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>45820</v>
       </c>
@@ -1877,14 +1887,14 @@
         <v>3000</v>
       </c>
       <c r="J11" s="1">
-        <f>(F11-D11)/(D11-E11)</f>
+        <f t="shared" si="0"/>
         <v>2.4736842105263159</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>47</v>
       </c>
       <c r="L11" s="1">
-        <f>(G11-D11)*H11</f>
+        <f t="shared" si="3"/>
         <v>7216.7999999999984</v>
       </c>
       <c r="M11" s="1" t="s">
@@ -1904,18 +1914,18 @@
         <v>25</v>
       </c>
       <c r="S11" s="1">
-        <f>L11</f>
+        <f t="shared" si="1"/>
         <v>7216.7999999999984</v>
       </c>
       <c r="T11" s="1" t="s">
         <v>46</v>
       </c>
       <c r="U11" s="1">
-        <f>H11*D11</f>
+        <f t="shared" si="2"/>
         <v>49600</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>45826</v>
       </c>
@@ -1945,14 +1955,14 @@
         <v>3000</v>
       </c>
       <c r="J12" s="1">
-        <f>(F12-D12)/(D12-E12)</f>
+        <f t="shared" si="0"/>
         <v>1.8696883852691213</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>47</v>
       </c>
       <c r="L12" s="1">
-        <f>(G12-D12)*H12</f>
+        <f t="shared" si="3"/>
         <v>5204.5325779036821</v>
       </c>
       <c r="M12" s="1" t="s">
@@ -1970,18 +1980,18 @@
         <v>25</v>
       </c>
       <c r="S12" s="1">
-        <f>L12</f>
+        <f t="shared" si="1"/>
         <v>5204.5325779036821</v>
       </c>
       <c r="T12" s="1" t="s">
         <v>46</v>
       </c>
       <c r="U12" s="1">
-        <f>H12*D12</f>
+        <f t="shared" si="2"/>
         <v>40283.286118980155</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>45826</v>
       </c>
@@ -2010,14 +2020,14 @@
         <v>3000</v>
       </c>
       <c r="J13" s="1">
-        <f>(F13-D13)/(D13-E13)</f>
+        <f t="shared" si="0"/>
         <v>3.3529411764705883</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>44</v>
       </c>
       <c r="L13" s="1">
-        <f>(G13-D13)*H13</f>
+        <f t="shared" si="3"/>
         <v>-3176.800000000002</v>
       </c>
       <c r="M13" s="1" t="s">
@@ -2035,18 +2045,18 @@
         <v>25</v>
       </c>
       <c r="S13" s="1">
-        <f>L13</f>
+        <f t="shared" si="1"/>
         <v>-3176.800000000002</v>
       </c>
       <c r="T13" s="1" t="s">
         <v>46</v>
       </c>
       <c r="U13" s="1">
-        <f>H13*D13</f>
+        <f t="shared" si="2"/>
         <v>64592</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>45827</v>
       </c>
@@ -2076,14 +2086,14 @@
         <v>3000</v>
       </c>
       <c r="J14" s="1">
-        <f>(F14-D14)/(D14-E14)</f>
+        <f t="shared" si="0"/>
         <v>3.0357142857142856</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>47</v>
       </c>
       <c r="L14" s="1">
-        <f>(G14-D14)*H14</f>
+        <f t="shared" si="3"/>
         <v>1268.0357142857119</v>
       </c>
       <c r="M14" s="1" t="s">
@@ -2101,18 +2111,18 @@
         <v>25</v>
       </c>
       <c r="S14" s="1">
-        <f>L14</f>
+        <f t="shared" si="1"/>
         <v>1268.0357142857119</v>
       </c>
       <c r="T14" s="1" t="s">
         <v>46</v>
       </c>
       <c r="U14" s="1">
-        <f>H14*D14</f>
+        <f t="shared" si="2"/>
         <v>50517.857142857138</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>45827</v>
       </c>
@@ -2142,14 +2152,14 @@
         <v>3000</v>
       </c>
       <c r="J15" s="1">
-        <f>(F15-D15)/(D15-E15)</f>
+        <f t="shared" si="0"/>
         <v>3.4519230769230771</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>44</v>
       </c>
       <c r="L15" s="1">
-        <f>(G15-D15)*H15</f>
+        <f t="shared" si="3"/>
         <v>-2968.2692307692337</v>
       </c>
       <c r="M15" s="1" t="s">
@@ -2167,18 +2177,18 @@
         <v>25</v>
       </c>
       <c r="S15" s="1">
-        <f>L15</f>
+        <f t="shared" si="1"/>
         <v>-2968.2692307692337</v>
       </c>
       <c r="T15" s="1" t="s">
         <v>46</v>
       </c>
       <c r="U15" s="1">
-        <f>H15*D15</f>
+        <f t="shared" si="2"/>
         <v>53826.923076923078</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>45834</v>
       </c>
@@ -2197,7 +2207,9 @@
       <c r="F16" s="3">
         <v>942</v>
       </c>
-      <c r="G16" s="3"/>
+      <c r="G16" s="3">
+        <v>796.8</v>
+      </c>
       <c r="H16" s="3">
         <v>47</v>
       </c>
@@ -2206,11 +2218,14 @@
         <v>4089</v>
       </c>
       <c r="J16" s="3">
-        <f>(F16-D16)/(D16-E16)</f>
+        <f t="shared" si="0"/>
         <v>1.7011494252873562</v>
       </c>
       <c r="K16" s="3"/>
-      <c r="L16" s="1"/>
+      <c r="L16" s="1">
+        <f t="shared" si="3"/>
+        <v>131.59999999999786</v>
+      </c>
       <c r="M16" s="3" t="s">
         <v>57</v>
       </c>
@@ -2224,18 +2239,18 @@
         <v>25</v>
       </c>
       <c r="S16" s="3">
-        <f>L16</f>
-        <v>0</v>
-      </c>
-      <c r="T16" s="3" t="s">
-        <v>26</v>
+        <f t="shared" si="1"/>
+        <v>131.59999999999786</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="U16" s="3">
-        <f>H16*D16</f>
+        <f t="shared" si="2"/>
         <v>37318</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>45834</v>
       </c>
@@ -2254,7 +2269,9 @@
       <c r="F17" s="3">
         <v>748</v>
       </c>
-      <c r="G17" s="3"/>
+      <c r="G17" s="3">
+        <v>606</v>
+      </c>
       <c r="H17" s="3">
         <v>54</v>
       </c>
@@ -2263,11 +2280,14 @@
         <v>3888</v>
       </c>
       <c r="J17" s="3">
-        <f>(F17-D17)/(D17-E17)</f>
+        <f t="shared" si="0"/>
         <v>2.2361111111111112</v>
       </c>
       <c r="K17" s="3"/>
-      <c r="L17" s="1"/>
+      <c r="L17" s="1">
+        <f t="shared" si="3"/>
+        <v>1026</v>
+      </c>
       <c r="M17" s="3" t="s">
         <v>36</v>
       </c>
@@ -2281,18 +2301,18 @@
         <v>25</v>
       </c>
       <c r="S17" s="3">
-        <f>L17</f>
-        <v>0</v>
-      </c>
-      <c r="T17" s="3" t="s">
-        <v>26</v>
+        <f t="shared" si="1"/>
+        <v>1026</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="U17" s="3">
-        <f>H17*D17</f>
+        <f t="shared" si="2"/>
         <v>31698</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>45834</v>
       </c>
@@ -2322,7 +2342,7 @@
         <v>3045</v>
       </c>
       <c r="J18" s="1">
-        <f>(F18-D18)/(D18-E18)</f>
+        <f t="shared" si="0"/>
         <v>3.4334975369458127</v>
       </c>
       <c r="K18" s="1" t="s">
@@ -2347,18 +2367,18 @@
         <v>25</v>
       </c>
       <c r="S18" s="1">
-        <f>L18</f>
+        <f t="shared" si="1"/>
         <v>-3106.7999999999984</v>
       </c>
       <c r="T18" s="1" t="s">
         <v>46</v>
       </c>
       <c r="U18" s="1">
-        <f>H18*D18</f>
+        <f t="shared" si="2"/>
         <v>45435</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>45834</v>
       </c>
@@ -2388,7 +2408,7 @@
         <v>3104</v>
       </c>
       <c r="J19" s="1">
-        <f>(F19-D19)/(D19-E19)</f>
+        <f t="shared" si="0"/>
         <v>3.7938144329896906</v>
       </c>
       <c r="K19" s="1" t="s">
@@ -2413,18 +2433,18 @@
         <v>25</v>
       </c>
       <c r="S19" s="1">
-        <f>L19</f>
+        <f t="shared" si="1"/>
         <v>-3101.4400000000023</v>
       </c>
       <c r="T19" s="1" t="s">
         <v>46</v>
       </c>
       <c r="U19" s="1">
-        <f>H19*D19</f>
+        <f t="shared" si="2"/>
         <v>102624</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>45834</v>
       </c>
@@ -2452,7 +2472,7 @@
         <v>3045.9000000000037</v>
       </c>
       <c r="J20" s="1">
-        <f>(F20-D20)/(D20-E20)</f>
+        <f t="shared" si="0"/>
         <v>6.0704225352112591</v>
       </c>
       <c r="K20" s="1"/>
@@ -2470,18 +2490,18 @@
         <v>25</v>
       </c>
       <c r="S20" s="1">
-        <f>L20</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T20" s="1" t="s">
         <v>26</v>
       </c>
       <c r="U20" s="1">
-        <f>H20*D20</f>
+        <f t="shared" si="2"/>
         <v>45860.100000000006</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>45841</v>
       </c>
@@ -2510,7 +2530,7 @@
         <v>3000</v>
       </c>
       <c r="J21" s="1">
-        <f>(F21-D21)/(D21-E21)</f>
+        <f t="shared" si="0"/>
         <v>4.0300035298270416</v>
       </c>
       <c r="K21" s="1" t="s">
@@ -2535,18 +2555,18 @@
         <v>25</v>
       </c>
       <c r="S21" s="1">
-        <f>L21</f>
+        <f t="shared" si="1"/>
         <v>1491.7799999999977</v>
       </c>
       <c r="T21" s="1" t="s">
         <v>46</v>
       </c>
       <c r="U21" s="1">
-        <f>H21*D21</f>
+        <f t="shared" si="2"/>
         <v>46881.36</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>45845</v>
       </c>
@@ -2572,11 +2592,11 @@
         <v>11</v>
       </c>
       <c r="I22" s="1">
-        <f>(D22-E22)*H22</f>
+        <f t="shared" ref="I22:I37" si="4">(D22-E22)*H22</f>
         <v>3058</v>
       </c>
       <c r="J22" s="1">
-        <f>(F22-D22)/(D22-E22)</f>
+        <f t="shared" si="0"/>
         <v>1.985611510791367</v>
       </c>
       <c r="K22" s="1" t="s">
@@ -2601,18 +2621,18 @@
         <v>25</v>
       </c>
       <c r="S22" s="1">
-        <f>L22</f>
+        <f t="shared" si="1"/>
         <v>212.300000000002</v>
       </c>
       <c r="T22" s="1" t="s">
         <v>46</v>
       </c>
       <c r="U22" s="1">
-        <f>H22*D22</f>
+        <f t="shared" si="2"/>
         <v>29128</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>45845</v>
       </c>
@@ -2638,11 +2658,11 @@
         <v>429</v>
       </c>
       <c r="I23" s="1">
-        <f>(D23-E23)*H23</f>
+        <f t="shared" si="4"/>
         <v>3045.9000000000037</v>
       </c>
       <c r="J23" s="1">
-        <f>(F23-D23)/(D23-E23)</f>
+        <f t="shared" si="0"/>
         <v>6.0704225352112591</v>
       </c>
       <c r="K23" s="1" t="s">
@@ -2667,18 +2687,18 @@
         <v>25</v>
       </c>
       <c r="S23" s="1">
-        <f>L23</f>
+        <f t="shared" si="1"/>
         <v>2831.3999999999974</v>
       </c>
       <c r="T23" s="1" t="s">
         <v>46</v>
       </c>
       <c r="U23" s="1">
-        <f>H23*D23</f>
+        <f t="shared" si="2"/>
         <v>45860.100000000006</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>45847</v>
       </c>
@@ -2704,11 +2724,11 @@
         <v>26</v>
       </c>
       <c r="I24" s="3">
-        <f>(D24-E24)*H24</f>
+        <f t="shared" si="4"/>
         <v>4261.4000000000024</v>
       </c>
       <c r="J24" s="1">
-        <f>(F24-D24)/(D24-E24)</f>
+        <f t="shared" si="0"/>
         <v>2.508236729713238</v>
       </c>
       <c r="K24" s="1" t="s">
@@ -2733,18 +2753,18 @@
         <v>25</v>
       </c>
       <c r="S24" s="1">
-        <f>L24</f>
+        <f t="shared" si="1"/>
         <v>-4708.600000000004</v>
       </c>
       <c r="T24" s="1" t="s">
         <v>46</v>
       </c>
       <c r="U24" s="1">
-        <f>H24*D24</f>
+        <f t="shared" si="2"/>
         <v>54311.4</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>45847</v>
       </c>
@@ -2768,11 +2788,11 @@
         <v>11</v>
       </c>
       <c r="I25" s="1">
-        <f>(D25-E25)*H25</f>
+        <f t="shared" si="4"/>
         <v>3140.5</v>
       </c>
       <c r="J25" s="1">
-        <f>(F25-D25)/(D25-E25)</f>
+        <f t="shared" si="0"/>
         <v>2.9306479859894914</v>
       </c>
       <c r="K25" s="1"/>
@@ -2790,18 +2810,18 @@
         <v>25</v>
       </c>
       <c r="S25" s="1">
-        <f>L25</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T25" s="1" t="s">
         <v>26</v>
       </c>
       <c r="U25" s="1">
-        <f>H25*D25</f>
+        <f t="shared" si="2"/>
         <v>29296.300000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>45847</v>
       </c>
@@ -2827,11 +2847,11 @@
         <v>30</v>
       </c>
       <c r="I26" s="1">
-        <f>(D26-E26)*H26</f>
+        <f t="shared" si="4"/>
         <v>2910</v>
       </c>
       <c r="J26" s="1">
-        <f>(F26-D26)/(D26-E26)</f>
+        <f t="shared" si="0"/>
         <v>3.4536082474226806</v>
       </c>
       <c r="K26" s="1" t="s">
@@ -2858,18 +2878,18 @@
         <v>25</v>
       </c>
       <c r="S26" s="1">
-        <f>L26</f>
+        <f t="shared" si="1"/>
         <v>6062.9999999999973</v>
       </c>
       <c r="T26" s="1" t="s">
         <v>46</v>
       </c>
       <c r="U26" s="1">
-        <f>H26*D26</f>
+        <f t="shared" si="2"/>
         <v>49650</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>45853</v>
       </c>
@@ -2888,20 +2908,27 @@
       <c r="F27" s="1">
         <v>1093</v>
       </c>
-      <c r="G27" s="1"/>
+      <c r="G27" s="1">
+        <v>655.1</v>
+      </c>
       <c r="H27" s="1">
         <v>34</v>
       </c>
       <c r="I27" s="1">
-        <f>(D27-E27)*H27</f>
+        <f t="shared" si="4"/>
         <v>3094</v>
       </c>
       <c r="J27" s="1">
-        <f>(F27-D27)/(D27-E27)</f>
+        <f t="shared" si="0"/>
         <v>4.0439560439560438</v>
       </c>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
+      <c r="K27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L27" s="1">
+        <f>(G27-D27)*H27</f>
+        <v>-2376.5999999999995</v>
+      </c>
       <c r="M27" s="1" t="s">
         <v>73</v>
       </c>
@@ -2917,18 +2944,18 @@
         <v>25</v>
       </c>
       <c r="S27" s="1">
-        <f>L27</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>-2376.5999999999995</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="U27" s="1">
-        <f>H27*D27</f>
+        <f t="shared" si="2"/>
         <v>24650</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>45853</v>
       </c>
@@ -2954,11 +2981,11 @@
         <v>30</v>
       </c>
       <c r="I28" s="1">
-        <f>(D28-E28)*H28</f>
+        <f t="shared" si="4"/>
         <v>2970</v>
       </c>
       <c r="J28" s="1">
-        <f>(F28-D28)/(D28-E28)</f>
+        <f t="shared" si="0"/>
         <v>3.6161616161616164</v>
       </c>
       <c r="K28" s="1" t="s">
@@ -2985,18 +3012,18 @@
         <v>25</v>
       </c>
       <c r="S28" s="1">
-        <f>L28</f>
+        <f t="shared" si="1"/>
         <v>-3053.3999999999992</v>
       </c>
       <c r="T28" s="1" t="s">
         <v>46</v>
       </c>
       <c r="U28" s="1">
-        <f>H28*D28</f>
+        <f t="shared" si="2"/>
         <v>51510</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>45853</v>
       </c>
@@ -3020,11 +3047,11 @@
         <v>34</v>
       </c>
       <c r="I29" s="1">
-        <f>(D29-E29)*H29</f>
+        <f t="shared" si="4"/>
         <v>2958</v>
       </c>
       <c r="J29" s="1">
-        <f>(F29-D29)/(D29-E29)</f>
+        <f t="shared" si="0"/>
         <v>3.5287356321839081</v>
       </c>
       <c r="K29" s="1"/>
@@ -3044,18 +3071,18 @@
         <v>25</v>
       </c>
       <c r="S29" s="1">
-        <f>L29</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T29" s="1" t="s">
         <v>26</v>
       </c>
       <c r="U29" s="1">
-        <f>H29*D29</f>
+        <f t="shared" si="2"/>
         <v>33966</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>45863</v>
       </c>
@@ -3079,11 +3106,11 @@
         <v>30</v>
       </c>
       <c r="I30" s="1">
-        <f>(D30-E30)*H30</f>
+        <f t="shared" si="4"/>
         <v>3090</v>
       </c>
       <c r="J30" s="1">
-        <f>(F30-D30)/(D30-E30)</f>
+        <f t="shared" si="0"/>
         <v>2.4951456310679609</v>
       </c>
       <c r="K30" s="1"/>
@@ -3101,18 +3128,18 @@
         <v>25</v>
       </c>
       <c r="S30" s="1">
-        <f>L30</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T30" s="1" t="s">
         <v>26</v>
       </c>
       <c r="U30" s="1">
-        <f>H30*D30</f>
+        <f t="shared" si="2"/>
         <v>39090</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>45866</v>
       </c>
@@ -3138,11 +3165,11 @@
         <v>63</v>
       </c>
       <c r="I31" s="1">
-        <f>(D31-E31)*H31</f>
+        <f t="shared" si="4"/>
         <v>3197.25</v>
       </c>
       <c r="J31" s="1">
-        <f>(F31-D31)/(D31-E31)</f>
+        <f t="shared" si="0"/>
         <v>3.270935960591133</v>
       </c>
       <c r="K31" s="1" t="s">
@@ -3167,18 +3194,18 @@
         <v>25</v>
       </c>
       <c r="S31" s="1">
-        <f>L31</f>
+        <f t="shared" si="1"/>
         <v>-3197.25</v>
       </c>
       <c r="T31" s="1" t="s">
         <v>46</v>
       </c>
       <c r="U31" s="1">
-        <f>H31*D31</f>
+        <f t="shared" si="2"/>
         <v>58842</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>45868</v>
       </c>
@@ -3204,11 +3231,11 @@
         <v>231</v>
       </c>
       <c r="I32" s="1">
-        <f>(D32-E32)*H32</f>
+        <f t="shared" si="4"/>
         <v>3003</v>
       </c>
       <c r="J32" s="1">
-        <f>(F32-D32)/(D32-E32)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="K32" s="1" t="s">
@@ -3233,18 +3260,18 @@
         <v>25</v>
       </c>
       <c r="S32" s="1">
-        <f>L32</f>
+        <f t="shared" si="1"/>
         <v>-3067.6800000000003</v>
       </c>
       <c r="T32" s="1" t="s">
         <v>46</v>
       </c>
       <c r="U32" s="1">
-        <f>H32*D32</f>
+        <f t="shared" si="2"/>
         <v>50820</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>45870</v>
       </c>
@@ -3270,11 +3297,11 @@
         <v>60</v>
       </c>
       <c r="I33" s="1">
-        <f>(D33-E33)*H33</f>
+        <f t="shared" si="4"/>
         <v>3000</v>
       </c>
       <c r="J33" s="1">
-        <f>(F33-D33)/(D33-E33)</f>
+        <f t="shared" si="0"/>
         <v>3.99</v>
       </c>
       <c r="K33" s="1" t="s">
@@ -3299,18 +3326,18 @@
         <v>25</v>
       </c>
       <c r="S33" s="1">
-        <f>L33</f>
+        <f t="shared" si="1"/>
         <v>-3065.3999999999951</v>
       </c>
       <c r="T33" s="1" t="s">
         <v>46</v>
       </c>
       <c r="U33" s="1">
-        <f>H33*D33</f>
+        <f t="shared" si="2"/>
         <v>111870</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>45881</v>
       </c>
@@ -3334,11 +3361,11 @@
         <v>44</v>
       </c>
       <c r="I34" s="1">
-        <f>(D34-E34)*H34</f>
+        <f t="shared" si="4"/>
         <v>2948</v>
       </c>
       <c r="J34" s="1">
-        <f>(F34-D34)/(D34-E34)</f>
+        <f t="shared" si="0"/>
         <v>4.094029850746268</v>
       </c>
       <c r="K34" s="1"/>
@@ -3356,18 +3383,18 @@
         <v>25</v>
       </c>
       <c r="S34" s="1">
-        <f>L34</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T34" s="1" t="s">
         <v>26</v>
       </c>
       <c r="U34" s="1">
-        <f>H34*D34</f>
+        <f t="shared" si="2"/>
         <v>31174</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>45881</v>
       </c>
@@ -3386,20 +3413,25 @@
       <c r="F35" s="1">
         <v>2900</v>
       </c>
-      <c r="G35" s="1"/>
+      <c r="G35" s="1">
+        <v>2440</v>
+      </c>
       <c r="H35" s="1">
         <v>30</v>
       </c>
       <c r="I35" s="1">
-        <f>(D35-E35)*H35</f>
+        <f t="shared" si="4"/>
         <v>3000</v>
       </c>
       <c r="J35" s="1">
-        <f>(F35-D35)/(D35-E35)</f>
+        <f t="shared" si="0"/>
         <v>3.6</v>
       </c>
       <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
+      <c r="L35" s="1">
+        <f t="shared" ref="L34:L35" si="5">(G35-D35)*H35</f>
+        <v>-3000</v>
+      </c>
       <c r="M35" s="1" t="s">
         <v>94</v>
       </c>
@@ -3413,18 +3445,18 @@
         <v>25</v>
       </c>
       <c r="S35" s="1">
-        <f>L35</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>-3000</v>
       </c>
       <c r="T35" s="1" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="U35" s="1">
-        <f>H35*D35</f>
+        <f t="shared" si="2"/>
         <v>76200</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>45881</v>
       </c>
@@ -3448,11 +3480,11 @@
         <v>42</v>
       </c>
       <c r="I36" s="1">
-        <f>(D36-E36)*H36</f>
+        <f t="shared" si="4"/>
         <v>2856</v>
       </c>
       <c r="J36" s="1">
-        <f>(F36-D36)/(D36-E36)</f>
+        <f t="shared" si="0"/>
         <v>4.867647058823529</v>
       </c>
       <c r="K36" s="1"/>
@@ -3470,18 +3502,18 @@
         <v>25</v>
       </c>
       <c r="S36" s="1">
-        <f>L36</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T36" s="1" t="s">
         <v>26</v>
       </c>
       <c r="U36" s="1">
-        <f>H36*D36</f>
+        <f t="shared" si="2"/>
         <v>81606</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>45881</v>
       </c>
@@ -3505,11 +3537,11 @@
         <v>150</v>
       </c>
       <c r="I37" s="1">
-        <f>(D37-E37)*H37</f>
+        <f t="shared" si="4"/>
         <v>2932.5000000000018</v>
       </c>
       <c r="J37" s="1">
-        <f>(F37-D37)/(D37-E37)</f>
+        <f t="shared" si="0"/>
         <v>3.6061381074168777</v>
       </c>
       <c r="K37" s="1"/>
@@ -3527,18 +3559,18 @@
         <v>25</v>
       </c>
       <c r="S37" s="1">
-        <f>L37</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T37" s="1" t="s">
         <v>26</v>
       </c>
       <c r="U37" s="1">
-        <f>H37*D37</f>
+        <f t="shared" si="2"/>
         <v>61275</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>45883</v>
       </c>
@@ -3568,7 +3600,7 @@
         <v>598.74000000000046</v>
       </c>
       <c r="J38" s="1">
-        <f>(F38-D38)/(D38-E38)</f>
+        <f t="shared" si="0"/>
         <v>1.952867688813172</v>
       </c>
       <c r="K38" s="1" t="s">
@@ -3593,18 +3625,18 @@
         <v>25</v>
       </c>
       <c r="S38" s="1">
-        <f>L38</f>
+        <f t="shared" si="1"/>
         <v>-598.74000000000046</v>
       </c>
       <c r="T38" s="1" t="s">
         <v>46</v>
       </c>
       <c r="U38" s="1">
-        <f>H38*D38</f>
+        <f t="shared" si="2"/>
         <v>21569.26</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>45883</v>
       </c>
@@ -3623,7 +3655,9 @@
       <c r="F39" s="1">
         <v>750</v>
       </c>
-      <c r="G39" s="1"/>
+      <c r="G39" s="1">
+        <v>648.44000000000005</v>
+      </c>
       <c r="H39" s="1">
         <v>86</v>
       </c>
@@ -3632,11 +3666,14 @@
         <v>3182</v>
       </c>
       <c r="J39" s="1">
-        <f>(F39-D39)/(D39-E39)</f>
+        <f t="shared" si="0"/>
         <v>2.6486486486486487</v>
       </c>
       <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
+      <c r="L39" s="1">
+        <f>(G39-D39)*H39</f>
+        <v>-306.15999999999531</v>
+      </c>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
@@ -3648,18 +3685,18 @@
         <v>25</v>
       </c>
       <c r="S39" s="1">
-        <f>L39</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>-306.15999999999531</v>
       </c>
       <c r="T39" s="1" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="U39" s="1">
-        <f>H39*D39</f>
+        <f t="shared" si="2"/>
         <v>56072</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -3673,7 +3710,7 @@
         <v>0</v>
       </c>
       <c r="J40" s="1" t="e">
-        <f>(F40-D40)/(D40-E40)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K40" s="1"/>
@@ -3690,13 +3727,13 @@
         <v>25</v>
       </c>
       <c r="S40" s="1">
-        <f>L40</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -3710,7 +3747,7 @@
         <v>0</v>
       </c>
       <c r="J41" s="1" t="e">
-        <f>(F41-D41)/(D41-E41)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K41" s="1"/>
@@ -3727,7 +3764,7 @@
         <v>25</v>
       </c>
       <c r="S41" s="1">
-        <f>L41</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T41" s="1"/>

--- a/trading_journal.xlsx
+++ b/trading_journal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deshmukp\Downloads\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEECFF54-E55C-42CB-8C8C-D0D05771ECA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F63F9014-5E0A-4956-89FF-F1BA694432BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{0B36B6A0-2720-41CF-B289-397E14AB5A0A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="97">
   <si>
     <t>Date</t>
   </si>
@@ -321,6 +321,12 @@
   </si>
   <si>
     <t>consodukation breakout</t>
+  </si>
+  <si>
+    <t>Take Profit Hit change to 1:3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> as it already 22% position size and sl need to change</t>
   </si>
 </sst>
 </file>
@@ -1182,7 +1188,7 @@
   <dimension ref="A1:U41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J23" workbookViewId="0">
-      <selection activeCell="T35" sqref="T35"/>
+      <selection sqref="A1:U39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3356,7 +3362,9 @@
       <c r="F34" s="1">
         <v>982.8</v>
       </c>
-      <c r="G34" s="1"/>
+      <c r="G34" s="1">
+        <v>909.84</v>
+      </c>
       <c r="H34" s="1">
         <v>44</v>
       </c>
@@ -3368,13 +3376,22 @@
         <f t="shared" si="0"/>
         <v>4.094029850746268</v>
       </c>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
+      <c r="K34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L34" s="1">
+        <f>(G34-D34)*H34</f>
+        <v>8858.9600000000009</v>
+      </c>
       <c r="M34" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
+      <c r="N34" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="P34" s="1"/>
       <c r="Q34" s="1" t="s">
         <v>24</v>
@@ -3384,10 +3401,10 @@
       </c>
       <c r="S34" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8858.9600000000009</v>
       </c>
       <c r="T34" s="1" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="U34" s="1">
         <f t="shared" si="2"/>
@@ -3429,7 +3446,7 @@
       </c>
       <c r="K35" s="1"/>
       <c r="L35" s="1">
-        <f t="shared" ref="L34:L35" si="5">(G35-D35)*H35</f>
+        <f t="shared" ref="L35" si="5">(G35-D35)*H35</f>
         <v>-3000</v>
       </c>
       <c r="M35" s="1" t="s">

--- a/trading_journal.xlsx
+++ b/trading_journal.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deshmukp\Downloads\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F63F9014-5E0A-4956-89FF-F1BA694432BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5733D35B-BDD1-4184-8AD7-ABAFDC635DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{0B36B6A0-2720-41CF-B289-397E14AB5A0A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="98">
   <si>
     <t>Date</t>
   </si>
@@ -327,6 +327,9 @@
   </si>
   <si>
     <t xml:space="preserve"> as it already 22% position size and sl need to change</t>
+  </si>
+  <si>
+    <t>Cut possition cause weekly trade with no movementum</t>
   </si>
 </sst>
 </file>
@@ -825,11 +828,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1187,8 +1192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8090FE0B-E5CF-476B-8F9F-EA27021FD68D}">
   <dimension ref="A1:U41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J23" workbookViewId="0">
-      <selection sqref="A1:U39"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1376,7 +1381,9 @@
         <f t="shared" si="0"/>
         <v>2.3783783783783785</v>
       </c>
-      <c r="K3" s="1"/>
+      <c r="K3" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="L3" s="1">
         <f>(G3-D3)*H3</f>
         <v>-243.24324324324323</v>
@@ -1504,7 +1511,9 @@
         <f t="shared" si="0"/>
         <v>2.4807692307692308</v>
       </c>
-      <c r="K5" s="1"/>
+      <c r="K5" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="L5" s="1">
         <f>(G5-D5)*H5</f>
         <v>2192.3076923076924</v>
@@ -2227,7 +2236,9 @@
         <f t="shared" si="0"/>
         <v>1.7011494252873562</v>
       </c>
-      <c r="K16" s="3"/>
+      <c r="K16" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="L16" s="1">
         <f t="shared" si="3"/>
         <v>131.59999999999786</v>
@@ -2289,7 +2300,9 @@
         <f t="shared" si="0"/>
         <v>2.2361111111111112</v>
       </c>
-      <c r="K17" s="3"/>
+      <c r="K17" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="L17" s="1">
         <f t="shared" si="3"/>
         <v>1026</v>
@@ -2450,59 +2463,68 @@
         <v>102624</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A20" s="2">
+    <row r="20" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="4">
         <v>45834</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="3">
         <v>106.9</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="3">
         <v>99.8</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="3">
         <v>150</v>
       </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1">
+      <c r="G20" s="3">
+        <v>107.8</v>
+      </c>
+      <c r="H20" s="3">
         <v>429</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="3">
         <f>(D20-E20)*H20</f>
         <v>3045.9000000000037</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="3">
         <f t="shared" si="0"/>
         <v>6.0704225352112591</v>
       </c>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1" t="s">
+      <c r="K20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L20" s="3">
+        <f>(G20-D20)*H20</f>
+        <v>386.09999999999633</v>
+      </c>
+      <c r="M20" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1" t="s">
+      <c r="N20" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="S20" s="1">
+      <c r="R20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S20" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>386.09999999999633</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="U20" s="1">
+        <v>46</v>
+      </c>
+      <c r="U20" s="3">
         <f t="shared" si="2"/>
         <v>45860.100000000006</v>
       </c>
@@ -2770,59 +2792,68 @@
         <v>54311.4</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A25" s="2">
+    <row r="25" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="4">
         <v>45847</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="3">
         <v>2663.3</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="3">
         <v>2377.8000000000002</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="3">
         <v>3500</v>
       </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1">
+      <c r="G25" s="3">
+        <v>2893</v>
+      </c>
+      <c r="H25" s="3">
         <v>11</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25" s="3">
         <f t="shared" si="4"/>
         <v>3140.5</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25" s="3">
         <f t="shared" si="0"/>
         <v>2.9306479859894914</v>
       </c>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1" t="s">
+      <c r="K25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L25" s="3">
+        <f>(G25-D25)*H25</f>
+        <v>2526.699999999998</v>
+      </c>
+      <c r="M25" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1" t="s">
+      <c r="N25" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="S25" s="1">
+      <c r="R25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S25" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2526.699999999998</v>
       </c>
       <c r="T25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="U25" s="1">
+        <v>46</v>
+      </c>
+      <c r="U25" s="3">
         <f t="shared" si="2"/>
         <v>29296.300000000003</v>
       </c>
@@ -3088,59 +3119,68 @@
         <v>33966</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A30" s="2">
+    <row r="30" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="4">
         <v>45863</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="3">
         <v>1303</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="3">
         <v>1200</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="3">
         <v>1560</v>
       </c>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1">
+      <c r="G30" s="3">
+        <v>1434</v>
+      </c>
+      <c r="H30" s="3">
         <v>30</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I30" s="3">
         <f t="shared" si="4"/>
         <v>3090</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J30" s="3">
         <f t="shared" si="0"/>
         <v>2.4951456310679609</v>
       </c>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1" t="s">
+      <c r="K30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L30" s="1">
+        <f>(G30-D30)*H30</f>
+        <v>3930</v>
+      </c>
+      <c r="M30" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1" t="s">
+      <c r="N30" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R30" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="S30" s="1">
+      <c r="R30" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S30" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3930</v>
       </c>
       <c r="T30" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="U30" s="1">
+        <v>46</v>
+      </c>
+      <c r="U30" s="3">
         <f t="shared" si="2"/>
         <v>39090</v>
       </c>
@@ -3444,7 +3484,9 @@
         <f t="shared" si="0"/>
         <v>3.6</v>
       </c>
-      <c r="K35" s="1"/>
+      <c r="K35" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="L35" s="1">
         <f t="shared" ref="L35" si="5">(G35-D35)*H35</f>
         <v>-3000</v>
@@ -3686,7 +3728,9 @@
         <f t="shared" si="0"/>
         <v>2.6486486486486487</v>
       </c>
-      <c r="K39" s="1"/>
+      <c r="K39" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="L39" s="1">
         <f>(G39-D39)*H39</f>
         <v>-306.15999999999531</v>

--- a/trading_journal.xlsx
+++ b/trading_journal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deshmukp\Downloads\download\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prasad/Data/Stocks/Dasparc-Capital/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5733D35B-BDD1-4184-8AD7-ABAFDC635DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25105D37-3F39-AE41-B54B-9586EE639A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{0B36B6A0-2720-41CF-B289-397E14AB5A0A}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="29400" windowHeight="16880" xr2:uid="{0B36B6A0-2720-41CF-B289-397E14AB5A0A}"/>
   </bookViews>
   <sheets>
     <sheet name="trading_journal" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="100">
   <si>
     <t>Date</t>
   </si>
@@ -330,6 +330,12 @@
   </si>
   <si>
     <t>Cut possition cause weekly trade with no movementum</t>
+  </si>
+  <si>
+    <t>Godrej Industries</t>
+  </si>
+  <si>
+    <t>Flair Writing Industries</t>
   </si>
 </sst>
 </file>
@@ -1190,34 +1196,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8090FE0B-E5CF-476B-8F9F-EA27021FD68D}">
-  <dimension ref="A1:U41"/>
+  <dimension ref="A1:U44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+    <sheetView tabSelected="1" topLeftCell="M29" workbookViewId="0">
+      <selection activeCell="U40" sqref="A40:U41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7265625" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" customWidth="1"/>
-    <col min="4" max="5" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.26953125" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.54296875" customWidth="1"/>
-    <col min="11" max="11" width="13.26953125" customWidth="1"/>
-    <col min="12" max="12" width="10.81640625" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" customWidth="1"/>
     <col min="13" max="13" width="23" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.453125" customWidth="1"/>
-    <col min="17" max="17" width="15.26953125" customWidth="1"/>
-    <col min="19" max="19" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.453125" customWidth="1"/>
+    <col min="14" max="14" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.5" customWidth="1"/>
+    <col min="17" max="17" width="15.33203125" customWidth="1"/>
+    <col min="19" max="19" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.5" customWidth="1"/>
     <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1282,7 +1288,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>45812</v>
       </c>
@@ -1312,7 +1318,7 @@
         <v>3000</v>
       </c>
       <c r="J2" s="1">
-        <f t="shared" ref="J2:J41" si="0">(F2-D2)/(D2-E2)</f>
+        <f t="shared" ref="J2:J44" si="0">(F2-D2)/(D2-E2)</f>
         <v>2.7071102413568169</v>
       </c>
       <c r="K2" s="1" t="s">
@@ -1337,18 +1343,18 @@
         <v>25</v>
       </c>
       <c r="S2" s="1">
-        <f t="shared" ref="S2:S41" si="1">L2</f>
+        <f t="shared" ref="S2:S44" si="1">L2</f>
         <v>-24.461839530332682</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>46</v>
       </c>
       <c r="U2" s="1">
-        <f t="shared" ref="U2:U39" si="2">H2*D2</f>
+        <f t="shared" ref="U2:U44" si="2">H2*D2</f>
         <v>20058.708414872799</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>45812</v>
       </c>
@@ -1412,7 +1418,7 @@
         <v>32270.27027027027</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>45812</v>
       </c>
@@ -1478,7 +1484,7 @@
         <v>28421.05263157895</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>45812</v>
       </c>
@@ -1542,7 +1548,7 @@
         <v>36403.846153846156</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>45812</v>
       </c>
@@ -1608,7 +1614,7 @@
         <v>56372.093023255809</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>45812</v>
       </c>
@@ -1673,7 +1679,7 @@
         <v>20034</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>45812</v>
       </c>
@@ -1740,7 +1746,7 @@
         <v>30672</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>45814</v>
       </c>
@@ -1806,7 +1812,7 @@
         <v>29677.914110429429</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>45820</v>
       </c>
@@ -1873,7 +1879,7 @@
         <v>73696</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>45820</v>
       </c>
@@ -1940,7 +1946,7 @@
         <v>49600</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>45826</v>
       </c>
@@ -2006,7 +2012,7 @@
         <v>40283.286118980155</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>45826</v>
       </c>
@@ -2071,7 +2077,7 @@
         <v>64592</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>45827</v>
       </c>
@@ -2137,7 +2143,7 @@
         <v>50517.857142857138</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>45827</v>
       </c>
@@ -2203,7 +2209,7 @@
         <v>53826.923076923078</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>45834</v>
       </c>
@@ -2267,7 +2273,7 @@
         <v>37318</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>45834</v>
       </c>
@@ -2331,7 +2337,7 @@
         <v>31698</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>45834</v>
       </c>
@@ -2368,7 +2374,7 @@
         <v>44</v>
       </c>
       <c r="L18" s="1">
-        <f>(G18-D18)*H18</f>
+        <f t="shared" ref="L18:L28" si="4">(G18-D18)*H18</f>
         <v>-3106.7999999999984</v>
       </c>
       <c r="M18" s="1" t="s">
@@ -2397,7 +2403,7 @@
         <v>45435</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>45834</v>
       </c>
@@ -2434,7 +2440,7 @@
         <v>44</v>
       </c>
       <c r="L19" s="1">
-        <f>(G19-D19)*H19</f>
+        <f t="shared" si="4"/>
         <v>-3101.4400000000023</v>
       </c>
       <c r="M19" s="1" t="s">
@@ -2463,7 +2469,7 @@
         <v>102624</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>45834</v>
       </c>
@@ -2500,7 +2506,7 @@
         <v>47</v>
       </c>
       <c r="L20" s="3">
-        <f>(G20-D20)*H20</f>
+        <f t="shared" si="4"/>
         <v>386.09999999999633</v>
       </c>
       <c r="M20" s="3" t="s">
@@ -2529,7 +2535,7 @@
         <v>45860.100000000006</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>45841</v>
       </c>
@@ -2565,7 +2571,7 @@
         <v>47</v>
       </c>
       <c r="L21" s="1">
-        <f>(G21-D21)*H21</f>
+        <f t="shared" si="4"/>
         <v>1491.7799999999977</v>
       </c>
       <c r="M21" s="1" t="s">
@@ -2594,7 +2600,7 @@
         <v>46881.36</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>45845</v>
       </c>
@@ -2620,7 +2626,7 @@
         <v>11</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" ref="I22:I37" si="4">(D22-E22)*H22</f>
+        <f t="shared" ref="I22:I37" si="5">(D22-E22)*H22</f>
         <v>3058</v>
       </c>
       <c r="J22" s="1">
@@ -2631,7 +2637,7 @@
         <v>47</v>
       </c>
       <c r="L22" s="1">
-        <f>(G22-D22)*H22</f>
+        <f t="shared" si="4"/>
         <v>212.300000000002</v>
       </c>
       <c r="M22" s="1" t="s">
@@ -2660,7 +2666,7 @@
         <v>29128</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>45845</v>
       </c>
@@ -2686,7 +2692,7 @@
         <v>429</v>
       </c>
       <c r="I23" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3045.9000000000037</v>
       </c>
       <c r="J23" s="1">
@@ -2697,7 +2703,7 @@
         <v>47</v>
       </c>
       <c r="L23" s="1">
-        <f>(G23-D23)*H23</f>
+        <f t="shared" si="4"/>
         <v>2831.3999999999974</v>
       </c>
       <c r="M23" s="1" t="s">
@@ -2726,7 +2732,7 @@
         <v>45860.100000000006</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>45847</v>
       </c>
@@ -2752,7 +2758,7 @@
         <v>26</v>
       </c>
       <c r="I24" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4261.4000000000024</v>
       </c>
       <c r="J24" s="1">
@@ -2763,7 +2769,7 @@
         <v>44</v>
       </c>
       <c r="L24" s="1">
-        <f>(G24-D24)*H24</f>
+        <f t="shared" si="4"/>
         <v>-4708.600000000004</v>
       </c>
       <c r="M24" s="1" t="s">
@@ -2792,7 +2798,7 @@
         <v>54311.4</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>45847</v>
       </c>
@@ -2818,7 +2824,7 @@
         <v>11</v>
       </c>
       <c r="I25" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3140.5</v>
       </c>
       <c r="J25" s="3">
@@ -2829,7 +2835,7 @@
         <v>47</v>
       </c>
       <c r="L25" s="3">
-        <f>(G25-D25)*H25</f>
+        <f t="shared" si="4"/>
         <v>2526.699999999998</v>
       </c>
       <c r="M25" s="3" t="s">
@@ -2858,7 +2864,7 @@
         <v>29296.300000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>45847</v>
       </c>
@@ -2884,7 +2890,7 @@
         <v>30</v>
       </c>
       <c r="I26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2910</v>
       </c>
       <c r="J26" s="1">
@@ -2895,7 +2901,7 @@
         <v>47</v>
       </c>
       <c r="L26" s="1">
-        <f>(G26-D26)*H26</f>
+        <f t="shared" si="4"/>
         <v>6062.9999999999973</v>
       </c>
       <c r="M26" s="1" t="s">
@@ -2926,7 +2932,7 @@
         <v>49650</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>45853</v>
       </c>
@@ -2952,7 +2958,7 @@
         <v>34</v>
       </c>
       <c r="I27" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3094</v>
       </c>
       <c r="J27" s="1">
@@ -2963,7 +2969,7 @@
         <v>44</v>
       </c>
       <c r="L27" s="1">
-        <f>(G27-D27)*H27</f>
+        <f t="shared" si="4"/>
         <v>-2376.5999999999995</v>
       </c>
       <c r="M27" s="1" t="s">
@@ -2992,7 +2998,7 @@
         <v>24650</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>45853</v>
       </c>
@@ -3018,7 +3024,7 @@
         <v>30</v>
       </c>
       <c r="I28" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2970</v>
       </c>
       <c r="J28" s="1">
@@ -3029,7 +3035,7 @@
         <v>44</v>
       </c>
       <c r="L28" s="1">
-        <f>(G28-D28)*H28</f>
+        <f t="shared" si="4"/>
         <v>-3053.3999999999992</v>
       </c>
       <c r="M28" s="1" t="s">
@@ -3060,7 +3066,7 @@
         <v>51510</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>45853</v>
       </c>
@@ -3084,7 +3090,7 @@
         <v>34</v>
       </c>
       <c r="I29" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2958</v>
       </c>
       <c r="J29" s="1">
@@ -3119,7 +3125,7 @@
         <v>33966</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>45863</v>
       </c>
@@ -3145,7 +3151,7 @@
         <v>30</v>
       </c>
       <c r="I30" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3090</v>
       </c>
       <c r="J30" s="3">
@@ -3185,7 +3191,7 @@
         <v>39090</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>45866</v>
       </c>
@@ -3211,7 +3217,7 @@
         <v>63</v>
       </c>
       <c r="I31" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3197.25</v>
       </c>
       <c r="J31" s="1">
@@ -3251,7 +3257,7 @@
         <v>58842</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>45868</v>
       </c>
@@ -3277,7 +3283,7 @@
         <v>231</v>
       </c>
       <c r="I32" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3003</v>
       </c>
       <c r="J32" s="1">
@@ -3317,7 +3323,7 @@
         <v>50820</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>45870</v>
       </c>
@@ -3343,7 +3349,7 @@
         <v>60</v>
       </c>
       <c r="I33" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3000</v>
       </c>
       <c r="J33" s="1">
@@ -3383,7 +3389,7 @@
         <v>111870</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>45881</v>
       </c>
@@ -3409,7 +3415,7 @@
         <v>44</v>
       </c>
       <c r="I34" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2948</v>
       </c>
       <c r="J34" s="1">
@@ -3451,7 +3457,7 @@
         <v>31174</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>45881</v>
       </c>
@@ -3477,7 +3483,7 @@
         <v>30</v>
       </c>
       <c r="I35" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3000</v>
       </c>
       <c r="J35" s="1">
@@ -3488,7 +3494,7 @@
         <v>44</v>
       </c>
       <c r="L35" s="1">
-        <f t="shared" ref="L35" si="5">(G35-D35)*H35</f>
+        <f t="shared" ref="L35" si="6">(G35-D35)*H35</f>
         <v>-3000</v>
       </c>
       <c r="M35" s="1" t="s">
@@ -3515,7 +3521,7 @@
         <v>76200</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>45881</v>
       </c>
@@ -3539,7 +3545,7 @@
         <v>42</v>
       </c>
       <c r="I36" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2856</v>
       </c>
       <c r="J36" s="1">
@@ -3572,7 +3578,7 @@
         <v>81606</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>45881</v>
       </c>
@@ -3596,7 +3602,7 @@
         <v>150</v>
       </c>
       <c r="I37" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2932.5000000000018</v>
       </c>
       <c r="J37" s="1">
@@ -3629,7 +3635,7 @@
         <v>61275</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>45883</v>
       </c>
@@ -3695,7 +3701,7 @@
         <v>21569.26</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>45883</v>
       </c>
@@ -3757,79 +3763,197 @@
         <v>56072</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
+        <v>45919</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1243.5</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1181.0899999999999</v>
+      </c>
+      <c r="F40" s="1">
+        <f>D40 + 4 * (D40-E40)</f>
+        <v>1493.1400000000003</v>
+      </c>
+      <c r="G40" s="1">
+        <v>1181.0899999999999</v>
+      </c>
+      <c r="H40" s="1">
+        <v>80</v>
+      </c>
       <c r="I40" s="1">
         <f>(D40-E40)*H40</f>
-        <v>0</v>
-      </c>
-      <c r="J40" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K40" s="1"/>
+        <v>4992.8000000000065</v>
+      </c>
+      <c r="J40" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="L40" s="1">
         <f>(G40-D40)*H40</f>
-        <v>0</v>
+        <v>-4992.8000000000065</v>
       </c>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
-      <c r="Q40" s="1"/>
+      <c r="Q40" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="R40" s="1" t="s">
         <v>25</v>
       </c>
       <c r="S40" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T40" s="1"/>
-      <c r="U40" s="1"/>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
+        <v>-4992.8000000000065</v>
+      </c>
+      <c r="T40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U40" s="1">
+        <f t="shared" si="2"/>
+        <v>99480</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
+        <v>45922</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" s="1">
+        <v>339.45</v>
+      </c>
+      <c r="E41" s="1">
+        <v>318.23</v>
+      </c>
+      <c r="F41" s="1">
+        <f>D41 + 4 * (D41-E41)</f>
+        <v>424.32999999999987</v>
+      </c>
+      <c r="G41" s="1">
+        <v>318.23</v>
+      </c>
+      <c r="H41" s="1">
+        <v>250</v>
+      </c>
       <c r="I41" s="1">
         <f>(D41-E41)*H41</f>
-        <v>0</v>
-      </c>
-      <c r="J41" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K41" s="1"/>
+        <v>5304.9999999999927</v>
+      </c>
+      <c r="J41" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="L41" s="1">
         <f>(G41-D41)*H41</f>
-        <v>0</v>
+        <v>-5304.9999999999927</v>
       </c>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
-      <c r="Q41" s="1"/>
+      <c r="Q41" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="R41" s="1" t="s">
         <v>25</v>
       </c>
       <c r="S41" s="1">
         <f t="shared" si="1"/>
+        <v>-5304.9999999999927</v>
+      </c>
+      <c r="T41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U41" s="1">
+        <f t="shared" si="2"/>
+        <v>84862.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="I42" s="1">
+        <f t="shared" ref="I42:I44" si="7">(D42-E42)*H42</f>
         <v>0</v>
       </c>
-      <c r="T41" s="1"/>
-      <c r="U41" s="1"/>
+      <c r="J42" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L42" s="1">
+        <f t="shared" ref="L42:L44" si="8">(G42-D42)*H42</f>
+        <v>0</v>
+      </c>
+      <c r="S42" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U42" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="I43" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L43" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S43" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U43" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="I44" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L44" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S44" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U44" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:U41" xr:uid="{8090FE0B-E5CF-476B-8F9F-EA27021FD68D}">

--- a/trading_journal.xlsx
+++ b/trading_journal.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prasad/Data/Stocks/Dasparc-Capital/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25105D37-3F39-AE41-B54B-9586EE639A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83B6119-F498-C14B-A424-755D1BC9771D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="29400" windowHeight="16880" xr2:uid="{0B36B6A0-2720-41CF-B289-397E14AB5A0A}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="29400" windowHeight="16920" xr2:uid="{0B36B6A0-2720-41CF-B289-397E14AB5A0A}"/>
   </bookViews>
   <sheets>
     <sheet name="trading_journal" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">trading_journal!$A$1:$U$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">trading_journal!$A$1:$U$58</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="118">
   <si>
     <t>Date</t>
   </si>
@@ -116,9 +116,6 @@
     <t>INR</t>
   </si>
   <si>
-    <t>Active</t>
-  </si>
-  <si>
     <t>DODLA Dairy</t>
   </si>
   <si>
@@ -336,6 +333,63 @@
   </si>
   <si>
     <t>Flair Writing Industries</t>
+  </si>
+  <si>
+    <t>Exist cause moving to daily time frame</t>
+  </si>
+  <si>
+    <t>Trailing Stop Loss Hit almost reach 1:4</t>
+  </si>
+  <si>
+    <t>Welspun Corp</t>
+  </si>
+  <si>
+    <t>Star Health Insurance</t>
+  </si>
+  <si>
+    <t>Great Eastern Shipping Company</t>
+  </si>
+  <si>
+    <t>Laurus Labs</t>
+  </si>
+  <si>
+    <t>Torrent Pharmaceuticals</t>
+  </si>
+  <si>
+    <t>VST Tillers Tractors</t>
+  </si>
+  <si>
+    <t>Bata</t>
+  </si>
+  <si>
+    <t>Laxmi Organic Industries</t>
+  </si>
+  <si>
+    <t>Sammaan Capital</t>
+  </si>
+  <si>
+    <t>Aegis Logistics</t>
+  </si>
+  <si>
+    <t>Avalon Technologies</t>
+  </si>
+  <si>
+    <t>Manaksia Coated Metals &amp; Ind</t>
+  </si>
+  <si>
+    <t>India pesticides</t>
+  </si>
+  <si>
+    <t>karur vysya bank</t>
+  </si>
+  <si>
+    <t>railtel corporation</t>
+  </si>
+  <si>
+    <t>Ramky infrastructure</t>
+  </si>
+  <si>
+    <t>Mangalore Refinery</t>
   </si>
 </sst>
 </file>
@@ -1196,19 +1250,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8090FE0B-E5CF-476B-8F9F-EA27021FD68D}">
-  <dimension ref="A1:U44"/>
+  <dimension ref="A1:U60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M29" workbookViewId="0">
-      <selection activeCell="U40" sqref="A40:U41"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C53" sqref="A1:U60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.6640625" customWidth="1"/>
     <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.5" customWidth="1"/>
@@ -1318,11 +1374,11 @@
         <v>3000</v>
       </c>
       <c r="J2" s="1">
-        <f t="shared" ref="J2:J44" si="0">(F2-D2)/(D2-E2)</f>
+        <f t="shared" ref="J2:J60" si="0">(F2-D2)/(D2-E2)</f>
         <v>2.7071102413568169</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L2" s="1">
         <f>(G2-D2)*H2</f>
@@ -1332,7 +1388,7 @@
         <v>23</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
@@ -1343,14 +1399,14 @@
         <v>25</v>
       </c>
       <c r="S2" s="1">
-        <f t="shared" ref="S2:S44" si="1">L2</f>
+        <f t="shared" ref="S2:S60" si="1">L2</f>
         <v>-24.461839530332682</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U2" s="1">
-        <f t="shared" ref="U2:U44" si="2">H2*D2</f>
+        <f t="shared" ref="U2:U60" si="2">H2*D2</f>
         <v>20058.708414872799</v>
       </c>
     </row>
@@ -1359,7 +1415,7 @@
         <v>45812</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>22</v>
@@ -1388,14 +1444,14 @@
         <v>2.3783783783783785</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L3" s="1">
         <f>(G3-D3)*H3</f>
         <v>-243.24324324324323</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -1411,7 +1467,7 @@
         <v>-243.24324324324323</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U3" s="1">
         <f t="shared" si="2"/>
@@ -1423,7 +1479,7 @@
         <v>45812</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>22</v>
@@ -1452,17 +1508,17 @@
         <v>1.5824561403508772</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L4" s="1">
         <f>(G4-D4)*H4</f>
         <v>-1233.4736842105247</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -1477,7 +1533,7 @@
         <v>-1233.4736842105247</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U4" s="1">
         <f t="shared" si="2"/>
@@ -1489,7 +1545,7 @@
         <v>45812</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>22</v>
@@ -1518,14 +1574,14 @@
         <v>2.4807692307692308</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L5" s="1">
         <f>(G5-D5)*H5</f>
         <v>2192.3076923076924</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -1541,7 +1597,7 @@
         <v>2192.3076923076924</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U5" s="1">
         <f t="shared" si="2"/>
@@ -1553,7 +1609,7 @@
         <v>45812</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>22</v>
@@ -1582,17 +1638,17 @@
         <v>2.0232558139534884</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" ref="L6:L17" si="3">(G6-D6)*H6</f>
         <v>-2996.5116279069798</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
@@ -1607,7 +1663,7 @@
         <v>-2996.5116279069798</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U6" s="1">
         <f t="shared" si="2"/>
@@ -1619,7 +1675,7 @@
         <v>45812</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>22</v>
@@ -1647,17 +1703,17 @@
         <v>3.4375</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L7" s="1">
         <f t="shared" si="3"/>
         <v>-678.93000000000006</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
@@ -1672,7 +1728,7 @@
         <v>-678.93000000000006</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U7" s="1">
         <f t="shared" si="2"/>
@@ -1684,7 +1740,7 @@
         <v>45812</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>22</v>
@@ -1712,20 +1768,20 @@
         <v>4.833333333333333</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" si="3"/>
         <v>-1604.3999999999978</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1" t="s">
@@ -1739,7 +1795,7 @@
         <v>-1604.3999999999978</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U8" s="1">
         <f t="shared" si="2"/>
@@ -1751,7 +1807,7 @@
         <v>45814</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>22</v>
@@ -1780,17 +1836,17 @@
         <v>2.2239263803680966</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L9" s="1">
         <f t="shared" si="3"/>
         <v>7712.1165644171733</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -1805,7 +1861,7 @@
         <v>7712.1165644171733</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U9" s="1">
         <f t="shared" si="2"/>
@@ -1817,7 +1873,7 @@
         <v>45820</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>22</v>
@@ -1845,20 +1901,20 @@
         <v>3.1886792452830188</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L10" s="1">
         <f t="shared" si="3"/>
         <v>-196</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1" t="s">
@@ -1872,7 +1928,7 @@
         <v>-196</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U10" s="1">
         <f t="shared" si="2"/>
@@ -1884,7 +1940,7 @@
         <v>45820</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>22</v>
@@ -1912,21 +1968,21 @@
         <v>2.4736842105263159</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L11" s="1">
         <f t="shared" si="3"/>
         <v>7216.7999999999984</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>24</v>
@@ -1939,7 +1995,7 @@
         <v>7216.7999999999984</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U11" s="1">
         <f t="shared" si="2"/>
@@ -1951,7 +2007,7 @@
         <v>45826</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>22</v>
@@ -1980,17 +2036,17 @@
         <v>1.8696883852691213</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L12" s="1">
         <f t="shared" si="3"/>
         <v>5204.5325779036821</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -2005,7 +2061,7 @@
         <v>5204.5325779036821</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U12" s="1">
         <f t="shared" si="2"/>
@@ -2017,7 +2073,7 @@
         <v>45826</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>22</v>
@@ -2045,17 +2101,17 @@
         <v>3.3529411764705883</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L13" s="1">
         <f t="shared" si="3"/>
         <v>-3176.800000000002</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -2070,7 +2126,7 @@
         <v>-3176.800000000002</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U13" s="1">
         <f t="shared" si="2"/>
@@ -2082,7 +2138,7 @@
         <v>45827</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>22</v>
@@ -2111,17 +2167,17 @@
         <v>3.0357142857142856</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L14" s="1">
         <f t="shared" si="3"/>
         <v>1268.0357142857119</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -2136,7 +2192,7 @@
         <v>1268.0357142857119</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U14" s="1">
         <f t="shared" si="2"/>
@@ -2148,7 +2204,7 @@
         <v>45827</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>22</v>
@@ -2177,17 +2233,17 @@
         <v>3.4519230769230771</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L15" s="1">
         <f t="shared" si="3"/>
         <v>-2968.2692307692337</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -2202,7 +2258,7 @@
         <v>-2968.2692307692337</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U15" s="1">
         <f t="shared" si="2"/>
@@ -2214,7 +2270,7 @@
         <v>45834</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>22</v>
@@ -2243,14 +2299,14 @@
         <v>1.7011494252873562</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L16" s="1">
         <f t="shared" si="3"/>
         <v>131.59999999999786</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
@@ -2266,7 +2322,7 @@
         <v>131.59999999999786</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U16" s="3">
         <f t="shared" si="2"/>
@@ -2278,7 +2334,7 @@
         <v>45834</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>22</v>
@@ -2307,14 +2363,14 @@
         <v>2.2361111111111112</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L17" s="1">
         <f t="shared" si="3"/>
         <v>1026</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
@@ -2330,7 +2386,7 @@
         <v>1026</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U17" s="3">
         <f t="shared" si="2"/>
@@ -2342,7 +2398,7 @@
         <v>45834</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>22</v>
@@ -2371,17 +2427,17 @@
         <v>3.4334975369458127</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L18" s="1">
-        <f t="shared" ref="L18:L28" si="4">(G18-D18)*H18</f>
+        <f t="shared" ref="L18:L29" si="4">(G18-D18)*H18</f>
         <v>-3106.7999999999984</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -2396,7 +2452,7 @@
         <v>-3106.7999999999984</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U18" s="1">
         <f t="shared" si="2"/>
@@ -2408,7 +2464,7 @@
         <v>45834</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>22</v>
@@ -2437,17 +2493,17 @@
         <v>3.7938144329896906</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L19" s="1">
         <f t="shared" si="4"/>
         <v>-3101.4400000000023</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -2462,7 +2518,7 @@
         <v>-3101.4400000000023</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U19" s="1">
         <f t="shared" si="2"/>
@@ -2474,7 +2530,7 @@
         <v>45834</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>22</v>
@@ -2503,17 +2559,17 @@
         <v>6.0704225352112591</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L20" s="3">
         <f t="shared" si="4"/>
         <v>386.09999999999633</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
@@ -2528,7 +2584,7 @@
         <v>386.09999999999633</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U20" s="3">
         <f t="shared" si="2"/>
@@ -2540,7 +2596,7 @@
         <v>45841</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>22</v>
@@ -2568,17 +2624,17 @@
         <v>4.0300035298270416</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L21" s="1">
         <f t="shared" si="4"/>
         <v>1491.7799999999977</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
@@ -2593,7 +2649,7 @@
         <v>1491.7799999999977</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U21" s="1">
         <f t="shared" si="2"/>
@@ -2605,7 +2661,7 @@
         <v>45845</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>22</v>
@@ -2634,17 +2690,17 @@
         <v>1.985611510791367</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L22" s="1">
         <f t="shared" si="4"/>
         <v>212.300000000002</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
@@ -2659,7 +2715,7 @@
         <v>212.300000000002</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U22" s="1">
         <f t="shared" si="2"/>
@@ -2671,7 +2727,7 @@
         <v>45845</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>22</v>
@@ -2700,17 +2756,17 @@
         <v>6.0704225352112591</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L23" s="1">
         <f t="shared" si="4"/>
         <v>2831.3999999999974</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
@@ -2725,7 +2781,7 @@
         <v>2831.3999999999974</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U23" s="1">
         <f t="shared" si="2"/>
@@ -2737,7 +2793,7 @@
         <v>45847</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>22</v>
@@ -2766,17 +2822,17 @@
         <v>2.508236729713238</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L24" s="1">
         <f t="shared" si="4"/>
         <v>-4708.600000000004</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
@@ -2791,7 +2847,7 @@
         <v>-4708.600000000004</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U24" s="1">
         <f t="shared" si="2"/>
@@ -2803,7 +2859,7 @@
         <v>45847</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>22</v>
@@ -2832,17 +2888,17 @@
         <v>2.9306479859894914</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L25" s="3">
         <f t="shared" si="4"/>
         <v>2526.699999999998</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
@@ -2857,7 +2913,7 @@
         <v>2526.699999999998</v>
       </c>
       <c r="T25" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U25" s="3">
         <f t="shared" si="2"/>
@@ -2869,7 +2925,7 @@
         <v>45847</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>22</v>
@@ -2898,21 +2954,21 @@
         <v>3.4536082474226806</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L26" s="1">
         <f t="shared" si="4"/>
         <v>6062.9999999999973</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O26" s="1"/>
       <c r="P26" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q26" s="1" t="s">
         <v>24</v>
@@ -2925,7 +2981,7 @@
         <v>6062.9999999999973</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U26" s="1">
         <f t="shared" si="2"/>
@@ -2937,7 +2993,7 @@
         <v>45853</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>22</v>
@@ -2966,19 +3022,19 @@
         <v>4.0439560439560438</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L27" s="1">
         <f t="shared" si="4"/>
         <v>-2376.5999999999995</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q27" s="1" t="s">
         <v>24</v>
@@ -2991,7 +3047,7 @@
         <v>-2376.5999999999995</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U27" s="1">
         <f t="shared" si="2"/>
@@ -3003,7 +3059,7 @@
         <v>45853</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>22</v>
@@ -3032,21 +3088,21 @@
         <v>3.6161616161616164</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L28" s="1">
         <f t="shared" si="4"/>
         <v>-3053.3999999999992</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O28" s="1"/>
       <c r="P28" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q28" s="1" t="s">
         <v>24</v>
@@ -3059,7 +3115,7 @@
         <v>-3053.3999999999992</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U28" s="1">
         <f t="shared" si="2"/>
@@ -3071,7 +3127,7 @@
         <v>45853</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>22</v>
@@ -3085,7 +3141,9 @@
       <c r="F29" s="1">
         <v>1306</v>
       </c>
-      <c r="G29" s="1"/>
+      <c r="G29" s="1">
+        <v>1000.1</v>
+      </c>
       <c r="H29" s="1">
         <v>34</v>
       </c>
@@ -3097,15 +3155,22 @@
         <f t="shared" si="0"/>
         <v>3.5287356321839081</v>
       </c>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
+      <c r="K29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L29" s="1">
+        <f t="shared" si="4"/>
+        <v>37.400000000000773</v>
+      </c>
       <c r="M29" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="N29" s="1"/>
+        <v>67</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="O29" s="1"/>
       <c r="P29" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q29" s="1" t="s">
         <v>24</v>
@@ -3115,10 +3180,10 @@
       </c>
       <c r="S29" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>37.400000000000773</v>
       </c>
       <c r="T29" s="1" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="U29" s="1">
         <f t="shared" si="2"/>
@@ -3130,7 +3195,7 @@
         <v>45863</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>22</v>
@@ -3159,17 +3224,17 @@
         <v>2.4951456310679609</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L30" s="1">
         <f>(G30-D30)*H30</f>
         <v>3930</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
@@ -3184,7 +3249,7 @@
         <v>3930</v>
       </c>
       <c r="T30" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U30" s="3">
         <f t="shared" si="2"/>
@@ -3196,7 +3261,7 @@
         <v>45866</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>22</v>
@@ -3225,17 +3290,17 @@
         <v>3.270935960591133</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L31" s="1">
         <f>(G31-D31)*H31</f>
         <v>-3197.25</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
@@ -3250,7 +3315,7 @@
         <v>-3197.25</v>
       </c>
       <c r="T31" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U31" s="1">
         <f t="shared" si="2"/>
@@ -3262,7 +3327,7 @@
         <v>45868</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>22</v>
@@ -3291,17 +3356,17 @@
         <v>4</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L32" s="1">
         <f>(G32-D32)*H32</f>
         <v>-3067.6800000000003</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
@@ -3316,7 +3381,7 @@
         <v>-3067.6800000000003</v>
       </c>
       <c r="T32" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U32" s="1">
         <f t="shared" si="2"/>
@@ -3328,7 +3393,7 @@
         <v>45870</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>22</v>
@@ -3357,17 +3422,17 @@
         <v>3.99</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L33" s="1">
         <f>(G33-D33)*H33</f>
         <v>-3065.3999999999951</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
@@ -3382,7 +3447,7 @@
         <v>-3065.3999999999951</v>
       </c>
       <c r="T33" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U33" s="1">
         <f t="shared" si="2"/>
@@ -3394,7 +3459,7 @@
         <v>45881</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>22</v>
@@ -3423,20 +3488,20 @@
         <v>4.094029850746268</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L34" s="1">
         <f>(G34-D34)*H34</f>
         <v>8858.9600000000009</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N34" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="O34" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="O34" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="P34" s="1"/>
       <c r="Q34" s="1" t="s">
@@ -3450,7 +3515,7 @@
         <v>8858.9600000000009</v>
       </c>
       <c r="T34" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U34" s="1">
         <f t="shared" si="2"/>
@@ -3462,7 +3527,7 @@
         <v>45881</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>22</v>
@@ -3491,14 +3556,14 @@
         <v>3.6</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L35" s="1">
-        <f t="shared" ref="L35" si="6">(G35-D35)*H35</f>
+        <f t="shared" ref="L35:L37" si="6">(G35-D35)*H35</f>
         <v>-3000</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
@@ -3514,7 +3579,7 @@
         <v>-3000</v>
       </c>
       <c r="T35" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U35" s="1">
         <f t="shared" si="2"/>
@@ -3526,7 +3591,7 @@
         <v>45881</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>22</v>
@@ -3540,7 +3605,9 @@
       <c r="F36" s="1">
         <v>2274</v>
       </c>
-      <c r="G36" s="1"/>
+      <c r="G36" s="1">
+        <v>1941</v>
+      </c>
       <c r="H36" s="1">
         <v>42</v>
       </c>
@@ -3552,10 +3619,15 @@
         <f t="shared" si="0"/>
         <v>4.867647058823529</v>
       </c>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
+      <c r="K36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L36" s="1">
+        <f t="shared" si="6"/>
+        <v>-84</v>
+      </c>
       <c r="M36" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
@@ -3568,10 +3640,10 @@
       </c>
       <c r="S36" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-84</v>
       </c>
       <c r="T36" s="1" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="U36" s="1">
         <f t="shared" si="2"/>
@@ -3583,7 +3655,7 @@
         <v>45881</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>22</v>
@@ -3597,7 +3669,9 @@
       <c r="F37" s="1">
         <v>479</v>
       </c>
-      <c r="G37" s="1"/>
+      <c r="G37" s="1">
+        <v>409.26</v>
+      </c>
       <c r="H37" s="1">
         <v>150</v>
       </c>
@@ -3609,12 +3683,19 @@
         <f t="shared" si="0"/>
         <v>3.6061381074168777</v>
       </c>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
+      <c r="K37" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L37" s="1">
+        <f t="shared" si="6"/>
+        <v>113.99999999999864</v>
+      </c>
       <c r="M37" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="N37" s="1"/>
+        <v>91</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1" t="s">
@@ -3625,10 +3706,10 @@
       </c>
       <c r="S37" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>113.99999999999864</v>
       </c>
       <c r="T37" s="1" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="U37" s="1">
         <f t="shared" si="2"/>
@@ -3640,10 +3721,10 @@
         <v>45883</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D38" s="1">
         <v>634.39</v>
@@ -3669,22 +3750,22 @@
         <v>1.952867688813172</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L38" s="1">
         <f>(D38-G38)*H38</f>
         <v>-598.74000000000046</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R38" s="1" t="s">
         <v>25</v>
@@ -3694,7 +3775,7 @@
         <v>-598.74000000000046</v>
       </c>
       <c r="T38" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U38" s="1">
         <f t="shared" si="2"/>
@@ -3706,7 +3787,7 @@
         <v>45883</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>22</v>
@@ -3735,7 +3816,7 @@
         <v>2.6486486486486487</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L39" s="1">
         <f>(G39-D39)*H39</f>
@@ -3756,7 +3837,7 @@
         <v>-306.15999999999531</v>
       </c>
       <c r="T39" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U39" s="1">
         <f t="shared" si="2"/>
@@ -3768,7 +3849,7 @@
         <v>45919</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>22</v>
@@ -3798,7 +3879,7 @@
         <v>4</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L40" s="1">
         <f>(G40-D40)*H40</f>
@@ -3809,7 +3890,7 @@
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R40" s="1" t="s">
         <v>25</v>
@@ -3819,7 +3900,7 @@
         <v>-4992.8000000000065</v>
       </c>
       <c r="T40" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U40" s="1">
         <f t="shared" si="2"/>
@@ -3831,7 +3912,7 @@
         <v>45922</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>22</v>
@@ -3861,7 +3942,7 @@
         <v>4</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L41" s="1">
         <f>(G41-D41)*H41</f>
@@ -3872,7 +3953,7 @@
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
       <c r="Q41" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R41" s="1" t="s">
         <v>25</v>
@@ -3882,7 +3963,7 @@
         <v>-5304.9999999999927</v>
       </c>
       <c r="T41" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U41" s="1">
         <f t="shared" si="2"/>
@@ -3890,73 +3971,917 @@
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>45916</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="1">
+        <v>924.79</v>
+      </c>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1">
+        <v>875.77</v>
+      </c>
+      <c r="H42" s="1">
+        <v>111</v>
+      </c>
       <c r="I42" s="1">
-        <f t="shared" ref="I42:I44" si="7">(D42-E42)*H42</f>
-        <v>0</v>
-      </c>
-      <c r="J42" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+        <f t="shared" ref="I42:I60" si="7">(D42-E42)*H42</f>
+        <v>102651.69</v>
+      </c>
+      <c r="J42" s="1">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="K42" s="1"/>
       <c r="L42" s="1">
-        <f t="shared" ref="L42:L44" si="8">(G42-D42)*H42</f>
-        <v>0</v>
-      </c>
+        <f t="shared" ref="L42:L58" si="8">(G42-D42)*H42</f>
+        <v>-5441.2199999999975</v>
+      </c>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
       <c r="S42" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+        <v>-5441.2199999999975</v>
+      </c>
+      <c r="T42" s="1"/>
       <c r="U42" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>102651.69</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>45917</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" s="1">
+        <v>452</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1">
+        <v>185</v>
+      </c>
       <c r="I43" s="1">
         <f t="shared" si="7"/>
+        <v>83620</v>
+      </c>
+      <c r="J43" s="1">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J43" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L43" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S43" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="T43" s="1"/>
       <c r="U43" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>83620</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>45917</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" s="1">
+        <v>1050.5</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1">
+        <v>995.07</v>
+      </c>
+      <c r="H44" s="1">
+        <v>93</v>
+      </c>
       <c r="I44" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J44" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+        <v>97696.5</v>
+      </c>
+      <c r="J44" s="1">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="K44" s="1"/>
       <c r="L44" s="1">
         <f t="shared" si="8"/>
+        <v>-5154.9899999999952</v>
+      </c>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1">
+        <f t="shared" si="1"/>
+        <v>-5154.9899999999952</v>
+      </c>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1">
+        <f t="shared" si="2"/>
+        <v>97696.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
+        <v>45919</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" s="1">
+        <v>937.5</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1">
+        <v>891.55</v>
+      </c>
+      <c r="H45" s="1">
+        <v>109</v>
+      </c>
+      <c r="I45" s="1">
+        <f t="shared" si="7"/>
+        <v>102187.5</v>
+      </c>
+      <c r="J45" s="1">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1">
+        <f t="shared" si="8"/>
+        <v>-5008.5500000000047</v>
+      </c>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1">
+        <f t="shared" si="1"/>
+        <v>-5008.5500000000047</v>
+      </c>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1">
+        <f t="shared" si="2"/>
+        <v>102187.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
+        <v>45922</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D46" s="1">
+        <v>3650</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1">
+        <v>3498.2</v>
+      </c>
+      <c r="H46" s="1">
+        <v>33</v>
+      </c>
+      <c r="I46" s="1">
+        <f t="shared" si="7"/>
+        <v>120450</v>
+      </c>
+      <c r="J46" s="1">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1">
+        <f t="shared" si="8"/>
+        <v>-5009.400000000006</v>
+      </c>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1">
+        <f t="shared" si="1"/>
+        <v>-5009.400000000006</v>
+      </c>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1">
+        <f t="shared" si="2"/>
+        <v>120450</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
+        <v>45933</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D47" s="1">
+        <v>5250</v>
+      </c>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1">
+        <v>5390.67</v>
+      </c>
+      <c r="H47" s="1">
+        <v>24</v>
+      </c>
+      <c r="I47" s="1">
+        <f t="shared" si="7"/>
+        <v>126000</v>
+      </c>
+      <c r="J47" s="1">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1">
+        <f t="shared" si="8"/>
+        <v>3376.0800000000017</v>
+      </c>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1">
+        <f t="shared" si="1"/>
+        <v>3376.0800000000017</v>
+      </c>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1">
+        <f t="shared" si="2"/>
+        <v>126000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
+        <v>45937</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1220.73</v>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1">
+        <v>1180.23</v>
+      </c>
+      <c r="H48" s="1">
+        <v>100</v>
+      </c>
+      <c r="I48" s="1">
+        <f t="shared" si="7"/>
+        <v>122073</v>
+      </c>
+      <c r="J48" s="1">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1">
+        <f t="shared" si="8"/>
+        <v>-4050</v>
+      </c>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1">
+        <f t="shared" si="1"/>
+        <v>-4050</v>
+      </c>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1">
+        <f t="shared" si="2"/>
+        <v>122073</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
+        <v>45937</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D49" s="1">
+        <v>214.91</v>
+      </c>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1">
+        <v>205.97</v>
+      </c>
+      <c r="H49" s="1">
+        <v>568</v>
+      </c>
+      <c r="I49" s="1">
+        <f t="shared" si="7"/>
+        <v>122068.88</v>
+      </c>
+      <c r="J49" s="1">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1">
+        <f t="shared" si="8"/>
+        <v>-5077.9199999999983</v>
+      </c>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1">
+        <f t="shared" si="1"/>
+        <v>-5077.9199999999983</v>
+      </c>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1">
+        <f t="shared" si="2"/>
+        <v>122068.88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
+        <v>45939</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D50" s="1">
+        <v>721</v>
+      </c>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1">
+        <v>156</v>
+      </c>
+      <c r="I50" s="1">
+        <f t="shared" si="7"/>
+        <v>112476</v>
+      </c>
+      <c r="J50" s="1">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S44" s="1">
+      <c r="T50" s="1"/>
+      <c r="U50" s="1">
+        <f t="shared" si="2"/>
+        <v>112476</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
+        <v>45944</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D51" s="1">
+        <v>162.99</v>
+      </c>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1">
+        <v>720</v>
+      </c>
+      <c r="I51" s="1">
+        <f t="shared" si="7"/>
+        <v>117352.8</v>
+      </c>
+      <c r="J51" s="1">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U44" s="1">
-        <f t="shared" si="2"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1">
+        <f t="shared" si="2"/>
+        <v>117352.8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
+        <v>45944</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52" s="1">
+        <v>808</v>
+      </c>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1">
+        <v>147</v>
+      </c>
+      <c r="I52" s="1">
+        <f t="shared" si="7"/>
+        <v>118776</v>
+      </c>
+      <c r="J52" s="1">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1">
+        <f t="shared" si="2"/>
+        <v>118776</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
+        <v>45947</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D53" s="1">
+        <v>1178</v>
+      </c>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1">
+        <v>1122.57</v>
+      </c>
+      <c r="H53" s="1">
+        <v>100</v>
+      </c>
+      <c r="I53" s="1">
+        <f t="shared" si="7"/>
+        <v>117800</v>
+      </c>
+      <c r="J53" s="1">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1">
+        <f t="shared" si="8"/>
+        <v>-5543.0000000000064</v>
+      </c>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1">
+        <f t="shared" si="1"/>
+        <v>-5543.0000000000064</v>
+      </c>
+      <c r="T53" s="1"/>
+      <c r="U53" s="1">
+        <f t="shared" si="2"/>
+        <v>117800</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
+        <v>45953</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D54" s="1">
+        <v>113.9</v>
+      </c>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1">
+        <v>1462</v>
+      </c>
+      <c r="I54" s="1">
+        <f t="shared" si="7"/>
+        <v>166521.80000000002</v>
+      </c>
+      <c r="J54" s="1">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T54" s="1"/>
+      <c r="U54" s="1">
+        <f t="shared" si="2"/>
+        <v>166521.80000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
+        <v>45954</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D55" s="1">
+        <v>160.13</v>
+      </c>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1">
+        <v>745</v>
+      </c>
+      <c r="I55" s="1">
+        <f t="shared" si="7"/>
+        <v>119296.84999999999</v>
+      </c>
+      <c r="J55" s="1">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1"/>
+      <c r="S55" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T55" s="1"/>
+      <c r="U55" s="1">
+        <f t="shared" si="2"/>
+        <v>119296.84999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A56" s="2">
+        <v>45917</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D56" s="1">
+        <v>235.84</v>
+      </c>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1">
+        <v>219.77</v>
+      </c>
+      <c r="H56" s="1">
+        <v>333</v>
+      </c>
+      <c r="I56" s="1">
+        <f t="shared" si="7"/>
+        <v>78534.720000000001</v>
+      </c>
+      <c r="J56" s="1">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1">
+        <f t="shared" si="8"/>
+        <v>-5351.3099999999977</v>
+      </c>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="1"/>
+      <c r="S56" s="1">
+        <f t="shared" si="1"/>
+        <v>-5351.3099999999977</v>
+      </c>
+      <c r="T56" s="1"/>
+      <c r="U56" s="1">
+        <f t="shared" si="2"/>
+        <v>78534.720000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A57" s="2">
+        <v>45917</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D57" s="1">
+        <v>219</v>
+      </c>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1">
+        <v>209.26</v>
+      </c>
+      <c r="H57" s="1">
+        <v>500</v>
+      </c>
+      <c r="I57" s="1">
+        <f t="shared" si="7"/>
+        <v>109500</v>
+      </c>
+      <c r="J57" s="1">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1">
+        <f t="shared" si="8"/>
+        <v>-4870.0000000000045</v>
+      </c>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
+      <c r="S57" s="1">
+        <f t="shared" si="1"/>
+        <v>-4870.0000000000045</v>
+      </c>
+      <c r="T57" s="1"/>
+      <c r="U57" s="1">
+        <f t="shared" si="2"/>
+        <v>109500</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A58" s="2">
+        <v>45933</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D58" s="1">
+        <v>393.5</v>
+      </c>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1">
+        <v>374.55</v>
+      </c>
+      <c r="H58" s="1">
+        <v>250</v>
+      </c>
+      <c r="I58" s="1">
+        <f t="shared" si="7"/>
+        <v>98375</v>
+      </c>
+      <c r="J58" s="1">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1">
+        <f t="shared" si="8"/>
+        <v>-4737.4999999999973</v>
+      </c>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="1"/>
+      <c r="S58" s="1">
+        <f t="shared" si="1"/>
+        <v>-4737.4999999999973</v>
+      </c>
+      <c r="T58" s="1"/>
+      <c r="U58" s="1">
+        <f t="shared" si="2"/>
+        <v>98375</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A59" s="2">
+        <v>45946</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D59" s="1">
+        <v>645.5</v>
+      </c>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1">
+        <v>156</v>
+      </c>
+      <c r="I59" s="1">
+        <f t="shared" si="7"/>
+        <v>100698</v>
+      </c>
+      <c r="J59" s="1">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T59" s="1"/>
+      <c r="U59" s="1">
+        <f t="shared" si="2"/>
+        <v>100698</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A60" s="2">
+        <v>45946</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D60" s="1">
+        <v>114.05</v>
+      </c>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1">
+        <v>862</v>
+      </c>
+      <c r="I60" s="1">
+        <f t="shared" si="7"/>
+        <v>98311.099999999991</v>
+      </c>
+      <c r="J60" s="1">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="1"/>
+      <c r="S60" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T60" s="1"/>
+      <c r="U60" s="1">
+        <f t="shared" si="2"/>
+        <v>98311.099999999991</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U41" xr:uid="{8090FE0B-E5CF-476B-8F9F-EA27021FD68D}">
+  <autoFilter ref="A1:U58" xr:uid="{8090FE0B-E5CF-476B-8F9F-EA27021FD68D}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U41">
       <sortCondition ref="A1:A41"/>
     </sortState>

--- a/trading_journal.xlsx
+++ b/trading_journal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prasad/Data/Stocks/Dasparc-Capital/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83B6119-F498-C14B-A424-755D1BC9771D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680C7435-217B-8E47-B10D-520F4EEF6786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="29400" windowHeight="16920" xr2:uid="{0B36B6A0-2720-41CF-B289-397E14AB5A0A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="118">
   <si>
     <t>Date</t>
   </si>
@@ -1252,8 +1252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8090FE0B-E5CF-476B-8F9F-EA27021FD68D}">
   <dimension ref="A1:U60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C53" sqref="A1:U60"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C49" sqref="A1:U60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3999,7 +3999,9 @@
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="K42" s="1"/>
+      <c r="K42" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="L42" s="1">
         <f t="shared" ref="L42:L58" si="8">(G42-D42)*H42</f>
         <v>-5441.2199999999975</v>
@@ -4008,13 +4010,19 @@
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
-      <c r="Q42" s="1"/>
-      <c r="R42" s="1"/>
+      <c r="Q42" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="R42" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="S42" s="1">
         <f t="shared" si="1"/>
         <v>-5441.2199999999975</v>
       </c>
-      <c r="T42" s="1"/>
+      <c r="T42" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="U42" s="1">
         <f t="shared" si="2"/>
         <v>102651.69</v>
@@ -4053,8 +4061,12 @@
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
-      <c r="Q43" s="1"/>
-      <c r="R43" s="1"/>
+      <c r="Q43" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="S43" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4094,7 +4106,9 @@
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="K44" s="1"/>
+      <c r="K44" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="L44" s="1">
         <f t="shared" si="8"/>
         <v>-5154.9899999999952</v>
@@ -4103,13 +4117,19 @@
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
-      <c r="Q44" s="1"/>
-      <c r="R44" s="1"/>
+      <c r="Q44" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="R44" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="S44" s="1">
         <f t="shared" si="1"/>
         <v>-5154.9899999999952</v>
       </c>
-      <c r="T44" s="1"/>
+      <c r="T44" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="U44" s="1">
         <f t="shared" si="2"/>
         <v>97696.5</v>
@@ -4144,7 +4164,9 @@
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="K45" s="1"/>
+      <c r="K45" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="L45" s="1">
         <f t="shared" si="8"/>
         <v>-5008.5500000000047</v>
@@ -4153,13 +4175,19 @@
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
-      <c r="Q45" s="1"/>
-      <c r="R45" s="1"/>
+      <c r="Q45" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="R45" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="S45" s="1">
         <f t="shared" si="1"/>
         <v>-5008.5500000000047</v>
       </c>
-      <c r="T45" s="1"/>
+      <c r="T45" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="U45" s="1">
         <f t="shared" si="2"/>
         <v>102187.5</v>
@@ -4194,7 +4222,9 @@
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="K46" s="1"/>
+      <c r="K46" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="L46" s="1">
         <f t="shared" si="8"/>
         <v>-5009.400000000006</v>
@@ -4203,13 +4233,19 @@
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
-      <c r="Q46" s="1"/>
-      <c r="R46" s="1"/>
+      <c r="Q46" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="R46" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="S46" s="1">
         <f t="shared" si="1"/>
         <v>-5009.400000000006</v>
       </c>
-      <c r="T46" s="1"/>
+      <c r="T46" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="U46" s="1">
         <f t="shared" si="2"/>
         <v>120450</v>
@@ -4244,7 +4280,9 @@
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="K47" s="1"/>
+      <c r="K47" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="L47" s="1">
         <f t="shared" si="8"/>
         <v>3376.0800000000017</v>
@@ -4253,13 +4291,19 @@
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
-      <c r="Q47" s="1"/>
-      <c r="R47" s="1"/>
+      <c r="Q47" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="R47" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="S47" s="1">
         <f t="shared" si="1"/>
         <v>3376.0800000000017</v>
       </c>
-      <c r="T47" s="1"/>
+      <c r="T47" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="U47" s="1">
         <f t="shared" si="2"/>
         <v>126000</v>
@@ -4294,7 +4338,9 @@
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="K48" s="1"/>
+      <c r="K48" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="L48" s="1">
         <f t="shared" si="8"/>
         <v>-4050</v>
@@ -4303,13 +4349,19 @@
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
-      <c r="Q48" s="1"/>
-      <c r="R48" s="1"/>
+      <c r="Q48" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="R48" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="S48" s="1">
         <f t="shared" si="1"/>
         <v>-4050</v>
       </c>
-      <c r="T48" s="1"/>
+      <c r="T48" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="U48" s="1">
         <f t="shared" si="2"/>
         <v>122073</v>
@@ -4344,7 +4396,9 @@
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="K49" s="1"/>
+      <c r="K49" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="L49" s="1">
         <f t="shared" si="8"/>
         <v>-5077.9199999999983</v>
@@ -4353,13 +4407,19 @@
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
-      <c r="Q49" s="1"/>
-      <c r="R49" s="1"/>
+      <c r="Q49" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="R49" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="S49" s="1">
         <f t="shared" si="1"/>
         <v>-5077.9199999999983</v>
       </c>
-      <c r="T49" s="1"/>
+      <c r="T49" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="U49" s="1">
         <f t="shared" si="2"/>
         <v>122068.88</v>
@@ -4398,8 +4458,12 @@
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
-      <c r="Q50" s="1"/>
-      <c r="R50" s="1"/>
+      <c r="Q50" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="R50" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="S50" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4443,8 +4507,12 @@
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
-      <c r="Q51" s="1"/>
-      <c r="R51" s="1"/>
+      <c r="Q51" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="R51" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="S51" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4488,8 +4556,12 @@
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
-      <c r="Q52" s="1"/>
-      <c r="R52" s="1"/>
+      <c r="Q52" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="R52" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="S52" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4529,7 +4601,9 @@
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="K53" s="1"/>
+      <c r="K53" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="L53" s="1">
         <f t="shared" si="8"/>
         <v>-5543.0000000000064</v>
@@ -4538,13 +4612,19 @@
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
-      <c r="Q53" s="1"/>
-      <c r="R53" s="1"/>
+      <c r="Q53" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="R53" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="S53" s="1">
         <f t="shared" si="1"/>
         <v>-5543.0000000000064</v>
       </c>
-      <c r="T53" s="1"/>
+      <c r="T53" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="U53" s="1">
         <f t="shared" si="2"/>
         <v>117800</v>
@@ -4583,8 +4663,12 @@
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
-      <c r="Q54" s="1"/>
-      <c r="R54" s="1"/>
+      <c r="Q54" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="R54" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="S54" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4628,8 +4712,12 @@
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
-      <c r="Q55" s="1"/>
-      <c r="R55" s="1"/>
+      <c r="Q55" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="R55" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="S55" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4669,7 +4757,9 @@
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="K56" s="1"/>
+      <c r="K56" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="L56" s="1">
         <f t="shared" si="8"/>
         <v>-5351.3099999999977</v>
@@ -4678,13 +4768,19 @@
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
-      <c r="Q56" s="1"/>
-      <c r="R56" s="1"/>
+      <c r="Q56" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="R56" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="S56" s="1">
         <f t="shared" si="1"/>
         <v>-5351.3099999999977</v>
       </c>
-      <c r="T56" s="1"/>
+      <c r="T56" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="U56" s="1">
         <f t="shared" si="2"/>
         <v>78534.720000000001</v>
@@ -4719,7 +4815,9 @@
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="K57" s="1"/>
+      <c r="K57" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="L57" s="1">
         <f t="shared" si="8"/>
         <v>-4870.0000000000045</v>
@@ -4728,13 +4826,19 @@
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
-      <c r="Q57" s="1"/>
-      <c r="R57" s="1"/>
+      <c r="Q57" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="R57" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="S57" s="1">
         <f t="shared" si="1"/>
         <v>-4870.0000000000045</v>
       </c>
-      <c r="T57" s="1"/>
+      <c r="T57" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="U57" s="1">
         <f t="shared" si="2"/>
         <v>109500</v>
@@ -4769,7 +4873,9 @@
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="K58" s="1"/>
+      <c r="K58" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="L58" s="1">
         <f t="shared" si="8"/>
         <v>-4737.4999999999973</v>
@@ -4778,13 +4884,19 @@
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
       <c r="P58" s="1"/>
-      <c r="Q58" s="1"/>
-      <c r="R58" s="1"/>
+      <c r="Q58" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="R58" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="S58" s="1">
         <f t="shared" si="1"/>
         <v>-4737.4999999999973</v>
       </c>
-      <c r="T58" s="1"/>
+      <c r="T58" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="U58" s="1">
         <f t="shared" si="2"/>
         <v>98375</v>
@@ -4823,8 +4935,12 @@
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
-      <c r="Q59" s="1"/>
-      <c r="R59" s="1"/>
+      <c r="Q59" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="R59" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="S59" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4868,8 +4984,12 @@
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
-      <c r="Q60" s="1"/>
-      <c r="R60" s="1"/>
+      <c r="Q60" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="R60" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="S60" s="1">
         <f t="shared" si="1"/>
         <v>0</v>

--- a/trading_journal.xlsx
+++ b/trading_journal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prasad/Data/Stocks/Dasparc-Capital/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680C7435-217B-8E47-B10D-520F4EEF6786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1CF6F10-C6B7-CD4B-9216-4E69AD9ADACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="29400" windowHeight="16920" xr2:uid="{0B36B6A0-2720-41CF-B289-397E14AB5A0A}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="29400" windowHeight="16740" xr2:uid="{0B36B6A0-2720-41CF-B289-397E14AB5A0A}"/>
   </bookViews>
   <sheets>
     <sheet name="trading_journal" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="123">
   <si>
     <t>Date</t>
   </si>
@@ -390,6 +390,21 @@
   </si>
   <si>
     <t>Mangalore Refinery</t>
+  </si>
+  <si>
+    <t>TD Power System</t>
+  </si>
+  <si>
+    <t>Tatva Chintan Pharma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it went 1:3 but then revert and SL hit </t>
+  </si>
+  <si>
+    <t>Trailing Stop Loss Hit reach 1:5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it went 1:5 but then revert and trailing SL hit same day where that movement was huge with big volume </t>
   </si>
 </sst>
 </file>
@@ -1250,16 +1265,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8090FE0B-E5CF-476B-8F9F-EA27021FD68D}">
-  <dimension ref="A1:U60"/>
+  <dimension ref="A1:U62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C49" sqref="A1:U60"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="125" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" customWidth="1"/>
     <col min="3" max="3" width="12.5" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
@@ -1271,7 +1286,7 @@
     <col min="11" max="11" width="13.33203125" customWidth="1"/>
     <col min="12" max="12" width="10.83203125" customWidth="1"/>
     <col min="13" max="13" width="23" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="43.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="19.5" customWidth="1"/>
     <col min="17" max="17" width="15.33203125" customWidth="1"/>
     <col min="19" max="19" width="8.83203125" bestFit="1" customWidth="1"/>
@@ -1374,7 +1389,7 @@
         <v>3000</v>
       </c>
       <c r="J2" s="1">
-        <f t="shared" ref="J2:J60" si="0">(F2-D2)/(D2-E2)</f>
+        <f>(F2-D2)/(D2-E2)</f>
         <v>2.7071102413568169</v>
       </c>
       <c r="K2" s="1" t="s">
@@ -1399,14 +1414,14 @@
         <v>25</v>
       </c>
       <c r="S2" s="1">
-        <f t="shared" ref="S2:S60" si="1">L2</f>
+        <f>L2</f>
         <v>-24.461839530332682</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U2" s="1">
-        <f t="shared" ref="U2:U60" si="2">H2*D2</f>
+        <f>H2*D2</f>
         <v>20058.708414872799</v>
       </c>
     </row>
@@ -1440,7 +1455,7 @@
         <v>3000</v>
       </c>
       <c r="J3" s="1">
-        <f t="shared" si="0"/>
+        <f>(F3-D3)/(D3-E3)</f>
         <v>2.3783783783783785</v>
       </c>
       <c r="K3" s="1" t="s">
@@ -1463,14 +1478,14 @@
         <v>25</v>
       </c>
       <c r="S3" s="1">
-        <f t="shared" si="1"/>
+        <f>L3</f>
         <v>-243.24324324324323</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U3" s="1">
-        <f t="shared" si="2"/>
+        <f>H3*D3</f>
         <v>32270.27027027027</v>
       </c>
     </row>
@@ -1504,7 +1519,7 @@
         <v>3000</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" si="0"/>
+        <f>(F4-D4)/(D4-E4)</f>
         <v>1.5824561403508772</v>
       </c>
       <c r="K4" s="1" t="s">
@@ -1529,14 +1544,14 @@
         <v>25</v>
       </c>
       <c r="S4" s="1">
-        <f t="shared" si="1"/>
+        <f>L4</f>
         <v>-1233.4736842105247</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U4" s="1">
-        <f t="shared" si="2"/>
+        <f>H4*D4</f>
         <v>28421.05263157895</v>
       </c>
     </row>
@@ -1570,7 +1585,7 @@
         <v>3000</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" si="0"/>
+        <f>(F5-D5)/(D5-E5)</f>
         <v>2.4807692307692308</v>
       </c>
       <c r="K5" s="1" t="s">
@@ -1593,14 +1608,14 @@
         <v>25</v>
       </c>
       <c r="S5" s="1">
-        <f t="shared" si="1"/>
+        <f>L5</f>
         <v>2192.3076923076924</v>
       </c>
       <c r="T5" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U5" s="1">
-        <f t="shared" si="2"/>
+        <f>H5*D5</f>
         <v>36403.846153846156</v>
       </c>
     </row>
@@ -1634,14 +1649,14 @@
         <v>3000</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="0"/>
+        <f>(F6-D6)/(D6-E6)</f>
         <v>2.0232558139534884</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>43</v>
       </c>
       <c r="L6" s="1">
-        <f t="shared" ref="L6:L17" si="3">(G6-D6)*H6</f>
+        <f>(G6-D6)*H6</f>
         <v>-2996.5116279069798</v>
       </c>
       <c r="M6" s="1" t="s">
@@ -1659,14 +1674,14 @@
         <v>25</v>
       </c>
       <c r="S6" s="1">
-        <f t="shared" si="1"/>
+        <f>L6</f>
         <v>-2996.5116279069798</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U6" s="1">
-        <f t="shared" si="2"/>
+        <f>H6*D6</f>
         <v>56372.093023255809</v>
       </c>
     </row>
@@ -1699,14 +1714,14 @@
         <v>1700</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="0"/>
+        <f>(F7-D7)/(D7-E7)</f>
         <v>3.4375</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>43</v>
       </c>
       <c r="L7" s="1">
-        <f t="shared" si="3"/>
+        <f>(G7-D7)*H7</f>
         <v>-678.93000000000006</v>
       </c>
       <c r="M7" s="1" t="s">
@@ -1724,14 +1739,14 @@
         <v>25</v>
       </c>
       <c r="S7" s="1">
-        <f t="shared" si="1"/>
+        <f>L7</f>
         <v>-678.93000000000006</v>
       </c>
       <c r="T7" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U7" s="1">
-        <f t="shared" si="2"/>
+        <f>H7*D7</f>
         <v>20034</v>
       </c>
     </row>
@@ -1764,14 +1779,14 @@
         <v>1600</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="0"/>
+        <f>(F8-D8)/(D8-E8)</f>
         <v>4.833333333333333</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>43</v>
       </c>
       <c r="L8" s="1">
-        <f t="shared" si="3"/>
+        <f>(G8-D8)*H8</f>
         <v>-1604.3999999999978</v>
       </c>
       <c r="M8" s="1" t="s">
@@ -1791,14 +1806,14 @@
         <v>25</v>
       </c>
       <c r="S8" s="1">
-        <f t="shared" si="1"/>
+        <f>L8</f>
         <v>-1604.3999999999978</v>
       </c>
       <c r="T8" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U8" s="1">
-        <f t="shared" si="2"/>
+        <f>H8*D8</f>
         <v>30672</v>
       </c>
     </row>
@@ -1832,14 +1847,14 @@
         <v>3000</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="0"/>
+        <f>(F9-D9)/(D9-E9)</f>
         <v>2.2239263803680966</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>46</v>
       </c>
       <c r="L9" s="1">
-        <f t="shared" si="3"/>
+        <f>(G9-D9)*H9</f>
         <v>7712.1165644171733</v>
       </c>
       <c r="M9" s="1" t="s">
@@ -1857,14 +1872,14 @@
         <v>25</v>
       </c>
       <c r="S9" s="1">
-        <f t="shared" si="1"/>
+        <f>L9</f>
         <v>7712.1165644171733</v>
       </c>
       <c r="T9" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U9" s="1">
-        <f t="shared" si="2"/>
+        <f>H9*D9</f>
         <v>29677.914110429429</v>
       </c>
     </row>
@@ -1897,14 +1912,14 @@
         <v>3000</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="0"/>
+        <f>(F10-D10)/(D10-E10)</f>
         <v>3.1886792452830188</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>43</v>
       </c>
       <c r="L10" s="1">
-        <f t="shared" si="3"/>
+        <f>(G10-D10)*H10</f>
         <v>-196</v>
       </c>
       <c r="M10" s="1" t="s">
@@ -1924,14 +1939,14 @@
         <v>25</v>
       </c>
       <c r="S10" s="1">
-        <f t="shared" si="1"/>
+        <f>L10</f>
         <v>-196</v>
       </c>
       <c r="T10" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U10" s="1">
-        <f t="shared" si="2"/>
+        <f>H10*D10</f>
         <v>73696</v>
       </c>
     </row>
@@ -1964,14 +1979,14 @@
         <v>3000</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="0"/>
+        <f>(F11-D11)/(D11-E11)</f>
         <v>2.4736842105263159</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>46</v>
       </c>
       <c r="L11" s="1">
-        <f t="shared" si="3"/>
+        <f>(G11-D11)*H11</f>
         <v>7216.7999999999984</v>
       </c>
       <c r="M11" s="1" t="s">
@@ -1991,14 +2006,14 @@
         <v>25</v>
       </c>
       <c r="S11" s="1">
-        <f t="shared" si="1"/>
+        <f>L11</f>
         <v>7216.7999999999984</v>
       </c>
       <c r="T11" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U11" s="1">
-        <f t="shared" si="2"/>
+        <f>H11*D11</f>
         <v>49600</v>
       </c>
     </row>
@@ -2032,14 +2047,14 @@
         <v>3000</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="0"/>
+        <f>(F12-D12)/(D12-E12)</f>
         <v>1.8696883852691213</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>46</v>
       </c>
       <c r="L12" s="1">
-        <f t="shared" si="3"/>
+        <f>(G12-D12)*H12</f>
         <v>5204.5325779036821</v>
       </c>
       <c r="M12" s="1" t="s">
@@ -2057,14 +2072,14 @@
         <v>25</v>
       </c>
       <c r="S12" s="1">
-        <f t="shared" si="1"/>
+        <f>L12</f>
         <v>5204.5325779036821</v>
       </c>
       <c r="T12" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U12" s="1">
-        <f t="shared" si="2"/>
+        <f>H12*D12</f>
         <v>40283.286118980155</v>
       </c>
     </row>
@@ -2097,14 +2112,14 @@
         <v>3000</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="0"/>
+        <f>(F13-D13)/(D13-E13)</f>
         <v>3.3529411764705883</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>43</v>
       </c>
       <c r="L13" s="1">
-        <f t="shared" si="3"/>
+        <f>(G13-D13)*H13</f>
         <v>-3176.800000000002</v>
       </c>
       <c r="M13" s="1" t="s">
@@ -2122,14 +2137,14 @@
         <v>25</v>
       </c>
       <c r="S13" s="1">
-        <f t="shared" si="1"/>
+        <f>L13</f>
         <v>-3176.800000000002</v>
       </c>
       <c r="T13" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U13" s="1">
-        <f t="shared" si="2"/>
+        <f>H13*D13</f>
         <v>64592</v>
       </c>
     </row>
@@ -2163,14 +2178,14 @@
         <v>3000</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="0"/>
+        <f>(F14-D14)/(D14-E14)</f>
         <v>3.0357142857142856</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>46</v>
       </c>
       <c r="L14" s="1">
-        <f t="shared" si="3"/>
+        <f>(G14-D14)*H14</f>
         <v>1268.0357142857119</v>
       </c>
       <c r="M14" s="1" t="s">
@@ -2188,14 +2203,14 @@
         <v>25</v>
       </c>
       <c r="S14" s="1">
-        <f t="shared" si="1"/>
+        <f>L14</f>
         <v>1268.0357142857119</v>
       </c>
       <c r="T14" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U14" s="1">
-        <f t="shared" si="2"/>
+        <f>H14*D14</f>
         <v>50517.857142857138</v>
       </c>
     </row>
@@ -2229,14 +2244,14 @@
         <v>3000</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="0"/>
+        <f>(F15-D15)/(D15-E15)</f>
         <v>3.4519230769230771</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>43</v>
       </c>
       <c r="L15" s="1">
-        <f t="shared" si="3"/>
+        <f>(G15-D15)*H15</f>
         <v>-2968.2692307692337</v>
       </c>
       <c r="M15" s="1" t="s">
@@ -2254,14 +2269,14 @@
         <v>25</v>
       </c>
       <c r="S15" s="1">
-        <f t="shared" si="1"/>
+        <f>L15</f>
         <v>-2968.2692307692337</v>
       </c>
       <c r="T15" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U15" s="1">
-        <f t="shared" si="2"/>
+        <f>H15*D15</f>
         <v>53826.923076923078</v>
       </c>
     </row>
@@ -2295,14 +2310,14 @@
         <v>4089</v>
       </c>
       <c r="J16" s="3">
-        <f t="shared" si="0"/>
+        <f>(F16-D16)/(D16-E16)</f>
         <v>1.7011494252873562</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>46</v>
       </c>
       <c r="L16" s="1">
-        <f t="shared" si="3"/>
+        <f>(G16-D16)*H16</f>
         <v>131.59999999999786</v>
       </c>
       <c r="M16" s="3" t="s">
@@ -2318,14 +2333,14 @@
         <v>25</v>
       </c>
       <c r="S16" s="3">
-        <f t="shared" si="1"/>
+        <f>L16</f>
         <v>131.59999999999786</v>
       </c>
       <c r="T16" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U16" s="3">
-        <f t="shared" si="2"/>
+        <f>H16*D16</f>
         <v>37318</v>
       </c>
     </row>
@@ -2359,14 +2374,14 @@
         <v>3888</v>
       </c>
       <c r="J17" s="3">
-        <f t="shared" si="0"/>
+        <f>(F17-D17)/(D17-E17)</f>
         <v>2.2361111111111112</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>46</v>
       </c>
       <c r="L17" s="1">
-        <f t="shared" si="3"/>
+        <f>(G17-D17)*H17</f>
         <v>1026</v>
       </c>
       <c r="M17" s="3" t="s">
@@ -2382,14 +2397,14 @@
         <v>25</v>
       </c>
       <c r="S17" s="3">
-        <f t="shared" si="1"/>
+        <f>L17</f>
         <v>1026</v>
       </c>
       <c r="T17" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U17" s="3">
-        <f t="shared" si="2"/>
+        <f>H17*D17</f>
         <v>31698</v>
       </c>
     </row>
@@ -2423,14 +2438,14 @@
         <v>3045</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="0"/>
+        <f>(F18-D18)/(D18-E18)</f>
         <v>3.4334975369458127</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>43</v>
       </c>
       <c r="L18" s="1">
-        <f t="shared" ref="L18:L29" si="4">(G18-D18)*H18</f>
+        <f>(G18-D18)*H18</f>
         <v>-3106.7999999999984</v>
       </c>
       <c r="M18" s="1" t="s">
@@ -2448,14 +2463,14 @@
         <v>25</v>
       </c>
       <c r="S18" s="1">
-        <f t="shared" si="1"/>
+        <f>L18</f>
         <v>-3106.7999999999984</v>
       </c>
       <c r="T18" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U18" s="1">
-        <f t="shared" si="2"/>
+        <f>H18*D18</f>
         <v>45435</v>
       </c>
     </row>
@@ -2489,14 +2504,14 @@
         <v>3104</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="0"/>
+        <f>(F19-D19)/(D19-E19)</f>
         <v>3.7938144329896906</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>43</v>
       </c>
       <c r="L19" s="1">
-        <f t="shared" si="4"/>
+        <f>(G19-D19)*H19</f>
         <v>-3101.4400000000023</v>
       </c>
       <c r="M19" s="1" t="s">
@@ -2514,14 +2529,14 @@
         <v>25</v>
       </c>
       <c r="S19" s="1">
-        <f t="shared" si="1"/>
+        <f>L19</f>
         <v>-3101.4400000000023</v>
       </c>
       <c r="T19" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U19" s="1">
-        <f t="shared" si="2"/>
+        <f>H19*D19</f>
         <v>102624</v>
       </c>
     </row>
@@ -2555,14 +2570,14 @@
         <v>3045.9000000000037</v>
       </c>
       <c r="J20" s="3">
-        <f t="shared" si="0"/>
+        <f>(F20-D20)/(D20-E20)</f>
         <v>6.0704225352112591</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>46</v>
       </c>
       <c r="L20" s="3">
-        <f t="shared" si="4"/>
+        <f>(G20-D20)*H20</f>
         <v>386.09999999999633</v>
       </c>
       <c r="M20" s="3" t="s">
@@ -2580,14 +2595,14 @@
         <v>25</v>
       </c>
       <c r="S20" s="3">
-        <f t="shared" si="1"/>
+        <f>L20</f>
         <v>386.09999999999633</v>
       </c>
       <c r="T20" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U20" s="3">
-        <f t="shared" si="2"/>
+        <f>H20*D20</f>
         <v>45860.100000000006</v>
       </c>
     </row>
@@ -2620,14 +2635,14 @@
         <v>3000</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="0"/>
+        <f>(F21-D21)/(D21-E21)</f>
         <v>4.0300035298270416</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>46</v>
       </c>
       <c r="L21" s="1">
-        <f t="shared" si="4"/>
+        <f>(G21-D21)*H21</f>
         <v>1491.7799999999977</v>
       </c>
       <c r="M21" s="1" t="s">
@@ -2645,14 +2660,14 @@
         <v>25</v>
       </c>
       <c r="S21" s="1">
-        <f t="shared" si="1"/>
+        <f>L21</f>
         <v>1491.7799999999977</v>
       </c>
       <c r="T21" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U21" s="1">
-        <f t="shared" si="2"/>
+        <f>H21*D21</f>
         <v>46881.36</v>
       </c>
     </row>
@@ -2682,18 +2697,18 @@
         <v>11</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" ref="I22:I37" si="5">(D22-E22)*H22</f>
+        <f>(D22-E22)*H22</f>
         <v>3058</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="0"/>
+        <f>(F22-D22)/(D22-E22)</f>
         <v>1.985611510791367</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>46</v>
       </c>
       <c r="L22" s="1">
-        <f t="shared" si="4"/>
+        <f>(G22-D22)*H22</f>
         <v>212.300000000002</v>
       </c>
       <c r="M22" s="1" t="s">
@@ -2711,14 +2726,14 @@
         <v>25</v>
       </c>
       <c r="S22" s="1">
-        <f t="shared" si="1"/>
+        <f>L22</f>
         <v>212.300000000002</v>
       </c>
       <c r="T22" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U22" s="1">
-        <f t="shared" si="2"/>
+        <f>H22*D22</f>
         <v>29128</v>
       </c>
     </row>
@@ -2748,18 +2763,18 @@
         <v>429</v>
       </c>
       <c r="I23" s="1">
-        <f t="shared" si="5"/>
+        <f>(D23-E23)*H23</f>
         <v>3045.9000000000037</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="0"/>
+        <f>(F23-D23)/(D23-E23)</f>
         <v>6.0704225352112591</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>46</v>
       </c>
       <c r="L23" s="1">
-        <f t="shared" si="4"/>
+        <f>(G23-D23)*H23</f>
         <v>2831.3999999999974</v>
       </c>
       <c r="M23" s="1" t="s">
@@ -2777,14 +2792,14 @@
         <v>25</v>
       </c>
       <c r="S23" s="1">
-        <f t="shared" si="1"/>
+        <f>L23</f>
         <v>2831.3999999999974</v>
       </c>
       <c r="T23" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U23" s="1">
-        <f t="shared" si="2"/>
+        <f>H23*D23</f>
         <v>45860.100000000006</v>
       </c>
     </row>
@@ -2814,18 +2829,18 @@
         <v>26</v>
       </c>
       <c r="I24" s="3">
-        <f t="shared" si="5"/>
+        <f>(D24-E24)*H24</f>
         <v>4261.4000000000024</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="0"/>
+        <f>(F24-D24)/(D24-E24)</f>
         <v>2.508236729713238</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>43</v>
       </c>
       <c r="L24" s="1">
-        <f t="shared" si="4"/>
+        <f>(G24-D24)*H24</f>
         <v>-4708.600000000004</v>
       </c>
       <c r="M24" s="1" t="s">
@@ -2843,14 +2858,14 @@
         <v>25</v>
       </c>
       <c r="S24" s="1">
-        <f t="shared" si="1"/>
+        <f>L24</f>
         <v>-4708.600000000004</v>
       </c>
       <c r="T24" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U24" s="1">
-        <f t="shared" si="2"/>
+        <f>H24*D24</f>
         <v>54311.4</v>
       </c>
     </row>
@@ -2880,18 +2895,18 @@
         <v>11</v>
       </c>
       <c r="I25" s="3">
-        <f t="shared" si="5"/>
+        <f>(D25-E25)*H25</f>
         <v>3140.5</v>
       </c>
       <c r="J25" s="3">
-        <f t="shared" si="0"/>
+        <f>(F25-D25)/(D25-E25)</f>
         <v>2.9306479859894914</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>46</v>
       </c>
       <c r="L25" s="3">
-        <f t="shared" si="4"/>
+        <f>(G25-D25)*H25</f>
         <v>2526.699999999998</v>
       </c>
       <c r="M25" s="3" t="s">
@@ -2909,14 +2924,14 @@
         <v>25</v>
       </c>
       <c r="S25" s="3">
-        <f t="shared" si="1"/>
+        <f>L25</f>
         <v>2526.699999999998</v>
       </c>
       <c r="T25" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U25" s="3">
-        <f t="shared" si="2"/>
+        <f>H25*D25</f>
         <v>29296.300000000003</v>
       </c>
     </row>
@@ -2946,18 +2961,18 @@
         <v>30</v>
       </c>
       <c r="I26" s="1">
-        <f t="shared" si="5"/>
+        <f>(D26-E26)*H26</f>
         <v>2910</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="0"/>
+        <f>(F26-D26)/(D26-E26)</f>
         <v>3.4536082474226806</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>46</v>
       </c>
       <c r="L26" s="1">
-        <f t="shared" si="4"/>
+        <f>(G26-D26)*H26</f>
         <v>6062.9999999999973</v>
       </c>
       <c r="M26" s="1" t="s">
@@ -2977,14 +2992,14 @@
         <v>25</v>
       </c>
       <c r="S26" s="1">
-        <f t="shared" si="1"/>
+        <f>L26</f>
         <v>6062.9999999999973</v>
       </c>
       <c r="T26" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U26" s="1">
-        <f t="shared" si="2"/>
+        <f>H26*D26</f>
         <v>49650</v>
       </c>
     </row>
@@ -3014,18 +3029,18 @@
         <v>34</v>
       </c>
       <c r="I27" s="1">
-        <f t="shared" si="5"/>
+        <f>(D27-E27)*H27</f>
         <v>3094</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="0"/>
+        <f>(F27-D27)/(D27-E27)</f>
         <v>4.0439560439560438</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>43</v>
       </c>
       <c r="L27" s="1">
-        <f t="shared" si="4"/>
+        <f>(G27-D27)*H27</f>
         <v>-2376.5999999999995</v>
       </c>
       <c r="M27" s="1" t="s">
@@ -3043,14 +3058,14 @@
         <v>25</v>
       </c>
       <c r="S27" s="1">
-        <f t="shared" si="1"/>
+        <f>L27</f>
         <v>-2376.5999999999995</v>
       </c>
       <c r="T27" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U27" s="1">
-        <f t="shared" si="2"/>
+        <f>H27*D27</f>
         <v>24650</v>
       </c>
     </row>
@@ -3080,18 +3095,18 @@
         <v>30</v>
       </c>
       <c r="I28" s="1">
-        <f t="shared" si="5"/>
+        <f>(D28-E28)*H28</f>
         <v>2970</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="0"/>
+        <f>(F28-D28)/(D28-E28)</f>
         <v>3.6161616161616164</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>43</v>
       </c>
       <c r="L28" s="1">
-        <f t="shared" si="4"/>
+        <f>(G28-D28)*H28</f>
         <v>-3053.3999999999992</v>
       </c>
       <c r="M28" s="1" t="s">
@@ -3111,14 +3126,14 @@
         <v>25</v>
       </c>
       <c r="S28" s="1">
-        <f t="shared" si="1"/>
+        <f>L28</f>
         <v>-3053.3999999999992</v>
       </c>
       <c r="T28" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U28" s="1">
-        <f t="shared" si="2"/>
+        <f>H28*D28</f>
         <v>51510</v>
       </c>
     </row>
@@ -3148,18 +3163,18 @@
         <v>34</v>
       </c>
       <c r="I29" s="1">
-        <f t="shared" si="5"/>
+        <f>(D29-E29)*H29</f>
         <v>2958</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="0"/>
+        <f>(F29-D29)/(D29-E29)</f>
         <v>3.5287356321839081</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>46</v>
       </c>
       <c r="L29" s="1">
-        <f t="shared" si="4"/>
+        <f>(G29-D29)*H29</f>
         <v>37.400000000000773</v>
       </c>
       <c r="M29" s="1" t="s">
@@ -3179,14 +3194,14 @@
         <v>25</v>
       </c>
       <c r="S29" s="1">
-        <f t="shared" si="1"/>
+        <f>L29</f>
         <v>37.400000000000773</v>
       </c>
       <c r="T29" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U29" s="1">
-        <f t="shared" si="2"/>
+        <f>H29*D29</f>
         <v>33966</v>
       </c>
     </row>
@@ -3216,11 +3231,11 @@
         <v>30</v>
       </c>
       <c r="I30" s="3">
-        <f t="shared" si="5"/>
+        <f>(D30-E30)*H30</f>
         <v>3090</v>
       </c>
       <c r="J30" s="3">
-        <f t="shared" si="0"/>
+        <f>(F30-D30)/(D30-E30)</f>
         <v>2.4951456310679609</v>
       </c>
       <c r="K30" s="1" t="s">
@@ -3245,14 +3260,14 @@
         <v>25</v>
       </c>
       <c r="S30" s="3">
-        <f t="shared" si="1"/>
+        <f>L30</f>
         <v>3930</v>
       </c>
       <c r="T30" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U30" s="3">
-        <f t="shared" si="2"/>
+        <f>H30*D30</f>
         <v>39090</v>
       </c>
     </row>
@@ -3282,11 +3297,11 @@
         <v>63</v>
       </c>
       <c r="I31" s="1">
-        <f t="shared" si="5"/>
+        <f>(D31-E31)*H31</f>
         <v>3197.25</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" si="0"/>
+        <f>(F31-D31)/(D31-E31)</f>
         <v>3.270935960591133</v>
       </c>
       <c r="K31" s="1" t="s">
@@ -3311,14 +3326,14 @@
         <v>25</v>
       </c>
       <c r="S31" s="1">
-        <f t="shared" si="1"/>
+        <f>L31</f>
         <v>-3197.25</v>
       </c>
       <c r="T31" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U31" s="1">
-        <f t="shared" si="2"/>
+        <f>H31*D31</f>
         <v>58842</v>
       </c>
     </row>
@@ -3348,11 +3363,11 @@
         <v>231</v>
       </c>
       <c r="I32" s="1">
-        <f t="shared" si="5"/>
+        <f>(D32-E32)*H32</f>
         <v>3003</v>
       </c>
       <c r="J32" s="1">
-        <f t="shared" si="0"/>
+        <f>(F32-D32)/(D32-E32)</f>
         <v>4</v>
       </c>
       <c r="K32" s="1" t="s">
@@ -3377,14 +3392,14 @@
         <v>25</v>
       </c>
       <c r="S32" s="1">
-        <f t="shared" si="1"/>
+        <f>L32</f>
         <v>-3067.6800000000003</v>
       </c>
       <c r="T32" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U32" s="1">
-        <f t="shared" si="2"/>
+        <f>H32*D32</f>
         <v>50820</v>
       </c>
     </row>
@@ -3414,11 +3429,11 @@
         <v>60</v>
       </c>
       <c r="I33" s="1">
-        <f t="shared" si="5"/>
+        <f>(D33-E33)*H33</f>
         <v>3000</v>
       </c>
       <c r="J33" s="1">
-        <f t="shared" si="0"/>
+        <f>(F33-D33)/(D33-E33)</f>
         <v>3.99</v>
       </c>
       <c r="K33" s="1" t="s">
@@ -3443,14 +3458,14 @@
         <v>25</v>
       </c>
       <c r="S33" s="1">
-        <f t="shared" si="1"/>
+        <f>L33</f>
         <v>-3065.3999999999951</v>
       </c>
       <c r="T33" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U33" s="1">
-        <f t="shared" si="2"/>
+        <f>H33*D33</f>
         <v>111870</v>
       </c>
     </row>
@@ -3480,11 +3495,11 @@
         <v>44</v>
       </c>
       <c r="I34" s="1">
-        <f t="shared" si="5"/>
+        <f>(D34-E34)*H34</f>
         <v>2948</v>
       </c>
       <c r="J34" s="1">
-        <f t="shared" si="0"/>
+        <f>(F34-D34)/(D34-E34)</f>
         <v>4.094029850746268</v>
       </c>
       <c r="K34" s="1" t="s">
@@ -3511,14 +3526,14 @@
         <v>25</v>
       </c>
       <c r="S34" s="1">
-        <f t="shared" si="1"/>
+        <f>L34</f>
         <v>8858.9600000000009</v>
       </c>
       <c r="T34" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U34" s="1">
-        <f t="shared" si="2"/>
+        <f>H34*D34</f>
         <v>31174</v>
       </c>
     </row>
@@ -3548,18 +3563,18 @@
         <v>30</v>
       </c>
       <c r="I35" s="1">
-        <f t="shared" si="5"/>
+        <f>(D35-E35)*H35</f>
         <v>3000</v>
       </c>
       <c r="J35" s="1">
-        <f t="shared" si="0"/>
+        <f>(F35-D35)/(D35-E35)</f>
         <v>3.6</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>43</v>
       </c>
       <c r="L35" s="1">
-        <f t="shared" ref="L35:L37" si="6">(G35-D35)*H35</f>
+        <f>(G35-D35)*H35</f>
         <v>-3000</v>
       </c>
       <c r="M35" s="1" t="s">
@@ -3575,14 +3590,14 @@
         <v>25</v>
       </c>
       <c r="S35" s="1">
-        <f t="shared" si="1"/>
+        <f>L35</f>
         <v>-3000</v>
       </c>
       <c r="T35" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U35" s="1">
-        <f t="shared" si="2"/>
+        <f>H35*D35</f>
         <v>76200</v>
       </c>
     </row>
@@ -3612,18 +3627,18 @@
         <v>42</v>
       </c>
       <c r="I36" s="1">
-        <f t="shared" si="5"/>
+        <f>(D36-E36)*H36</f>
         <v>2856</v>
       </c>
       <c r="J36" s="1">
-        <f t="shared" si="0"/>
+        <f>(F36-D36)/(D36-E36)</f>
         <v>4.867647058823529</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>43</v>
       </c>
       <c r="L36" s="1">
-        <f t="shared" si="6"/>
+        <f>(G36-D36)*H36</f>
         <v>-84</v>
       </c>
       <c r="M36" s="1" t="s">
@@ -3639,14 +3654,14 @@
         <v>25</v>
       </c>
       <c r="S36" s="1">
-        <f t="shared" si="1"/>
+        <f>L36</f>
         <v>-84</v>
       </c>
       <c r="T36" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U36" s="1">
-        <f t="shared" si="2"/>
+        <f>H36*D36</f>
         <v>81606</v>
       </c>
     </row>
@@ -3676,18 +3691,18 @@
         <v>150</v>
       </c>
       <c r="I37" s="1">
-        <f t="shared" si="5"/>
+        <f>(D37-E37)*H37</f>
         <v>2932.5000000000018</v>
       </c>
       <c r="J37" s="1">
-        <f t="shared" si="0"/>
+        <f>(F37-D37)/(D37-E37)</f>
         <v>3.6061381074168777</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>46</v>
       </c>
       <c r="L37" s="1">
-        <f t="shared" si="6"/>
+        <f>(G37-D37)*H37</f>
         <v>113.99999999999864</v>
       </c>
       <c r="M37" s="1" t="s">
@@ -3705,14 +3720,14 @@
         <v>25</v>
       </c>
       <c r="S37" s="1">
-        <f t="shared" si="1"/>
+        <f>L37</f>
         <v>113.99999999999864</v>
       </c>
       <c r="T37" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U37" s="1">
-        <f t="shared" si="2"/>
+        <f>H37*D37</f>
         <v>61275</v>
       </c>
     </row>
@@ -3746,7 +3761,7 @@
         <v>598.74000000000046</v>
       </c>
       <c r="J38" s="1">
-        <f t="shared" si="0"/>
+        <f>(F38-D38)/(D38-E38)</f>
         <v>1.952867688813172</v>
       </c>
       <c r="K38" s="1" t="s">
@@ -3771,14 +3786,14 @@
         <v>25</v>
       </c>
       <c r="S38" s="1">
-        <f t="shared" si="1"/>
+        <f>L38</f>
         <v>-598.74000000000046</v>
       </c>
       <c r="T38" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U38" s="1">
-        <f t="shared" si="2"/>
+        <f>H38*D38</f>
         <v>21569.26</v>
       </c>
     </row>
@@ -3812,7 +3827,7 @@
         <v>3182</v>
       </c>
       <c r="J39" s="1">
-        <f t="shared" si="0"/>
+        <f>(F39-D39)/(D39-E39)</f>
         <v>2.6486486486486487</v>
       </c>
       <c r="K39" s="1" t="s">
@@ -3833,57 +3848,52 @@
         <v>25</v>
       </c>
       <c r="S39" s="1">
-        <f t="shared" si="1"/>
+        <f>L39</f>
         <v>-306.15999999999531</v>
       </c>
       <c r="T39" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U39" s="1">
-        <f t="shared" si="2"/>
+        <f>H39*D39</f>
         <v>56072</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
-        <v>45919</v>
+        <v>45916</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D40" s="1">
-        <v>1243.5</v>
-      </c>
-      <c r="E40" s="1">
-        <v>1181.0899999999999</v>
-      </c>
-      <c r="F40" s="1">
-        <f>D40 + 4 * (D40-E40)</f>
-        <v>1493.1400000000003</v>
-      </c>
+        <v>924.79</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
       <c r="G40" s="1">
-        <v>1181.0899999999999</v>
+        <v>875.77</v>
       </c>
       <c r="H40" s="1">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="I40" s="1">
         <f>(D40-E40)*H40</f>
-        <v>4992.8000000000065</v>
+        <v>102651.69</v>
       </c>
       <c r="J40" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>(F40-D40)/(D40-E40)</f>
+        <v>-1</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>43</v>
       </c>
       <c r="L40" s="1">
         <f>(G40-D40)*H40</f>
-        <v>-4992.8000000000065</v>
+        <v>-5441.2199999999975</v>
       </c>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
@@ -3896,58 +3906,46 @@
         <v>25</v>
       </c>
       <c r="S40" s="1">
-        <f t="shared" si="1"/>
-        <v>-4992.8000000000065</v>
+        <f>L40</f>
+        <v>-5441.2199999999975</v>
       </c>
       <c r="T40" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U40" s="1">
-        <f t="shared" si="2"/>
-        <v>99480</v>
+        <f>H40*D40</f>
+        <v>102651.69</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
-        <v>45922</v>
+        <v>45917</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D41" s="1">
-        <v>339.45</v>
-      </c>
-      <c r="E41" s="1">
-        <v>318.23</v>
-      </c>
-      <c r="F41" s="1">
-        <f>D41 + 4 * (D41-E41)</f>
-        <v>424.32999999999987</v>
-      </c>
-      <c r="G41" s="1">
-        <v>318.23</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
       <c r="H41" s="1">
-        <v>250</v>
+        <v>185</v>
       </c>
       <c r="I41" s="1">
         <f>(D41-E41)*H41</f>
-        <v>5304.9999999999927</v>
+        <v>83620</v>
       </c>
       <c r="J41" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L41" s="1">
-        <f>(G41-D41)*H41</f>
-        <v>-5304.9999999999927</v>
-      </c>
+        <f>(F41-D41)/(D41-E41)</f>
+        <v>-1</v>
+      </c>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
@@ -3959,52 +3957,50 @@
         <v>25</v>
       </c>
       <c r="S41" s="1">
-        <f t="shared" si="1"/>
-        <v>-5304.9999999999927</v>
-      </c>
-      <c r="T41" s="1" t="s">
-        <v>45</v>
-      </c>
+        <f>L41</f>
+        <v>0</v>
+      </c>
+      <c r="T41" s="1"/>
       <c r="U41" s="1">
-        <f t="shared" si="2"/>
-        <v>84862.5</v>
+        <f>H41*D41</f>
+        <v>83620</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
-        <v>45916</v>
+        <v>45917</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D42" s="1">
-        <v>924.79</v>
+        <v>1050.5</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1">
-        <v>875.77</v>
+        <v>995.07</v>
       </c>
       <c r="H42" s="1">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="I42" s="1">
-        <f t="shared" ref="I42:I60" si="7">(D42-E42)*H42</f>
-        <v>102651.69</v>
+        <f>(D42-E42)*H42</f>
+        <v>97696.5</v>
       </c>
       <c r="J42" s="1">
-        <f t="shared" si="0"/>
+        <f>(F42-D42)/(D42-E42)</f>
         <v>-1</v>
       </c>
       <c r="K42" s="1" t="s">
         <v>43</v>
       </c>
       <c r="L42" s="1">
-        <f t="shared" ref="L42:L58" si="8">(G42-D42)*H42</f>
-        <v>-5441.2199999999975</v>
+        <f>(G42-D42)*H42</f>
+        <v>-5154.9899999999952</v>
       </c>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
@@ -4017,15 +4013,15 @@
         <v>25</v>
       </c>
       <c r="S42" s="1">
-        <f t="shared" si="1"/>
-        <v>-5441.2199999999975</v>
+        <f>L42</f>
+        <v>-5154.9899999999952</v>
       </c>
       <c r="T42" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U42" s="1">
-        <f t="shared" si="2"/>
-        <v>102651.69</v>
+        <f>H42*D42</f>
+        <v>97696.5</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.2">
@@ -4033,30 +4029,37 @@
         <v>45917</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D43" s="1">
-        <v>452</v>
+        <v>235.84</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
+      <c r="G43" s="1">
+        <v>219.77</v>
+      </c>
       <c r="H43" s="1">
-        <v>185</v>
+        <v>333</v>
       </c>
       <c r="I43" s="1">
-        <f t="shared" si="7"/>
-        <v>83620</v>
+        <f>(D43-E43)*H43</f>
+        <v>78534.720000000001</v>
       </c>
       <c r="J43" s="1">
-        <f t="shared" si="0"/>
+        <f>(F43-D43)/(D43-E43)</f>
         <v>-1</v>
       </c>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
+      <c r="K43" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L43" s="1">
+        <f>(G43-D43)*H43</f>
+        <v>-5351.3099999999977</v>
+      </c>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
@@ -4068,13 +4071,15 @@
         <v>25</v>
       </c>
       <c r="S43" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T43" s="1"/>
+        <f>L43</f>
+        <v>-5351.3099999999977</v>
+      </c>
+      <c r="T43" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="U43" s="1">
-        <f t="shared" si="2"/>
-        <v>83620</v>
+        <f>H43*D43</f>
+        <v>78534.720000000001</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.2">
@@ -4082,36 +4087,36 @@
         <v>45917</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D44" s="1">
-        <v>1050.5</v>
+        <v>219</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1">
-        <v>995.07</v>
+        <v>209.26</v>
       </c>
       <c r="H44" s="1">
-        <v>93</v>
+        <v>500</v>
       </c>
       <c r="I44" s="1">
-        <f t="shared" si="7"/>
-        <v>97696.5</v>
+        <f>(D44-E44)*H44</f>
+        <v>109500</v>
       </c>
       <c r="J44" s="1">
-        <f t="shared" si="0"/>
+        <f>(F44-D44)/(D44-E44)</f>
         <v>-1</v>
       </c>
       <c r="K44" s="1" t="s">
         <v>43</v>
       </c>
       <c r="L44" s="1">
-        <f t="shared" si="8"/>
-        <v>-5154.9899999999952</v>
+        <f>(G44-D44)*H44</f>
+        <v>-4870.0000000000045</v>
       </c>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
@@ -4124,15 +4129,15 @@
         <v>25</v>
       </c>
       <c r="S44" s="1">
-        <f t="shared" si="1"/>
-        <v>-5154.9899999999952</v>
+        <f>L44</f>
+        <v>-4870.0000000000045</v>
       </c>
       <c r="T44" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U44" s="1">
-        <f t="shared" si="2"/>
-        <v>97696.5</v>
+        <f>H44*D44</f>
+        <v>109500</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.2">
@@ -4140,36 +4145,41 @@
         <v>45919</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D45" s="1">
-        <v>937.5</v>
-      </c>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
+        <v>1243.5</v>
+      </c>
+      <c r="E45" s="1">
+        <v>1181.0899999999999</v>
+      </c>
+      <c r="F45" s="1">
+        <f>D45 + 4 * (D45-E45)</f>
+        <v>1493.1400000000003</v>
+      </c>
       <c r="G45" s="1">
-        <v>891.55</v>
+        <v>1181.0899999999999</v>
       </c>
       <c r="H45" s="1">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="I45" s="1">
-        <f t="shared" si="7"/>
-        <v>102187.5</v>
+        <f>(D45-E45)*H45</f>
+        <v>4992.8000000000065</v>
       </c>
       <c r="J45" s="1">
-        <f t="shared" si="0"/>
-        <v>-1</v>
+        <f>(F45-D45)/(D45-E45)</f>
+        <v>4</v>
       </c>
       <c r="K45" s="1" t="s">
         <v>43</v>
       </c>
       <c r="L45" s="1">
-        <f t="shared" si="8"/>
-        <v>-5008.5500000000047</v>
+        <f>(G45-D45)*H45</f>
+        <v>-4992.8000000000065</v>
       </c>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
@@ -4182,52 +4192,52 @@
         <v>25</v>
       </c>
       <c r="S45" s="1">
-        <f t="shared" si="1"/>
-        <v>-5008.5500000000047</v>
+        <f>L45</f>
+        <v>-4992.8000000000065</v>
       </c>
       <c r="T45" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U45" s="1">
-        <f t="shared" si="2"/>
-        <v>102187.5</v>
+        <f>H45*D45</f>
+        <v>99480</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
-        <v>45922</v>
+        <v>45919</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D46" s="1">
-        <v>3650</v>
+        <v>937.5</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1">
-        <v>3498.2</v>
+        <v>891.55</v>
       </c>
       <c r="H46" s="1">
-        <v>33</v>
+        <v>109</v>
       </c>
       <c r="I46" s="1">
-        <f t="shared" si="7"/>
-        <v>120450</v>
+        <f>(D46-E46)*H46</f>
+        <v>102187.5</v>
       </c>
       <c r="J46" s="1">
-        <f t="shared" si="0"/>
+        <f>(F46-D46)/(D46-E46)</f>
         <v>-1</v>
       </c>
       <c r="K46" s="1" t="s">
         <v>43</v>
       </c>
       <c r="L46" s="1">
-        <f t="shared" si="8"/>
-        <v>-5009.400000000006</v>
+        <f>(G46-D46)*H46</f>
+        <v>-5008.5500000000047</v>
       </c>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
@@ -4240,52 +4250,57 @@
         <v>25</v>
       </c>
       <c r="S46" s="1">
-        <f t="shared" si="1"/>
-        <v>-5009.400000000006</v>
+        <f>L46</f>
+        <v>-5008.5500000000047</v>
       </c>
       <c r="T46" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U46" s="1">
-        <f t="shared" si="2"/>
-        <v>120450</v>
+        <f>H46*D46</f>
+        <v>102187.5</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
-        <v>45933</v>
+        <v>45922</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D47" s="1">
-        <v>5250</v>
-      </c>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
+        <v>339.45</v>
+      </c>
+      <c r="E47" s="1">
+        <v>318.23</v>
+      </c>
+      <c r="F47" s="1">
+        <f>D47 + 4 * (D47-E47)</f>
+        <v>424.32999999999987</v>
+      </c>
       <c r="G47" s="1">
-        <v>5390.67</v>
+        <v>318.23</v>
       </c>
       <c r="H47" s="1">
-        <v>24</v>
+        <v>250</v>
       </c>
       <c r="I47" s="1">
-        <f t="shared" si="7"/>
-        <v>126000</v>
+        <f>(D47-E47)*H47</f>
+        <v>5304.9999999999927</v>
       </c>
       <c r="J47" s="1">
-        <f t="shared" si="0"/>
-        <v>-1</v>
+        <f>(F47-D47)/(D47-E47)</f>
+        <v>4</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L47" s="1">
-        <f t="shared" si="8"/>
-        <v>3376.0800000000017</v>
+        <f>(G47-D47)*H47</f>
+        <v>-5304.9999999999927</v>
       </c>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
@@ -4298,52 +4313,52 @@
         <v>25</v>
       </c>
       <c r="S47" s="1">
-        <f t="shared" si="1"/>
-        <v>3376.0800000000017</v>
+        <f>L47</f>
+        <v>-5304.9999999999927</v>
       </c>
       <c r="T47" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U47" s="1">
-        <f t="shared" si="2"/>
-        <v>126000</v>
+        <f>H47*D47</f>
+        <v>84862.5</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
-        <v>45937</v>
+        <v>45922</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D48" s="1">
-        <v>1220.73</v>
+        <v>3650</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1">
-        <v>1180.23</v>
+        <v>3498.2</v>
       </c>
       <c r="H48" s="1">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="I48" s="1">
-        <f t="shared" si="7"/>
-        <v>122073</v>
+        <f>(D48-E48)*H48</f>
+        <v>120450</v>
       </c>
       <c r="J48" s="1">
-        <f t="shared" si="0"/>
+        <f>(F48-D48)/(D48-E48)</f>
         <v>-1</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>43</v>
       </c>
       <c r="L48" s="1">
-        <f t="shared" si="8"/>
-        <v>-4050</v>
+        <f>(G48-D48)*H48</f>
+        <v>-5009.400000000006</v>
       </c>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
@@ -4356,52 +4371,52 @@
         <v>25</v>
       </c>
       <c r="S48" s="1">
-        <f t="shared" si="1"/>
-        <v>-4050</v>
+        <f>L48</f>
+        <v>-5009.400000000006</v>
       </c>
       <c r="T48" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U48" s="1">
-        <f t="shared" si="2"/>
-        <v>122073</v>
+        <f>H48*D48</f>
+        <v>120450</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
-        <v>45937</v>
+        <v>45933</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D49" s="1">
-        <v>214.91</v>
+        <v>5250</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1">
-        <v>205.97</v>
+        <v>5390.67</v>
       </c>
       <c r="H49" s="1">
-        <v>568</v>
+        <v>24</v>
       </c>
       <c r="I49" s="1">
-        <f t="shared" si="7"/>
-        <v>122068.88</v>
+        <f>(D49-E49)*H49</f>
+        <v>126000</v>
       </c>
       <c r="J49" s="1">
-        <f t="shared" si="0"/>
+        <f>(F49-D49)/(D49-E49)</f>
         <v>-1</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="L49" s="1">
-        <f t="shared" si="8"/>
-        <v>-5077.9199999999983</v>
+        <f>(G49-D49)*H49</f>
+        <v>3376.0800000000017</v>
       </c>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
@@ -4414,46 +4429,53 @@
         <v>25</v>
       </c>
       <c r="S49" s="1">
-        <f t="shared" si="1"/>
-        <v>-5077.9199999999983</v>
+        <f>L49</f>
+        <v>3376.0800000000017</v>
       </c>
       <c r="T49" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U49" s="1">
-        <f t="shared" si="2"/>
-        <v>122068.88</v>
+        <f>H49*D49</f>
+        <v>126000</v>
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
-        <v>45939</v>
+        <v>45933</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>69</v>
+        <v>115</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D50" s="1">
-        <v>721</v>
+        <v>393.5</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
+      <c r="G50" s="1">
+        <v>374.55</v>
+      </c>
       <c r="H50" s="1">
-        <v>156</v>
+        <v>250</v>
       </c>
       <c r="I50" s="1">
-        <f t="shared" si="7"/>
-        <v>112476</v>
+        <f>(D50-E50)*H50</f>
+        <v>98375</v>
       </c>
       <c r="J50" s="1">
-        <f t="shared" si="0"/>
+        <f>(F50-D50)/(D50-E50)</f>
         <v>-1</v>
       </c>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
+      <c r="K50" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L50" s="1">
+        <f>(G50-D50)*H50</f>
+        <v>-4737.4999999999973</v>
+      </c>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
@@ -4465,44 +4487,53 @@
         <v>25</v>
       </c>
       <c r="S50" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T50" s="1"/>
+        <f>L50</f>
+        <v>-4737.4999999999973</v>
+      </c>
+      <c r="T50" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="U50" s="1">
-        <f t="shared" si="2"/>
-        <v>112476</v>
+        <f>H50*D50</f>
+        <v>98375</v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
-        <v>45944</v>
+        <v>45937</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D51" s="1">
-        <v>162.99</v>
+        <v>1220.73</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
+      <c r="G51" s="1">
+        <v>1180.23</v>
+      </c>
       <c r="H51" s="1">
-        <v>720</v>
+        <v>100</v>
       </c>
       <c r="I51" s="1">
-        <f t="shared" si="7"/>
-        <v>117352.8</v>
+        <f>(D51-E51)*H51</f>
+        <v>122073</v>
       </c>
       <c r="J51" s="1">
-        <f t="shared" si="0"/>
+        <f>(F51-D51)/(D51-E51)</f>
         <v>-1</v>
       </c>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
+      <c r="K51" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L51" s="1">
+        <f>(G51-D51)*H51</f>
+        <v>-4050</v>
+      </c>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
@@ -4514,44 +4545,53 @@
         <v>25</v>
       </c>
       <c r="S51" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T51" s="1"/>
+        <f>L51</f>
+        <v>-4050</v>
+      </c>
+      <c r="T51" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="U51" s="1">
-        <f t="shared" si="2"/>
-        <v>117352.8</v>
+        <f>H51*D51</f>
+        <v>122073</v>
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
-        <v>45944</v>
+        <v>45937</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D52" s="1">
-        <v>808</v>
+        <v>214.91</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
+      <c r="G52" s="1">
+        <v>205.97</v>
+      </c>
       <c r="H52" s="1">
-        <v>147</v>
+        <v>568</v>
       </c>
       <c r="I52" s="1">
-        <f t="shared" si="7"/>
-        <v>118776</v>
+        <f>(D52-E52)*H52</f>
+        <v>122068.88</v>
       </c>
       <c r="J52" s="1">
-        <f t="shared" si="0"/>
+        <f>(F52-D52)/(D52-E52)</f>
         <v>-1</v>
       </c>
-      <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
+      <c r="K52" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L52" s="1">
+        <f>(G52-D52)*H52</f>
+        <v>-5077.9199999999983</v>
+      </c>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
@@ -4563,51 +4603,46 @@
         <v>25</v>
       </c>
       <c r="S52" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T52" s="1"/>
+        <f>L52</f>
+        <v>-5077.9199999999983</v>
+      </c>
+      <c r="T52" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="U52" s="1">
-        <f t="shared" si="2"/>
-        <v>118776</v>
+        <f>H52*D52</f>
+        <v>122068.88</v>
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
-        <v>45947</v>
+        <v>45939</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D53" s="1">
-        <v>1178</v>
+        <v>721</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
-      <c r="G53" s="1">
-        <v>1122.57</v>
-      </c>
+      <c r="G53" s="1"/>
       <c r="H53" s="1">
-        <v>100</v>
+        <v>156</v>
       </c>
       <c r="I53" s="1">
-        <f t="shared" si="7"/>
-        <v>117800</v>
+        <f>(D53-E53)*H53</f>
+        <v>112476</v>
       </c>
       <c r="J53" s="1">
-        <f t="shared" si="0"/>
+        <f>(F53-D53)/(D53-E53)</f>
         <v>-1</v>
       </c>
-      <c r="K53" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L53" s="1">
-        <f t="shared" si="8"/>
-        <v>-5543.0000000000064</v>
-      </c>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
@@ -4619,42 +4654,40 @@
         <v>25</v>
       </c>
       <c r="S53" s="1">
-        <f t="shared" si="1"/>
-        <v>-5543.0000000000064</v>
-      </c>
-      <c r="T53" s="1" t="s">
-        <v>45</v>
-      </c>
+        <f>L53</f>
+        <v>0</v>
+      </c>
+      <c r="T53" s="1"/>
       <c r="U53" s="1">
-        <f t="shared" si="2"/>
-        <v>117800</v>
+        <f>H53*D53</f>
+        <v>112476</v>
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
-        <v>45953</v>
+        <v>45944</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D54" s="1">
-        <v>113.9</v>
+        <v>162.99</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1">
-        <v>1462</v>
+        <v>720</v>
       </c>
       <c r="I54" s="1">
-        <f t="shared" si="7"/>
-        <v>166521.80000000002</v>
+        <f>(D54-E54)*H54</f>
+        <v>117352.8</v>
       </c>
       <c r="J54" s="1">
-        <f t="shared" si="0"/>
+        <f>(F54-D54)/(D54-E54)</f>
         <v>-1</v>
       </c>
       <c r="K54" s="1"/>
@@ -4670,46 +4703,57 @@
         <v>25</v>
       </c>
       <c r="S54" s="1">
-        <f t="shared" si="1"/>
+        <f>L54</f>
         <v>0</v>
       </c>
       <c r="T54" s="1"/>
       <c r="U54" s="1">
-        <f t="shared" si="2"/>
-        <v>166521.80000000002</v>
+        <f>H54*D54</f>
+        <v>117352.8</v>
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
-        <v>45954</v>
+        <v>45944</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D55" s="1">
-        <v>160.13</v>
+        <v>808</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
+      <c r="G55" s="1">
+        <v>775.05</v>
+      </c>
       <c r="H55" s="1">
-        <v>745</v>
+        <v>147</v>
       </c>
       <c r="I55" s="1">
-        <f t="shared" si="7"/>
-        <v>119296.84999999999</v>
+        <f>(D55-E55)*H55</f>
+        <v>118776</v>
       </c>
       <c r="J55" s="1">
-        <f t="shared" si="0"/>
+        <f>(F55-D55)/(D55-E55)</f>
         <v>-1</v>
       </c>
-      <c r="K55" s="1"/>
-      <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
-      <c r="N55" s="1"/>
+      <c r="K55" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L55" s="1">
+        <f t="shared" ref="L55:L57" si="0">(G55-D55)*H55</f>
+        <v>-4843.6500000000069</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
       <c r="Q55" s="1" t="s">
@@ -4719,51 +4763,46 @@
         <v>25</v>
       </c>
       <c r="S55" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T55" s="1"/>
+        <f>L55</f>
+        <v>-4843.6500000000069</v>
+      </c>
+      <c r="T55" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="U55" s="1">
-        <f t="shared" si="2"/>
-        <v>119296.84999999999</v>
+        <f>H55*D55</f>
+        <v>118776</v>
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
-        <v>45917</v>
+        <v>45946</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D56" s="1">
-        <v>235.84</v>
+        <v>645.5</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
-      <c r="G56" s="1">
-        <v>219.77</v>
-      </c>
+      <c r="G56" s="1"/>
       <c r="H56" s="1">
-        <v>333</v>
+        <v>156</v>
       </c>
       <c r="I56" s="1">
-        <f t="shared" si="7"/>
-        <v>78534.720000000001</v>
+        <f>(D56-E56)*H56</f>
+        <v>100698</v>
       </c>
       <c r="J56" s="1">
-        <f t="shared" si="0"/>
+        <f>(F56-D56)/(D56-E56)</f>
         <v>-1</v>
       </c>
-      <c r="K56" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L56" s="1">
-        <f t="shared" si="8"/>
-        <v>-5351.3099999999977</v>
-      </c>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
@@ -4775,53 +4814,44 @@
         <v>25</v>
       </c>
       <c r="S56" s="1">
-        <f t="shared" si="1"/>
-        <v>-5351.3099999999977</v>
-      </c>
-      <c r="T56" s="1" t="s">
-        <v>45</v>
-      </c>
+        <f>L56</f>
+        <v>0</v>
+      </c>
+      <c r="T56" s="1"/>
       <c r="U56" s="1">
-        <f t="shared" si="2"/>
-        <v>78534.720000000001</v>
+        <f>H56*D56</f>
+        <v>100698</v>
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
-        <v>45917</v>
+        <v>45946</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D57" s="1">
-        <v>219</v>
+        <v>114.05</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
-      <c r="G57" s="1">
-        <v>209.26</v>
-      </c>
+      <c r="G57" s="1"/>
       <c r="H57" s="1">
-        <v>500</v>
+        <v>862</v>
       </c>
       <c r="I57" s="1">
-        <f t="shared" si="7"/>
-        <v>109500</v>
+        <f>(D57-E57)*H57</f>
+        <v>98311.099999999991</v>
       </c>
       <c r="J57" s="1">
-        <f t="shared" si="0"/>
+        <f>(F57-D57)/(D57-E57)</f>
         <v>-1</v>
       </c>
-      <c r="K57" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L57" s="1">
-        <f t="shared" si="8"/>
-        <v>-4870.0000000000045</v>
-      </c>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
@@ -4833,56 +4863,60 @@
         <v>25</v>
       </c>
       <c r="S57" s="1">
-        <f t="shared" si="1"/>
-        <v>-4870.0000000000045</v>
-      </c>
-      <c r="T57" s="1" t="s">
-        <v>45</v>
-      </c>
+        <f>L57</f>
+        <v>0</v>
+      </c>
+      <c r="T57" s="1"/>
       <c r="U57" s="1">
-        <f t="shared" si="2"/>
-        <v>109500</v>
+        <f>H57*D57</f>
+        <v>98311.099999999991</v>
       </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
-        <v>45933</v>
+        <v>45947</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D58" s="1">
-        <v>393.5</v>
+        <v>1178</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1">
-        <v>374.55</v>
+        <v>1122.57</v>
       </c>
       <c r="H58" s="1">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="I58" s="1">
-        <f t="shared" si="7"/>
-        <v>98375</v>
+        <f>(D58-E58)*H58</f>
+        <v>117800</v>
       </c>
       <c r="J58" s="1">
-        <f t="shared" si="0"/>
+        <f>(F58-D58)/(D58-E58)</f>
         <v>-1</v>
       </c>
       <c r="K58" s="1" t="s">
         <v>43</v>
       </c>
       <c r="L58" s="1">
-        <f t="shared" si="8"/>
-        <v>-4737.4999999999973</v>
-      </c>
-      <c r="M58" s="1"/>
-      <c r="N58" s="1"/>
-      <c r="O58" s="1"/>
+        <f>(G58-D58)*H58</f>
+        <v>-5543.0000000000064</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="P58" s="1"/>
       <c r="Q58" s="1" t="s">
         <v>86</v>
@@ -4891,42 +4925,42 @@
         <v>25</v>
       </c>
       <c r="S58" s="1">
-        <f t="shared" si="1"/>
-        <v>-4737.4999999999973</v>
+        <f>L58</f>
+        <v>-5543.0000000000064</v>
       </c>
       <c r="T58" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U58" s="1">
-        <f t="shared" si="2"/>
-        <v>98375</v>
+        <f>H58*D58</f>
+        <v>117800</v>
       </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
-        <v>45946</v>
+        <v>45953</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>116</v>
+        <v>61</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D59" s="1">
-        <v>645.5</v>
+        <v>113.9</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1">
-        <v>156</v>
+        <v>1462</v>
       </c>
       <c r="I59" s="1">
-        <f t="shared" si="7"/>
-        <v>100698</v>
+        <f>(D59-E59)*H59</f>
+        <v>166521.80000000002</v>
       </c>
       <c r="J59" s="1">
-        <f t="shared" si="0"/>
+        <f>(F59-D59)/(D59-E59)</f>
         <v>-1</v>
       </c>
       <c r="K59" s="1"/>
@@ -4942,46 +4976,57 @@
         <v>25</v>
       </c>
       <c r="S59" s="1">
-        <f t="shared" si="1"/>
+        <f>L59</f>
         <v>0</v>
       </c>
       <c r="T59" s="1"/>
       <c r="U59" s="1">
-        <f t="shared" si="2"/>
-        <v>100698</v>
+        <f>H59*D59</f>
+        <v>166521.80000000002</v>
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
-        <v>45946</v>
+        <v>45954</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D60" s="1">
-        <v>114.05</v>
+        <v>160.13</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
+      <c r="G60" s="1">
+        <v>152.69999999999999</v>
+      </c>
       <c r="H60" s="1">
-        <v>862</v>
+        <v>745</v>
       </c>
       <c r="I60" s="1">
-        <f t="shared" si="7"/>
-        <v>98311.099999999991</v>
+        <f>(D60-E60)*H60</f>
+        <v>119296.84999999999</v>
       </c>
       <c r="J60" s="1">
-        <f t="shared" si="0"/>
+        <f>(F60-D60)/(D60-E60)</f>
         <v>-1</v>
       </c>
-      <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
-      <c r="N60" s="1"/>
+      <c r="K60" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L60" s="1">
+        <f t="shared" ref="L59:L62" si="1">(G60-D60)*H60</f>
+        <v>-5535.3500000000049</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
       <c r="Q60" s="1" t="s">
@@ -4991,19 +5036,134 @@
         <v>25</v>
       </c>
       <c r="S60" s="1">
+        <f>L60</f>
+        <v>-5535.3500000000049</v>
+      </c>
+      <c r="T60" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="U60" s="1">
+        <f>H60*D60</f>
+        <v>119296.84999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A61" s="2">
+        <v>45959</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D61" s="1">
+        <v>647.5</v>
+      </c>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1">
+        <v>730.77</v>
+      </c>
+      <c r="H61" s="1">
+        <v>183</v>
+      </c>
+      <c r="I61" s="1">
+        <f t="shared" ref="I61:I62" si="2">(D61-E61)*H61</f>
+        <v>118492.5</v>
+      </c>
+      <c r="J61" s="1">
+        <f t="shared" ref="J61:J62" si="3">(F61-D61)/(D61-E61)</f>
+        <v>-1</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L61" s="1">
         <f t="shared" si="1"/>
+        <v>15238.409999999996</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="O61" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="R61" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S61" s="1">
+        <f t="shared" ref="S61:S62" si="4">L61</f>
+        <v>15238.409999999996</v>
+      </c>
+      <c r="T61" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="U61" s="1">
+        <f>H61*D61</f>
+        <v>118492.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A62" s="2">
+        <v>45960</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D62" s="1">
+        <v>1355</v>
+      </c>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1">
+        <v>87</v>
+      </c>
+      <c r="I62" s="1">
+        <f t="shared" si="2"/>
+        <v>117885</v>
+      </c>
+      <c r="J62" s="1">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="R62" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S62" s="1">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T60" s="1"/>
-      <c r="U60" s="1">
-        <f t="shared" si="2"/>
-        <v>98311.099999999991</v>
+      <c r="T62" s="1"/>
+      <c r="U62" s="1">
+        <f>H62*D62</f>
+        <v>117885</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:U58" xr:uid="{8090FE0B-E5CF-476B-8F9F-EA27021FD68D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U41">
-      <sortCondition ref="A1:A41"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U60">
+      <sortCondition ref="A1:A60"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trading_journal.xlsx
+++ b/trading_journal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prasad/Data/Stocks/Dasparc-Capital/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1CF6F10-C6B7-CD4B-9216-4E69AD9ADACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75C19D3-8CCD-F24F-9D91-560AC7DC5436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="29400" windowHeight="16740" xr2:uid="{0B36B6A0-2720-41CF-B289-397E14AB5A0A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="128">
   <si>
     <t>Date</t>
   </si>
@@ -405,6 +405,21 @@
   </si>
   <si>
     <t xml:space="preserve">it went 1:5 but then revert and trailing SL hit same day where that movement was huge with big volume </t>
+  </si>
+  <si>
+    <t>Tata Communications</t>
+  </si>
+  <si>
+    <t>Sandur Manganese &amp; Iron</t>
+  </si>
+  <si>
+    <t>Privi Speciality chemicals</t>
+  </si>
+  <si>
+    <t>VPC - Old setup</t>
+  </si>
+  <si>
+    <t>TP hit by mistake kept neat by</t>
   </si>
 </sst>
 </file>
@@ -1265,10 +1280,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8090FE0B-E5CF-476B-8F9F-EA27021FD68D}">
-  <dimension ref="A1:U62"/>
+  <dimension ref="A1:U65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T57" sqref="A1:U65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1389,14 +1404,14 @@
         <v>3000</v>
       </c>
       <c r="J2" s="1">
-        <f>(F2-D2)/(D2-E2)</f>
+        <f t="shared" ref="J2:J33" si="0">(F2-D2)/(D2-E2)</f>
         <v>2.7071102413568169</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>43</v>
       </c>
       <c r="L2" s="1">
-        <f>(G2-D2)*H2</f>
+        <f t="shared" ref="L2:L37" si="1">(G2-D2)*H2</f>
         <v>-24.461839530332682</v>
       </c>
       <c r="M2" s="1" t="s">
@@ -1414,14 +1429,14 @@
         <v>25</v>
       </c>
       <c r="S2" s="1">
-        <f>L2</f>
+        <f t="shared" ref="S2:S33" si="2">L2</f>
         <v>-24.461839530332682</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U2" s="1">
-        <f>H2*D2</f>
+        <f t="shared" ref="U2:U33" si="3">H2*D2</f>
         <v>20058.708414872799</v>
       </c>
     </row>
@@ -1455,14 +1470,14 @@
         <v>3000</v>
       </c>
       <c r="J3" s="1">
-        <f>(F3-D3)/(D3-E3)</f>
+        <f t="shared" si="0"/>
         <v>2.3783783783783785</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>43</v>
       </c>
       <c r="L3" s="1">
-        <f>(G3-D3)*H3</f>
+        <f t="shared" si="1"/>
         <v>-243.24324324324323</v>
       </c>
       <c r="M3" s="1" t="s">
@@ -1478,14 +1493,14 @@
         <v>25</v>
       </c>
       <c r="S3" s="1">
-        <f>L3</f>
+        <f t="shared" si="2"/>
         <v>-243.24324324324323</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U3" s="1">
-        <f>H3*D3</f>
+        <f t="shared" si="3"/>
         <v>32270.27027027027</v>
       </c>
     </row>
@@ -1519,14 +1534,14 @@
         <v>3000</v>
       </c>
       <c r="J4" s="1">
-        <f>(F4-D4)/(D4-E4)</f>
+        <f t="shared" si="0"/>
         <v>1.5824561403508772</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>43</v>
       </c>
       <c r="L4" s="1">
-        <f>(G4-D4)*H4</f>
+        <f t="shared" si="1"/>
         <v>-1233.4736842105247</v>
       </c>
       <c r="M4" s="1" t="s">
@@ -1544,14 +1559,14 @@
         <v>25</v>
       </c>
       <c r="S4" s="1">
-        <f>L4</f>
+        <f t="shared" si="2"/>
         <v>-1233.4736842105247</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U4" s="1">
-        <f>H4*D4</f>
+        <f t="shared" si="3"/>
         <v>28421.05263157895</v>
       </c>
     </row>
@@ -1585,14 +1600,14 @@
         <v>3000</v>
       </c>
       <c r="J5" s="1">
-        <f>(F5-D5)/(D5-E5)</f>
+        <f t="shared" si="0"/>
         <v>2.4807692307692308</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>46</v>
       </c>
       <c r="L5" s="1">
-        <f>(G5-D5)*H5</f>
+        <f t="shared" si="1"/>
         <v>2192.3076923076924</v>
       </c>
       <c r="M5" s="1" t="s">
@@ -1608,14 +1623,14 @@
         <v>25</v>
       </c>
       <c r="S5" s="1">
-        <f>L5</f>
+        <f t="shared" si="2"/>
         <v>2192.3076923076924</v>
       </c>
       <c r="T5" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U5" s="1">
-        <f>H5*D5</f>
+        <f t="shared" si="3"/>
         <v>36403.846153846156</v>
       </c>
     </row>
@@ -1649,14 +1664,14 @@
         <v>3000</v>
       </c>
       <c r="J6" s="1">
-        <f>(F6-D6)/(D6-E6)</f>
+        <f t="shared" si="0"/>
         <v>2.0232558139534884</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>43</v>
       </c>
       <c r="L6" s="1">
-        <f>(G6-D6)*H6</f>
+        <f t="shared" si="1"/>
         <v>-2996.5116279069798</v>
       </c>
       <c r="M6" s="1" t="s">
@@ -1674,14 +1689,14 @@
         <v>25</v>
       </c>
       <c r="S6" s="1">
-        <f>L6</f>
+        <f t="shared" si="2"/>
         <v>-2996.5116279069798</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U6" s="1">
-        <f>H6*D6</f>
+        <f t="shared" si="3"/>
         <v>56372.093023255809</v>
       </c>
     </row>
@@ -1714,14 +1729,14 @@
         <v>1700</v>
       </c>
       <c r="J7" s="1">
-        <f>(F7-D7)/(D7-E7)</f>
+        <f t="shared" si="0"/>
         <v>3.4375</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>43</v>
       </c>
       <c r="L7" s="1">
-        <f>(G7-D7)*H7</f>
+        <f t="shared" si="1"/>
         <v>-678.93000000000006</v>
       </c>
       <c r="M7" s="1" t="s">
@@ -1739,14 +1754,14 @@
         <v>25</v>
       </c>
       <c r="S7" s="1">
-        <f>L7</f>
+        <f t="shared" si="2"/>
         <v>-678.93000000000006</v>
       </c>
       <c r="T7" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U7" s="1">
-        <f>H7*D7</f>
+        <f t="shared" si="3"/>
         <v>20034</v>
       </c>
     </row>
@@ -1779,14 +1794,14 @@
         <v>1600</v>
       </c>
       <c r="J8" s="1">
-        <f>(F8-D8)/(D8-E8)</f>
+        <f t="shared" si="0"/>
         <v>4.833333333333333</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>43</v>
       </c>
       <c r="L8" s="1">
-        <f>(G8-D8)*H8</f>
+        <f t="shared" si="1"/>
         <v>-1604.3999999999978</v>
       </c>
       <c r="M8" s="1" t="s">
@@ -1806,14 +1821,14 @@
         <v>25</v>
       </c>
       <c r="S8" s="1">
-        <f>L8</f>
+        <f t="shared" si="2"/>
         <v>-1604.3999999999978</v>
       </c>
       <c r="T8" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U8" s="1">
-        <f>H8*D8</f>
+        <f t="shared" si="3"/>
         <v>30672</v>
       </c>
     </row>
@@ -1847,14 +1862,14 @@
         <v>3000</v>
       </c>
       <c r="J9" s="1">
-        <f>(F9-D9)/(D9-E9)</f>
+        <f t="shared" si="0"/>
         <v>2.2239263803680966</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>46</v>
       </c>
       <c r="L9" s="1">
-        <f>(G9-D9)*H9</f>
+        <f t="shared" si="1"/>
         <v>7712.1165644171733</v>
       </c>
       <c r="M9" s="1" t="s">
@@ -1872,14 +1887,14 @@
         <v>25</v>
       </c>
       <c r="S9" s="1">
-        <f>L9</f>
+        <f t="shared" si="2"/>
         <v>7712.1165644171733</v>
       </c>
       <c r="T9" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U9" s="1">
-        <f>H9*D9</f>
+        <f t="shared" si="3"/>
         <v>29677.914110429429</v>
       </c>
     </row>
@@ -1912,14 +1927,14 @@
         <v>3000</v>
       </c>
       <c r="J10" s="1">
-        <f>(F10-D10)/(D10-E10)</f>
+        <f t="shared" si="0"/>
         <v>3.1886792452830188</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>43</v>
       </c>
       <c r="L10" s="1">
-        <f>(G10-D10)*H10</f>
+        <f t="shared" si="1"/>
         <v>-196</v>
       </c>
       <c r="M10" s="1" t="s">
@@ -1939,14 +1954,14 @@
         <v>25</v>
       </c>
       <c r="S10" s="1">
-        <f>L10</f>
+        <f t="shared" si="2"/>
         <v>-196</v>
       </c>
       <c r="T10" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U10" s="1">
-        <f>H10*D10</f>
+        <f t="shared" si="3"/>
         <v>73696</v>
       </c>
     </row>
@@ -1979,14 +1994,14 @@
         <v>3000</v>
       </c>
       <c r="J11" s="1">
-        <f>(F11-D11)/(D11-E11)</f>
+        <f t="shared" si="0"/>
         <v>2.4736842105263159</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>46</v>
       </c>
       <c r="L11" s="1">
-        <f>(G11-D11)*H11</f>
+        <f t="shared" si="1"/>
         <v>7216.7999999999984</v>
       </c>
       <c r="M11" s="1" t="s">
@@ -2006,14 +2021,14 @@
         <v>25</v>
       </c>
       <c r="S11" s="1">
-        <f>L11</f>
+        <f t="shared" si="2"/>
         <v>7216.7999999999984</v>
       </c>
       <c r="T11" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U11" s="1">
-        <f>H11*D11</f>
+        <f t="shared" si="3"/>
         <v>49600</v>
       </c>
     </row>
@@ -2047,14 +2062,14 @@
         <v>3000</v>
       </c>
       <c r="J12" s="1">
-        <f>(F12-D12)/(D12-E12)</f>
+        <f t="shared" si="0"/>
         <v>1.8696883852691213</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>46</v>
       </c>
       <c r="L12" s="1">
-        <f>(G12-D12)*H12</f>
+        <f t="shared" si="1"/>
         <v>5204.5325779036821</v>
       </c>
       <c r="M12" s="1" t="s">
@@ -2072,14 +2087,14 @@
         <v>25</v>
       </c>
       <c r="S12" s="1">
-        <f>L12</f>
+        <f t="shared" si="2"/>
         <v>5204.5325779036821</v>
       </c>
       <c r="T12" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U12" s="1">
-        <f>H12*D12</f>
+        <f t="shared" si="3"/>
         <v>40283.286118980155</v>
       </c>
     </row>
@@ -2112,14 +2127,14 @@
         <v>3000</v>
       </c>
       <c r="J13" s="1">
-        <f>(F13-D13)/(D13-E13)</f>
+        <f t="shared" si="0"/>
         <v>3.3529411764705883</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>43</v>
       </c>
       <c r="L13" s="1">
-        <f>(G13-D13)*H13</f>
+        <f t="shared" si="1"/>
         <v>-3176.800000000002</v>
       </c>
       <c r="M13" s="1" t="s">
@@ -2137,14 +2152,14 @@
         <v>25</v>
       </c>
       <c r="S13" s="1">
-        <f>L13</f>
+        <f t="shared" si="2"/>
         <v>-3176.800000000002</v>
       </c>
       <c r="T13" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U13" s="1">
-        <f>H13*D13</f>
+        <f t="shared" si="3"/>
         <v>64592</v>
       </c>
     </row>
@@ -2178,14 +2193,14 @@
         <v>3000</v>
       </c>
       <c r="J14" s="1">
-        <f>(F14-D14)/(D14-E14)</f>
+        <f t="shared" si="0"/>
         <v>3.0357142857142856</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>46</v>
       </c>
       <c r="L14" s="1">
-        <f>(G14-D14)*H14</f>
+        <f t="shared" si="1"/>
         <v>1268.0357142857119</v>
       </c>
       <c r="M14" s="1" t="s">
@@ -2203,14 +2218,14 @@
         <v>25</v>
       </c>
       <c r="S14" s="1">
-        <f>L14</f>
+        <f t="shared" si="2"/>
         <v>1268.0357142857119</v>
       </c>
       <c r="T14" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U14" s="1">
-        <f>H14*D14</f>
+        <f t="shared" si="3"/>
         <v>50517.857142857138</v>
       </c>
     </row>
@@ -2244,14 +2259,14 @@
         <v>3000</v>
       </c>
       <c r="J15" s="1">
-        <f>(F15-D15)/(D15-E15)</f>
+        <f t="shared" si="0"/>
         <v>3.4519230769230771</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>43</v>
       </c>
       <c r="L15" s="1">
-        <f>(G15-D15)*H15</f>
+        <f t="shared" si="1"/>
         <v>-2968.2692307692337</v>
       </c>
       <c r="M15" s="1" t="s">
@@ -2269,14 +2284,14 @@
         <v>25</v>
       </c>
       <c r="S15" s="1">
-        <f>L15</f>
+        <f t="shared" si="2"/>
         <v>-2968.2692307692337</v>
       </c>
       <c r="T15" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U15" s="1">
-        <f>H15*D15</f>
+        <f t="shared" si="3"/>
         <v>53826.923076923078</v>
       </c>
     </row>
@@ -2310,20 +2325,22 @@
         <v>4089</v>
       </c>
       <c r="J16" s="3">
-        <f>(F16-D16)/(D16-E16)</f>
+        <f t="shared" si="0"/>
         <v>1.7011494252873562</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>46</v>
       </c>
       <c r="L16" s="1">
-        <f>(G16-D16)*H16</f>
+        <f t="shared" si="1"/>
         <v>131.59999999999786</v>
       </c>
       <c r="M16" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="N16" s="3"/>
+      <c r="N16" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3" t="s">
@@ -2333,14 +2350,14 @@
         <v>25</v>
       </c>
       <c r="S16" s="3">
-        <f>L16</f>
+        <f t="shared" si="2"/>
         <v>131.59999999999786</v>
       </c>
       <c r="T16" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U16" s="3">
-        <f>H16*D16</f>
+        <f t="shared" si="3"/>
         <v>37318</v>
       </c>
     </row>
@@ -2374,20 +2391,22 @@
         <v>3888</v>
       </c>
       <c r="J17" s="3">
-        <f>(F17-D17)/(D17-E17)</f>
+        <f t="shared" si="0"/>
         <v>2.2361111111111112</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>46</v>
       </c>
       <c r="L17" s="1">
-        <f>(G17-D17)*H17</f>
+        <f t="shared" si="1"/>
         <v>1026</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N17" s="3"/>
+      <c r="N17" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="1" t="s">
@@ -2397,14 +2416,14 @@
         <v>25</v>
       </c>
       <c r="S17" s="3">
-        <f>L17</f>
+        <f t="shared" si="2"/>
         <v>1026</v>
       </c>
       <c r="T17" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U17" s="3">
-        <f>H17*D17</f>
+        <f t="shared" si="3"/>
         <v>31698</v>
       </c>
     </row>
@@ -2438,14 +2457,14 @@
         <v>3045</v>
       </c>
       <c r="J18" s="1">
-        <f>(F18-D18)/(D18-E18)</f>
+        <f t="shared" si="0"/>
         <v>3.4334975369458127</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>43</v>
       </c>
       <c r="L18" s="1">
-        <f>(G18-D18)*H18</f>
+        <f t="shared" si="1"/>
         <v>-3106.7999999999984</v>
       </c>
       <c r="M18" s="1" t="s">
@@ -2463,14 +2482,14 @@
         <v>25</v>
       </c>
       <c r="S18" s="1">
-        <f>L18</f>
+        <f t="shared" si="2"/>
         <v>-3106.7999999999984</v>
       </c>
       <c r="T18" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U18" s="1">
-        <f>H18*D18</f>
+        <f t="shared" si="3"/>
         <v>45435</v>
       </c>
     </row>
@@ -2504,14 +2523,14 @@
         <v>3104</v>
       </c>
       <c r="J19" s="1">
-        <f>(F19-D19)/(D19-E19)</f>
+        <f t="shared" si="0"/>
         <v>3.7938144329896906</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>43</v>
       </c>
       <c r="L19" s="1">
-        <f>(G19-D19)*H19</f>
+        <f t="shared" si="1"/>
         <v>-3101.4400000000023</v>
       </c>
       <c r="M19" s="1" t="s">
@@ -2529,14 +2548,14 @@
         <v>25</v>
       </c>
       <c r="S19" s="1">
-        <f>L19</f>
+        <f t="shared" si="2"/>
         <v>-3101.4400000000023</v>
       </c>
       <c r="T19" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U19" s="1">
-        <f>H19*D19</f>
+        <f t="shared" si="3"/>
         <v>102624</v>
       </c>
     </row>
@@ -2570,14 +2589,14 @@
         <v>3045.9000000000037</v>
       </c>
       <c r="J20" s="3">
-        <f>(F20-D20)/(D20-E20)</f>
+        <f t="shared" si="0"/>
         <v>6.0704225352112591</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>46</v>
       </c>
       <c r="L20" s="3">
-        <f>(G20-D20)*H20</f>
+        <f t="shared" si="1"/>
         <v>386.09999999999633</v>
       </c>
       <c r="M20" s="3" t="s">
@@ -2595,14 +2614,14 @@
         <v>25</v>
       </c>
       <c r="S20" s="3">
-        <f>L20</f>
+        <f t="shared" si="2"/>
         <v>386.09999999999633</v>
       </c>
       <c r="T20" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U20" s="3">
-        <f>H20*D20</f>
+        <f t="shared" si="3"/>
         <v>45860.100000000006</v>
       </c>
     </row>
@@ -2635,14 +2654,14 @@
         <v>3000</v>
       </c>
       <c r="J21" s="1">
-        <f>(F21-D21)/(D21-E21)</f>
+        <f t="shared" si="0"/>
         <v>4.0300035298270416</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>46</v>
       </c>
       <c r="L21" s="1">
-        <f>(G21-D21)*H21</f>
+        <f t="shared" si="1"/>
         <v>1491.7799999999977</v>
       </c>
       <c r="M21" s="1" t="s">
@@ -2660,14 +2679,14 @@
         <v>25</v>
       </c>
       <c r="S21" s="1">
-        <f>L21</f>
+        <f t="shared" si="2"/>
         <v>1491.7799999999977</v>
       </c>
       <c r="T21" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U21" s="1">
-        <f>H21*D21</f>
+        <f t="shared" si="3"/>
         <v>46881.36</v>
       </c>
     </row>
@@ -2697,18 +2716,18 @@
         <v>11</v>
       </c>
       <c r="I22" s="1">
-        <f>(D22-E22)*H22</f>
+        <f t="shared" ref="I22:I37" si="4">(D22-E22)*H22</f>
         <v>3058</v>
       </c>
       <c r="J22" s="1">
-        <f>(F22-D22)/(D22-E22)</f>
+        <f t="shared" si="0"/>
         <v>1.985611510791367</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>46</v>
       </c>
       <c r="L22" s="1">
-        <f>(G22-D22)*H22</f>
+        <f t="shared" si="1"/>
         <v>212.300000000002</v>
       </c>
       <c r="M22" s="1" t="s">
@@ -2726,14 +2745,14 @@
         <v>25</v>
       </c>
       <c r="S22" s="1">
-        <f>L22</f>
+        <f t="shared" si="2"/>
         <v>212.300000000002</v>
       </c>
       <c r="T22" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U22" s="1">
-        <f>H22*D22</f>
+        <f t="shared" si="3"/>
         <v>29128</v>
       </c>
     </row>
@@ -2763,18 +2782,18 @@
         <v>429</v>
       </c>
       <c r="I23" s="1">
-        <f>(D23-E23)*H23</f>
+        <f t="shared" si="4"/>
         <v>3045.9000000000037</v>
       </c>
       <c r="J23" s="1">
-        <f>(F23-D23)/(D23-E23)</f>
+        <f t="shared" si="0"/>
         <v>6.0704225352112591</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>46</v>
       </c>
       <c r="L23" s="1">
-        <f>(G23-D23)*H23</f>
+        <f t="shared" si="1"/>
         <v>2831.3999999999974</v>
       </c>
       <c r="M23" s="1" t="s">
@@ -2792,14 +2811,14 @@
         <v>25</v>
       </c>
       <c r="S23" s="1">
-        <f>L23</f>
+        <f t="shared" si="2"/>
         <v>2831.3999999999974</v>
       </c>
       <c r="T23" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U23" s="1">
-        <f>H23*D23</f>
+        <f t="shared" si="3"/>
         <v>45860.100000000006</v>
       </c>
     </row>
@@ -2829,18 +2848,18 @@
         <v>26</v>
       </c>
       <c r="I24" s="3">
-        <f>(D24-E24)*H24</f>
+        <f t="shared" si="4"/>
         <v>4261.4000000000024</v>
       </c>
       <c r="J24" s="1">
-        <f>(F24-D24)/(D24-E24)</f>
+        <f t="shared" si="0"/>
         <v>2.508236729713238</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>43</v>
       </c>
       <c r="L24" s="1">
-        <f>(G24-D24)*H24</f>
+        <f t="shared" si="1"/>
         <v>-4708.600000000004</v>
       </c>
       <c r="M24" s="1" t="s">
@@ -2858,14 +2877,14 @@
         <v>25</v>
       </c>
       <c r="S24" s="1">
-        <f>L24</f>
+        <f t="shared" si="2"/>
         <v>-4708.600000000004</v>
       </c>
       <c r="T24" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U24" s="1">
-        <f>H24*D24</f>
+        <f t="shared" si="3"/>
         <v>54311.4</v>
       </c>
     </row>
@@ -2895,18 +2914,18 @@
         <v>11</v>
       </c>
       <c r="I25" s="3">
-        <f>(D25-E25)*H25</f>
+        <f t="shared" si="4"/>
         <v>3140.5</v>
       </c>
       <c r="J25" s="3">
-        <f>(F25-D25)/(D25-E25)</f>
+        <f t="shared" si="0"/>
         <v>2.9306479859894914</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>46</v>
       </c>
       <c r="L25" s="3">
-        <f>(G25-D25)*H25</f>
+        <f t="shared" si="1"/>
         <v>2526.699999999998</v>
       </c>
       <c r="M25" s="3" t="s">
@@ -2924,14 +2943,14 @@
         <v>25</v>
       </c>
       <c r="S25" s="3">
-        <f>L25</f>
+        <f t="shared" si="2"/>
         <v>2526.699999999998</v>
       </c>
       <c r="T25" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U25" s="3">
-        <f>H25*D25</f>
+        <f t="shared" si="3"/>
         <v>29296.300000000003</v>
       </c>
     </row>
@@ -2961,18 +2980,18 @@
         <v>30</v>
       </c>
       <c r="I26" s="1">
-        <f>(D26-E26)*H26</f>
+        <f t="shared" si="4"/>
         <v>2910</v>
       </c>
       <c r="J26" s="1">
-        <f>(F26-D26)/(D26-E26)</f>
+        <f t="shared" si="0"/>
         <v>3.4536082474226806</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>46</v>
       </c>
       <c r="L26" s="1">
-        <f>(G26-D26)*H26</f>
+        <f t="shared" si="1"/>
         <v>6062.9999999999973</v>
       </c>
       <c r="M26" s="1" t="s">
@@ -2992,14 +3011,14 @@
         <v>25</v>
       </c>
       <c r="S26" s="1">
-        <f>L26</f>
+        <f t="shared" si="2"/>
         <v>6062.9999999999973</v>
       </c>
       <c r="T26" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U26" s="1">
-        <f>H26*D26</f>
+        <f t="shared" si="3"/>
         <v>49650</v>
       </c>
     </row>
@@ -3029,18 +3048,18 @@
         <v>34</v>
       </c>
       <c r="I27" s="1">
-        <f>(D27-E27)*H27</f>
+        <f t="shared" si="4"/>
         <v>3094</v>
       </c>
       <c r="J27" s="1">
-        <f>(F27-D27)/(D27-E27)</f>
+        <f t="shared" si="0"/>
         <v>4.0439560439560438</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>43</v>
       </c>
       <c r="L27" s="1">
-        <f>(G27-D27)*H27</f>
+        <f t="shared" si="1"/>
         <v>-2376.5999999999995</v>
       </c>
       <c r="M27" s="1" t="s">
@@ -3058,14 +3077,14 @@
         <v>25</v>
       </c>
       <c r="S27" s="1">
-        <f>L27</f>
+        <f t="shared" si="2"/>
         <v>-2376.5999999999995</v>
       </c>
       <c r="T27" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U27" s="1">
-        <f>H27*D27</f>
+        <f t="shared" si="3"/>
         <v>24650</v>
       </c>
     </row>
@@ -3095,18 +3114,18 @@
         <v>30</v>
       </c>
       <c r="I28" s="1">
-        <f>(D28-E28)*H28</f>
+        <f t="shared" si="4"/>
         <v>2970</v>
       </c>
       <c r="J28" s="1">
-        <f>(F28-D28)/(D28-E28)</f>
+        <f t="shared" si="0"/>
         <v>3.6161616161616164</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>43</v>
       </c>
       <c r="L28" s="1">
-        <f>(G28-D28)*H28</f>
+        <f t="shared" si="1"/>
         <v>-3053.3999999999992</v>
       </c>
       <c r="M28" s="1" t="s">
@@ -3126,14 +3145,14 @@
         <v>25</v>
       </c>
       <c r="S28" s="1">
-        <f>L28</f>
+        <f t="shared" si="2"/>
         <v>-3053.3999999999992</v>
       </c>
       <c r="T28" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U28" s="1">
-        <f>H28*D28</f>
+        <f t="shared" si="3"/>
         <v>51510</v>
       </c>
     </row>
@@ -3163,18 +3182,18 @@
         <v>34</v>
       </c>
       <c r="I29" s="1">
-        <f>(D29-E29)*H29</f>
+        <f t="shared" si="4"/>
         <v>2958</v>
       </c>
       <c r="J29" s="1">
-        <f>(F29-D29)/(D29-E29)</f>
+        <f t="shared" si="0"/>
         <v>3.5287356321839081</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>46</v>
       </c>
       <c r="L29" s="1">
-        <f>(G29-D29)*H29</f>
+        <f t="shared" si="1"/>
         <v>37.400000000000773</v>
       </c>
       <c r="M29" s="1" t="s">
@@ -3194,14 +3213,14 @@
         <v>25</v>
       </c>
       <c r="S29" s="1">
-        <f>L29</f>
+        <f t="shared" si="2"/>
         <v>37.400000000000773</v>
       </c>
       <c r="T29" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U29" s="1">
-        <f>H29*D29</f>
+        <f t="shared" si="3"/>
         <v>33966</v>
       </c>
     </row>
@@ -3231,18 +3250,18 @@
         <v>30</v>
       </c>
       <c r="I30" s="3">
-        <f>(D30-E30)*H30</f>
+        <f t="shared" si="4"/>
         <v>3090</v>
       </c>
       <c r="J30" s="3">
-        <f>(F30-D30)/(D30-E30)</f>
+        <f t="shared" si="0"/>
         <v>2.4951456310679609</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>46</v>
       </c>
       <c r="L30" s="1">
-        <f>(G30-D30)*H30</f>
+        <f t="shared" si="1"/>
         <v>3930</v>
       </c>
       <c r="M30" s="3" t="s">
@@ -3260,14 +3279,14 @@
         <v>25</v>
       </c>
       <c r="S30" s="3">
-        <f>L30</f>
+        <f t="shared" si="2"/>
         <v>3930</v>
       </c>
       <c r="T30" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U30" s="3">
-        <f>H30*D30</f>
+        <f t="shared" si="3"/>
         <v>39090</v>
       </c>
     </row>
@@ -3297,18 +3316,18 @@
         <v>63</v>
       </c>
       <c r="I31" s="1">
-        <f>(D31-E31)*H31</f>
+        <f t="shared" si="4"/>
         <v>3197.25</v>
       </c>
       <c r="J31" s="1">
-        <f>(F31-D31)/(D31-E31)</f>
+        <f t="shared" si="0"/>
         <v>3.270935960591133</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>43</v>
       </c>
       <c r="L31" s="1">
-        <f>(G31-D31)*H31</f>
+        <f t="shared" si="1"/>
         <v>-3197.25</v>
       </c>
       <c r="M31" s="1" t="s">
@@ -3326,14 +3345,14 @@
         <v>25</v>
       </c>
       <c r="S31" s="1">
-        <f>L31</f>
+        <f t="shared" si="2"/>
         <v>-3197.25</v>
       </c>
       <c r="T31" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U31" s="1">
-        <f>H31*D31</f>
+        <f t="shared" si="3"/>
         <v>58842</v>
       </c>
     </row>
@@ -3363,18 +3382,18 @@
         <v>231</v>
       </c>
       <c r="I32" s="1">
-        <f>(D32-E32)*H32</f>
+        <f t="shared" si="4"/>
         <v>3003</v>
       </c>
       <c r="J32" s="1">
-        <f>(F32-D32)/(D32-E32)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>43</v>
       </c>
       <c r="L32" s="1">
-        <f>(G32-D32)*H32</f>
+        <f t="shared" si="1"/>
         <v>-3067.6800000000003</v>
       </c>
       <c r="M32" s="1" t="s">
@@ -3392,14 +3411,14 @@
         <v>25</v>
       </c>
       <c r="S32" s="1">
-        <f>L32</f>
+        <f t="shared" si="2"/>
         <v>-3067.6800000000003</v>
       </c>
       <c r="T32" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U32" s="1">
-        <f>H32*D32</f>
+        <f t="shared" si="3"/>
         <v>50820</v>
       </c>
     </row>
@@ -3429,18 +3448,18 @@
         <v>60</v>
       </c>
       <c r="I33" s="1">
-        <f>(D33-E33)*H33</f>
+        <f t="shared" si="4"/>
         <v>3000</v>
       </c>
       <c r="J33" s="1">
-        <f>(F33-D33)/(D33-E33)</f>
+        <f t="shared" si="0"/>
         <v>3.99</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>43</v>
       </c>
       <c r="L33" s="1">
-        <f>(G33-D33)*H33</f>
+        <f t="shared" si="1"/>
         <v>-3065.3999999999951</v>
       </c>
       <c r="M33" s="1" t="s">
@@ -3458,14 +3477,14 @@
         <v>25</v>
       </c>
       <c r="S33" s="1">
-        <f>L33</f>
+        <f t="shared" si="2"/>
         <v>-3065.3999999999951</v>
       </c>
       <c r="T33" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U33" s="1">
-        <f>H33*D33</f>
+        <f t="shared" si="3"/>
         <v>111870</v>
       </c>
     </row>
@@ -3495,18 +3514,18 @@
         <v>44</v>
       </c>
       <c r="I34" s="1">
-        <f>(D34-E34)*H34</f>
+        <f t="shared" si="4"/>
         <v>2948</v>
       </c>
       <c r="J34" s="1">
-        <f>(F34-D34)/(D34-E34)</f>
+        <f t="shared" ref="J34:J60" si="5">(F34-D34)/(D34-E34)</f>
         <v>4.094029850746268</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>46</v>
       </c>
       <c r="L34" s="1">
-        <f>(G34-D34)*H34</f>
+        <f t="shared" si="1"/>
         <v>8858.9600000000009</v>
       </c>
       <c r="M34" s="1" t="s">
@@ -3526,14 +3545,14 @@
         <v>25</v>
       </c>
       <c r="S34" s="1">
-        <f>L34</f>
+        <f t="shared" ref="S34:S60" si="6">L34</f>
         <v>8858.9600000000009</v>
       </c>
       <c r="T34" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U34" s="1">
-        <f>H34*D34</f>
+        <f t="shared" ref="U34:U65" si="7">H34*D34</f>
         <v>31174</v>
       </c>
     </row>
@@ -3563,18 +3582,18 @@
         <v>30</v>
       </c>
       <c r="I35" s="1">
-        <f>(D35-E35)*H35</f>
+        <f t="shared" si="4"/>
         <v>3000</v>
       </c>
       <c r="J35" s="1">
-        <f>(F35-D35)/(D35-E35)</f>
+        <f t="shared" si="5"/>
         <v>3.6</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>43</v>
       </c>
       <c r="L35" s="1">
-        <f>(G35-D35)*H35</f>
+        <f t="shared" si="1"/>
         <v>-3000</v>
       </c>
       <c r="M35" s="1" t="s">
@@ -3590,14 +3609,14 @@
         <v>25</v>
       </c>
       <c r="S35" s="1">
-        <f>L35</f>
+        <f t="shared" si="6"/>
         <v>-3000</v>
       </c>
       <c r="T35" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U35" s="1">
-        <f>H35*D35</f>
+        <f t="shared" si="7"/>
         <v>76200</v>
       </c>
     </row>
@@ -3627,18 +3646,18 @@
         <v>42</v>
       </c>
       <c r="I36" s="1">
-        <f>(D36-E36)*H36</f>
+        <f t="shared" si="4"/>
         <v>2856</v>
       </c>
       <c r="J36" s="1">
-        <f>(F36-D36)/(D36-E36)</f>
+        <f t="shared" si="5"/>
         <v>4.867647058823529</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>43</v>
       </c>
       <c r="L36" s="1">
-        <f>(G36-D36)*H36</f>
+        <f t="shared" si="1"/>
         <v>-84</v>
       </c>
       <c r="M36" s="1" t="s">
@@ -3654,14 +3673,14 @@
         <v>25</v>
       </c>
       <c r="S36" s="1">
-        <f>L36</f>
+        <f t="shared" si="6"/>
         <v>-84</v>
       </c>
       <c r="T36" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U36" s="1">
-        <f>H36*D36</f>
+        <f t="shared" si="7"/>
         <v>81606</v>
       </c>
     </row>
@@ -3691,18 +3710,18 @@
         <v>150</v>
       </c>
       <c r="I37" s="1">
-        <f>(D37-E37)*H37</f>
+        <f t="shared" si="4"/>
         <v>2932.5000000000018</v>
       </c>
       <c r="J37" s="1">
-        <f>(F37-D37)/(D37-E37)</f>
+        <f t="shared" si="5"/>
         <v>3.6061381074168777</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>46</v>
       </c>
       <c r="L37" s="1">
-        <f>(G37-D37)*H37</f>
+        <f t="shared" si="1"/>
         <v>113.99999999999864</v>
       </c>
       <c r="M37" s="1" t="s">
@@ -3720,14 +3739,14 @@
         <v>25</v>
       </c>
       <c r="S37" s="1">
-        <f>L37</f>
+        <f t="shared" si="6"/>
         <v>113.99999999999864</v>
       </c>
       <c r="T37" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U37" s="1">
-        <f>H37*D37</f>
+        <f t="shared" si="7"/>
         <v>61275</v>
       </c>
     </row>
@@ -3761,7 +3780,7 @@
         <v>598.74000000000046</v>
       </c>
       <c r="J38" s="1">
-        <f>(F38-D38)/(D38-E38)</f>
+        <f t="shared" si="5"/>
         <v>1.952867688813172</v>
       </c>
       <c r="K38" s="1" t="s">
@@ -3786,14 +3805,14 @@
         <v>25</v>
       </c>
       <c r="S38" s="1">
-        <f>L38</f>
+        <f t="shared" si="6"/>
         <v>-598.74000000000046</v>
       </c>
       <c r="T38" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U38" s="1">
-        <f>H38*D38</f>
+        <f t="shared" si="7"/>
         <v>21569.26</v>
       </c>
     </row>
@@ -3823,11 +3842,11 @@
         <v>86</v>
       </c>
       <c r="I39" s="1">
-        <f>(D39-E39)*H39</f>
+        <f t="shared" ref="I39:I60" si="8">(D39-E39)*H39</f>
         <v>3182</v>
       </c>
       <c r="J39" s="1">
-        <f>(F39-D39)/(D39-E39)</f>
+        <f t="shared" si="5"/>
         <v>2.6486486486486487</v>
       </c>
       <c r="K39" s="1" t="s">
@@ -3848,14 +3867,14 @@
         <v>25</v>
       </c>
       <c r="S39" s="1">
-        <f>L39</f>
+        <f t="shared" si="6"/>
         <v>-306.15999999999531</v>
       </c>
       <c r="T39" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U39" s="1">
-        <f>H39*D39</f>
+        <f t="shared" si="7"/>
         <v>56072</v>
       </c>
     </row>
@@ -3872,7 +3891,9 @@
       <c r="D40" s="1">
         <v>924.79</v>
       </c>
-      <c r="E40" s="1"/>
+      <c r="E40" s="1">
+        <v>875.77</v>
+      </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1">
         <v>875.77</v>
@@ -3882,11 +3903,11 @@
       </c>
       <c r="I40" s="1">
         <f>(D40-E40)*H40</f>
-        <v>102651.69</v>
+        <v>5441.2199999999975</v>
       </c>
       <c r="J40" s="1">
         <f>(F40-D40)/(D40-E40)</f>
-        <v>-1</v>
+        <v>-18.865565075479402</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>43</v>
@@ -3906,14 +3927,14 @@
         <v>25</v>
       </c>
       <c r="S40" s="1">
-        <f>L40</f>
+        <f t="shared" si="6"/>
         <v>-5441.2199999999975</v>
       </c>
       <c r="T40" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U40" s="1">
-        <f>H40*D40</f>
+        <f t="shared" si="7"/>
         <v>102651.69</v>
       </c>
     </row>
@@ -3957,12 +3978,12 @@
         <v>25</v>
       </c>
       <c r="S41" s="1">
-        <f>L41</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T41" s="1"/>
       <c r="U41" s="1">
-        <f>H41*D41</f>
+        <f t="shared" si="7"/>
         <v>83620</v>
       </c>
     </row>
@@ -3979,7 +4000,9 @@
       <c r="D42" s="1">
         <v>1050.5</v>
       </c>
-      <c r="E42" s="1"/>
+      <c r="E42" s="1">
+        <v>995.07</v>
+      </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1">
         <v>995.07</v>
@@ -3989,21 +4012,25 @@
       </c>
       <c r="I42" s="1">
         <f>(D42-E42)*H42</f>
-        <v>97696.5</v>
+        <v>5154.9899999999952</v>
       </c>
       <c r="J42" s="1">
         <f>(F42-D42)/(D42-E42)</f>
-        <v>-1</v>
+        <v>-18.951831138372739</v>
       </c>
       <c r="K42" s="1" t="s">
         <v>43</v>
       </c>
       <c r="L42" s="1">
-        <f>(G42-D42)*H42</f>
+        <f t="shared" ref="L42:L52" si="9">(G42-D42)*H42</f>
         <v>-5154.9899999999952</v>
       </c>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
+      <c r="M42" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="1" t="s">
@@ -4013,14 +4040,14 @@
         <v>25</v>
       </c>
       <c r="S42" s="1">
-        <f>L42</f>
+        <f t="shared" si="6"/>
         <v>-5154.9899999999952</v>
       </c>
       <c r="T42" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U42" s="1">
-        <f>H42*D42</f>
+        <f t="shared" si="7"/>
         <v>97696.5</v>
       </c>
     </row>
@@ -4037,7 +4064,9 @@
       <c r="D43" s="1">
         <v>235.84</v>
       </c>
-      <c r="E43" s="1"/>
+      <c r="E43" s="1">
+        <v>219.77</v>
+      </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1">
         <v>219.77</v>
@@ -4047,21 +4076,25 @@
       </c>
       <c r="I43" s="1">
         <f>(D43-E43)*H43</f>
-        <v>78534.720000000001</v>
+        <v>5351.3099999999977</v>
       </c>
       <c r="J43" s="1">
         <f>(F43-D43)/(D43-E43)</f>
-        <v>-1</v>
+        <v>-14.675793403858128</v>
       </c>
       <c r="K43" s="1" t="s">
         <v>43</v>
       </c>
       <c r="L43" s="1">
-        <f>(G43-D43)*H43</f>
+        <f t="shared" si="9"/>
         <v>-5351.3099999999977</v>
       </c>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
+      <c r="M43" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
       <c r="Q43" s="1" t="s">
@@ -4071,14 +4104,14 @@
         <v>25</v>
       </c>
       <c r="S43" s="1">
-        <f>L43</f>
+        <f t="shared" si="6"/>
         <v>-5351.3099999999977</v>
       </c>
       <c r="T43" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U43" s="1">
-        <f>H43*D43</f>
+        <f t="shared" si="7"/>
         <v>78534.720000000001</v>
       </c>
     </row>
@@ -4095,7 +4128,9 @@
       <c r="D44" s="1">
         <v>219</v>
       </c>
-      <c r="E44" s="1"/>
+      <c r="E44" s="1">
+        <v>209.26</v>
+      </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1">
         <v>209.26</v>
@@ -4105,21 +4140,25 @@
       </c>
       <c r="I44" s="1">
         <f>(D44-E44)*H44</f>
-        <v>109500</v>
+        <v>4870.0000000000045</v>
       </c>
       <c r="J44" s="1">
         <f>(F44-D44)/(D44-E44)</f>
-        <v>-1</v>
+        <v>-22.484599589322361</v>
       </c>
       <c r="K44" s="1" t="s">
         <v>43</v>
       </c>
       <c r="L44" s="1">
-        <f>(G44-D44)*H44</f>
+        <f t="shared" si="9"/>
         <v>-4870.0000000000045</v>
       </c>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
+      <c r="M44" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
       <c r="Q44" s="1" t="s">
@@ -4129,14 +4168,14 @@
         <v>25</v>
       </c>
       <c r="S44" s="1">
-        <f>L44</f>
+        <f t="shared" si="6"/>
         <v>-4870.0000000000045</v>
       </c>
       <c r="T44" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U44" s="1">
-        <f>H44*D44</f>
+        <f t="shared" si="7"/>
         <v>109500</v>
       </c>
     </row>
@@ -4167,22 +4206,26 @@
         <v>80</v>
       </c>
       <c r="I45" s="1">
-        <f>(D45-E45)*H45</f>
+        <f t="shared" si="8"/>
         <v>4992.8000000000065</v>
       </c>
       <c r="J45" s="1">
-        <f>(F45-D45)/(D45-E45)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="K45" s="1" t="s">
         <v>43</v>
       </c>
       <c r="L45" s="1">
-        <f>(G45-D45)*H45</f>
+        <f t="shared" si="9"/>
         <v>-4992.8000000000065</v>
       </c>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
+      <c r="M45" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
       <c r="Q45" s="1" t="s">
@@ -4192,14 +4235,14 @@
         <v>25</v>
       </c>
       <c r="S45" s="1">
-        <f>L45</f>
+        <f t="shared" si="6"/>
         <v>-4992.8000000000065</v>
       </c>
       <c r="T45" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U45" s="1">
-        <f>H45*D45</f>
+        <f t="shared" si="7"/>
         <v>99480</v>
       </c>
     </row>
@@ -4216,7 +4259,9 @@
       <c r="D46" s="1">
         <v>937.5</v>
       </c>
-      <c r="E46" s="1"/>
+      <c r="E46" s="1">
+        <v>891.55</v>
+      </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1">
         <v>891.55</v>
@@ -4225,22 +4270,26 @@
         <v>109</v>
       </c>
       <c r="I46" s="1">
-        <f>(D46-E46)*H46</f>
-        <v>102187.5</v>
+        <f t="shared" si="8"/>
+        <v>5008.5500000000047</v>
       </c>
       <c r="J46" s="1">
-        <f>(F46-D46)/(D46-E46)</f>
-        <v>-1</v>
+        <f t="shared" si="5"/>
+        <v>-20.402611534276367</v>
       </c>
       <c r="K46" s="1" t="s">
         <v>43</v>
       </c>
       <c r="L46" s="1">
-        <f>(G46-D46)*H46</f>
+        <f t="shared" si="9"/>
         <v>-5008.5500000000047</v>
       </c>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
+      <c r="M46" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
       <c r="Q46" s="1" t="s">
@@ -4250,14 +4299,14 @@
         <v>25</v>
       </c>
       <c r="S46" s="1">
-        <f>L46</f>
+        <f t="shared" si="6"/>
         <v>-5008.5500000000047</v>
       </c>
       <c r="T46" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U46" s="1">
-        <f>H46*D46</f>
+        <f t="shared" si="7"/>
         <v>102187.5</v>
       </c>
     </row>
@@ -4288,22 +4337,26 @@
         <v>250</v>
       </c>
       <c r="I47" s="1">
-        <f>(D47-E47)*H47</f>
+        <f t="shared" si="8"/>
         <v>5304.9999999999927</v>
       </c>
       <c r="J47" s="1">
-        <f>(F47-D47)/(D47-E47)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="K47" s="1" t="s">
         <v>43</v>
       </c>
       <c r="L47" s="1">
-        <f>(G47-D47)*H47</f>
+        <f t="shared" si="9"/>
         <v>-5304.9999999999927</v>
       </c>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
+      <c r="M47" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
       <c r="Q47" s="1" t="s">
@@ -4313,14 +4366,14 @@
         <v>25</v>
       </c>
       <c r="S47" s="1">
-        <f>L47</f>
+        <f t="shared" si="6"/>
         <v>-5304.9999999999927</v>
       </c>
       <c r="T47" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U47" s="1">
-        <f>H47*D47</f>
+        <f t="shared" si="7"/>
         <v>84862.5</v>
       </c>
     </row>
@@ -4337,7 +4390,9 @@
       <c r="D48" s="1">
         <v>3650</v>
       </c>
-      <c r="E48" s="1"/>
+      <c r="E48" s="1">
+        <v>3498.2</v>
+      </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1">
         <v>3498.2</v>
@@ -4346,22 +4401,26 @@
         <v>33</v>
       </c>
       <c r="I48" s="1">
-        <f>(D48-E48)*H48</f>
-        <v>120450</v>
+        <f t="shared" si="8"/>
+        <v>5009.400000000006</v>
       </c>
       <c r="J48" s="1">
-        <f>(F48-D48)/(D48-E48)</f>
-        <v>-1</v>
+        <f t="shared" si="5"/>
+        <v>-24.04479578392619</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>43</v>
       </c>
       <c r="L48" s="1">
-        <f>(G48-D48)*H48</f>
+        <f t="shared" si="9"/>
         <v>-5009.400000000006</v>
       </c>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
+      <c r="M48" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
       <c r="Q48" s="1" t="s">
@@ -4371,14 +4430,14 @@
         <v>25</v>
       </c>
       <c r="S48" s="1">
-        <f>L48</f>
+        <f t="shared" si="6"/>
         <v>-5009.400000000006</v>
       </c>
       <c r="T48" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U48" s="1">
-        <f>H48*D48</f>
+        <f t="shared" si="7"/>
         <v>120450</v>
       </c>
     </row>
@@ -4404,22 +4463,26 @@
         <v>24</v>
       </c>
       <c r="I49" s="1">
-        <f>(D49-E49)*H49</f>
+        <f t="shared" si="8"/>
         <v>126000</v>
       </c>
       <c r="J49" s="1">
-        <f>(F49-D49)/(D49-E49)</f>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
       <c r="K49" s="1" t="s">
         <v>46</v>
       </c>
       <c r="L49" s="1">
-        <f>(G49-D49)*H49</f>
+        <f t="shared" si="9"/>
         <v>3376.0800000000017</v>
       </c>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
+      <c r="M49" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
       <c r="Q49" s="1" t="s">
@@ -4429,14 +4492,14 @@
         <v>25</v>
       </c>
       <c r="S49" s="1">
-        <f>L49</f>
+        <f t="shared" si="6"/>
         <v>3376.0800000000017</v>
       </c>
       <c r="T49" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U49" s="1">
-        <f>H49*D49</f>
+        <f t="shared" si="7"/>
         <v>126000</v>
       </c>
     </row>
@@ -4453,7 +4516,9 @@
       <c r="D50" s="1">
         <v>393.5</v>
       </c>
-      <c r="E50" s="1"/>
+      <c r="E50" s="1">
+        <v>374.55</v>
+      </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1">
         <v>374.55</v>
@@ -4462,22 +4527,26 @@
         <v>250</v>
       </c>
       <c r="I50" s="1">
-        <f>(D50-E50)*H50</f>
-        <v>98375</v>
+        <f t="shared" si="8"/>
+        <v>4737.4999999999973</v>
       </c>
       <c r="J50" s="1">
-        <f>(F50-D50)/(D50-E50)</f>
-        <v>-1</v>
+        <f t="shared" si="5"/>
+        <v>-20.765171503957795</v>
       </c>
       <c r="K50" s="1" t="s">
         <v>43</v>
       </c>
       <c r="L50" s="1">
-        <f>(G50-D50)*H50</f>
+        <f t="shared" si="9"/>
         <v>-4737.4999999999973</v>
       </c>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
+      <c r="M50" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
       <c r="Q50" s="1" t="s">
@@ -4487,14 +4556,14 @@
         <v>25</v>
       </c>
       <c r="S50" s="1">
-        <f>L50</f>
+        <f t="shared" si="6"/>
         <v>-4737.4999999999973</v>
       </c>
       <c r="T50" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U50" s="1">
-        <f>H50*D50</f>
+        <f t="shared" si="7"/>
         <v>98375</v>
       </c>
     </row>
@@ -4511,7 +4580,9 @@
       <c r="D51" s="1">
         <v>1220.73</v>
       </c>
-      <c r="E51" s="1"/>
+      <c r="E51" s="1">
+        <v>1180.23</v>
+      </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1">
         <v>1180.23</v>
@@ -4520,22 +4591,26 @@
         <v>100</v>
       </c>
       <c r="I51" s="1">
-        <f>(D51-E51)*H51</f>
-        <v>122073</v>
+        <f t="shared" si="8"/>
+        <v>4050</v>
       </c>
       <c r="J51" s="1">
-        <f>(F51-D51)/(D51-E51)</f>
-        <v>-1</v>
+        <f t="shared" si="5"/>
+        <v>-30.141481481481481</v>
       </c>
       <c r="K51" s="1" t="s">
         <v>43</v>
       </c>
       <c r="L51" s="1">
-        <f>(G51-D51)*H51</f>
+        <f t="shared" si="9"/>
         <v>-4050</v>
       </c>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
+      <c r="M51" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
       <c r="Q51" s="1" t="s">
@@ -4545,14 +4620,14 @@
         <v>25</v>
       </c>
       <c r="S51" s="1">
-        <f>L51</f>
+        <f t="shared" si="6"/>
         <v>-4050</v>
       </c>
       <c r="T51" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U51" s="1">
-        <f>H51*D51</f>
+        <f t="shared" si="7"/>
         <v>122073</v>
       </c>
     </row>
@@ -4569,7 +4644,9 @@
       <c r="D52" s="1">
         <v>214.91</v>
       </c>
-      <c r="E52" s="1"/>
+      <c r="E52" s="1">
+        <v>205.97</v>
+      </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1">
         <v>205.97</v>
@@ -4578,22 +4655,26 @@
         <v>568</v>
       </c>
       <c r="I52" s="1">
-        <f>(D52-E52)*H52</f>
-        <v>122068.88</v>
+        <f t="shared" si="8"/>
+        <v>5077.9199999999983</v>
       </c>
       <c r="J52" s="1">
-        <f>(F52-D52)/(D52-E52)</f>
-        <v>-1</v>
+        <f t="shared" si="5"/>
+        <v>-24.039149888143182</v>
       </c>
       <c r="K52" s="1" t="s">
         <v>43</v>
       </c>
       <c r="L52" s="1">
-        <f>(G52-D52)*H52</f>
+        <f t="shared" si="9"/>
         <v>-5077.9199999999983</v>
       </c>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
+      <c r="M52" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
       <c r="Q52" s="1" t="s">
@@ -4603,14 +4684,14 @@
         <v>25</v>
       </c>
       <c r="S52" s="1">
-        <f>L52</f>
+        <f t="shared" si="6"/>
         <v>-5077.9199999999983</v>
       </c>
       <c r="T52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U52" s="1">
-        <f>H52*D52</f>
+        <f t="shared" si="7"/>
         <v>122068.88</v>
       </c>
     </row>
@@ -4634,11 +4715,11 @@
         <v>156</v>
       </c>
       <c r="I53" s="1">
-        <f>(D53-E53)*H53</f>
+        <f t="shared" si="8"/>
         <v>112476</v>
       </c>
       <c r="J53" s="1">
-        <f>(F53-D53)/(D53-E53)</f>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
       <c r="K53" s="1"/>
@@ -4654,12 +4735,12 @@
         <v>25</v>
       </c>
       <c r="S53" s="1">
-        <f>L53</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T53" s="1"/>
       <c r="U53" s="1">
-        <f>H53*D53</f>
+        <f t="shared" si="7"/>
         <v>112476</v>
       </c>
     </row>
@@ -4683,16 +4764,18 @@
         <v>720</v>
       </c>
       <c r="I54" s="1">
-        <f>(D54-E54)*H54</f>
+        <f t="shared" si="8"/>
         <v>117352.8</v>
       </c>
       <c r="J54" s="1">
-        <f>(F54-D54)/(D54-E54)</f>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
+      <c r="M54" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
@@ -4703,12 +4786,12 @@
         <v>25</v>
       </c>
       <c r="S54" s="1">
-        <f>L54</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T54" s="1"/>
       <c r="U54" s="1">
-        <f>H54*D54</f>
+        <f t="shared" si="7"/>
         <v>117352.8</v>
       </c>
     </row>
@@ -4725,7 +4808,9 @@
       <c r="D55" s="1">
         <v>808</v>
       </c>
-      <c r="E55" s="1"/>
+      <c r="E55" s="1">
+        <v>775.05</v>
+      </c>
       <c r="F55" s="1"/>
       <c r="G55" s="1">
         <v>775.05</v>
@@ -4734,18 +4819,18 @@
         <v>147</v>
       </c>
       <c r="I55" s="1">
-        <f>(D55-E55)*H55</f>
-        <v>118776</v>
+        <f t="shared" si="8"/>
+        <v>4843.6500000000069</v>
       </c>
       <c r="J55" s="1">
-        <f>(F55-D55)/(D55-E55)</f>
-        <v>-1</v>
+        <f t="shared" si="5"/>
+        <v>-24.522003034901331</v>
       </c>
       <c r="K55" s="1" t="s">
         <v>43</v>
       </c>
       <c r="L55" s="1">
-        <f t="shared" ref="L55:L57" si="0">(G55-D55)*H55</f>
+        <f t="shared" ref="L55:L56" si="10">(G55-D55)*H55</f>
         <v>-4843.6500000000069</v>
       </c>
       <c r="M55" s="1" t="s">
@@ -4763,14 +4848,14 @@
         <v>25</v>
       </c>
       <c r="S55" s="1">
-        <f>L55</f>
+        <f t="shared" si="6"/>
         <v>-4843.6500000000069</v>
       </c>
       <c r="T55" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U55" s="1">
-        <f>H55*D55</f>
+        <f t="shared" si="7"/>
         <v>118776</v>
       </c>
     </row>
@@ -4787,24 +4872,37 @@
       <c r="D56" s="1">
         <v>645.5</v>
       </c>
-      <c r="E56" s="1"/>
+      <c r="E56" s="1">
+        <v>612.47</v>
+      </c>
       <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
+      <c r="G56" s="1">
+        <v>612.47</v>
+      </c>
       <c r="H56" s="1">
         <v>156</v>
       </c>
       <c r="I56" s="1">
-        <f>(D56-E56)*H56</f>
-        <v>100698</v>
+        <f t="shared" si="8"/>
+        <v>5152.6799999999957</v>
       </c>
       <c r="J56" s="1">
-        <f>(F56-D56)/(D56-E56)</f>
-        <v>-1</v>
-      </c>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
+        <f t="shared" si="5"/>
+        <v>-19.542839842567378</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L56" s="1">
+        <f t="shared" si="10"/>
+        <v>-5152.6799999999957</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
       <c r="Q56" s="1" t="s">
@@ -4814,12 +4912,14 @@
         <v>25</v>
       </c>
       <c r="S56" s="1">
-        <f>L56</f>
-        <v>0</v>
-      </c>
-      <c r="T56" s="1"/>
+        <f t="shared" si="6"/>
+        <v>-5152.6799999999957</v>
+      </c>
+      <c r="T56" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="U56" s="1">
-        <f>H56*D56</f>
+        <f t="shared" si="7"/>
         <v>100698</v>
       </c>
     </row>
@@ -4843,16 +4943,18 @@
         <v>862</v>
       </c>
       <c r="I57" s="1">
-        <f>(D57-E57)*H57</f>
+        <f t="shared" si="8"/>
         <v>98311.099999999991</v>
       </c>
       <c r="J57" s="1">
-        <f>(F57-D57)/(D57-E57)</f>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
+      <c r="M57" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
@@ -4863,12 +4965,12 @@
         <v>25</v>
       </c>
       <c r="S57" s="1">
-        <f>L57</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T57" s="1"/>
       <c r="U57" s="1">
-        <f>H57*D57</f>
+        <f t="shared" si="7"/>
         <v>98311.099999999991</v>
       </c>
     </row>
@@ -4894,11 +4996,11 @@
         <v>100</v>
       </c>
       <c r="I58" s="1">
-        <f>(D58-E58)*H58</f>
+        <f t="shared" si="8"/>
         <v>117800</v>
       </c>
       <c r="J58" s="1">
-        <f>(F58-D58)/(D58-E58)</f>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
       <c r="K58" s="1" t="s">
@@ -4925,14 +5027,14 @@
         <v>25</v>
       </c>
       <c r="S58" s="1">
-        <f>L58</f>
+        <f t="shared" si="6"/>
         <v>-5543.0000000000064</v>
       </c>
       <c r="T58" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U58" s="1">
-        <f>H58*D58</f>
+        <f t="shared" si="7"/>
         <v>117800</v>
       </c>
     </row>
@@ -4956,11 +5058,11 @@
         <v>1462</v>
       </c>
       <c r="I59" s="1">
-        <f>(D59-E59)*H59</f>
+        <f t="shared" si="8"/>
         <v>166521.80000000002</v>
       </c>
       <c r="J59" s="1">
-        <f>(F59-D59)/(D59-E59)</f>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
       <c r="K59" s="1"/>
@@ -4976,12 +5078,12 @@
         <v>25</v>
       </c>
       <c r="S59" s="1">
-        <f>L59</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T59" s="1"/>
       <c r="U59" s="1">
-        <f>H59*D59</f>
+        <f t="shared" si="7"/>
         <v>166521.80000000002</v>
       </c>
     </row>
@@ -5007,18 +5109,18 @@
         <v>745</v>
       </c>
       <c r="I60" s="1">
-        <f>(D60-E60)*H60</f>
+        <f t="shared" si="8"/>
         <v>119296.84999999999</v>
       </c>
       <c r="J60" s="1">
-        <f>(F60-D60)/(D60-E60)</f>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
       <c r="K60" s="1" t="s">
         <v>43</v>
       </c>
       <c r="L60" s="1">
-        <f t="shared" ref="L59:L62" si="1">(G60-D60)*H60</f>
+        <f t="shared" ref="L60:L65" si="11">(G60-D60)*H60</f>
         <v>-5535.3500000000049</v>
       </c>
       <c r="M60" s="1" t="s">
@@ -5036,14 +5138,14 @@
         <v>25</v>
       </c>
       <c r="S60" s="1">
-        <f>L60</f>
+        <f t="shared" si="6"/>
         <v>-5535.3500000000049</v>
       </c>
       <c r="T60" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U60" s="1">
-        <f>H60*D60</f>
+        <f t="shared" si="7"/>
         <v>119296.84999999999</v>
       </c>
     </row>
@@ -5069,18 +5171,18 @@
         <v>183</v>
       </c>
       <c r="I61" s="1">
-        <f t="shared" ref="I61:I62" si="2">(D61-E61)*H61</f>
+        <f t="shared" ref="I61:I65" si="12">(D61-E61)*H61</f>
         <v>118492.5</v>
       </c>
       <c r="J61" s="1">
-        <f t="shared" ref="J61:J62" si="3">(F61-D61)/(D61-E61)</f>
+        <f t="shared" ref="J61:J65" si="13">(F61-D61)/(D61-E61)</f>
         <v>-1</v>
       </c>
       <c r="K61" s="1" t="s">
         <v>46</v>
       </c>
       <c r="L61" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>15238.409999999996</v>
       </c>
       <c r="M61" s="1" t="s">
@@ -5100,14 +5202,14 @@
         <v>25</v>
       </c>
       <c r="S61" s="1">
-        <f t="shared" ref="S61:S62" si="4">L61</f>
+        <f t="shared" ref="S61:S65" si="14">L61</f>
         <v>15238.409999999996</v>
       </c>
       <c r="T61" s="1" t="s">
         <v>45</v>
       </c>
       <c r="U61" s="1">
-        <f>H61*D61</f>
+        <f t="shared" si="7"/>
         <v>118492.5</v>
       </c>
     </row>
@@ -5131,16 +5233,18 @@
         <v>87</v>
       </c>
       <c r="I62" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>117885</v>
       </c>
       <c r="J62" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>-1</v>
       </c>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
-      <c r="M62" s="1"/>
+      <c r="M62" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
       <c r="P62" s="1"/>
@@ -5151,13 +5255,175 @@
         <v>25</v>
       </c>
       <c r="S62" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="T62" s="1"/>
       <c r="U62" s="1">
-        <f>H62*D62</f>
+        <f t="shared" si="7"/>
         <v>117885</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A63" s="2">
+        <v>45965</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D63" s="1">
+        <v>1907.05</v>
+      </c>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1">
+        <v>62</v>
+      </c>
+      <c r="I63" s="1">
+        <f t="shared" si="12"/>
+        <v>118237.09999999999</v>
+      </c>
+      <c r="J63" s="1">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="R63" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S63" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T63" s="1"/>
+      <c r="U63" s="1">
+        <f t="shared" si="7"/>
+        <v>118237.09999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A64" s="2">
+        <v>45964</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D64" s="1">
+        <v>2955</v>
+      </c>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1">
+        <v>55</v>
+      </c>
+      <c r="I64" s="1">
+        <f t="shared" si="12"/>
+        <v>162525</v>
+      </c>
+      <c r="J64" s="1">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="R64" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S64" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T64" s="1"/>
+      <c r="U64" s="1">
+        <f t="shared" si="7"/>
+        <v>162525</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A65" s="2">
+        <v>45964</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D65" s="1">
+        <v>227</v>
+      </c>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1">
+        <v>217.41</v>
+      </c>
+      <c r="H65" s="1">
+        <v>533</v>
+      </c>
+      <c r="I65" s="1">
+        <f t="shared" si="12"/>
+        <v>120991</v>
+      </c>
+      <c r="J65" s="1">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L65" s="1">
+        <f t="shared" si="11"/>
+        <v>-5111.4700000000021</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="R65" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S65" s="1">
+        <f t="shared" si="14"/>
+        <v>-5111.4700000000021</v>
+      </c>
+      <c r="T65" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="U65" s="1">
+        <f t="shared" si="7"/>
+        <v>120991</v>
       </c>
     </row>
   </sheetData>
